--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -208,6 +208,88 @@
     <t>店内未装修好</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>小羔羊</t>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羔羊康缘店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨磊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>到锦春东台店实施</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈先生</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦春东台店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔冰冰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森（扬州江都金鹰店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8号到店实施</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>武耀</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼叨叨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>韩小伟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,6 +1039,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,6 +1067,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1256,284 +1356,290 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="16" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="59">
+      <c r="A3" s="58">
         <v>12</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>51</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>4</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>3</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="36">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50">
+      <c r="I3" s="48"/>
+      <c r="J3" s="49">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="50">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="51">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="52">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="60"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36">
+      <c r="A4" s="59"/>
+      <c r="B4" s="33">
+        <v>52</v>
+      </c>
+      <c r="C4" s="34">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2</v>
+      </c>
+      <c r="E4" s="35">
         <f t="shared" ref="E4:E8" si="0">C4-D4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37">
+        <v>3</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="36">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50" t="e">
+      <c r="I4" s="48"/>
+      <c r="J4" s="49">
         <f>I4/L4*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="51">
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="52">
+        <v>5</v>
+      </c>
+      <c r="L4" s="51">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="53" t="e">
+        <v>2</v>
+      </c>
+      <c r="M4" s="52">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="60"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36">
+      <c r="A5" s="59"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37">
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50" t="e">
+      <c r="I5" s="48"/>
+      <c r="J5" s="49" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="53" t="e">
+      <c r="M5" s="52" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="60"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36">
+      <c r="A6" s="59"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37">
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50" t="e">
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="53" t="e">
+      <c r="M6" s="52" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="60"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36">
+      <c r="A7" s="59"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="37">
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50" t="e">
+      <c r="I7" s="48"/>
+      <c r="J7" s="49" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="53" t="e">
+      <c r="M7" s="52" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="61"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41">
+      <c r="A8" s="60"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="42">
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55" t="e">
+      <c r="I8" s="53"/>
+      <c r="J8" s="54" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="58" t="e">
+      <c r="M8" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1552,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -1571,133 +1677,193 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="27">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" s="21" customFormat="1" ht="27">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="65" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="65">
+    <row r="2" spans="1:15" s="64" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="64">
         <v>51</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="65">
         <v>43073</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="62">
         <v>76109183</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="64">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="65">
+      <c r="N2" s="64">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="64" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A3" s="7">
+        <v>52</v>
+      </c>
+      <c r="B3" s="65">
+        <v>43095</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76115178</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="64">
+        <v>18061296271</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="7">
+        <v>18326308555</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="8" customFormat="1">
+      <c r="A4" s="71">
+        <v>52</v>
+      </c>
+      <c r="B4" s="65">
+        <v>43077</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="71">
+        <v>76113166</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="64">
+        <v>18061296272</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="64">
+        <v>13913841691</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
@@ -6740,12 +6906,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G3:G1048576">
-      <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6757,887 +6921,926 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="9"/>
+    <col min="1" max="1" width="8.625" style="8"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="72">
+      <c r="A2" s="77">
         <v>51</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>43080</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="61" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>43080</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="61" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>43083</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="77">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="19">
+        <v>43091</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="19">
+        <v>43090</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="19">
+        <v>43083</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="74"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="73"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="73"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="73"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="73"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="73"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="73"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="74"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="73"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="73"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="73"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="73"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="73"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="73"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="73"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="73"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="73"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="73"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="74"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="73"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="73"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="73"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="73"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="73"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="73"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="73"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="73"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="73"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="73"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="73"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="73"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="74"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="8"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="8"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="73"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="21"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="73"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="73"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="73"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="73"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="73"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="73"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="73"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="74"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
+      <c r="A68" s="80"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="72"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="13"/>
+      <c r="A69" s="78"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="8"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="73"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="8"/>
+      <c r="A71" s="79"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="73"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="21"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="20"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="73"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="73"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="73"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="73"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="73"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="73"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="73"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="A79" s="79"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="74"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
+      <c r="A80" s="80"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="73"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="8"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="73"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="21"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="73"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
+      <c r="A83" s="79"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="73"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
+      <c r="A84" s="79"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="73"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
+      <c r="A85" s="79"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="73"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="73"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
+      <c r="A87" s="79"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="73"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
+      <c r="A88" s="79"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="73"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
+      <c r="A89" s="79"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="74"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
+      <c r="A90" s="80"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A69:A80"/>
     <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A26"/>
     <mergeCell ref="A27:A41"/>
     <mergeCell ref="A42:A56"/>
@@ -7663,7 +7866,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7690,60 +7893,68 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="5">
+        <v>12</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43093</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330"/>
+    <workbookView windowWidth="21300" windowHeight="8922" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,6 +106,101 @@
     <t>新老品牌</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AAS</t>
+    </r>
+  </si>
+  <si>
+    <t>九月红火锅（河西万达店）</t>
+  </si>
+  <si>
+    <t>九月红火锅</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>杨磊</t>
+  </si>
+  <si>
+    <t>朱永超</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>小羔羊康缘店</t>
+  </si>
+  <si>
+    <t>小羔羊</t>
+  </si>
+  <si>
+    <t>陈先生</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>鱼道</t>
+  </si>
+  <si>
+    <t>鱼叨叨</t>
+  </si>
+  <si>
+    <t>韩小伟</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>天长市锦春大酒店有限公司</t>
+  </si>
+  <si>
+    <t>锦春</t>
+  </si>
+  <si>
+    <t>盐城</t>
+  </si>
+  <si>
+    <t>锦春东台店</t>
+  </si>
+  <si>
+    <t>朱总</t>
+  </si>
+  <si>
+    <t>青森食品销售中心</t>
+  </si>
+  <si>
+    <t>小青森</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>小青森（扬州江都金鹰店）</t>
+  </si>
+  <si>
+    <t>秦总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -121,6 +216,39 @@
     <t>销售人员</t>
   </si>
   <si>
+    <t>佳养记百味鸡煲</t>
+  </si>
+  <si>
+    <t>等商户把后厨网线拉好</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>余薇娜</t>
+  </si>
+  <si>
+    <t>佳养记百味鸡煲秦虹路店</t>
+  </si>
+  <si>
+    <t>1月16号到店实施</t>
+  </si>
+  <si>
+    <t>老北京烤肉</t>
+  </si>
+  <si>
+    <t>店铺装修中</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>万彤</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -130,209 +258,21 @@
     <t>加班内容</t>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AAS</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨磊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>SAAS</t>
-  </si>
-  <si>
-    <t>九月红火锅（河西万达店）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>九月红火锅</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品牌</t>
-  </si>
-  <si>
-    <t>朱永超</t>
-  </si>
-  <si>
-    <t>小羔羊康缘店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小羔羊</t>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小羔羊康缘店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨磊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>到锦春东台店实施</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈先生</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦春东台店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小青森（扬州江都金鹰店）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼叨叨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>老品牌</t>
-  </si>
-  <si>
-    <t>韩小伟</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>老北京烤肉</t>
-  </si>
-  <si>
-    <t>店铺装修中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAAS+微信</t>
-  </si>
-  <si>
-    <t>余薇娜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>万彤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AAS</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天长市锦春大酒店有限公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦春</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>盐城</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱总</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>青森食品销售中心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小青森</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦总</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳养记百味鸡煲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳养记百味鸡煲秦虹路店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>单店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月16号到店实施</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>等商户把后厨网线拉好</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,7 +285,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -354,20 +300,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -375,7 +318,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -392,38 +334,165 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,7 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,13 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,8 +547,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -567,19 +822,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -594,8 +836,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,7 +876,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,17 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -725,6 +969,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -795,6 +1050,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -856,25 +1124,254 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +1390,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,57 +1405,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,10 +1543,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,6 +1561,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,6 +1582,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,128 +1615,85 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1405,480 +1955,480 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="16" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.12612612612613" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.12612612612613" style="9" customWidth="1"/>
+    <col min="3" max="4" width="16.2522522522523" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.7477477477477" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.8738738738739" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5045045045045" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8738738738739" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8738738738739" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.8738738738739" style="48" customWidth="1"/>
+    <col min="11" max="11" width="16" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.8738738738739" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.6216216216216" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" ht="15.75" spans="1:13">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="81"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="74"/>
+    </row>
+    <row r="2" ht="14.85" spans="1:13">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="77">
+      <c r="A3" s="57">
         <v>12</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="58">
         <v>51</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="59">
         <v>4</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="60">
         <v>1</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="60">
         <v>3</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="61">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49">
+      <c r="I3" s="80"/>
+      <c r="J3" s="81">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="82">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="83">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="84">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="77"/>
-      <c r="B4" s="33">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58">
         <v>52</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="59">
         <v>5</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="60">
         <v>2</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="60">
         <f t="shared" ref="E4:E8" si="0">C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36">
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="61">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49">
+      <c r="I4" s="80"/>
+      <c r="J4" s="81">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="82">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="83">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="84">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="82">
+      <c r="A5" s="63">
         <v>1</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="59">
         <v>2</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="60">
         <v>2</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="60">
         <v>2</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36">
-        <f>F5-G5</f>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="61">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49">
+      <c r="I5" s="80"/>
+      <c r="J5" s="81">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="50">
-        <f>C5+G5</f>
+      <c r="K5" s="82">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="51">
-        <f>D5+G5</f>
+      <c r="L5" s="83">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="52">
-        <f>L5/K5*100%</f>
+      <c r="M5" s="84">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="82"/>
-      <c r="B6" s="33">
+      <c r="A6" s="63"/>
+      <c r="B6" s="58">
         <v>2</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="59">
         <v>5</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="60">
         <v>2</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="60">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36">
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49">
+      <c r="I6" s="80"/>
+      <c r="J6" s="81">
         <f t="shared" ref="J6:J8" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="82">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="83">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="84">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="82"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49" t="e">
+      <c r="I7" s="80"/>
+      <c r="J7" s="81" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="52" t="e">
+      <c r="M7" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40">
+    <row r="8" ht="14.85" spans="1:13">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41">
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54" t="e">
+      <c r="I8" s="85"/>
+      <c r="J8" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="57" t="e">
+      <c r="M8" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="58"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="70"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="59"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35">
+      <c r="A10" s="71"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60">
         <f t="shared" ref="E10" si="6">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="61">
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49" t="e">
+      <c r="I10" s="80"/>
+      <c r="J10" s="81" t="e">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="82">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="83">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="52" t="e">
+      <c r="M10" s="84" t="e">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="59"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35">
+      <c r="A11" s="71"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60">
         <f t="shared" ref="E11:E14" si="12">C11-D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="36">
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="61">
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49" t="e">
+      <c r="I11" s="80"/>
+      <c r="J11" s="81" t="e">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="82">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="83">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="52" t="e">
+      <c r="M11" s="84" t="e">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="59"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35">
+      <c r="A12" s="71"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36">
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="61">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49" t="e">
+      <c r="I12" s="80"/>
+      <c r="J12" s="81" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="83">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="52" t="e">
+      <c r="M12" s="84" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="59"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35">
+      <c r="A13" s="71"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="36">
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="61">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49" t="e">
+      <c r="I13" s="80"/>
+      <c r="J13" s="81" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="83">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="52" t="e">
+      <c r="M13" s="84" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40">
+    <row r="14" ht="14.85" spans="1:13">
+      <c r="A14" s="72"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41">
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54" t="e">
+      <c r="I14" s="85"/>
+      <c r="J14" s="86" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="88">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="57" t="e">
+      <c r="M14" s="89" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -1888,320 +2438,322 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A8"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.74774774774775" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="12.8738738738739" customWidth="1"/>
+    <col min="2" max="2" width="11.5045045045045" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.5045045045045" customWidth="1"/>
+    <col min="4" max="4" width="22.2522522522523" customWidth="1"/>
+    <col min="5" max="5" width="20.7477477477477" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="10.2522522522523" customWidth="1"/>
+    <col min="8" max="8" width="23.8738738738739" customWidth="1"/>
+    <col min="9" max="9" width="9.87387387387387" customWidth="1"/>
+    <col min="10" max="10" width="13.8738738738739" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="27">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="31" customFormat="1" ht="28.3" spans="1:15">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="69">
+    <row r="2" s="32" customFormat="1" ht="25.5" customHeight="1" spans="1:15">
+      <c r="A2" s="32">
         <v>51</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="39">
         <v>43073</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="40">
+        <v>76109183</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="32">
+        <v>18061296271</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="32">
+        <v>13812966236</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" s="33" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A3" s="41">
+        <v>52</v>
+      </c>
+      <c r="B3" s="39">
+        <v>43095</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="E3" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="41">
+        <v>76115178</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="32">
+        <v>18061296271</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="41">
+        <v>18326308555</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="33" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A4" s="41">
+        <v>52</v>
+      </c>
+      <c r="B4" s="39">
+        <v>43077</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="41">
+        <v>76113166</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="32">
+        <v>18061296271</v>
+      </c>
+      <c r="L4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="M4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="32">
+        <v>13913841691</v>
+      </c>
+      <c r="O4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="71">
-        <v>76109183</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="69">
+    </row>
+    <row r="5" s="33" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="43">
+        <v>43105</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="44">
+        <v>76119036</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="32">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="69" t="s">
+      <c r="L5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="69">
-        <v>13812966236</v>
-      </c>
-      <c r="O2" s="69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="75" customFormat="1">
-      <c r="A3" s="73">
+      <c r="N5" s="44">
+        <v>13655118116</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="33" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A6" s="41">
+        <v>2</v>
+      </c>
+      <c r="B6" s="43">
+        <v>43105</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="70">
-        <v>43095</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="73">
-        <v>76115178</v>
-      </c>
-      <c r="H3" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="69">
+      <c r="G6" s="44">
+        <v>76120311</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="32">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="69" t="s">
+      <c r="L6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="73">
-        <v>18326308555</v>
-      </c>
-      <c r="O3" s="73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="75" customFormat="1">
-      <c r="A4" s="73">
-        <v>52</v>
-      </c>
-      <c r="B4" s="70">
-        <v>43077</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="73">
-        <v>76113166</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="69">
-        <v>18061296271</v>
-      </c>
-      <c r="L4" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="69">
-        <v>13913841691</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="75" customFormat="1">
-      <c r="A5" s="73">
-        <v>2</v>
-      </c>
-      <c r="B5" s="76">
-        <v>43102</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="71">
-        <v>76119036</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="69">
-        <v>18061296271</v>
-      </c>
-      <c r="L5" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="71">
-        <v>13655118116</v>
-      </c>
-      <c r="O5" s="73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="75" customFormat="1">
-      <c r="A6" s="73">
-        <v>2</v>
-      </c>
-      <c r="B6" s="76">
-        <v>43099</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="71">
-        <v>76120311</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="69">
-        <v>18061296271</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="71">
+      <c r="M6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="44">
         <v>15150815370</v>
       </c>
-      <c r="O6" s="73" t="s">
-        <v>60</v>
+      <c r="O6" s="41" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2218,7 +2770,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2235,7 +2787,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2252,7 +2804,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2269,7 +2821,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2286,7 +2838,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2303,7 +2855,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2320,7 +2872,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2337,7 +2889,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2354,7 +2906,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2371,7 +2923,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2388,7 +2940,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2405,7 +2957,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2422,7 +2974,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2439,7 +2991,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2456,7 +3008,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2473,7 +3025,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2490,7 +3042,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2507,7 +3059,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2524,7 +3076,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2541,7 +3093,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2558,7 +3110,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2575,7 +3127,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2592,7 +3144,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2609,7 +3161,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2626,7 +3178,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2643,7 +3195,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2660,7 +3212,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2677,7 +3229,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2694,7 +3246,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2711,7 +3263,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2728,7 +3280,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2745,7 +3297,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2762,7 +3314,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2779,7 +3331,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2796,7 +3348,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2813,7 +3365,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2830,7 +3382,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2847,7 +3399,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2864,7 +3416,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2881,7 +3433,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2898,7 +3450,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2915,7 +3467,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2932,7 +3484,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2949,7 +3501,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2966,7 +3518,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2983,7 +3535,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3000,7 +3552,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3017,7 +3569,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3034,7 +3586,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3051,7 +3603,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3068,7 +3620,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3085,7 +3637,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3102,7 +3654,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3119,7 +3671,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3136,7 +3688,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3153,7 +3705,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3170,7 +3722,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3187,7 +3739,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3204,7 +3756,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3221,7 +3773,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3238,7 +3790,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3255,7 +3807,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3272,7 +3824,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3289,7 +3841,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3306,7 +3858,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3323,7 +3875,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3340,7 +3892,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3357,7 +3909,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3374,7 +3926,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3391,7 +3943,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3408,7 +3960,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3425,7 +3977,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3442,7 +3994,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3459,7 +4011,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3476,7 +4028,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3493,7 +4045,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3510,7 +4062,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3527,7 +4079,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3544,7 +4096,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3561,7 +4113,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3578,7 +4130,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3595,7 +4147,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3612,7 +4164,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3629,7 +4181,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3646,7 +4198,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3663,7 +4215,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3680,7 +4232,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3697,7 +4249,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3714,7 +4266,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3731,7 +4283,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3748,7 +4300,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3765,7 +4317,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3782,7 +4334,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3799,7 +4351,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3816,7 +4368,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3833,7 +4385,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3850,7 +4402,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3867,7 +4419,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3884,7 +4436,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3901,7 +4453,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3918,7 +4470,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3935,7 +4487,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3952,7 +4504,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3969,7 +4521,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3986,7 +4538,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4003,7 +4555,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4020,7 +4572,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="45"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4037,7 +4589,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="45"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4054,7 +4606,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4071,7 +4623,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4088,7 +4640,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4105,7 +4657,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4122,7 +4674,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4139,7 +4691,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4156,7 +4708,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4173,7 +4725,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="45"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4190,7 +4742,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="45"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4207,7 +4759,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="45"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4224,7 +4776,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="45"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4241,7 +4793,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="45"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4258,7 +4810,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="45"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4275,7 +4827,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="45"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4292,7 +4844,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4309,7 +4861,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4326,7 +4878,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="45"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4343,7 +4895,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4360,7 +4912,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="45"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4377,7 +4929,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4394,7 +4946,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4411,7 +4963,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4428,7 +4980,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="45"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4445,7 +4997,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4462,7 +5014,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4479,7 +5031,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4496,7 +5048,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4513,7 +5065,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="45"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4530,7 +5082,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="45"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4547,7 +5099,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="45"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4564,7 +5116,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="45"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4581,7 +5133,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="45"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4598,7 +5150,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4615,7 +5167,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="45"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4632,7 +5184,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="45"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4649,7 +5201,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="45"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4666,7 +5218,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="45"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4683,7 +5235,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="45"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4700,7 +5252,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="45"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4717,7 +5269,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="45"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4734,7 +5286,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="45"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4751,7 +5303,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="45"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4768,7 +5320,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="45"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4785,7 +5337,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="45"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4802,7 +5354,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="45"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4819,7 +5371,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="45"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4836,7 +5388,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="45"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4853,7 +5405,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4870,7 +5422,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="45"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4887,7 +5439,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="45"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4904,7 +5456,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="45"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4921,7 +5473,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="45"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4938,7 +5490,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="45"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4955,7 +5507,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="45"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4972,7 +5524,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="45"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4989,7 +5541,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="45"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5006,7 +5558,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5023,7 +5575,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5040,7 +5592,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5057,7 +5609,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="45"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5074,7 +5626,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="45"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5091,7 +5643,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="45"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5108,7 +5660,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="45"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5125,7 +5677,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="45"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5142,7 +5694,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="45"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5159,7 +5711,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="45"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5176,7 +5728,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="45"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5193,7 +5745,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="45"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5210,7 +5762,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="45"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5227,7 +5779,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="45"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5244,7 +5796,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="45"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5261,7 +5813,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="45"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5278,7 +5830,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="45"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5295,7 +5847,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="45"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5312,7 +5864,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="45"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5329,7 +5881,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="45"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5346,7 +5898,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="45"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5363,7 +5915,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="45"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5380,7 +5932,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="45"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5397,7 +5949,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="45"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5414,7 +5966,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="45"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5431,7 +5983,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="45"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5448,7 +6000,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="B198" s="45"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5465,7 +6017,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="B199" s="45"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5482,7 +6034,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="B200" s="45"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5499,7 +6051,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="B201" s="45"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5516,7 +6068,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="B202" s="45"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5533,7 +6085,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="45"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5550,7 +6102,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="45"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5567,7 +6119,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="45"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5584,7 +6136,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="B206" s="45"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5601,7 +6153,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="B207" s="45"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5618,7 +6170,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="45"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5635,7 +6187,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="B209" s="45"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5652,7 +6204,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="45"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5669,7 +6221,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="45"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5686,7 +6238,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="B212" s="45"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5703,7 +6255,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="B213" s="45"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5720,7 +6272,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="45"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5737,7 +6289,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="45"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5754,7 +6306,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="45"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5771,7 +6323,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="45"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5788,7 +6340,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="45"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5805,7 +6357,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="B219" s="45"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5822,7 +6374,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="45"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5839,7 +6391,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="B221" s="45"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5856,7 +6408,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="B222" s="45"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5873,7 +6425,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="B223" s="45"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -5890,7 +6442,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="B224" s="45"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -5907,7 +6459,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="45"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -5924,7 +6476,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="45"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -5941,7 +6493,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="B227" s="45"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -5958,7 +6510,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="B228" s="45"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -5975,7 +6527,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="B229" s="45"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -5992,7 +6544,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="B230" s="45"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6009,7 +6561,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+      <c r="B231" s="45"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6026,7 +6578,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="B232" s="45"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6043,7 +6595,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="B233" s="45"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6060,7 +6612,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="B234" s="45"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6077,7 +6629,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="B235" s="45"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6094,7 +6646,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+      <c r="B236" s="45"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6111,7 +6663,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="B237" s="45"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6128,7 +6680,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+      <c r="B238" s="45"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6145,7 +6697,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+      <c r="B239" s="45"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6162,7 +6714,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+      <c r="B240" s="45"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6179,7 +6731,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+      <c r="B241" s="45"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6196,7 +6748,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+      <c r="B242" s="45"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6213,7 +6765,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+      <c r="B243" s="45"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6230,7 +6782,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+      <c r="B244" s="45"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6247,7 +6799,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+      <c r="B245" s="45"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6264,7 +6816,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="B246" s="45"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6281,7 +6833,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+      <c r="B247" s="45"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6298,7 +6850,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+      <c r="B248" s="45"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6315,7 +6867,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+      <c r="B249" s="45"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6332,7 +6884,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+      <c r="B250" s="45"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6349,7 +6901,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+      <c r="B251" s="45"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6366,7 +6918,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
+      <c r="B252" s="45"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6383,7 +6935,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+      <c r="B253" s="45"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6400,7 +6952,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
+      <c r="B254" s="45"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6417,7 +6969,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
+      <c r="B255" s="45"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6434,7 +6986,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
+      <c r="B256" s="45"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6451,7 +7003,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
+      <c r="B257" s="45"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6468,7 +7020,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
+      <c r="B258" s="45"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6485,7 +7037,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
+      <c r="B259" s="45"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6502,7 +7054,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
+      <c r="B260" s="45"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6519,7 +7071,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
+      <c r="B261" s="45"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6536,7 +7088,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
+      <c r="B262" s="45"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6553,7 +7105,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
+      <c r="B263" s="45"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6570,7 +7122,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
+      <c r="B264" s="45"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6587,7 +7139,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
+      <c r="B265" s="45"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6604,7 +7156,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
+      <c r="B266" s="45"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6621,7 +7173,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
+      <c r="B267" s="45"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6638,7 +7190,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
+      <c r="B268" s="45"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6655,7 +7207,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
+      <c r="B269" s="45"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6672,7 +7224,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
+      <c r="B270" s="45"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -6689,7 +7241,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+      <c r="B271" s="45"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -6706,7 +7258,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
+      <c r="B272" s="45"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -6723,7 +7275,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
+      <c r="B273" s="45"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -6740,7 +7292,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
+      <c r="B274" s="45"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -6757,7 +7309,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+      <c r="B275" s="45"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -6774,7 +7326,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
+      <c r="B276" s="45"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -6791,7 +7343,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
+      <c r="B277" s="45"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -6808,7 +7360,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+      <c r="B278" s="45"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -6825,7 +7377,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+      <c r="B279" s="45"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -6842,7 +7394,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+      <c r="B280" s="45"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -6859,7 +7411,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
+      <c r="B281" s="45"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -6876,7 +7428,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+      <c r="B282" s="45"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -6893,7 +7445,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+      <c r="B283" s="45"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -6910,7 +7462,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+      <c r="B284" s="45"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -6927,7 +7479,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
+      <c r="B285" s="45"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -6944,7 +7496,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+      <c r="B286" s="45"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -6961,7 +7513,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+      <c r="B287" s="45"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -6978,7 +7530,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+      <c r="B288" s="45"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -6995,7 +7547,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
+      <c r="B289" s="45"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7012,7 +7564,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
+      <c r="B290" s="45"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7029,7 +7581,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
+      <c r="B291" s="45"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7046,7 +7598,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
+      <c r="B292" s="45"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7063,7 +7615,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+      <c r="B293" s="45"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7080,7 +7632,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
+      <c r="B294" s="45"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7097,7 +7649,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
+      <c r="B295" s="45"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7114,7 +7666,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
+      <c r="B296" s="45"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7131,7 +7683,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
+      <c r="B297" s="45"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7148,7 +7700,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
+      <c r="B298" s="45"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7165,7 +7717,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
+      <c r="B299" s="45"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7182,7 +7734,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
+      <c r="B300" s="45"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7198,7 +7750,6 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -7206,1059 +7757,1062 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G1048576"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="8"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="8.62162162162162" style="9"/>
+    <col min="2" max="2" width="28.5045045045045" customWidth="1"/>
+    <col min="3" max="3" width="12.7477477477477" customWidth="1"/>
+    <col min="4" max="4" width="35.2522522522523" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5045045045045" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.3783783783784" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="14.15" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="84">
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="14.15" spans="1:7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14">
         <v>43102</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="61" t="s">
+    </row>
+    <row r="3" ht="14.15" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="84"/>
-      <c r="B3" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="C3" s="14">
         <v>43102</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="61" t="s">
+    </row>
+    <row r="4" ht="14.15" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43083</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="14.15" spans="1:7">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="14.15" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="84"/>
-      <c r="B4" s="68" t="s">
+      <c r="C6" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19">
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="14.15" spans="1:7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="14">
         <v>43083</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="84">
-        <v>2</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="19">
-        <v>43102</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="84"/>
-      <c r="B6" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="19">
-        <v>43102</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="84"/>
-      <c r="B7" s="68" t="s">
+      <c r="D7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="19">
-        <v>43083</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>66</v>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="65"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" ht="15" spans="1:7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" ht="15" spans="1:7">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" ht="15" spans="1:7">
+      <c r="A16" s="27"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="86"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="86"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="86"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="86"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="86"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="86"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="86"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="86"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="86"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="87"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="12"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="15" spans="1:7">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" ht="15" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="86"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="86"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="86"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="86"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="86"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="86"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="86"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="86"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="86"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="86"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="86"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="86"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="87"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="7"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" ht="15" spans="1:7">
+      <c r="A42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" ht="15" spans="1:7">
+      <c r="A43" s="27"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="86"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="86"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="86"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="86"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="86"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="86"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="86"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="86"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="86"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="86"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="86"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="86"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="87"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="85"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="86"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="86"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="86"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="20"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" ht="15" spans="1:7">
+      <c r="A57" s="23"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" ht="15" spans="1:7">
+      <c r="A58" s="27"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" ht="15" spans="1:7">
+      <c r="A59" s="27"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="15" spans="1:7">
+      <c r="A60" s="27"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="86"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="86"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="86"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="86"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="86"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="86"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="86"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="87"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="86"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="86"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="86"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="20"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" ht="15" spans="1:7">
+      <c r="A69" s="23"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" ht="15" spans="1:7">
+      <c r="A70" s="27"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="15" spans="1:7">
+      <c r="A71" s="27"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" ht="15" spans="1:7">
+      <c r="A72" s="27"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="30"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="86"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="86"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="86"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="86"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="86"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="86"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="86"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="87"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="86"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="86"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="20"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" ht="15" spans="1:7">
+      <c r="A81" s="27"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" ht="15" spans="1:7">
+      <c r="A82" s="27"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="86"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="86"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="86"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="86"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="86"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="86"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="86"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="87"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="A81:A90"/>
     <mergeCell ref="A14:A26"/>
     <mergeCell ref="A27:A41"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A81:A90"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1261261261261" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7477477477477" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="14.85" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5">
         <v>12</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7">
         <v>43093</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="8922" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -111,6 +111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -120,6 +121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AAS</t>
@@ -259,20 +261,64 @@
   </si>
   <si>
     <t>到锦春东台店实施</t>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老北京烤肉</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘动手感</t>
+  </si>
+  <si>
+    <t>生蚝之家</t>
+  </si>
+  <si>
+    <t>未签约</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+  </si>
+  <si>
+    <t>王贵仁宁夏沙坡头店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁宁夏金丰苑店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁北京良乡北关西路店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁怀化国际商贸城店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>余薇娜</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +383,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -344,155 +391,40 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,7 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,13 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,194 +479,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -850,7 +596,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,20 +609,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,255 +856,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,9 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,259 +929,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1955,480 +1414,491 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.12612612612613" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.12612612612613" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.2522522522523" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.7477477477477" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.8738738738739" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5045045045045" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8738738738739" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8738738738739" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.8738738738739" style="48" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="43" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.8738738738739" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.6216216216216" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:13" ht="14.25">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="74"/>
-    </row>
-    <row r="2" ht="14.85" spans="1:13">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="82"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="57">
+      <c r="A3" s="50">
         <v>12</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="51">
         <v>51</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="52">
         <v>4</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="53">
         <v>1</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="53">
         <v>3</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="61">
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="81">
+      <c r="I3" s="69"/>
+      <c r="J3" s="70">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="71">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="83">
+      <c r="L3" s="72">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="73">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51">
         <v>52</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="52">
         <v>5</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="53">
         <v>2</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="53">
         <f t="shared" ref="E4:E8" si="0">C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="61">
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="71">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="83">
+      <c r="L4" s="72">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="73">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="63">
+      <c r="A5" s="83">
         <v>1</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="52">
         <v>2</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="53">
         <v>2</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="53">
         <v>2</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="61">
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81">
+      <c r="I5" s="69"/>
+      <c r="J5" s="70">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="71">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="72">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="73">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="63"/>
-      <c r="B6" s="58">
+      <c r="A6" s="83"/>
+      <c r="B6" s="51">
         <v>2</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="52">
         <v>5</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="53">
         <v>2</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="61">
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81">
+      <c r="I6" s="69"/>
+      <c r="J6" s="70">
         <f t="shared" ref="J6:J8" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="71">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="72">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="73">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="63"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60">
+      <c r="A7" s="83"/>
+      <c r="B7" s="51">
+        <v>3</v>
+      </c>
+      <c r="C7" s="90">
+        <v>4</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0</v>
+      </c>
+      <c r="E7" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="61">
+        <v>4</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81" t="e">
+      <c r="I7" s="69"/>
+      <c r="J7" s="70" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="83">
+        <v>4</v>
+      </c>
+      <c r="L7" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="84" t="e">
+      <c r="M7" s="73">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" ht="14.85" spans="1:13">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="68">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="84"/>
+      <c r="B8" s="56">
+        <v>4</v>
+      </c>
+      <c r="C8" s="91">
+        <v>8</v>
+      </c>
+      <c r="D8" s="58">
+        <v>0</v>
+      </c>
+      <c r="E8" s="58">
+        <v>8</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86" t="e">
+      <c r="I8" s="74"/>
+      <c r="J8" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="88">
+        <v>8</v>
+      </c>
+      <c r="L8" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="89" t="e">
+      <c r="M8" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="70"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="61"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="71"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60">
+      <c r="A10" s="62"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53">
         <f t="shared" ref="E10" si="6">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="61">
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54">
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81" t="e">
+      <c r="I10" s="69"/>
+      <c r="J10" s="70" t="e">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="71">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="83">
+      <c r="L10" s="72">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="84" t="e">
+      <c r="M10" s="73" t="e">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="71"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60">
+      <c r="A11" s="62"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53">
         <f t="shared" ref="E11:E14" si="12">C11-D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="61">
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54">
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81" t="e">
+      <c r="I11" s="69"/>
+      <c r="J11" s="70" t="e">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="82">
+      <c r="K11" s="71">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="83">
+      <c r="L11" s="72">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="84" t="e">
+      <c r="M11" s="73" t="e">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="71"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60">
+      <c r="A12" s="62"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="61">
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81" t="e">
+      <c r="I12" s="69"/>
+      <c r="J12" s="70" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="71">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L12" s="72">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="84" t="e">
+      <c r="M12" s="73" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="71"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60">
+      <c r="A13" s="62"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="61">
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81" t="e">
+      <c r="I13" s="69"/>
+      <c r="J13" s="70" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="71">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L13" s="72">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="84" t="e">
+      <c r="M13" s="73" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" ht="14.85" spans="1:13">
-      <c r="A14" s="72"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67">
+    <row r="14" spans="1:13">
+      <c r="A14" s="63"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="68">
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86" t="e">
+      <c r="I14" s="74"/>
+      <c r="J14" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="76">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="88">
+      <c r="L14" s="77">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="89" t="e">
+      <c r="M14" s="78" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2438,324 +1908,327 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.74774774774775" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8738738738739" customWidth="1"/>
-    <col min="2" max="2" width="11.5045045045045" style="34" customWidth="1"/>
-    <col min="3" max="3" width="11.5045045045045" customWidth="1"/>
-    <col min="4" max="4" width="22.2522522522523" customWidth="1"/>
-    <col min="5" max="5" width="20.7477477477477" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.2522522522523" customWidth="1"/>
-    <col min="8" max="8" width="23.8738738738739" customWidth="1"/>
-    <col min="9" max="9" width="9.87387387387387" customWidth="1"/>
-    <col min="10" max="10" width="13.8738738738739" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="28.3" spans="1:15">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:15" s="26" customFormat="1" ht="27">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" ht="25.5" customHeight="1" spans="1:15">
-      <c r="A2" s="32">
+    <row r="2" spans="1:15" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="27">
         <v>51</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="34">
         <v>43073</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="35">
         <v>76109183</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="27">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="27">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" s="33" customFormat="1" ht="14.15" spans="1:15">
-      <c r="A3" s="41">
+    <row r="3" spans="1:15" s="28" customFormat="1">
+      <c r="A3" s="36">
         <v>52</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <v>43095</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="36">
         <v>76115178</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="27">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="36">
         <v>18326308555</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="33" customFormat="1" ht="14.15" spans="1:15">
-      <c r="A4" s="41">
+    <row r="4" spans="1:15" s="28" customFormat="1">
+      <c r="A4" s="36">
         <v>52</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <v>43077</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="36">
         <v>76113166</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="27">
         <v>18061296271</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="27">
         <v>13913841691</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="33" customFormat="1" ht="14.15" spans="1:15">
-      <c r="A5" s="41">
+    <row r="5" spans="1:15" s="28" customFormat="1">
+      <c r="A5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="38">
         <v>43105</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="39">
         <v>76119036</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="27">
         <v>18061296271</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="39">
         <v>13655118116</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="33" customFormat="1" ht="14.15" spans="1:15">
-      <c r="A6" s="41">
+    <row r="6" spans="1:15" s="28" customFormat="1">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="38">
         <v>43105</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="39">
         <v>76120311</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="27">
         <v>18061296271</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="39">
         <v>15150815370</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="40"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="89" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2769,10 +2242,14 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="89" t="s">
+        <v>75</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2787,7 +2264,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2804,7 +2281,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2821,7 +2298,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2838,7 +2315,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="45"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2855,7 +2332,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2872,7 +2349,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2889,7 +2366,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2906,7 +2383,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2923,7 +2400,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2940,7 +2417,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2957,7 +2434,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2974,7 +2451,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="45"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2991,7 +2468,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="45"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3008,7 +2485,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="45"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3025,7 +2502,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3042,7 +2519,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3059,7 +2536,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="45"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3076,7 +2553,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3093,7 +2570,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="45"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3110,7 +2587,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3127,7 +2604,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3144,7 +2621,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3161,7 +2638,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="45"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3178,7 +2655,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3195,7 +2672,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3212,7 +2689,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3229,7 +2706,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="45"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3246,7 +2723,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="45"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3263,7 +2740,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="45"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3280,7 +2757,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3297,7 +2774,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3314,7 +2791,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="45"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3331,7 +2808,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="45"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3348,7 +2825,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="45"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3365,7 +2842,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="45"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3382,7 +2859,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="45"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3399,7 +2876,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3416,7 +2893,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3433,7 +2910,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="45"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3450,7 +2927,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="45"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3467,7 +2944,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="45"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3484,7 +2961,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3501,7 +2978,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3518,7 +2995,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="45"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3535,7 +3012,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="45"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3552,7 +3029,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="45"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3569,7 +3046,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3586,7 +3063,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3603,7 +3080,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="45"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3620,7 +3097,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="45"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3637,7 +3114,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="45"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3654,7 +3131,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3671,7 +3148,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3688,7 +3165,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="45"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3705,7 +3182,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="45"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3722,7 +3199,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="45"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3739,7 +3216,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3756,7 +3233,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3773,7 +3250,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="45"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3790,7 +3267,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="45"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3807,7 +3284,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="45"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3824,7 +3301,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3841,7 +3318,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3858,7 +3335,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="45"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3875,7 +3352,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="45"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3892,7 +3369,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="45"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3909,7 +3386,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3926,7 +3403,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3943,7 +3420,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="45"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3960,7 +3437,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="45"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3977,7 +3454,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="45"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3994,7 +3471,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="45"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4011,7 +3488,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="45"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4028,7 +3505,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="45"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4045,7 +3522,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="45"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4062,7 +3539,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="45"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4079,7 +3556,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="45"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4096,7 +3573,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="45"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4113,7 +3590,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="45"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4130,7 +3607,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="45"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4147,7 +3624,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="45"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4164,7 +3641,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="45"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4181,7 +3658,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="45"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4198,7 +3675,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="45"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4215,7 +3692,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="45"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4232,7 +3709,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="45"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4249,7 +3726,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="45"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4266,7 +3743,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="45"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4283,7 +3760,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="45"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4300,7 +3777,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="45"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4317,7 +3794,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="45"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4334,7 +3811,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="45"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4351,7 +3828,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="45"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4368,7 +3845,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="45"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4385,7 +3862,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="45"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4402,7 +3879,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="45"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4419,7 +3896,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="45"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4436,7 +3913,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="45"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4453,7 +3930,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="45"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4470,7 +3947,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="45"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4487,7 +3964,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="45"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4504,7 +3981,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="45"/>
+      <c r="B110" s="40"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4521,7 +3998,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="45"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4538,7 +4015,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="45"/>
+      <c r="B112" s="40"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4555,7 +4032,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="45"/>
+      <c r="B113" s="40"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4572,7 +4049,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="45"/>
+      <c r="B114" s="40"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4589,7 +4066,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="45"/>
+      <c r="B115" s="40"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4606,7 +4083,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="45"/>
+      <c r="B116" s="40"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4623,7 +4100,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="45"/>
+      <c r="B117" s="40"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4640,7 +4117,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="45"/>
+      <c r="B118" s="40"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4657,7 +4134,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="45"/>
+      <c r="B119" s="40"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4674,7 +4151,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="45"/>
+      <c r="B120" s="40"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4691,7 +4168,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="45"/>
+      <c r="B121" s="40"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4708,7 +4185,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="45"/>
+      <c r="B122" s="40"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4725,7 +4202,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="45"/>
+      <c r="B123" s="40"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4742,7 +4219,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="45"/>
+      <c r="B124" s="40"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4759,7 +4236,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="45"/>
+      <c r="B125" s="40"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4776,7 +4253,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="45"/>
+      <c r="B126" s="40"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4793,7 +4270,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="45"/>
+      <c r="B127" s="40"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4810,7 +4287,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="45"/>
+      <c r="B128" s="40"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4827,7 +4304,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="45"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4844,7 +4321,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="45"/>
+      <c r="B130" s="40"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4861,7 +4338,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="45"/>
+      <c r="B131" s="40"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4878,7 +4355,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="45"/>
+      <c r="B132" s="40"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4895,7 +4372,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="45"/>
+      <c r="B133" s="40"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4912,7 +4389,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="45"/>
+      <c r="B134" s="40"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4929,7 +4406,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="45"/>
+      <c r="B135" s="40"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4946,7 +4423,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="45"/>
+      <c r="B136" s="40"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4963,7 +4440,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="45"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4980,7 +4457,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="45"/>
+      <c r="B138" s="40"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4997,7 +4474,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="45"/>
+      <c r="B139" s="40"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5014,7 +4491,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="45"/>
+      <c r="B140" s="40"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5031,7 +4508,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="45"/>
+      <c r="B141" s="40"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5048,7 +4525,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="45"/>
+      <c r="B142" s="40"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5065,7 +4542,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="45"/>
+      <c r="B143" s="40"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5082,7 +4559,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="45"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5099,7 +4576,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="45"/>
+      <c r="B145" s="40"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5116,7 +4593,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="45"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5133,7 +4610,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="45"/>
+      <c r="B147" s="40"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5150,7 +4627,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="45"/>
+      <c r="B148" s="40"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5167,7 +4644,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="45"/>
+      <c r="B149" s="40"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5184,7 +4661,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="45"/>
+      <c r="B150" s="40"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5201,7 +4678,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="45"/>
+      <c r="B151" s="40"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5218,7 +4695,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="45"/>
+      <c r="B152" s="40"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5235,7 +4712,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="45"/>
+      <c r="B153" s="40"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5252,7 +4729,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="45"/>
+      <c r="B154" s="40"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5269,7 +4746,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="45"/>
+      <c r="B155" s="40"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5286,7 +4763,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="45"/>
+      <c r="B156" s="40"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5303,7 +4780,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="45"/>
+      <c r="B157" s="40"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5320,7 +4797,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="45"/>
+      <c r="B158" s="40"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5337,7 +4814,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="45"/>
+      <c r="B159" s="40"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5354,7 +4831,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="45"/>
+      <c r="B160" s="40"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5371,7 +4848,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="45"/>
+      <c r="B161" s="40"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5388,7 +4865,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="45"/>
+      <c r="B162" s="40"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5405,7 +4882,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="45"/>
+      <c r="B163" s="40"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5422,7 +4899,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="45"/>
+      <c r="B164" s="40"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5439,7 +4916,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="45"/>
+      <c r="B165" s="40"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5456,7 +4933,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="45"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5473,7 +4950,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="45"/>
+      <c r="B167" s="40"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5490,7 +4967,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="45"/>
+      <c r="B168" s="40"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5507,7 +4984,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="45"/>
+      <c r="B169" s="40"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5524,7 +5001,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="45"/>
+      <c r="B170" s="40"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5541,7 +5018,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="45"/>
+      <c r="B171" s="40"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5558,7 +5035,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="45"/>
+      <c r="B172" s="40"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5575,7 +5052,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="45"/>
+      <c r="B173" s="40"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5592,7 +5069,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="45"/>
+      <c r="B174" s="40"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5609,7 +5086,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="45"/>
+      <c r="B175" s="40"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5626,7 +5103,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="45"/>
+      <c r="B176" s="40"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5643,7 +5120,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="45"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5660,7 +5137,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="45"/>
+      <c r="B178" s="40"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5677,7 +5154,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="45"/>
+      <c r="B179" s="40"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5694,7 +5171,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="45"/>
+      <c r="B180" s="40"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5711,7 +5188,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="45"/>
+      <c r="B181" s="40"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5728,7 +5205,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="45"/>
+      <c r="B182" s="40"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5745,7 +5222,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="45"/>
+      <c r="B183" s="40"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5762,7 +5239,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="45"/>
+      <c r="B184" s="40"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5779,7 +5256,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="45"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5796,7 +5273,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="45"/>
+      <c r="B186" s="40"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5813,7 +5290,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="45"/>
+      <c r="B187" s="40"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5830,7 +5307,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="45"/>
+      <c r="B188" s="40"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5847,7 +5324,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="45"/>
+      <c r="B189" s="40"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5864,7 +5341,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="45"/>
+      <c r="B190" s="40"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5881,7 +5358,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="45"/>
+      <c r="B191" s="40"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5898,7 +5375,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="45"/>
+      <c r="B192" s="40"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5915,7 +5392,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="45"/>
+      <c r="B193" s="40"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5932,7 +5409,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="45"/>
+      <c r="B194" s="40"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5949,7 +5426,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="45"/>
+      <c r="B195" s="40"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5966,7 +5443,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="45"/>
+      <c r="B196" s="40"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5983,7 +5460,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="45"/>
+      <c r="B197" s="40"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6000,7 +5477,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="45"/>
+      <c r="B198" s="40"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6017,7 +5494,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="45"/>
+      <c r="B199" s="40"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6034,7 +5511,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="45"/>
+      <c r="B200" s="40"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6051,7 +5528,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="45"/>
+      <c r="B201" s="40"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6068,7 +5545,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="45"/>
+      <c r="B202" s="40"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6085,7 +5562,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="45"/>
+      <c r="B203" s="40"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6102,7 +5579,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="45"/>
+      <c r="B204" s="40"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6119,7 +5596,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="45"/>
+      <c r="B205" s="40"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6136,7 +5613,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="45"/>
+      <c r="B206" s="40"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6153,7 +5630,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="45"/>
+      <c r="B207" s="40"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6170,7 +5647,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="45"/>
+      <c r="B208" s="40"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6187,7 +5664,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="45"/>
+      <c r="B209" s="40"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6204,7 +5681,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="45"/>
+      <c r="B210" s="40"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6221,7 +5698,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="45"/>
+      <c r="B211" s="40"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6238,7 +5715,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="45"/>
+      <c r="B212" s="40"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6255,7 +5732,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="45"/>
+      <c r="B213" s="40"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6272,7 +5749,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="45"/>
+      <c r="B214" s="40"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6289,7 +5766,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="45"/>
+      <c r="B215" s="40"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6306,7 +5783,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="45"/>
+      <c r="B216" s="40"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6323,7 +5800,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="45"/>
+      <c r="B217" s="40"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6340,7 +5817,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="45"/>
+      <c r="B218" s="40"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6357,7 +5834,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="45"/>
+      <c r="B219" s="40"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6374,7 +5851,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="45"/>
+      <c r="B220" s="40"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6391,7 +5868,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="45"/>
+      <c r="B221" s="40"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6408,7 +5885,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="45"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6425,7 +5902,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="45"/>
+      <c r="B223" s="40"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6442,7 +5919,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="45"/>
+      <c r="B224" s="40"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6459,7 +5936,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="45"/>
+      <c r="B225" s="40"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6476,7 +5953,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="45"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6493,7 +5970,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="45"/>
+      <c r="B227" s="40"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6510,7 +5987,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="45"/>
+      <c r="B228" s="40"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6527,7 +6004,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="45"/>
+      <c r="B229" s="40"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6544,7 +6021,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="45"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6561,7 +6038,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="45"/>
+      <c r="B231" s="40"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6578,7 +6055,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="45"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6595,7 +6072,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="45"/>
+      <c r="B233" s="40"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6612,7 +6089,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="45"/>
+      <c r="B234" s="40"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6629,7 +6106,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="45"/>
+      <c r="B235" s="40"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6646,7 +6123,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="45"/>
+      <c r="B236" s="40"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6663,7 +6140,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="45"/>
+      <c r="B237" s="40"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6680,7 +6157,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="45"/>
+      <c r="B238" s="40"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6697,7 +6174,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="45"/>
+      <c r="B239" s="40"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6714,7 +6191,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="45"/>
+      <c r="B240" s="40"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6731,7 +6208,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="45"/>
+      <c r="B241" s="40"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6748,7 +6225,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="45"/>
+      <c r="B242" s="40"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6765,7 +6242,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="45"/>
+      <c r="B243" s="40"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6782,7 +6259,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="45"/>
+      <c r="B244" s="40"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6799,7 +6276,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="45"/>
+      <c r="B245" s="40"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6816,7 +6293,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="45"/>
+      <c r="B246" s="40"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6833,7 +6310,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="45"/>
+      <c r="B247" s="40"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6850,7 +6327,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="45"/>
+      <c r="B248" s="40"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6867,7 +6344,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="45"/>
+      <c r="B249" s="40"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6884,7 +6361,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="45"/>
+      <c r="B250" s="40"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6901,7 +6378,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="45"/>
+      <c r="B251" s="40"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6918,7 +6395,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="45"/>
+      <c r="B252" s="40"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6935,7 +6412,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="45"/>
+      <c r="B253" s="40"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6952,7 +6429,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="45"/>
+      <c r="B254" s="40"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6969,7 +6446,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="45"/>
+      <c r="B255" s="40"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6986,7 +6463,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="45"/>
+      <c r="B256" s="40"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7003,7 +6480,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="45"/>
+      <c r="B257" s="40"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7020,7 +6497,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="45"/>
+      <c r="B258" s="40"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7037,7 +6514,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="45"/>
+      <c r="B259" s="40"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7054,7 +6531,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="45"/>
+      <c r="B260" s="40"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7071,7 +6548,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="45"/>
+      <c r="B261" s="40"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7088,7 +6565,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="45"/>
+      <c r="B262" s="40"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7105,7 +6582,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="45"/>
+      <c r="B263" s="40"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7122,7 +6599,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="45"/>
+      <c r="B264" s="40"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7139,7 +6616,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="45"/>
+      <c r="B265" s="40"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7156,7 +6633,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="45"/>
+      <c r="B266" s="40"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7173,7 +6650,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="45"/>
+      <c r="B267" s="40"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7190,7 +6667,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="45"/>
+      <c r="B268" s="40"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7207,7 +6684,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="45"/>
+      <c r="B269" s="40"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7224,7 +6701,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="45"/>
+      <c r="B270" s="40"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7241,7 +6718,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="45"/>
+      <c r="B271" s="40"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7258,7 +6735,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="45"/>
+      <c r="B272" s="40"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7275,7 +6752,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="45"/>
+      <c r="B273" s="40"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7292,7 +6769,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="45"/>
+      <c r="B274" s="40"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7309,7 +6786,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="45"/>
+      <c r="B275" s="40"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7326,7 +6803,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="45"/>
+      <c r="B276" s="40"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7343,7 +6820,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="45"/>
+      <c r="B277" s="40"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7360,7 +6837,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="45"/>
+      <c r="B278" s="40"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7377,7 +6854,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="45"/>
+      <c r="B279" s="40"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7394,7 +6871,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="45"/>
+      <c r="B280" s="40"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7411,7 +6888,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="45"/>
+      <c r="B281" s="40"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7428,7 +6905,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="45"/>
+      <c r="B282" s="40"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7445,7 +6922,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="45"/>
+      <c r="B283" s="40"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7462,7 +6939,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="45"/>
+      <c r="B284" s="40"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7479,7 +6956,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="45"/>
+      <c r="B285" s="40"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7496,7 +6973,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="45"/>
+      <c r="B286" s="40"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7513,7 +6990,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="45"/>
+      <c r="B287" s="40"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7530,7 +7007,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="45"/>
+      <c r="B288" s="40"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7547,7 +7024,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="45"/>
+      <c r="B289" s="40"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7564,7 +7041,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="45"/>
+      <c r="B290" s="40"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7581,7 +7058,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="45"/>
+      <c r="B291" s="40"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7598,7 +7075,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="45"/>
+      <c r="B292" s="40"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7615,7 +7092,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="45"/>
+      <c r="B293" s="40"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7632,7 +7109,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="45"/>
+      <c r="B294" s="40"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7649,7 +7126,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="45"/>
+      <c r="B295" s="40"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7666,7 +7143,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="45"/>
+      <c r="B296" s="40"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7683,7 +7160,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="45"/>
+      <c r="B297" s="40"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7700,7 +7177,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="45"/>
+      <c r="B298" s="40"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7717,7 +7194,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="45"/>
+      <c r="B299" s="40"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7734,7 +7211,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="45"/>
+      <c r="B300" s="40"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7750,6 +7227,7 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -7762,33 +7240,31 @@
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.62162162162162" style="9"/>
-    <col min="2" max="2" width="28.5045045045045" customWidth="1"/>
-    <col min="3" max="3" width="12.7477477477477" customWidth="1"/>
-    <col min="4" max="4" width="35.2522522522523" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5045045045045" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="9"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3783783783784" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.15" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -7811,8 +7287,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" ht="14.15" spans="1:7">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7">
+      <c r="A2" s="85">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -7834,8 +7310,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" ht="14.15" spans="1:7">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="85"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7855,8 +7331,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" ht="14.15" spans="1:7">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="85"/>
       <c r="B4" s="17" t="s">
         <v>67</v>
       </c>
@@ -7876,8 +7352,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" ht="14.15" spans="1:7">
-      <c r="A5" s="8">
+    <row r="5" spans="1:7">
+      <c r="A5" s="85">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -7899,8 +7375,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" ht="14.15" spans="1:7">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="85"/>
       <c r="B6" s="16" t="s">
         <v>65</v>
       </c>
@@ -7920,8 +7396,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="14.15" spans="1:7">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="85"/>
       <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
@@ -7942,763 +7418,901 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="85">
+        <v>3</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="14">
+        <v>43083</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="14">
+        <v>43117</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="89" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="85">
+        <v>4</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="14">
+        <v>43083</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" ht="15" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" ht="15" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="20"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="14">
+        <v>43102</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="85"/>
+      <c r="B14" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="85"/>
+      <c r="B15" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="14">
+        <v>43117</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="27"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="29"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" ht="15" spans="1:7">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="26"/>
+    <row r="27" spans="1:7" ht="14.25">
+      <c r="A27" s="86"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="27"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="26"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="21"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="27"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="27"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="27"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="27"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="27"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="21"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="27"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="21"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="29"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="21"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" ht="15" spans="1:7">
-      <c r="A42" s="23"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="26"/>
+    <row r="42" spans="1:7" ht="14.25">
+      <c r="A42" s="86"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="20"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25">
+      <c r="A43" s="87"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="27"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="87"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="27"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="21"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="21"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="21"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="27"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="21"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="21"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="21"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="29"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" ht="15" spans="1:7">
-      <c r="A57" s="23"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="26"/>
+    <row r="57" spans="1:7" ht="14.25">
+      <c r="A57" s="86"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" ht="15" spans="1:7">
-      <c r="A58" s="27"/>
-      <c r="B58" s="20"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25">
+      <c r="A58" s="87"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="26"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" ht="15" spans="1:7">
-      <c r="A59" s="27"/>
-      <c r="B59" s="20"/>
+    <row r="59" spans="1:7" ht="14.25">
+      <c r="A59" s="87"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="26"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" ht="15" spans="1:7">
-      <c r="A60" s="27"/>
-      <c r="B60" s="20"/>
+    <row r="60" spans="1:7" ht="14.25">
+      <c r="A60" s="87"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="26"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="30"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="27"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="27"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="27"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="27"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="27"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="27"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="27"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="29"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" ht="15" spans="1:7">
-      <c r="A69" s="23"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="26"/>
+    <row r="69" spans="1:7" ht="14.25">
+      <c r="A69" s="86"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" ht="15" spans="1:7">
-      <c r="A70" s="27"/>
-      <c r="B70" s="20"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25">
+      <c r="A70" s="87"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="26"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" ht="15" spans="1:7">
-      <c r="A71" s="27"/>
-      <c r="B71" s="20"/>
+    <row r="71" spans="1:7" ht="14.25">
+      <c r="A71" s="87"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="26"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" ht="15" spans="1:7">
-      <c r="A72" s="27"/>
-      <c r="B72" s="20"/>
+    <row r="72" spans="1:7" ht="14.25">
+      <c r="A72" s="87"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="26"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="30"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="27"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="27"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="27"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="27"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="27"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
+      <c r="A77" s="87"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="27"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="27"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="29"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="88"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="15" spans="1:7">
-      <c r="A81" s="27"/>
-      <c r="B81" s="20"/>
+    <row r="81" spans="1:7" ht="14.25">
+      <c r="A81" s="87"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="26"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" ht="15" spans="1:7">
-      <c r="A82" s="27"/>
-      <c r="B82" s="20"/>
+    <row r="82" spans="1:7" ht="14.25">
+      <c r="A82" s="87"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="26"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="30"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="27"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="27"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="87"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="27"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="21"/>
+      <c r="A85" s="87"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="27"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="87"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="27"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
+      <c r="A87" s="87"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="27"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="27"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="21"/>
+      <c r="A89" s="87"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="29"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="A27:A41"/>
-    <mergeCell ref="A42:A56"/>
+  <mergeCells count="9">
     <mergeCell ref="A57:A68"/>
     <mergeCell ref="A69:A80"/>
     <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A27:A41"/>
+    <mergeCell ref="A42:A56"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576">
@@ -8708,31 +8322,29 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.1261261261261" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7477477477477" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.85" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8760,59 +8372,59 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:4">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -316,7 +316,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -862,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,9 +905,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,9 +932,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,13 +944,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,7 +959,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -977,13 +971,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,6 +1094,24 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,23 +1142,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1436,469 +1439,469 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="43" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="41" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="50">
+      <c r="A3" s="48">
         <v>12</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="49">
         <v>51</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="50">
         <v>4</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="51">
         <v>1</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="51">
         <v>3</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54">
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="52">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70">
+      <c r="I3" s="67"/>
+      <c r="J3" s="68">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="69">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="70">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="71">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49">
         <v>52</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="50">
         <v>5</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="51">
         <v>2</v>
       </c>
-      <c r="E4" s="53">
-        <f t="shared" ref="E4:E8" si="0">C4-D4</f>
+      <c r="E4" s="51">
+        <f t="shared" ref="E4:E7" si="0">C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="54">
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="52">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70">
+      <c r="I4" s="67"/>
+      <c r="J4" s="68">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="71">
+      <c r="K4" s="69">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="70">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="71">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="83">
+      <c r="A5" s="87">
         <v>1</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="50">
         <v>2</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="51">
         <v>2</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="51">
         <v>2</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54">
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70">
+      <c r="I5" s="67"/>
+      <c r="J5" s="68">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="71">
+      <c r="K5" s="69">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="71">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="83"/>
-      <c r="B6" s="51">
+      <c r="A6" s="87"/>
+      <c r="B6" s="49">
         <v>2</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="50">
         <v>5</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="51">
         <v>2</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54">
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70">
+      <c r="I6" s="67"/>
+      <c r="J6" s="68">
         <f t="shared" ref="J6:J8" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="69">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="71">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="83"/>
-      <c r="B7" s="51">
+      <c r="A7" s="87"/>
+      <c r="B7" s="49">
         <v>3</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="78">
         <v>4</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="51">
         <v>0</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="54">
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70" t="e">
+      <c r="I7" s="67"/>
+      <c r="J7" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="69">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="84"/>
-      <c r="B8" s="56">
+      <c r="A8" s="88"/>
+      <c r="B8" s="54">
         <v>4</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="79">
         <v>8</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="56">
         <v>0</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="56">
         <v>8</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59">
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75" t="e">
+      <c r="I8" s="72"/>
+      <c r="J8" s="73" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="74">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="76">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="61"/>
+      <c r="A9" s="59"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="62"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53">
+      <c r="A10" s="60"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51">
         <f t="shared" ref="E10" si="6">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="54">
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="52">
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70" t="e">
+      <c r="I10" s="67"/>
+      <c r="J10" s="68" t="e">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="69">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="70">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="73" t="e">
+      <c r="M10" s="71" t="e">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="62"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53">
+      <c r="A11" s="60"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51">
         <f t="shared" ref="E11:E14" si="12">C11-D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="54">
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="52">
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70" t="e">
+      <c r="I11" s="67"/>
+      <c r="J11" s="68" t="e">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="69">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="70">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="73" t="e">
+      <c r="M11" s="71" t="e">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="62"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53">
+      <c r="A12" s="60"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="54">
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="52">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70" t="e">
+      <c r="I12" s="67"/>
+      <c r="J12" s="68" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="69">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="72">
+      <c r="L12" s="70">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="73" t="e">
+      <c r="M12" s="71" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="62"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53">
+      <c r="A13" s="60"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="54">
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70" t="e">
+      <c r="I13" s="67"/>
+      <c r="J13" s="68" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="69">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="70">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="73" t="e">
+      <c r="M13" s="71" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="63"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58">
+      <c r="A14" s="61"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="59">
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="57">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75" t="e">
+      <c r="I14" s="72"/>
+      <c r="J14" s="73" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="74">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="75">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="78" t="e">
+      <c r="M14" s="76" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -1925,7 +1928,7 @@
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="27" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
@@ -1938,285 +1941,285 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="26" customFormat="1" ht="27">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" s="24" customFormat="1" ht="27">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="27">
+    <row r="2" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="25">
         <v>51</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>43073</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="33">
         <v>76109183</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="25">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="25">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="28" customFormat="1">
-      <c r="A3" s="36">
+    <row r="3" spans="1:15" s="26" customFormat="1">
+      <c r="A3" s="34">
         <v>52</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>43095</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="34">
         <v>76115178</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="25">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="34">
         <v>18326308555</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="28" customFormat="1">
-      <c r="A4" s="36">
+    <row r="4" spans="1:15" s="26" customFormat="1">
+      <c r="A4" s="34">
         <v>52</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>43077</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="34">
         <v>76113166</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="25">
         <v>18061296271</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="25">
         <v>13913841691</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="28" customFormat="1">
-      <c r="A5" s="36">
+    <row r="5" spans="1:15" s="26" customFormat="1">
+      <c r="A5" s="34">
         <v>2</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <v>43105</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="37">
         <v>76119036</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="25">
         <v>18061296271</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="37">
         <v>13655118116</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="28" customFormat="1">
-      <c r="A6" s="36">
+    <row r="6" spans="1:15" s="26" customFormat="1">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="36">
         <v>43105</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>76120311</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="25">
         <v>18061296271</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="37">
         <v>15150815370</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="34" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2224,9 +2227,9 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="77" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="1"/>
@@ -2245,9 +2248,9 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="77" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="1"/>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2281,7 +2284,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2298,7 +2301,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2315,7 +2318,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2332,7 +2335,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="40"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2383,7 +2386,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2400,7 +2403,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2417,7 +2420,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2434,7 +2437,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2451,7 +2454,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2485,7 +2488,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2519,7 +2522,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2604,7 +2607,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="40"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2655,7 +2658,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="40"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="40"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2706,7 +2709,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2723,7 +2726,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="40"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2740,7 +2743,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2757,7 +2760,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="40"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="40"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2791,7 +2794,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2825,7 +2828,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="40"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2842,7 +2845,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="40"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="40"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="40"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="40"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="40"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="40"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2978,7 +2981,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="40"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="40"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="40"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="40"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="40"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="40"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3080,7 +3083,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="40"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="40"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3114,7 +3117,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="40"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3131,7 +3134,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="40"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3148,7 +3151,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="40"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3165,7 +3168,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="40"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="40"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3199,7 +3202,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="40"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3216,7 +3219,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="40"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3233,7 +3236,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="40"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3250,7 +3253,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="40"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3267,7 +3270,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="40"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="40"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3301,7 +3304,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="40"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3318,7 +3321,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="40"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3335,7 +3338,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="40"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3352,7 +3355,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="40"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="40"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3386,7 +3389,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="40"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3403,7 +3406,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="40"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3420,7 +3423,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="40"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="40"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="40"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3471,7 +3474,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="40"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3488,7 +3491,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="40"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="40"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3522,7 +3525,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="40"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3539,7 +3542,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="40"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3556,7 +3559,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="40"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3573,7 +3576,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="40"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3590,7 +3593,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="40"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3607,7 +3610,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="40"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="40"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3641,7 +3644,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="40"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3658,7 +3661,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="40"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3675,7 +3678,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="40"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3692,7 +3695,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="40"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3709,7 +3712,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="40"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3726,7 +3729,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="40"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="40"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="40"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3777,7 +3780,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="40"/>
+      <c r="B98" s="38"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3794,7 +3797,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="40"/>
+      <c r="B99" s="38"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3811,7 +3814,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="40"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3828,7 +3831,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="40"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3845,7 +3848,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="40"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="40"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3879,7 +3882,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="40"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3896,7 +3899,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="40"/>
+      <c r="B105" s="38"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3913,7 +3916,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="40"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="40"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3947,7 +3950,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="40"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3964,7 +3967,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="40"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3981,7 +3984,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="40"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="40"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4015,7 +4018,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="40"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4032,7 +4035,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="40"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="40"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="40"/>
+      <c r="B115" s="38"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4083,7 +4086,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="40"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4100,7 +4103,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="40"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4117,7 +4120,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="40"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4134,7 +4137,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="40"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4151,7 +4154,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="40"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4168,7 +4171,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="40"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="40"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="40"/>
+      <c r="B123" s="38"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4219,7 +4222,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="40"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4236,7 +4239,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="40"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4253,7 +4256,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="40"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4270,7 +4273,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="40"/>
+      <c r="B127" s="38"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="40"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4304,7 +4307,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="40"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4321,7 +4324,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="40"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4338,7 +4341,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="40"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="40"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4372,7 +4375,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="40"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4389,7 +4392,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="40"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4406,7 +4409,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="40"/>
+      <c r="B135" s="38"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4423,7 +4426,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="40"/>
+      <c r="B136" s="38"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4440,7 +4443,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="40"/>
+      <c r="B137" s="38"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="40"/>
+      <c r="B138" s="38"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4474,7 +4477,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="40"/>
+      <c r="B139" s="38"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4491,7 +4494,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="40"/>
+      <c r="B140" s="38"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="40"/>
+      <c r="B141" s="38"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4525,7 +4528,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="40"/>
+      <c r="B142" s="38"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4542,7 +4545,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="40"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4559,7 +4562,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="40"/>
+      <c r="B144" s="38"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4576,7 +4579,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="40"/>
+      <c r="B145" s="38"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4593,7 +4596,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="40"/>
+      <c r="B146" s="38"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4610,7 +4613,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="40"/>
+      <c r="B147" s="38"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4627,7 +4630,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="40"/>
+      <c r="B148" s="38"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4644,7 +4647,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="40"/>
+      <c r="B149" s="38"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="40"/>
+      <c r="B150" s="38"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4678,7 +4681,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="40"/>
+      <c r="B151" s="38"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4695,7 +4698,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="40"/>
+      <c r="B152" s="38"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4712,7 +4715,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="40"/>
+      <c r="B153" s="38"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4729,7 +4732,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="40"/>
+      <c r="B154" s="38"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4746,7 +4749,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="40"/>
+      <c r="B155" s="38"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="40"/>
+      <c r="B156" s="38"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4780,7 +4783,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="40"/>
+      <c r="B157" s="38"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4797,7 +4800,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="40"/>
+      <c r="B158" s="38"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4814,7 +4817,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="40"/>
+      <c r="B159" s="38"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4831,7 +4834,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="40"/>
+      <c r="B160" s="38"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4848,7 +4851,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="40"/>
+      <c r="B161" s="38"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="40"/>
+      <c r="B162" s="38"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4882,7 +4885,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="40"/>
+      <c r="B163" s="38"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4899,7 +4902,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="40"/>
+      <c r="B164" s="38"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4916,7 +4919,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="40"/>
+      <c r="B165" s="38"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4933,7 +4936,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="40"/>
+      <c r="B166" s="38"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4950,7 +4953,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="40"/>
+      <c r="B167" s="38"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4967,7 +4970,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="40"/>
+      <c r="B168" s="38"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4984,7 +4987,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="40"/>
+      <c r="B169" s="38"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="40"/>
+      <c r="B170" s="38"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5018,7 +5021,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="40"/>
+      <c r="B171" s="38"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5035,7 +5038,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="40"/>
+      <c r="B172" s="38"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5052,7 +5055,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="40"/>
+      <c r="B173" s="38"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="40"/>
+      <c r="B174" s="38"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5086,7 +5089,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="40"/>
+      <c r="B175" s="38"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5103,7 +5106,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="40"/>
+      <c r="B176" s="38"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="40"/>
+      <c r="B177" s="38"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="40"/>
+      <c r="B178" s="38"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5154,7 +5157,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="40"/>
+      <c r="B179" s="38"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5171,7 +5174,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="40"/>
+      <c r="B180" s="38"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5188,7 +5191,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="40"/>
+      <c r="B181" s="38"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="40"/>
+      <c r="B182" s="38"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5222,7 +5225,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="40"/>
+      <c r="B183" s="38"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5239,7 +5242,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="40"/>
+      <c r="B184" s="38"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5256,7 +5259,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="40"/>
+      <c r="B185" s="38"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="40"/>
+      <c r="B186" s="38"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5290,7 +5293,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="40"/>
+      <c r="B187" s="38"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5307,7 +5310,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="40"/>
+      <c r="B188" s="38"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5324,7 +5327,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="40"/>
+      <c r="B189" s="38"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5341,7 +5344,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="40"/>
+      <c r="B190" s="38"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5358,7 +5361,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="40"/>
+      <c r="B191" s="38"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5375,7 +5378,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="40"/>
+      <c r="B192" s="38"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="40"/>
+      <c r="B193" s="38"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5409,7 +5412,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="40"/>
+      <c r="B194" s="38"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5426,7 +5429,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="40"/>
+      <c r="B195" s="38"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="40"/>
+      <c r="B196" s="38"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5460,7 +5463,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="40"/>
+      <c r="B197" s="38"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5477,7 +5480,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="40"/>
+      <c r="B198" s="38"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5494,7 +5497,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="40"/>
+      <c r="B199" s="38"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="40"/>
+      <c r="B200" s="38"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5528,7 +5531,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="40"/>
+      <c r="B201" s="38"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5545,7 +5548,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="40"/>
+      <c r="B202" s="38"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5562,7 +5565,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="40"/>
+      <c r="B203" s="38"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5579,7 +5582,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="40"/>
+      <c r="B204" s="38"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5596,7 +5599,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="40"/>
+      <c r="B205" s="38"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5613,7 +5616,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="40"/>
+      <c r="B206" s="38"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5630,7 +5633,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="40"/>
+      <c r="B207" s="38"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5647,7 +5650,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="40"/>
+      <c r="B208" s="38"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5664,7 +5667,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="40"/>
+      <c r="B209" s="38"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5681,7 +5684,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="40"/>
+      <c r="B210" s="38"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5698,7 +5701,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="40"/>
+      <c r="B211" s="38"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5715,7 +5718,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="40"/>
+      <c r="B212" s="38"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5732,7 +5735,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="40"/>
+      <c r="B213" s="38"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5749,7 +5752,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="40"/>
+      <c r="B214" s="38"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5766,7 +5769,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="40"/>
+      <c r="B215" s="38"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5783,7 +5786,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="40"/>
+      <c r="B216" s="38"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5800,7 +5803,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="40"/>
+      <c r="B217" s="38"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5817,7 +5820,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="40"/>
+      <c r="B218" s="38"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5834,7 +5837,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="40"/>
+      <c r="B219" s="38"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5851,7 +5854,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="40"/>
+      <c r="B220" s="38"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="40"/>
+      <c r="B221" s="38"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="40"/>
+      <c r="B222" s="38"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="40"/>
+      <c r="B223" s="38"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -5919,7 +5922,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="40"/>
+      <c r="B224" s="38"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -5936,7 +5939,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="40"/>
+      <c r="B225" s="38"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -5953,7 +5956,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="40"/>
+      <c r="B226" s="38"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -5970,7 +5973,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="40"/>
+      <c r="B227" s="38"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -5987,7 +5990,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="40"/>
+      <c r="B228" s="38"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6004,7 +6007,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="40"/>
+      <c r="B229" s="38"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6021,7 +6024,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="40"/>
+      <c r="B230" s="38"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="40"/>
+      <c r="B231" s="38"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6055,7 +6058,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="40"/>
+      <c r="B232" s="38"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6072,7 +6075,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="40"/>
+      <c r="B233" s="38"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6089,7 +6092,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="40"/>
+      <c r="B234" s="38"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6106,7 +6109,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="40"/>
+      <c r="B235" s="38"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6123,7 +6126,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="40"/>
+      <c r="B236" s="38"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6140,7 +6143,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="40"/>
+      <c r="B237" s="38"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6157,7 +6160,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="40"/>
+      <c r="B238" s="38"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="40"/>
+      <c r="B239" s="38"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6191,7 +6194,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="40"/>
+      <c r="B240" s="38"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6208,7 +6211,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="40"/>
+      <c r="B241" s="38"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="40"/>
+      <c r="B242" s="38"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6242,7 +6245,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="40"/>
+      <c r="B243" s="38"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6259,7 +6262,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="40"/>
+      <c r="B244" s="38"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6276,7 +6279,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="40"/>
+      <c r="B245" s="38"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6293,7 +6296,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="40"/>
+      <c r="B246" s="38"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6310,7 +6313,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="40"/>
+      <c r="B247" s="38"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6327,7 +6330,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="40"/>
+      <c r="B248" s="38"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="40"/>
+      <c r="B249" s="38"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6361,7 +6364,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="40"/>
+      <c r="B250" s="38"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6378,7 +6381,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="40"/>
+      <c r="B251" s="38"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6395,7 +6398,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="40"/>
+      <c r="B252" s="38"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6412,7 +6415,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="40"/>
+      <c r="B253" s="38"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6429,7 +6432,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="40"/>
+      <c r="B254" s="38"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6446,7 +6449,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="40"/>
+      <c r="B255" s="38"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="40"/>
+      <c r="B256" s="38"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6480,7 +6483,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="40"/>
+      <c r="B257" s="38"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6497,7 +6500,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="40"/>
+      <c r="B258" s="38"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6514,7 +6517,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="40"/>
+      <c r="B259" s="38"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6531,7 +6534,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="40"/>
+      <c r="B260" s="38"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6548,7 +6551,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="40"/>
+      <c r="B261" s="38"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6565,7 +6568,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="40"/>
+      <c r="B262" s="38"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6582,7 +6585,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="40"/>
+      <c r="B263" s="38"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6599,7 +6602,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="40"/>
+      <c r="B264" s="38"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6616,7 +6619,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="40"/>
+      <c r="B265" s="38"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6633,7 +6636,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="40"/>
+      <c r="B266" s="38"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6650,7 +6653,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="40"/>
+      <c r="B267" s="38"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6667,7 +6670,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="40"/>
+      <c r="B268" s="38"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6684,7 +6687,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="40"/>
+      <c r="B269" s="38"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="40"/>
+      <c r="B270" s="38"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -6718,7 +6721,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="40"/>
+      <c r="B271" s="38"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="40"/>
+      <c r="B272" s="38"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -6752,7 +6755,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="40"/>
+      <c r="B273" s="38"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -6769,7 +6772,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="40"/>
+      <c r="B274" s="38"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -6786,7 +6789,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="40"/>
+      <c r="B275" s="38"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="40"/>
+      <c r="B276" s="38"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -6820,7 +6823,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="40"/>
+      <c r="B277" s="38"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -6837,7 +6840,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="40"/>
+      <c r="B278" s="38"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -6854,7 +6857,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="40"/>
+      <c r="B279" s="38"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -6871,7 +6874,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="40"/>
+      <c r="B280" s="38"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -6888,7 +6891,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="40"/>
+      <c r="B281" s="38"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -6905,7 +6908,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="40"/>
+      <c r="B282" s="38"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -6922,7 +6925,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="40"/>
+      <c r="B283" s="38"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -6939,7 +6942,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="40"/>
+      <c r="B284" s="38"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -6956,7 +6959,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="40"/>
+      <c r="B285" s="38"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -6973,7 +6976,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="40"/>
+      <c r="B286" s="38"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -6990,7 +6993,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="40"/>
+      <c r="B287" s="38"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7007,7 +7010,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="40"/>
+      <c r="B288" s="38"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7024,7 +7027,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="40"/>
+      <c r="B289" s="38"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="40"/>
+      <c r="B290" s="38"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="40"/>
+      <c r="B291" s="38"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="40"/>
+      <c r="B292" s="38"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7092,7 +7095,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="40"/>
+      <c r="B293" s="38"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7109,7 +7112,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="40"/>
+      <c r="B294" s="38"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7126,7 +7129,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="40"/>
+      <c r="B295" s="38"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7143,7 +7146,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="40"/>
+      <c r="B296" s="38"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7160,7 +7163,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="40"/>
+      <c r="B297" s="38"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7177,7 +7180,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="40"/>
+      <c r="B298" s="38"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7194,7 +7197,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="40"/>
+      <c r="B299" s="38"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="40"/>
+      <c r="B300" s="38"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7249,15 +7252,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="27" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -7271,7 +7274,7 @@
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="93" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -7288,16 +7291,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="85">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="94">
         <v>43102</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -7306,40 +7309,40 @@
       <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="85"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="94">
         <v>43102</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="85"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="94">
         <v>43083</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7348,63 +7351,63 @@
       <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="85">
+      <c r="A5" s="89">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="94">
         <v>43102</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="85"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="94">
         <v>43102</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="85"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="94">
         <v>43083</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -7413,21 +7416,21 @@
       <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="85">
+      <c r="A8" s="89">
         <v>3</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="94">
         <v>43083</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -7436,19 +7439,19 @@
       <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="85"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="94">
         <v>43102</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="81" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7457,17 +7460,17 @@
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="85"/>
-      <c r="B10" s="89" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="93" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="81" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -7476,19 +7479,19 @@
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="85"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="94">
         <v>43117</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -7497,21 +7500,21 @@
       <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="85">
+      <c r="A12" s="89">
         <v>4</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="94">
         <v>43083</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -7520,19 +7523,19 @@
       <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="85"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="94">
         <v>43102</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="81" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7541,17 +7544,17 @@
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="77" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="85"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="93" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="81" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -7560,19 +7563,19 @@
       <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="89" t="s">
+      <c r="G14" s="77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="85"/>
-      <c r="B15" s="89" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="94">
         <v>43117</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -7581,17 +7584,17 @@
       <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="94" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -7600,17 +7603,17 @@
       <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="85"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -7619,17 +7622,17 @@
       <c r="F17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="85"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -7638,17 +7641,17 @@
       <c r="F18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="85"/>
-      <c r="B19" s="94" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -7657,652 +7660,651 @@
       <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="85"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="85"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="22"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="87"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="87"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="87"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="87"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="87"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="87"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="87"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="87"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="87"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="87"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="87"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="87"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="88"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="23"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="19"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="87"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="87"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="87"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="87"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="87"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="87"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="87"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="87"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="87"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="87"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="87"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="87"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="20"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="87"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="20"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="88"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="86"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="87"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="87"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="23"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="87"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="87"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="87"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="87"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="87"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="87"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="87"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="87"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="88"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="86"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="19"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="87"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="87"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="23"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="87"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="87"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="87"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="87"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="87"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="87"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="87"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="87"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="88"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="87"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="23"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="87"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="25"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="87"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="87"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="87"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="19"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="87"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="87"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="87"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="87"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="88"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
+      <c r="A90" s="92"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A57:A68"/>
     <mergeCell ref="A69:A80"/>
     <mergeCell ref="A81:A90"/>
     <mergeCell ref="A8:A11"/>
@@ -8311,6 +8313,7 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A27:A41"/>
     <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="3">

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -264,11 +264,11 @@
   </si>
   <si>
     <t>无数据</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>老北京烤肉</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>烘动手感</t>
@@ -278,37 +278,103 @@
   </si>
   <si>
     <t>未签约</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>未使用</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>沈芳芳</t>
   </si>
   <si>
     <t>王贵仁宁夏沙坡头店</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>王贵仁宁夏金丰苑店</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>王贵仁北京良乡北关西路店</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>王贵仁怀化国际商贸城店</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>连锁</t>
   </si>
   <si>
     <t>余薇娜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨磊</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>到女人当家实施上线</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>女人当家</t>
+  </si>
+  <si>
+    <t>女人当家</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡总</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京老北京烤肉</t>
+  </si>
+  <si>
+    <t>南京老北京烤肉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈总</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳养记湖南路店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳养记百味鸡煲湖南路店</t>
+  </si>
+  <si>
+    <t>黄总</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -318,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,13 +443,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -862,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,18 +973,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,12 +991,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,33 +1006,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,9 +1066,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1094,61 +1117,73 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,7 +1461,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1439,469 +1474,501 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="41" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="48">
+      <c r="A3" s="37">
         <v>12</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="38">
         <v>51</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="39">
         <v>4</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="40">
         <v>1</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="40">
         <v>3</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52">
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="41">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68">
+      <c r="I3" s="55"/>
+      <c r="J3" s="56">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="57">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="58">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="71">
+      <c r="M3" s="59">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38">
         <v>52</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="39">
         <v>5</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="40">
         <v>2</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="40">
         <f t="shared" ref="E4:E7" si="0">C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52">
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68">
+      <c r="I4" s="55"/>
+      <c r="J4" s="56">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="69">
-        <f t="shared" ref="K4:K8" si="2">C4+G4</f>
+      <c r="K4" s="57">
+        <f t="shared" ref="K4:K9" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="70">
-        <f t="shared" ref="L4:L8" si="3">D4+G4</f>
+      <c r="L4" s="58">
+        <f t="shared" ref="L4:L9" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="71">
-        <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
+      <c r="M4" s="59">
+        <f t="shared" ref="M4:M9" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="87">
+      <c r="A5" s="84">
         <v>1</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="40">
         <v>2</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="40">
         <v>2</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52">
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68">
+      <c r="I5" s="55"/>
+      <c r="J5" s="56">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="57">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="58">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="71">
+      <c r="M5" s="59">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="87"/>
-      <c r="B6" s="49">
+      <c r="A6" s="79"/>
+      <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="40">
         <v>2</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52">
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68">
-        <f t="shared" ref="J6:J8" si="5">I6/L6*100%</f>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56">
+        <f t="shared" ref="J6:J9" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="57">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="58">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="59">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="87"/>
-      <c r="B7" s="49">
+      <c r="A7" s="79"/>
+      <c r="B7" s="38">
         <v>3</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="66">
         <v>4</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="40">
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52">
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="e">
+      <c r="I7" s="55"/>
+      <c r="J7" s="56" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="57">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="88"/>
-      <c r="B8" s="54">
+    <row r="8" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A8" s="79"/>
+      <c r="B8" s="43">
         <v>4</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="67">
         <v>8</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="45">
         <v>0</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="45">
         <v>8</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="57">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73" t="e">
+      <c r="I8" s="60"/>
+      <c r="J8" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="62">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="59"/>
+    <row r="9" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A9" s="79"/>
+      <c r="B9" s="43">
+        <v>5</v>
+      </c>
+      <c r="C9" s="67">
+        <v>8</v>
+      </c>
+      <c r="D9" s="45">
+        <v>4</v>
+      </c>
+      <c r="E9" s="45">
+        <v>4</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="62">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L9" s="63">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M9" s="64">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="60"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51">
+      <c r="A10" s="48"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40">
         <f t="shared" ref="E10" si="6">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="52">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="41">
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68" t="e">
+      <c r="I10" s="55"/>
+      <c r="J10" s="56" t="e">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="57">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="58">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="71" t="e">
+      <c r="M10" s="59" t="e">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="60"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51">
+      <c r="A11" s="48"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40">
         <f t="shared" ref="E11:E14" si="12">C11-D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="52">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="41">
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68" t="e">
+      <c r="I11" s="55"/>
+      <c r="J11" s="56" t="e">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="57">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="58">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="71" t="e">
+      <c r="M11" s="59" t="e">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="60"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51">
+      <c r="A12" s="48"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="52">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68" t="e">
+      <c r="I12" s="55"/>
+      <c r="J12" s="56" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="58">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="71" t="e">
+      <c r="M12" s="59" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="60"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51">
+      <c r="A13" s="48"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="52">
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68" t="e">
+      <c r="I13" s="55"/>
+      <c r="J13" s="56" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="58">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="71" t="e">
+      <c r="M13" s="59" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="61"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56">
+      <c r="A14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="57">
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73" t="e">
+      <c r="I14" s="60"/>
+      <c r="J14" s="61" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="63">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="76" t="e">
+      <c r="M14" s="64" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -1909,9 +1976,9 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A5:A9"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1921,14 +1988,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
@@ -1941,401 +2008,513 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="24" customFormat="1" ht="27">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="27">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="25">
+    <row r="2" spans="1:15" s="9" customFormat="1">
+      <c r="A2" s="71">
         <v>51</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="87">
         <v>43073</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="71">
         <v>76109183</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="86">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="86">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="26" customFormat="1">
-      <c r="A3" s="34">
+    <row r="3" spans="1:15" s="9" customFormat="1">
+      <c r="A3" s="71">
         <v>52</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="87">
         <v>43095</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="71">
         <v>76115178</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="86">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="86">
         <v>18326308555</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="26" customFormat="1">
-      <c r="A4" s="34">
+    <row r="4" spans="1:15" s="9" customFormat="1">
+      <c r="A4" s="71">
         <v>52</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="87">
         <v>43077</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="71">
         <v>76113166</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="86">
         <v>18061296271</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="86">
         <v>13913841691</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="26" customFormat="1">
-      <c r="A5" s="34">
+    <row r="5" spans="1:15" s="9" customFormat="1">
+      <c r="A5" s="71">
         <v>2</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="87">
         <v>43105</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="71">
         <v>76119036</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="86">
         <v>18061296271</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="86">
         <v>13655118116</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="26" customFormat="1">
-      <c r="A6" s="34">
+    <row r="6" spans="1:15" s="9" customFormat="1">
+      <c r="A6" s="71">
         <v>2</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="87">
         <v>43105</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="71">
         <v>76120311</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="86">
         <v>18061296271</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="37">
+      <c r="M6" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="86">
         <v>15150815370</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15" s="9" customFormat="1">
+      <c r="A7" s="71">
         <v>3</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="77" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="71"/>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1">
+      <c r="A8" s="71">
         <v>4</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="77" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="71"/>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1">
+      <c r="A9" s="71">
+        <v>5</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="71">
+        <v>76128299</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="86">
+        <v>18061296271</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="86">
+        <v>13451811185</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1">
+      <c r="A10" s="71">
+        <v>5</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="71">
+        <v>76116635</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="86">
+        <v>18061296272</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="86">
+        <v>18551671169</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1">
+      <c r="A11" s="71">
+        <v>5</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="71">
+        <v>76123028</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="86">
+        <v>18061296273</v>
+      </c>
+      <c r="L11" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="86">
+        <v>13770313685</v>
+      </c>
+      <c r="O11" s="71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1">
+      <c r="A12" s="71">
+        <v>5</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="71">
+        <v>76129852</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="86">
+        <v>18061296274</v>
+      </c>
+      <c r="L12" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="86">
+        <v>18251380104</v>
+      </c>
+      <c r="O12" s="71" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="38"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2352,7 +2531,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2369,7 +2548,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="38"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2386,7 +2565,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="38"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2403,7 +2582,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2420,7 +2599,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="38"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2437,7 +2616,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2454,7 +2633,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="38"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2471,7 +2650,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="38"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2488,7 +2667,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2505,7 +2684,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2522,7 +2701,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2539,7 +2718,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2556,7 +2735,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="38"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2573,7 +2752,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="38"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2590,7 +2769,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="38"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2607,7 +2786,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="38"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2624,7 +2803,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="38"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2641,7 +2820,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="38"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2658,7 +2837,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="38"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2675,7 +2854,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="38"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2692,7 +2871,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="38"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2709,7 +2888,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="38"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2726,7 +2905,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="38"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2743,7 +2922,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="38"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2760,7 +2939,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="38"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2777,7 +2956,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="38"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2794,7 +2973,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="38"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2811,7 +2990,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="38"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2828,7 +3007,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="38"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2845,7 +3024,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="38"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2862,7 +3041,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="38"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2879,7 +3058,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="38"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2896,7 +3075,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="38"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2913,7 +3092,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2930,7 +3109,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2947,7 +3126,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="38"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2964,7 +3143,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="38"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2981,7 +3160,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="38"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2998,7 +3177,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="38"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3015,7 +3194,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="38"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3032,7 +3211,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3049,7 +3228,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="38"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3066,7 +3245,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="38"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3083,7 +3262,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="38"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3100,7 +3279,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="38"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3117,7 +3296,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="38"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3134,7 +3313,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="38"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3151,7 +3330,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="38"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3168,7 +3347,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="38"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3185,7 +3364,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="38"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3202,7 +3381,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="38"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3219,7 +3398,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="38"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3236,7 +3415,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="38"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3253,7 +3432,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="38"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3270,7 +3449,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="38"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3287,7 +3466,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="38"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3304,7 +3483,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="38"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3321,7 +3500,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="38"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3338,7 +3517,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="38"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3355,7 +3534,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3372,7 +3551,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="38"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3389,7 +3568,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="38"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3406,7 +3585,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="38"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3423,7 +3602,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="38"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3440,7 +3619,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="38"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3457,7 +3636,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="38"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3474,7 +3653,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="38"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3491,7 +3670,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="38"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3508,7 +3687,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="38"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3525,7 +3704,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="38"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3542,7 +3721,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="38"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3559,7 +3738,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="38"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3576,7 +3755,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="38"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3593,7 +3772,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="38"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3610,7 +3789,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="38"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3627,7 +3806,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="38"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3644,7 +3823,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="38"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3661,7 +3840,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="38"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3678,7 +3857,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="38"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3695,7 +3874,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="38"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3712,7 +3891,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="38"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3729,7 +3908,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="38"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3746,7 +3925,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="38"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3763,7 +3942,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="38"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3780,7 +3959,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="38"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3797,7 +3976,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="38"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3814,7 +3993,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="38"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3831,7 +4010,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="38"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3848,7 +4027,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="38"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3865,7 +4044,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="38"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3882,7 +4061,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="38"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3899,7 +4078,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="38"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3916,7 +4095,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="38"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3933,7 +4112,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="38"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3950,7 +4129,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="38"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3967,7 +4146,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="38"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3984,7 +4163,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="38"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4001,7 +4180,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="38"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4018,7 +4197,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="38"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4035,7 +4214,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="38"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4052,7 +4231,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="38"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4069,7 +4248,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="38"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4086,7 +4265,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="38"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4103,7 +4282,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="38"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4120,7 +4299,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="38"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4137,7 +4316,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="38"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4154,7 +4333,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="38"/>
+      <c r="B120" s="28"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4171,7 +4350,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="38"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4188,7 +4367,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="38"/>
+      <c r="B122" s="28"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4205,7 +4384,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="38"/>
+      <c r="B123" s="28"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4222,7 +4401,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="38"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4239,7 +4418,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="38"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4256,7 +4435,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="38"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4273,7 +4452,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="38"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4290,7 +4469,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="38"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4307,7 +4486,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="38"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4324,7 +4503,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="38"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4341,7 +4520,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="38"/>
+      <c r="B131" s="28"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4358,7 +4537,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="38"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4375,7 +4554,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="38"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4392,7 +4571,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="38"/>
+      <c r="B134" s="28"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4409,7 +4588,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="38"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4426,7 +4605,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="38"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4443,7 +4622,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="38"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4460,7 +4639,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="38"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4477,7 +4656,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="38"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4494,7 +4673,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="38"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4511,7 +4690,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="38"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4528,7 +4707,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="38"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4545,7 +4724,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="38"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4562,7 +4741,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="38"/>
+      <c r="B144" s="28"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4579,7 +4758,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="38"/>
+      <c r="B145" s="28"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4596,7 +4775,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="38"/>
+      <c r="B146" s="28"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4613,7 +4792,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="38"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4630,7 +4809,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="38"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4647,7 +4826,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="38"/>
+      <c r="B149" s="28"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4664,7 +4843,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="38"/>
+      <c r="B150" s="28"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4681,7 +4860,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="38"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4698,7 +4877,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="38"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4715,7 +4894,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="38"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4732,7 +4911,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="38"/>
+      <c r="B154" s="28"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4749,7 +4928,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="38"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4766,7 +4945,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="38"/>
+      <c r="B156" s="28"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4783,7 +4962,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="38"/>
+      <c r="B157" s="28"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4800,7 +4979,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="38"/>
+      <c r="B158" s="28"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4817,7 +4996,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="38"/>
+      <c r="B159" s="28"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4834,7 +5013,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="38"/>
+      <c r="B160" s="28"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4851,7 +5030,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="38"/>
+      <c r="B161" s="28"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4868,7 +5047,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="38"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4885,7 +5064,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="38"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4902,7 +5081,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="38"/>
+      <c r="B164" s="28"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4919,7 +5098,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="38"/>
+      <c r="B165" s="28"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4936,7 +5115,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="38"/>
+      <c r="B166" s="28"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4953,7 +5132,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="38"/>
+      <c r="B167" s="28"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4970,7 +5149,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="38"/>
+      <c r="B168" s="28"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4987,7 +5166,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="38"/>
+      <c r="B169" s="28"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5004,7 +5183,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="38"/>
+      <c r="B170" s="28"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5021,7 +5200,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="38"/>
+      <c r="B171" s="28"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5038,7 +5217,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="38"/>
+      <c r="B172" s="28"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5055,7 +5234,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="38"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5072,7 +5251,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="38"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5089,7 +5268,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="38"/>
+      <c r="B175" s="28"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5106,7 +5285,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="38"/>
+      <c r="B176" s="28"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5123,7 +5302,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="38"/>
+      <c r="B177" s="28"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5140,7 +5319,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="38"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5157,7 +5336,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="38"/>
+      <c r="B179" s="28"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5174,7 +5353,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="38"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5191,7 +5370,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="38"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5208,7 +5387,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="38"/>
+      <c r="B182" s="28"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5225,7 +5404,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="38"/>
+      <c r="B183" s="28"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5242,7 +5421,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="38"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5259,7 +5438,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="38"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5276,7 +5455,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="38"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5293,7 +5472,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="38"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5310,7 +5489,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="38"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5327,7 +5506,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="38"/>
+      <c r="B189" s="28"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5344,7 +5523,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="38"/>
+      <c r="B190" s="28"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5361,7 +5540,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="38"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5378,7 +5557,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="38"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5395,7 +5574,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="38"/>
+      <c r="B193" s="28"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5412,7 +5591,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="38"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5429,7 +5608,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="38"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5446,7 +5625,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="38"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5463,7 +5642,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="38"/>
+      <c r="B197" s="28"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5480,7 +5659,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="38"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5497,7 +5676,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="38"/>
+      <c r="B199" s="28"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5514,7 +5693,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="38"/>
+      <c r="B200" s="28"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5531,7 +5710,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="38"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5548,7 +5727,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="38"/>
+      <c r="B202" s="28"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5565,7 +5744,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="38"/>
+      <c r="B203" s="28"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5582,7 +5761,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="38"/>
+      <c r="B204" s="28"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5599,7 +5778,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="38"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5616,7 +5795,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="38"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5633,7 +5812,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="38"/>
+      <c r="B207" s="28"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5650,7 +5829,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="38"/>
+      <c r="B208" s="28"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5667,7 +5846,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="38"/>
+      <c r="B209" s="28"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5684,7 +5863,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="38"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5701,7 +5880,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="38"/>
+      <c r="B211" s="28"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5718,7 +5897,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="38"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5735,7 +5914,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="38"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5752,7 +5931,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="38"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5769,7 +5948,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="38"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5786,7 +5965,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="38"/>
+      <c r="B216" s="28"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5803,7 +5982,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="38"/>
+      <c r="B217" s="28"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5820,7 +5999,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="38"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5837,7 +6016,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="38"/>
+      <c r="B219" s="28"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5854,7 +6033,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="38"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5871,7 +6050,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="38"/>
+      <c r="B221" s="28"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5888,7 +6067,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="38"/>
+      <c r="B222" s="28"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5905,7 +6084,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="38"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -5922,7 +6101,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="38"/>
+      <c r="B224" s="28"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -5939,7 +6118,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="38"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -5956,7 +6135,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="38"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -5973,7 +6152,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="38"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -5990,7 +6169,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="38"/>
+      <c r="B228" s="28"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6007,7 +6186,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="38"/>
+      <c r="B229" s="28"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6024,7 +6203,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="38"/>
+      <c r="B230" s="28"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6041,7 +6220,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="38"/>
+      <c r="B231" s="28"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6058,7 +6237,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="38"/>
+      <c r="B232" s="28"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6075,7 +6254,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="38"/>
+      <c r="B233" s="28"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6092,7 +6271,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="38"/>
+      <c r="B234" s="28"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6109,7 +6288,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="38"/>
+      <c r="B235" s="28"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6126,7 +6305,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="38"/>
+      <c r="B236" s="28"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6143,7 +6322,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="38"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6160,7 +6339,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="38"/>
+      <c r="B238" s="28"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6177,7 +6356,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="38"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6194,7 +6373,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="38"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6211,7 +6390,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="38"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6228,7 +6407,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="38"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6245,7 +6424,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="38"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6262,7 +6441,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="38"/>
+      <c r="B244" s="28"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6279,7 +6458,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="38"/>
+      <c r="B245" s="28"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6296,7 +6475,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="38"/>
+      <c r="B246" s="28"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6313,7 +6492,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="38"/>
+      <c r="B247" s="28"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6330,7 +6509,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="38"/>
+      <c r="B248" s="28"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6347,7 +6526,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="38"/>
+      <c r="B249" s="28"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6364,7 +6543,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="38"/>
+      <c r="B250" s="28"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6381,7 +6560,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="38"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6398,7 +6577,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="38"/>
+      <c r="B252" s="28"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6415,7 +6594,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="38"/>
+      <c r="B253" s="28"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6432,7 +6611,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="38"/>
+      <c r="B254" s="28"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6449,7 +6628,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="38"/>
+      <c r="B255" s="28"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6466,7 +6645,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="38"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6483,7 +6662,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="38"/>
+      <c r="B257" s="28"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6500,7 +6679,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="38"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6517,7 +6696,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="38"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6534,7 +6713,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="38"/>
+      <c r="B260" s="28"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6551,7 +6730,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="38"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6568,7 +6747,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="38"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6585,7 +6764,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="38"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6602,7 +6781,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="38"/>
+      <c r="B264" s="28"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6619,7 +6798,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="38"/>
+      <c r="B265" s="28"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6636,7 +6815,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="38"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6653,7 +6832,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="38"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6670,7 +6849,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="38"/>
+      <c r="B268" s="28"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6687,7 +6866,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="38"/>
+      <c r="B269" s="28"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6704,7 +6883,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="38"/>
+      <c r="B270" s="28"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -6721,7 +6900,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="38"/>
+      <c r="B271" s="28"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -6738,7 +6917,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="38"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -6755,7 +6934,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="38"/>
+      <c r="B273" s="28"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -6772,7 +6951,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="38"/>
+      <c r="B274" s="28"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -6789,7 +6968,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="38"/>
+      <c r="B275" s="28"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -6806,7 +6985,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="38"/>
+      <c r="B276" s="28"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -6823,7 +7002,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="38"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -6840,7 +7019,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="38"/>
+      <c r="B278" s="28"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -6857,7 +7036,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="38"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -6874,7 +7053,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="38"/>
+      <c r="B280" s="28"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -6891,7 +7070,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="38"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -6908,7 +7087,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="38"/>
+      <c r="B282" s="28"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -6925,7 +7104,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="38"/>
+      <c r="B283" s="28"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -6942,7 +7121,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="38"/>
+      <c r="B284" s="28"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -6959,7 +7138,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="38"/>
+      <c r="B285" s="28"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -6976,7 +7155,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="38"/>
+      <c r="B286" s="28"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -6993,7 +7172,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="38"/>
+      <c r="B287" s="28"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7010,7 +7189,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="38"/>
+      <c r="B288" s="28"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7027,7 +7206,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="38"/>
+      <c r="B289" s="28"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7044,7 +7223,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="38"/>
+      <c r="B290" s="28"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7061,7 +7240,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="38"/>
+      <c r="B291" s="28"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7078,7 +7257,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="38"/>
+      <c r="B292" s="28"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7095,7 +7274,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="38"/>
+      <c r="B293" s="28"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7112,7 +7291,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="38"/>
+      <c r="B294" s="28"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7129,7 +7308,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="38"/>
+      <c r="B295" s="28"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7146,7 +7325,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="38"/>
+      <c r="B296" s="28"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7163,7 +7342,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="38"/>
+      <c r="B297" s="28"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7180,7 +7359,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="38"/>
+      <c r="B298" s="28"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7197,7 +7376,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="38"/>
+      <c r="B299" s="28"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7214,7 +7393,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="38"/>
+      <c r="B300" s="28"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7230,7 +7409,7 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -7238,7 +7417,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
@@ -7252,15 +7431,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="23" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -7274,7 +7453,7 @@
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="72" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -7291,13 +7470,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="89">
+      <c r="A2" s="83">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="73">
         <v>43102</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -7314,11 +7493,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="89"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="73">
         <v>43102</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -7335,11 +7514,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="89"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="73">
         <v>43083</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -7356,13 +7535,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="89">
+      <c r="A5" s="83">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="73">
         <v>43102</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -7379,11 +7558,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="89"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="73">
         <v>43102</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -7400,11 +7579,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="89"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="73">
         <v>43083</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -7421,13 +7600,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="89">
+      <c r="A8" s="83">
         <v>3</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="73">
         <v>43083</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7444,14 +7623,14 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="89"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="73">
         <v>43102</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="69" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7465,12 +7644,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="89"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="81" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="69" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -7479,16 +7658,16 @@
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="89"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="73">
         <v>43117</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7500,18 +7679,18 @@
       <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="89">
+      <c r="A12" s="83">
         <v>4</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="73">
         <v>43083</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -7528,14 +7707,14 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="89"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="73">
         <v>43102</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="69" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7544,17 +7723,17 @@
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="65" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="89"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="81" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="69" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -7563,16 +7742,16 @@
       <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="89"/>
-      <c r="B15" s="77" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="73">
         <v>43117</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -7584,16 +7763,16 @@
       <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="82" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="14" t="s">
         <v>68</v>
       </c>
@@ -7608,11 +7787,11 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="89"/>
-      <c r="B17" s="82" t="s">
+      <c r="A17" s="83"/>
+      <c r="B17" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="94"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
@@ -7627,11 +7806,11 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="89"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="94"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="14" t="s">
         <v>68</v>
       </c>
@@ -7646,11 +7825,11 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="89"/>
-      <c r="B19" s="82" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="94"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
@@ -7665,646 +7844,688 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="89"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="89"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="80">
+        <v>5</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="91"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="19"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="91"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="91"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="91"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="91"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="91"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="91"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="19"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="91"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="91"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="91"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="91"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="91"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="92"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="91"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="19"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="91"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="19"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="91"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="19"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="91"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="19"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="91"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="19"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="91"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="19"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="91"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="19"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="91"/>
+      <c r="A51" s="81"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="19"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="91"/>
+      <c r="A52" s="81"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="19"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="91"/>
+      <c r="A53" s="81"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="81"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="92"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="19"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="90"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="18"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="23"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="91"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="19"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="91"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="19"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="91"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="19"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="91"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="19"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="91"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="19"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="91"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="19"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="91"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="19"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="92"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="19"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="90"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="18"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="81"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="81"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="91"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="19"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="91"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="19"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="91"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="19"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="91"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="19"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="91"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="19"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="91"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="19"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="91"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="19"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="92"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="19"/>
+      <c r="A80" s="82"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="22"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="91"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="23"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="91"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="19"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="91"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="19"/>
+      <c r="A84" s="81"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="91"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="19"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="91"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="19"/>
+      <c r="A86" s="81"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="91"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="94"/>
-      <c r="D87" s="19"/>
+      <c r="A87" s="81"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="91"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="19"/>
+      <c r="A88" s="81"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="91"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="19"/>
+      <c r="A89" s="81"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="92"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="19"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A69:A80"/>
     <mergeCell ref="A81:A90"/>
     <mergeCell ref="A8:A11"/>
@@ -8314,8 +8535,9 @@
     <mergeCell ref="A27:A41"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576">
@@ -8335,7 +8557,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8376,9 +8598,18 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43127</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="8"/>
@@ -8426,7 +8657,7 @@
       <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -374,6 +374,42 @@
   </si>
   <si>
     <t>黄总</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京王贵仁品牌管理有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月22</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡市微热山丘贸易有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约50家目前49家未装</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>李燕东</t>
+  </si>
+  <si>
+    <t>王贵仁怀化国际商贸城店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁北京良乡北关西路店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家目前97家未装其中包括
+王贵仁北京良乡北关西路店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -397,6 +433,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -404,6 +441,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -412,17 +450,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -430,6 +471,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -921,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,12 +1108,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,6 +1183,18 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,6 +1207,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1174,17 +1225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,7 +1509,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1481,21 +1529,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
@@ -1522,19 +1570,19 @@
       <c r="H2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1560,20 +1608,20 @@
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="55">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="56">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="57">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
@@ -1599,26 +1647,26 @@
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56">
+      <c r="I4" s="53"/>
+      <c r="J4" s="54">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="55">
         <f t="shared" ref="K4:K9" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="56">
         <f t="shared" ref="L4:L9" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="57">
         <f t="shared" ref="M4:M9" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="84">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
       <c r="B5" s="38">
@@ -1639,26 +1687,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56">
+      <c r="I5" s="53"/>
+      <c r="J5" s="54">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="55">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="56">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="79"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -1678,30 +1726,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56">
+      <c r="I6" s="53"/>
+      <c r="J6" s="54">
         <f t="shared" ref="J6:J9" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="55">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="56">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="57">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="79"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="38">
         <v>3</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="64">
         <v>4</v>
       </c>
       <c r="D7" s="40">
@@ -1717,30 +1765,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="e">
+      <c r="I7" s="53"/>
+      <c r="J7" s="54" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="55">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="43">
         <v>4</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="65">
         <v>8</v>
       </c>
       <c r="D8" s="45">
@@ -1755,30 +1803,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61" t="e">
+      <c r="I8" s="58"/>
+      <c r="J8" s="59" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="60">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="79"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="43">
         <v>5</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="65">
         <v>8</v>
       </c>
       <c r="D9" s="45">
@@ -1790,27 +1838,31 @@
       <c r="F9" s="46"/>
       <c r="G9" s="47"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="60">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="61">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="62">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="82">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38">
+        <v>8</v>
+      </c>
       <c r="C10" s="39"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40">
@@ -1823,26 +1875,26 @@
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="e">
+      <c r="I10" s="53"/>
+      <c r="J10" s="54" t="e">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="55">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="56">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="59" t="e">
+      <c r="M10" s="57" t="e">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
@@ -1856,26 +1908,26 @@
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56" t="e">
+      <c r="I11" s="53"/>
+      <c r="J11" s="54" t="e">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="55">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="56">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="59" t="e">
+      <c r="M11" s="57" t="e">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
@@ -1889,26 +1941,26 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56" t="e">
+      <c r="I12" s="53"/>
+      <c r="J12" s="54" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="59" t="e">
+      <c r="M12" s="57" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="48"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
@@ -1922,26 +1974,26 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56" t="e">
+      <c r="I13" s="53"/>
+      <c r="J13" s="54" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="59" t="e">
+      <c r="M13" s="57" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A14" s="88"/>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
@@ -1955,28 +2007,29 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61" t="e">
+      <c r="I14" s="58"/>
+      <c r="J14" s="59" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="60">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="61">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="64" t="e">
+      <c r="M14" s="62" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1988,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2056,580 +2109,580 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1">
-      <c r="A2" s="71">
+      <c r="A2" s="69">
         <v>51</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="76">
         <v>43073</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="69">
         <v>76109183</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="86">
+      <c r="K2" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="86">
+      <c r="N2" s="75">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1">
-      <c r="A3" s="71">
+      <c r="A3" s="69">
         <v>52</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="76">
         <v>43095</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="69">
         <v>76115178</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="86" t="s">
+      <c r="I3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="86">
+      <c r="N3" s="75">
         <v>18326308555</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1">
-      <c r="A4" s="71">
+      <c r="A4" s="69">
         <v>52</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="76">
         <v>43077</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="69">
         <v>76113166</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="86">
+      <c r="N4" s="75">
         <v>13913841691</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1">
-      <c r="A5" s="71">
+      <c r="A5" s="69">
         <v>2</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="76">
         <v>43105</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="69">
         <v>76119036</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="86">
+      <c r="N5" s="75">
         <v>13655118116</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1">
-      <c r="A6" s="71">
+      <c r="A6" s="69">
         <v>2</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="76">
         <v>43105</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="69">
         <v>76120311</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="75">
         <v>15150815370</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1">
-      <c r="A7" s="71">
+      <c r="A7" s="69">
         <v>3</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="71"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1">
-      <c r="A8" s="71">
+      <c r="A8" s="69">
         <v>4</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="71"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:15" s="9" customFormat="1">
-      <c r="A9" s="71">
+      <c r="A9" s="69">
         <v>5</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="69">
         <v>76128299</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K9" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="86">
+      <c r="N9" s="75">
         <v>13451811185</v>
       </c>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1">
-      <c r="A10" s="71">
+      <c r="A10" s="69">
         <v>5</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="69">
         <v>76116635</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="86">
+      <c r="K10" s="75">
         <v>18061296272</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="86">
+      <c r="N10" s="75">
         <v>18551671169</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1">
-      <c r="A11" s="71">
+      <c r="A11" s="69">
         <v>5</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="69">
         <v>76123028</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="86" t="s">
+      <c r="J11" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="75">
         <v>18061296273</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="86">
+      <c r="N11" s="75">
         <v>13770313685</v>
       </c>
-      <c r="O11" s="71" t="s">
+      <c r="O11" s="69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1">
-      <c r="A12" s="71">
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="69">
         <v>5</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="69">
         <v>76129852</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="86">
+      <c r="K12" s="75">
         <v>18061296274</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="86">
+      <c r="N12" s="75">
         <v>18251380104</v>
       </c>
-      <c r="O12" s="71" t="s">
+      <c r="O12" s="69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+    <row r="13" spans="1:15" s="9" customFormat="1">
+      <c r="A13" s="73"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1">
+      <c r="A14" s="73"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1">
+      <c r="A18" s="73"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1">
+      <c r="A19" s="73"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
@@ -7429,10 +7482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7453,7 +7506,7 @@
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="70" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -7470,13 +7523,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="83">
+      <c r="A2" s="86">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="71">
         <v>43102</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -7493,11 +7546,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="83"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="71">
         <v>43102</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -7514,11 +7567,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="83"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="71">
         <v>43083</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -7535,13 +7588,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="83">
+      <c r="A5" s="86">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="71">
         <v>43102</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -7558,11 +7611,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="83"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="71">
         <v>43102</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -7579,11 +7632,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="83"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="71">
         <v>43083</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -7600,13 +7653,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="83">
+      <c r="A8" s="86">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="71">
         <v>43083</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7623,14 +7676,14 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="83"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="71">
         <v>43102</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7644,12 +7697,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="83"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="69" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="67" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -7658,16 +7711,16 @@
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="83"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="71">
         <v>43117</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7679,18 +7732,18 @@
       <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="83">
+      <c r="A12" s="86">
         <v>4</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="71">
         <v>43083</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -7707,14 +7760,14 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="83"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="71">
         <v>43102</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7723,17 +7776,17 @@
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="63" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="83"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="69" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="67" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -7742,16 +7795,16 @@
       <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="83"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="71">
         <v>43117</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -7763,16 +7816,16 @@
       <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="86"/>
+      <c r="B16" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="14" t="s">
         <v>68</v>
       </c>
@@ -7786,12 +7839,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="83"/>
-      <c r="B17" s="70" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="86"/>
+      <c r="B17" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
@@ -7805,12 +7858,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="83"/>
-      <c r="B18" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="73"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="86"/>
+      <c r="B18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="71"/>
       <c r="D18" s="14" t="s">
         <v>68</v>
       </c>
@@ -7824,12 +7877,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="83"/>
-      <c r="B19" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="73"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="86"/>
+      <c r="B19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="71"/>
       <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
@@ -7843,29 +7896,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="83"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="86"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="73"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="83"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="86"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="73"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="18"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="80">
+    <row r="22" spans="1:8">
+      <c r="A22" s="83">
         <v>5</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="68" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="28"/>
@@ -7882,9 +7935,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="81"/>
-      <c r="B23" s="70" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="84"/>
+      <c r="B23" s="68" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="28"/>
@@ -7901,9 +7954,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="81"/>
-      <c r="B24" s="70" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="84"/>
+      <c r="B24" s="68" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="28"/>
@@ -7920,9 +7973,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="81"/>
-      <c r="B25" s="70" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="84"/>
+      <c r="B25" s="68" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="28"/>
@@ -7939,8 +7992,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="82"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="85"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
       <c r="D26" s="18"/>
@@ -7948,44 +8001,73 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="81"/>
+    <row r="27" spans="1:8" ht="28.5">
+      <c r="A27" s="83">
+        <v>8</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="84"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="73"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="18"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="81"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="84"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="73"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="18"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="81"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="84"/>
       <c r="B31" s="1"/>
       <c r="C31" s="28"/>
       <c r="D31" s="18"/>
@@ -7993,8 +8075,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="81"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="84"/>
       <c r="B32" s="1"/>
       <c r="C32" s="28"/>
       <c r="D32" s="18"/>
@@ -8003,7 +8085,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="81"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="1"/>
       <c r="C33" s="28"/>
       <c r="D33" s="18"/>
@@ -8012,25 +8094,25 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="81"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="73"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="18"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="81"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="73"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="18"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="81"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="1"/>
       <c r="C36" s="28"/>
       <c r="D36" s="18"/>
@@ -8039,7 +8121,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="81"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="1"/>
       <c r="C37" s="28"/>
       <c r="D37" s="18"/>
@@ -8048,7 +8130,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="81"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="1"/>
       <c r="C38" s="28"/>
       <c r="D38" s="18"/>
@@ -8057,7 +8139,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="81"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="1"/>
       <c r="C39" s="28"/>
       <c r="D39" s="18"/>
@@ -8066,7 +8148,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="81"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="1"/>
       <c r="C40" s="28"/>
       <c r="D40" s="18"/>
@@ -8075,7 +8157,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="82"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="1"/>
       <c r="C41" s="28"/>
       <c r="D41" s="18"/>
@@ -8084,79 +8166,79 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="80"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="74"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="20"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="81"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="73"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="81"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="73"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="18"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="81"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="73"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="18"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="81"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="73"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="18"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="81"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="73"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="18"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="81"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="73"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="18"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="81"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="73"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="18"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="81"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="1"/>
       <c r="C50" s="28"/>
       <c r="D50" s="18"/>
@@ -8165,7 +8247,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="81"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
       <c r="D51" s="18"/>
@@ -8174,7 +8256,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="81"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
       <c r="D52" s="18"/>
@@ -8183,7 +8265,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="81"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
       <c r="D53" s="18"/>
@@ -8192,7 +8274,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="81"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
       <c r="D54" s="18"/>
@@ -8201,7 +8283,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="81"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
       <c r="D55" s="18"/>
@@ -8210,315 +8292,315 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="82"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="17"/>
-      <c r="C56" s="73"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="18"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="80"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="72"/>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="81"/>
+      <c r="A58" s="84"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="73"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="81"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="73"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="20"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="81"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="73"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="81"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="17"/>
-      <c r="C61" s="73"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="18"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="81"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="17"/>
-      <c r="C62" s="73"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="18"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="81"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="17"/>
-      <c r="C63" s="73"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="18"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="81"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="17"/>
-      <c r="C64" s="73"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="18"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="81"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="17"/>
-      <c r="C65" s="73"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="18"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="81"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="17"/>
-      <c r="C66" s="73"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="18"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="81"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="17"/>
-      <c r="C67" s="73"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="82"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="17"/>
-      <c r="C68" s="73"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="18"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="80"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="74"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="20"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="81"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="17"/>
-      <c r="C70" s="73"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="20"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="81"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="17"/>
-      <c r="C71" s="73"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="20"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="81"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="17"/>
-      <c r="C72" s="73"/>
+      <c r="C72" s="71"/>
       <c r="D72" s="20"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="81"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="17"/>
-      <c r="C73" s="73"/>
+      <c r="C73" s="71"/>
       <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="81"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="17"/>
-      <c r="C74" s="73"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="18"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="81"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="17"/>
-      <c r="C75" s="73"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="18"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="81"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="17"/>
-      <c r="C76" s="73"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="18"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="81"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="17"/>
-      <c r="C77" s="73"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="18"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="81"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="17"/>
-      <c r="C78" s="73"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="18"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="81"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="17"/>
-      <c r="C79" s="73"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="18"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="82"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="17"/>
-      <c r="C80" s="73"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="18"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="81"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="17"/>
-      <c r="C81" s="73"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="20"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="81"/>
+      <c r="A82" s="84"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="73"/>
+      <c r="C82" s="71"/>
       <c r="D82" s="20"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="81"/>
+      <c r="A83" s="84"/>
       <c r="B83" s="17"/>
-      <c r="C83" s="73"/>
+      <c r="C83" s="71"/>
       <c r="D83" s="18"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="81"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="17"/>
-      <c r="C84" s="73"/>
+      <c r="C84" s="71"/>
       <c r="D84" s="18"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="81"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="17"/>
-      <c r="C85" s="73"/>
+      <c r="C85" s="71"/>
       <c r="D85" s="18"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="81"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="17"/>
-      <c r="C86" s="73"/>
+      <c r="C86" s="71"/>
       <c r="D86" s="18"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="81"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="73"/>
+      <c r="C87" s="71"/>
       <c r="D87" s="18"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="81"/>
+      <c r="A88" s="84"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="73"/>
+      <c r="C88" s="71"/>
       <c r="D88" s="18"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="81"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="17"/>
-      <c r="C89" s="73"/>
+      <c r="C89" s="71"/>
       <c r="D89" s="18"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="82"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="73"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="18"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -8601,13 +8683,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="74" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="7">
         <v>43127</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="74" t="s">
         <v>89</v>
       </c>
     </row>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="127">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -319,23 +319,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>女人当家</t>
   </si>
   <si>
@@ -374,6 +357,110 @@
   </si>
   <si>
     <t>黄总</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京王贵仁品牌管理有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月22</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡市微热山丘贸易有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约50家目前49家未装</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>李燕东</t>
+  </si>
+  <si>
+    <t>王贵仁怀化国际商贸城店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁北京良乡北关西路店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家目前97家未装其中包括
+王贵仁北京良乡北关西路店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京王贵仁品牌管理有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁砂锅麻辣烫</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中卫</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁砂锅麻辣烫宁夏店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>石嘴山</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁宁夏汇融店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁怀化国际商贸城店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀化</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>候倩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯珊珊</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁洪铭</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡市微热山丘贸易有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻町</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯惠怡</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -397,6 +484,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -404,6 +492,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -412,17 +501,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -430,6 +522,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -921,7 +1014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,12 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,6 +1234,27 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,9 +1267,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,18 +1286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,7 +1563,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1481,21 +1583,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
@@ -1522,19 +1624,19 @@
       <c r="H2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1560,20 +1662,20 @@
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="55">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="56">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="57">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
@@ -1599,20 +1701,20 @@
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56">
+      <c r="I4" s="53"/>
+      <c r="J4" s="54">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="55">
         <f t="shared" ref="K4:K9" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="56">
         <f t="shared" ref="L4:L9" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="57">
         <f t="shared" ref="M4:M9" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
@@ -1639,26 +1741,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56">
+      <c r="I5" s="53"/>
+      <c r="J5" s="54">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="55">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="56">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="79"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -1678,30 +1780,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56">
+      <c r="I6" s="53"/>
+      <c r="J6" s="54">
         <f t="shared" ref="J6:J9" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="55">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="56">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="57">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="79"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="38">
         <v>3</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="64">
         <v>4</v>
       </c>
       <c r="D7" s="40">
@@ -1717,30 +1819,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="e">
+      <c r="I7" s="53"/>
+      <c r="J7" s="54" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="55">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="43">
         <v>4</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="65">
         <v>8</v>
       </c>
       <c r="D8" s="45">
@@ -1755,30 +1857,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61" t="e">
+      <c r="I8" s="58"/>
+      <c r="J8" s="59" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="60">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="79"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="43">
         <v>5</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="65">
         <v>8</v>
       </c>
       <c r="D9" s="45">
@@ -1790,27 +1892,31 @@
       <c r="F9" s="46"/>
       <c r="G9" s="47"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="60">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="61">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="62">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="85">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38">
+        <v>8</v>
+      </c>
       <c r="C10" s="39"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40">
@@ -1823,26 +1929,26 @@
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="e">
+      <c r="I10" s="53"/>
+      <c r="J10" s="54" t="e">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="55">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="56">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="59" t="e">
+      <c r="M10" s="57" t="e">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
@@ -1856,26 +1962,26 @@
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56" t="e">
+      <c r="I11" s="53"/>
+      <c r="J11" s="54" t="e">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="55">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="56">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="59" t="e">
+      <c r="M11" s="57" t="e">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
@@ -1889,26 +1995,26 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56" t="e">
+      <c r="I12" s="53"/>
+      <c r="J12" s="54" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="59" t="e">
+      <c r="M12" s="57" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="48"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
@@ -1922,26 +2028,26 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56" t="e">
+      <c r="I13" s="53"/>
+      <c r="J13" s="54" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="59" t="e">
+      <c r="M13" s="57" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A14" s="86"/>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
@@ -1955,28 +2061,29 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61" t="e">
+      <c r="I14" s="58"/>
+      <c r="J14" s="59" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="60">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="61">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="64" t="e">
+      <c r="M14" s="62" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1989,7 +2096,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -1997,7 +2104,7 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -2056,580 +2163,720 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1">
-      <c r="A2" s="71">
+      <c r="A2" s="69">
         <v>51</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="76">
         <v>43073</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="69">
         <v>76109183</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="86">
+      <c r="K2" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="86">
+      <c r="N2" s="75">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1">
-      <c r="A3" s="71">
+      <c r="A3" s="69">
         <v>52</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="76">
         <v>43095</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="69">
         <v>76115178</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="86" t="s">
+      <c r="I3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="86">
+      <c r="N3" s="75">
         <v>18326308555</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1">
-      <c r="A4" s="71">
+      <c r="A4" s="69">
         <v>52</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="76">
         <v>43077</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="69">
         <v>76113166</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="86">
+      <c r="N4" s="75">
         <v>13913841691</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1">
-      <c r="A5" s="71">
+      <c r="A5" s="69">
         <v>2</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="76">
         <v>43105</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="69">
         <v>76119036</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="86">
+      <c r="N5" s="75">
         <v>13655118116</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="69" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1">
-      <c r="A6" s="71">
+      <c r="A6" s="69">
         <v>2</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="76">
         <v>43105</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="69">
         <v>76120311</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="75">
+        <v>15150815370</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1">
+      <c r="A7" s="69">
+        <v>3</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1">
+      <c r="A8" s="69">
+        <v>4</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="69"/>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1">
+      <c r="A9" s="69">
+        <v>5</v>
+      </c>
+      <c r="B9" s="76">
+        <v>43131</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="69">
+        <v>76128299</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="75">
+        <v>13451811185</v>
+      </c>
+      <c r="O9" s="69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1">
+      <c r="A10" s="69">
+        <v>5</v>
+      </c>
+      <c r="B10" s="76">
+        <v>43131</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="86">
-        <v>15150815370</v>
-      </c>
-      <c r="O6" s="71" t="s">
+      <c r="F10" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="69">
+        <v>76116635</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="75">
+        <v>18551671169</v>
+      </c>
+      <c r="O10" s="69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1">
+      <c r="A11" s="69">
+        <v>5</v>
+      </c>
+      <c r="B11" s="76">
+        <v>43131</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="69">
+        <v>76123028</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L11" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="75">
+        <v>13770313685</v>
+      </c>
+      <c r="O11" s="69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="69">
+        <v>5</v>
+      </c>
+      <c r="B12" s="76">
+        <v>43131</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="69">
+        <v>76129852</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="75">
+        <v>18251380104</v>
+      </c>
+      <c r="O12" s="69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1">
+      <c r="A13" s="73">
+        <v>6</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1">
+      <c r="A14" s="73">
+        <v>7</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1">
+      <c r="A15" s="73">
+        <v>8</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1">
+      <c r="A16" s="77">
+        <v>9</v>
+      </c>
+      <c r="B16" s="76">
+        <v>43158</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="73">
+        <v>76131290</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L16" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="73">
+        <v>13862265892</v>
+      </c>
+      <c r="O16" s="77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1">
+      <c r="A17" s="73">
+        <v>9</v>
+      </c>
+      <c r="B17" s="76">
+        <v>43159</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="73">
+        <v>76126619</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L17" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="73">
+        <v>18309552664</v>
+      </c>
+      <c r="O17" s="77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1">
+      <c r="A18" s="77">
+        <v>9</v>
+      </c>
+      <c r="B18" s="76">
+        <v>43159</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="73">
+        <v>76128173</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" s="73">
+        <v>13139525528</v>
+      </c>
+      <c r="O18" s="77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1">
-      <c r="A7" s="71">
-        <v>3</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="71"/>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1">
-      <c r="A8" s="71">
-        <v>4</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="71"/>
-    </row>
-    <row r="9" spans="1:15" s="9" customFormat="1">
-      <c r="A9" s="71">
-        <v>5</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="71">
-        <v>76128299</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="86" t="s">
+    <row r="19" spans="1:15" s="9" customFormat="1">
+      <c r="A19" s="77">
+        <v>9</v>
+      </c>
+      <c r="B19" s="76">
+        <v>43159</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="73">
+        <v>76128186</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K19" s="75">
         <v>18061296271</v>
       </c>
-      <c r="L9" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="86">
-        <v>13451811185</v>
-      </c>
-      <c r="O9" s="71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="9" customFormat="1">
-      <c r="A10" s="71">
-        <v>5</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="71">
-        <v>76116635</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="86">
-        <v>18061296272</v>
-      </c>
-      <c r="L10" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="86">
-        <v>18551671169</v>
-      </c>
-      <c r="O10" s="71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="9" customFormat="1">
-      <c r="A11" s="71">
-        <v>5</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="71">
-        <v>76123028</v>
-      </c>
-      <c r="H11" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="86">
-        <v>18061296273</v>
-      </c>
-      <c r="L11" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="86">
-        <v>13770313685</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="9" customFormat="1">
-      <c r="A12" s="71">
-        <v>5</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="71">
-        <v>76129852</v>
-      </c>
-      <c r="H12" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="86">
-        <v>18061296274</v>
-      </c>
-      <c r="L12" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="86">
-        <v>18251380104</v>
-      </c>
-      <c r="O12" s="71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="L19" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="73">
+        <v>18166178066</v>
+      </c>
+      <c r="O19" s="77" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
@@ -7411,15 +7658,15 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G7:G8 G13:G1048576 G1:G4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+      <formula1>"新品牌,老品牌"</formula1>
+    </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7429,10 +7676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7453,7 +7700,7 @@
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="70" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -7470,13 +7717,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="83">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="71">
         <v>43102</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -7493,11 +7740,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="83"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="71">
         <v>43102</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -7514,11 +7761,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="83"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="71">
         <v>43083</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -7535,13 +7782,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="83">
+      <c r="A5" s="90">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="71">
         <v>43102</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -7558,11 +7805,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="83"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="71">
         <v>43102</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -7579,11 +7826,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="83"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="71">
         <v>43083</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -7600,13 +7847,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="83">
+      <c r="A8" s="90">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="71">
         <v>43083</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7623,14 +7870,14 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="83"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="71">
         <v>43102</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7644,12 +7891,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="83"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="69" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="67" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -7658,16 +7905,16 @@
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="83"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="71">
         <v>43117</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7679,18 +7926,18 @@
       <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="83">
+      <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="71">
         <v>43083</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -7707,14 +7954,14 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="83"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="71">
         <v>43102</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7723,17 +7970,17 @@
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="63" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="83"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="69" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="67" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -7742,16 +7989,16 @@
       <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="83"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="71">
         <v>43117</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -7763,16 +8010,16 @@
       <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="14" t="s">
         <v>68</v>
       </c>
@@ -7786,12 +8033,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="83"/>
-      <c r="B17" s="70" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="90"/>
+      <c r="B17" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
@@ -7805,12 +8052,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="83"/>
-      <c r="B18" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="73"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="90"/>
+      <c r="B18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="71"/>
       <c r="D18" s="14" t="s">
         <v>68</v>
       </c>
@@ -7824,12 +8071,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="83"/>
-      <c r="B19" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="73"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="90"/>
+      <c r="B19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="71"/>
       <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
@@ -7843,29 +8090,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="83"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="90"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="73"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="83"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="90"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="73"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="18"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="80">
+    <row r="22" spans="1:8">
+      <c r="A22" s="87">
         <v>5</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="68" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="28"/>
@@ -7882,9 +8129,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="81"/>
-      <c r="B23" s="70" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="88"/>
+      <c r="B23" s="68" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="28"/>
@@ -7901,9 +8148,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="81"/>
-      <c r="B24" s="70" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="88"/>
+      <c r="B24" s="68" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="28"/>
@@ -7920,9 +8167,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="81"/>
-      <c r="B25" s="70" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="88"/>
+      <c r="B25" s="68" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="28"/>
@@ -7939,8 +8186,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="82"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="89"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
       <c r="D26" s="18"/>
@@ -7948,44 +8195,73 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="81"/>
+    <row r="27" spans="1:8" ht="28.5">
+      <c r="A27" s="87">
+        <v>8</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="88"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="73"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="18"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="81"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="88"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="73"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="18"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="81"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="88"/>
       <c r="B31" s="1"/>
       <c r="C31" s="28"/>
       <c r="D31" s="18"/>
@@ -7993,8 +8269,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="81"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="88"/>
       <c r="B32" s="1"/>
       <c r="C32" s="28"/>
       <c r="D32" s="18"/>
@@ -8003,7 +8279,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="81"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="1"/>
       <c r="C33" s="28"/>
       <c r="D33" s="18"/>
@@ -8012,25 +8288,25 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="81"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="73"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="18"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="81"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="73"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="18"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="81"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="1"/>
       <c r="C36" s="28"/>
       <c r="D36" s="18"/>
@@ -8039,7 +8315,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="81"/>
+      <c r="A37" s="88"/>
       <c r="B37" s="1"/>
       <c r="C37" s="28"/>
       <c r="D37" s="18"/>
@@ -8048,7 +8324,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="81"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="1"/>
       <c r="C38" s="28"/>
       <c r="D38" s="18"/>
@@ -8057,7 +8333,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="81"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="1"/>
       <c r="C39" s="28"/>
       <c r="D39" s="18"/>
@@ -8066,7 +8342,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="81"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="1"/>
       <c r="C40" s="28"/>
       <c r="D40" s="18"/>
@@ -8075,7 +8351,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="82"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="1"/>
       <c r="C41" s="28"/>
       <c r="D41" s="18"/>
@@ -8084,79 +8360,79 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="80"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="74"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="20"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="81"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="73"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="81"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="73"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="18"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="81"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="73"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="18"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="81"/>
+      <c r="A46" s="88"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="73"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="18"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="81"/>
+      <c r="A47" s="88"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="73"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="18"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="81"/>
+      <c r="A48" s="88"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="73"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="18"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="81"/>
+      <c r="A49" s="88"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="73"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="18"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="81"/>
+      <c r="A50" s="88"/>
       <c r="B50" s="1"/>
       <c r="C50" s="28"/>
       <c r="D50" s="18"/>
@@ -8165,7 +8441,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="81"/>
+      <c r="A51" s="88"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
       <c r="D51" s="18"/>
@@ -8174,7 +8450,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="81"/>
+      <c r="A52" s="88"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
       <c r="D52" s="18"/>
@@ -8183,7 +8459,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="81"/>
+      <c r="A53" s="88"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
       <c r="D53" s="18"/>
@@ -8192,7 +8468,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="81"/>
+      <c r="A54" s="88"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
       <c r="D54" s="18"/>
@@ -8201,7 +8477,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="81"/>
+      <c r="A55" s="88"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
       <c r="D55" s="18"/>
@@ -8210,315 +8486,315 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="82"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="17"/>
-      <c r="C56" s="73"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="18"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="80"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="72"/>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="81"/>
+      <c r="A58" s="88"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="73"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="81"/>
+      <c r="A59" s="88"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="73"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="20"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="81"/>
+      <c r="A60" s="88"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="73"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="81"/>
+      <c r="A61" s="88"/>
       <c r="B61" s="17"/>
-      <c r="C61" s="73"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="18"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="81"/>
+      <c r="A62" s="88"/>
       <c r="B62" s="17"/>
-      <c r="C62" s="73"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="18"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="81"/>
+      <c r="A63" s="88"/>
       <c r="B63" s="17"/>
-      <c r="C63" s="73"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="18"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="81"/>
+      <c r="A64" s="88"/>
       <c r="B64" s="17"/>
-      <c r="C64" s="73"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="18"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="81"/>
+      <c r="A65" s="88"/>
       <c r="B65" s="17"/>
-      <c r="C65" s="73"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="18"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="81"/>
+      <c r="A66" s="88"/>
       <c r="B66" s="17"/>
-      <c r="C66" s="73"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="18"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="81"/>
+      <c r="A67" s="88"/>
       <c r="B67" s="17"/>
-      <c r="C67" s="73"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="82"/>
+      <c r="A68" s="89"/>
       <c r="B68" s="17"/>
-      <c r="C68" s="73"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="18"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="80"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="74"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="20"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="81"/>
+      <c r="A70" s="88"/>
       <c r="B70" s="17"/>
-      <c r="C70" s="73"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="20"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="81"/>
+      <c r="A71" s="88"/>
       <c r="B71" s="17"/>
-      <c r="C71" s="73"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="20"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="81"/>
+      <c r="A72" s="88"/>
       <c r="B72" s="17"/>
-      <c r="C72" s="73"/>
+      <c r="C72" s="71"/>
       <c r="D72" s="20"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="81"/>
+      <c r="A73" s="88"/>
       <c r="B73" s="17"/>
-      <c r="C73" s="73"/>
+      <c r="C73" s="71"/>
       <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="81"/>
+      <c r="A74" s="88"/>
       <c r="B74" s="17"/>
-      <c r="C74" s="73"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="18"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="81"/>
+      <c r="A75" s="88"/>
       <c r="B75" s="17"/>
-      <c r="C75" s="73"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="18"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="81"/>
+      <c r="A76" s="88"/>
       <c r="B76" s="17"/>
-      <c r="C76" s="73"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="18"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="81"/>
+      <c r="A77" s="88"/>
       <c r="B77" s="17"/>
-      <c r="C77" s="73"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="18"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="81"/>
+      <c r="A78" s="88"/>
       <c r="B78" s="17"/>
-      <c r="C78" s="73"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="18"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="81"/>
+      <c r="A79" s="88"/>
       <c r="B79" s="17"/>
-      <c r="C79" s="73"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="18"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="82"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="17"/>
-      <c r="C80" s="73"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="18"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="81"/>
+      <c r="A81" s="88"/>
       <c r="B81" s="17"/>
-      <c r="C81" s="73"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="20"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="81"/>
+      <c r="A82" s="88"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="73"/>
+      <c r="C82" s="71"/>
       <c r="D82" s="20"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="81"/>
+      <c r="A83" s="88"/>
       <c r="B83" s="17"/>
-      <c r="C83" s="73"/>
+      <c r="C83" s="71"/>
       <c r="D83" s="18"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="81"/>
+      <c r="A84" s="88"/>
       <c r="B84" s="17"/>
-      <c r="C84" s="73"/>
+      <c r="C84" s="71"/>
       <c r="D84" s="18"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="81"/>
+      <c r="A85" s="88"/>
       <c r="B85" s="17"/>
-      <c r="C85" s="73"/>
+      <c r="C85" s="71"/>
       <c r="D85" s="18"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="81"/>
+      <c r="A86" s="88"/>
       <c r="B86" s="17"/>
-      <c r="C86" s="73"/>
+      <c r="C86" s="71"/>
       <c r="D86" s="18"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="81"/>
+      <c r="A87" s="88"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="73"/>
+      <c r="C87" s="71"/>
       <c r="D87" s="18"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="81"/>
+      <c r="A88" s="88"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="73"/>
+      <c r="C88" s="71"/>
       <c r="D88" s="18"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="81"/>
+      <c r="A89" s="88"/>
       <c r="B89" s="17"/>
-      <c r="C89" s="73"/>
+      <c r="C89" s="71"/>
       <c r="D89" s="18"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="82"/>
+      <c r="A90" s="89"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="73"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="18"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -8601,13 +8877,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="74" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="7">
         <v>43127</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="74" t="s">
         <v>89</v>
       </c>
     </row>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -319,6 +319,23 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>女人当家</t>
   </si>
   <si>
@@ -396,71 +413,19 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>无数据</t>
+    <t>3月7</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>南京王贵仁品牌管理有限公司</t>
+    <t>哈尔滨水饺（河西万达店）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>王贵仁砂锅麻辣烫</t>
+    <t>哈尔滨水饺</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>中卫</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁砂锅麻辣烫宁夏店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>石嘴山</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁宁夏汇融店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁怀化国际商贸城店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀化</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>候倩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯珊珊</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁洪铭</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>无锡市微热山丘贸易有限公司</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>邻町</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>无锡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯惠怡</t>
+    <t>韩总</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1008,13 +973,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,6 +1233,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,6 +1255,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,7 +1550,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1583,21 +1570,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
@@ -1720,7 +1707,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="84">
+      <c r="A5" s="86">
         <v>1</v>
       </c>
       <c r="B5" s="38">
@@ -1760,7 +1747,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="85"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -1799,7 +1786,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="85"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="38">
         <v>3</v>
       </c>
@@ -1838,7 +1825,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="85"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="43">
         <v>4</v>
       </c>
@@ -1876,7 +1863,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="85"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="43">
         <v>5</v>
       </c>
@@ -1911,14 +1898,18 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="85">
-        <v>2</v>
+      <c r="A10" s="87">
+        <v>3</v>
       </c>
       <c r="B10" s="38">
-        <v>8</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1</v>
+      </c>
       <c r="E10" s="40">
         <f t="shared" ref="E10" si="6">C10-D10</f>
         <v>0</v>
@@ -1930,25 +1921,25 @@
         <v>0</v>
       </c>
       <c r="I10" s="53"/>
-      <c r="J10" s="54" t="e">
+      <c r="J10" s="54">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K10" s="55">
         <f t="shared" ref="K10" si="9">C10+G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="56">
         <f t="shared" ref="L10" si="10">D10+G10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="57" t="e">
+        <v>1</v>
+      </c>
+      <c r="M10" s="57">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="85"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
@@ -1981,7 +1972,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="85"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
@@ -2014,7 +2005,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="85"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
@@ -2047,7 +2038,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="86"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
@@ -2095,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2104,7 +2095,7 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -2388,7 +2379,7 @@
         <v>54</v>
       </c>
       <c r="M6" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N6" s="75">
         <v>15150815370</v>
@@ -2443,26 +2434,24 @@
       <c r="A9" s="69">
         <v>5</v>
       </c>
-      <c r="B9" s="76">
-        <v>43131</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="75"/>
       <c r="D9" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>90</v>
-      </c>
       <c r="F9" s="75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" s="69">
         <v>76128299</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="75" t="s">
         <v>32</v>
@@ -2474,10 +2463,10 @@
         <v>18061296271</v>
       </c>
       <c r="L9" s="75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="75">
         <v>13451811185</v>
@@ -2490,20 +2479,18 @@
       <c r="A10" s="69">
         <v>5</v>
       </c>
-      <c r="B10" s="76">
-        <v>43131</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>29</v>
-      </c>
+      <c r="B10" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="75"/>
       <c r="D10" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="75" t="s">
-        <v>95</v>
-      </c>
       <c r="F10" s="75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="69">
         <v>76116635</v>
@@ -2521,10 +2508,10 @@
         <v>18061296271</v>
       </c>
       <c r="L10" s="75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" s="75">
         <v>18551671169</v>
@@ -2537,26 +2524,24 @@
       <c r="A11" s="69">
         <v>5</v>
       </c>
-      <c r="B11" s="76">
-        <v>43131</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>29</v>
-      </c>
+      <c r="B11" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="75"/>
       <c r="D11" s="75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" s="69">
         <v>76123028</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I11" s="75" t="s">
         <v>32</v>
@@ -2568,10 +2553,10 @@
         <v>18061296271</v>
       </c>
       <c r="L11" s="75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N11" s="75">
         <v>13770313685</v>
@@ -2584,12 +2569,10 @@
       <c r="A12" s="69">
         <v>5</v>
       </c>
-      <c r="B12" s="76">
-        <v>43131</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>29</v>
-      </c>
+      <c r="B12" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="75"/>
       <c r="D12" s="75" t="s">
         <v>78</v>
       </c>
@@ -2597,7 +2580,7 @@
         <v>78</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="69">
         <v>76129852</v>
@@ -2615,10 +2598,10 @@
         <v>18061296271</v>
       </c>
       <c r="L12" s="75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N12" s="75">
         <v>18251380104</v>
@@ -2629,34 +2612,54 @@
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1">
       <c r="A13" s="73">
-        <v>6</v>
-      </c>
-      <c r="B13" s="76"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>111</v>
+      </c>
       <c r="C13" s="73"/>
       <c r="D13" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+        <v>112</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="73">
+        <v>76133273</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L13" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="73">
+        <v>15955551912</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1">
-      <c r="A14" s="73">
-        <v>7</v>
-      </c>
+      <c r="A14" s="73"/>
       <c r="B14" s="78"/>
       <c r="C14" s="73"/>
-      <c r="D14" s="75" t="s">
-        <v>110</v>
-      </c>
+      <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="73"/>
@@ -2670,14 +2673,10 @@
       <c r="O14" s="73"/>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1">
-      <c r="A15" s="73">
-        <v>8</v>
-      </c>
+      <c r="A15" s="73"/>
       <c r="B15" s="78"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="75" t="s">
-        <v>110</v>
-      </c>
+      <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
@@ -2691,192 +2690,72 @@
       <c r="O15" s="73"/>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1">
-      <c r="A16" s="77">
-        <v>9</v>
-      </c>
-      <c r="B16" s="76">
-        <v>43158</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="73">
-        <v>76131290</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L16" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="73">
-        <v>13862265892</v>
-      </c>
-      <c r="O16" s="77" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="73"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
     </row>
     <row r="17" spans="1:15" s="9" customFormat="1">
-      <c r="A17" s="73">
-        <v>9</v>
-      </c>
-      <c r="B17" s="76">
-        <v>43159</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="73">
-        <v>76126619</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L17" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" s="73">
-        <v>18309552664</v>
-      </c>
-      <c r="O17" s="77" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="73"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
     </row>
     <row r="18" spans="1:15" s="9" customFormat="1">
-      <c r="A18" s="77">
-        <v>9</v>
-      </c>
-      <c r="B18" s="76">
-        <v>43159</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="73">
-        <v>76128173</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L18" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="N18" s="73">
-        <v>13139525528</v>
-      </c>
-      <c r="O18" s="77" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="73"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
     </row>
     <row r="19" spans="1:15" s="9" customFormat="1">
-      <c r="A19" s="77">
-        <v>9</v>
-      </c>
-      <c r="B19" s="76">
-        <v>43159</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="73">
-        <v>76128186</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L19" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="N19" s="73">
-        <v>18166178066</v>
-      </c>
-      <c r="O19" s="77" t="s">
-        <v>44</v>
-      </c>
+      <c r="A19" s="73"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
@@ -7658,15 +7537,15 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G7:G8 G13:G1048576 G1:G4"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"新品牌,老品牌"</formula1>
-    </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+      <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7678,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7717,7 +7596,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="90">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -7740,7 +7619,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="90"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7761,7 +7640,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="90"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
@@ -7782,7 +7661,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="90">
+      <c r="A5" s="93">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -7805,7 +7684,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="90"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
@@ -7826,7 +7705,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="90"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
@@ -7847,7 +7726,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="90">
+      <c r="A8" s="93">
         <v>3</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7870,7 +7749,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="90"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
@@ -7891,7 +7770,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="90"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="63" t="s">
         <v>77</v>
       </c>
@@ -7910,7 +7789,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="90"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="63" t="s">
         <v>78</v>
       </c>
@@ -7931,7 +7810,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="90">
+      <c r="A12" s="93">
         <v>4</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -7954,7 +7833,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="90"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
@@ -7975,7 +7854,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="90"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
@@ -7994,7 +7873,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="90"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="63" t="s">
         <v>78</v>
       </c>
@@ -8015,7 +7894,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="90"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="68" t="s">
         <v>82</v>
       </c>
@@ -8034,7 +7913,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="90"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="68" t="s">
         <v>83</v>
       </c>
@@ -8053,9 +7932,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="90"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="14" t="s">
@@ -8072,9 +7951,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="90"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="14" t="s">
@@ -8091,7 +7970,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="90"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="17"/>
       <c r="C20" s="71"/>
       <c r="D20" s="18"/>
@@ -8100,7 +7979,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="90"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="17"/>
       <c r="C21" s="71"/>
       <c r="D21" s="18"/>
@@ -8109,7 +7988,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="87">
+      <c r="A22" s="90">
         <v>5</v>
       </c>
       <c r="B22" s="68" t="s">
@@ -8130,7 +8009,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="88"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="68" t="s">
         <v>83</v>
       </c>
@@ -8149,7 +8028,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="88"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="68" t="s">
         <v>84</v>
       </c>
@@ -8168,7 +8047,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="88"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="68" t="s">
         <v>85</v>
       </c>
@@ -8187,7 +8066,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="89"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
       <c r="D26" s="18"/>
@@ -8196,17 +8075,17 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="87">
+      <c r="A27" s="90">
         <v>8</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>86</v>
@@ -8218,19 +8097,19 @@
         <v>64</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="88"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="72" t="s">
-        <v>102</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>86</v>
@@ -8239,11 +8118,11 @@
         <v>69</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="88"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="17"/>
       <c r="C29" s="71"/>
       <c r="D29" s="18"/>
@@ -8252,7 +8131,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="88"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="17"/>
       <c r="C30" s="71"/>
       <c r="D30" s="18"/>
@@ -8261,7 +8140,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="88"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="1"/>
       <c r="C31" s="28"/>
       <c r="D31" s="18"/>
@@ -8270,7 +8149,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="88"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="1"/>
       <c r="C32" s="28"/>
       <c r="D32" s="18"/>
@@ -8279,7 +8158,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="88"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="1"/>
       <c r="C33" s="28"/>
       <c r="D33" s="18"/>
@@ -8288,7 +8167,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="88"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="17"/>
       <c r="C34" s="71"/>
       <c r="D34" s="18"/>
@@ -8297,7 +8176,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="88"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="17"/>
       <c r="C35" s="71"/>
       <c r="D35" s="18"/>
@@ -8306,7 +8185,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="88"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="1"/>
       <c r="C36" s="28"/>
       <c r="D36" s="18"/>
@@ -8315,7 +8194,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="88"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="1"/>
       <c r="C37" s="28"/>
       <c r="D37" s="18"/>
@@ -8324,7 +8203,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="88"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="1"/>
       <c r="C38" s="28"/>
       <c r="D38" s="18"/>
@@ -8333,7 +8212,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="88"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="1"/>
       <c r="C39" s="28"/>
       <c r="D39" s="18"/>
@@ -8342,7 +8221,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="88"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="1"/>
       <c r="C40" s="28"/>
       <c r="D40" s="18"/>
@@ -8351,7 +8230,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="89"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="1"/>
       <c r="C41" s="28"/>
       <c r="D41" s="18"/>
@@ -8360,7 +8239,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="87"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="17"/>
       <c r="C42" s="72"/>
       <c r="D42" s="20"/>
@@ -8369,7 +8248,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="88"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="17"/>
       <c r="C43" s="71"/>
       <c r="D43" s="20"/>
@@ -8378,7 +8257,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="88"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="17"/>
       <c r="C44" s="71"/>
       <c r="D44" s="18"/>
@@ -8387,7 +8266,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="88"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="17"/>
       <c r="C45" s="71"/>
       <c r="D45" s="18"/>
@@ -8396,7 +8275,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="88"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="17"/>
       <c r="C46" s="71"/>
       <c r="D46" s="18"/>
@@ -8405,7 +8284,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="88"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="17"/>
       <c r="C47" s="71"/>
       <c r="D47" s="18"/>
@@ -8414,7 +8293,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="88"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="17"/>
       <c r="C48" s="71"/>
       <c r="D48" s="18"/>
@@ -8423,7 +8302,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="88"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="17"/>
       <c r="C49" s="71"/>
       <c r="D49" s="18"/>
@@ -8432,7 +8311,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="88"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="1"/>
       <c r="C50" s="28"/>
       <c r="D50" s="18"/>
@@ -8441,7 +8320,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="88"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
       <c r="D51" s="18"/>
@@ -8450,7 +8329,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="88"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
       <c r="D52" s="18"/>
@@ -8459,7 +8338,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="88"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
       <c r="D53" s="18"/>
@@ -8468,7 +8347,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="88"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
       <c r="D54" s="18"/>
@@ -8477,7 +8356,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="88"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
       <c r="D55" s="18"/>
@@ -8486,7 +8365,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="89"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="17"/>
       <c r="C56" s="71"/>
       <c r="D56" s="18"/>
@@ -8495,7 +8374,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="87"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="17"/>
       <c r="C57" s="72"/>
       <c r="D57" s="20"/>
@@ -8504,7 +8383,7 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="88"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="17"/>
       <c r="C58" s="71"/>
       <c r="D58" s="20"/>
@@ -8513,7 +8392,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="88"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="17"/>
       <c r="C59" s="71"/>
       <c r="D59" s="20"/>
@@ -8522,7 +8401,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="88"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="17"/>
       <c r="C60" s="71"/>
       <c r="D60" s="20"/>
@@ -8531,7 +8410,7 @@
       <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="88"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="17"/>
       <c r="C61" s="71"/>
       <c r="D61" s="18"/>
@@ -8540,7 +8419,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="88"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="17"/>
       <c r="C62" s="71"/>
       <c r="D62" s="18"/>
@@ -8549,7 +8428,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="88"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="17"/>
       <c r="C63" s="71"/>
       <c r="D63" s="18"/>
@@ -8558,7 +8437,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="88"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="17"/>
       <c r="C64" s="71"/>
       <c r="D64" s="18"/>
@@ -8567,7 +8446,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="88"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="17"/>
       <c r="C65" s="71"/>
       <c r="D65" s="18"/>
@@ -8576,7 +8455,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="88"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="17"/>
       <c r="C66" s="71"/>
       <c r="D66" s="18"/>
@@ -8585,7 +8464,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="88"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="17"/>
       <c r="C67" s="71"/>
       <c r="D67" s="18"/>
@@ -8594,7 +8473,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="89"/>
+      <c r="A68" s="92"/>
       <c r="B68" s="17"/>
       <c r="C68" s="71"/>
       <c r="D68" s="18"/>
@@ -8603,7 +8482,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="87"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="17"/>
       <c r="C69" s="72"/>
       <c r="D69" s="20"/>
@@ -8612,7 +8491,7 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="88"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="17"/>
       <c r="C70" s="71"/>
       <c r="D70" s="20"/>
@@ -8621,7 +8500,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="88"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="17"/>
       <c r="C71" s="71"/>
       <c r="D71" s="20"/>
@@ -8630,7 +8509,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="88"/>
+      <c r="A72" s="91"/>
       <c r="B72" s="17"/>
       <c r="C72" s="71"/>
       <c r="D72" s="20"/>
@@ -8639,7 +8518,7 @@
       <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="88"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="17"/>
       <c r="C73" s="71"/>
       <c r="D73" s="18"/>
@@ -8648,7 +8527,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="88"/>
+      <c r="A74" s="91"/>
       <c r="B74" s="17"/>
       <c r="C74" s="71"/>
       <c r="D74" s="18"/>
@@ -8657,7 +8536,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="88"/>
+      <c r="A75" s="91"/>
       <c r="B75" s="17"/>
       <c r="C75" s="71"/>
       <c r="D75" s="18"/>
@@ -8666,7 +8545,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="88"/>
+      <c r="A76" s="91"/>
       <c r="B76" s="17"/>
       <c r="C76" s="71"/>
       <c r="D76" s="18"/>
@@ -8675,7 +8554,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="88"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="17"/>
       <c r="C77" s="71"/>
       <c r="D77" s="18"/>
@@ -8684,7 +8563,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="88"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="17"/>
       <c r="C78" s="71"/>
       <c r="D78" s="18"/>
@@ -8693,7 +8572,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="88"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="17"/>
       <c r="C79" s="71"/>
       <c r="D79" s="18"/>
@@ -8702,7 +8581,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="89"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="17"/>
       <c r="C80" s="71"/>
       <c r="D80" s="18"/>
@@ -8711,7 +8590,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="88"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="17"/>
       <c r="C81" s="71"/>
       <c r="D81" s="20"/>
@@ -8720,7 +8599,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="88"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="17"/>
       <c r="C82" s="71"/>
       <c r="D82" s="20"/>
@@ -8729,7 +8608,7 @@
       <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="88"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="17"/>
       <c r="C83" s="71"/>
       <c r="D83" s="18"/>
@@ -8738,7 +8617,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="88"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="17"/>
       <c r="C84" s="71"/>
       <c r="D84" s="18"/>
@@ -8747,7 +8626,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="88"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="17"/>
       <c r="C85" s="71"/>
       <c r="D85" s="18"/>
@@ -8756,7 +8635,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="88"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="17"/>
       <c r="C86" s="71"/>
       <c r="D86" s="18"/>
@@ -8765,7 +8644,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="88"/>
+      <c r="A87" s="91"/>
       <c r="B87" s="17"/>
       <c r="C87" s="71"/>
       <c r="D87" s="18"/>
@@ -8774,7 +8653,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="88"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="17"/>
       <c r="C88" s="71"/>
       <c r="D88" s="18"/>
@@ -8783,7 +8662,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="88"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="17"/>
       <c r="C89" s="71"/>
       <c r="D89" s="18"/>
@@ -8792,7 +8671,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="89"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="17"/>
       <c r="C90" s="71"/>
       <c r="D90" s="18"/>
@@ -8801,17 +8680,18 @@
       <c r="G90" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A69:A80"/>
     <mergeCell ref="A81:A90"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A27:A41"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
     <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
@@ -8833,7 +8713,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="137">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -428,6 +428,106 @@
     <t>韩总</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州木渎大润发店</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄纯伟</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王化洲</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T负责人</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京王贵仁品牌管理有限公司</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁砂锅麻辣烫</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁东莞店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁砂锅麻辣烫牡丹江店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁麻辣烫齐齐哈尔店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁麻辣烫丽水店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>范应奇</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯军</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁泽</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雪磊</t>
+  </si>
+  <si>
+    <t>壹道先生</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>古彭城地锅鸡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +639,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -992,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,6 +1346,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,6 +1383,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,7 +1663,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1570,21 +1683,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
@@ -1707,7 +1820,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="86">
+      <c r="A5" s="87">
         <v>1</v>
       </c>
       <c r="B5" s="38">
@@ -1747,7 +1860,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="87"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -1786,7 +1899,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="87"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="38">
         <v>3</v>
       </c>
@@ -1825,7 +1938,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="87"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="43">
         <v>4</v>
       </c>
@@ -1863,7 +1976,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="43">
         <v>5</v>
       </c>
@@ -1898,7 +2011,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="87">
+      <c r="A10" s="88">
         <v>3</v>
       </c>
       <c r="B10" s="38">
@@ -1939,13 +2052,19 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="87"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="38">
+        <v>13</v>
+      </c>
+      <c r="C11" s="39">
+        <v>8</v>
+      </c>
+      <c r="D11" s="40">
+        <v>6</v>
+      </c>
       <c r="E11" s="40">
         <f t="shared" ref="E11:E14" si="12">C11-D11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
@@ -1954,25 +2073,25 @@
         <v>0</v>
       </c>
       <c r="I11" s="53"/>
-      <c r="J11" s="54" t="e">
+      <c r="J11" s="54">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K11" s="55">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L11" s="56">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="57" t="e">
+        <v>6</v>
+      </c>
+      <c r="M11" s="57">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="87"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
@@ -2005,7 +2124,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="87"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
@@ -2038,7 +2157,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
@@ -2086,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2095,7 +2214,7 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -2673,89 +2792,239 @@
       <c r="O14" s="73"/>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
+      <c r="A15" s="82">
+        <v>13</v>
+      </c>
+      <c r="B15" s="95">
+        <v>43187</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="82">
+        <v>76132952</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="82">
+        <v>17602558329</v>
+      </c>
+      <c r="L15" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="82">
+        <v>18020275119</v>
+      </c>
+      <c r="O15" s="82" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
+      <c r="A16" s="82">
+        <v>13</v>
+      </c>
+      <c r="B16" s="95">
+        <v>43187</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="73">
+        <v>76137157</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L16" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="73">
+        <v>13377789827</v>
+      </c>
+      <c r="O16" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:15" s="9" customFormat="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
+      <c r="A17" s="82">
+        <v>13</v>
+      </c>
+      <c r="B17" s="95">
+        <v>43187</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="73">
+        <v>76138176</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L17" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="73">
+        <v>15765025678</v>
+      </c>
+      <c r="O17" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:15" s="9" customFormat="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
+      <c r="A18" s="82">
+        <v>13</v>
+      </c>
+      <c r="B18" s="95">
+        <v>43187</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="73">
+        <v>76152209</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="73">
+        <v>13836247287</v>
+      </c>
+      <c r="O18" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:15" s="9" customFormat="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
+      <c r="A19" s="82">
+        <v>13</v>
+      </c>
+      <c r="B19" s="95">
+        <v>43187</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="73">
+        <v>76152210</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L19" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="73">
+        <v>18358878921</v>
+      </c>
+      <c r="O19" s="82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
@@ -2766,13 +3035,13 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="75"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="82"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
@@ -7543,7 +7812,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G14 G16:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
@@ -7557,8 +7826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7596,7 +7865,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="93">
+      <c r="A2" s="94">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -7619,7 +7888,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7640,7 +7909,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
@@ -7661,7 +7930,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93">
+      <c r="A5" s="94">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -7684,7 +7953,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
@@ -7705,7 +7974,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
@@ -7726,7 +7995,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93">
+      <c r="A8" s="94">
         <v>3</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7749,7 +8018,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
@@ -7770,7 +8039,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="93"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="63" t="s">
         <v>77</v>
       </c>
@@ -7789,7 +8058,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="93"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="63" t="s">
         <v>78</v>
       </c>
@@ -7810,7 +8079,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="93">
+      <c r="A12" s="94">
         <v>4</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -7833,7 +8102,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="93"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
@@ -7854,7 +8123,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="93"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
@@ -7873,7 +8142,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="93"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="63" t="s">
         <v>78</v>
       </c>
@@ -7894,7 +8163,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="93"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="68" t="s">
         <v>82</v>
       </c>
@@ -7913,7 +8182,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="93"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="68" t="s">
         <v>83</v>
       </c>
@@ -7932,7 +8201,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="93"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="16" t="s">
         <v>108</v>
       </c>
@@ -7951,7 +8220,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="93"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="16" t="s">
         <v>107</v>
       </c>
@@ -7970,7 +8239,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="93"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="17"/>
       <c r="C20" s="71"/>
       <c r="D20" s="18"/>
@@ -7979,7 +8248,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="93"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="17"/>
       <c r="C21" s="71"/>
       <c r="D21" s="18"/>
@@ -7988,7 +8257,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="90">
+      <c r="A22" s="91">
         <v>5</v>
       </c>
       <c r="B22" s="68" t="s">
@@ -8009,7 +8278,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="91"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="68" t="s">
         <v>83</v>
       </c>
@@ -8028,7 +8297,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="91"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="68" t="s">
         <v>84</v>
       </c>
@@ -8047,7 +8316,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="91"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="68" t="s">
         <v>85</v>
       </c>
@@ -8066,7 +8335,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="92"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
       <c r="D26" s="18"/>
@@ -8075,7 +8344,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="90">
+      <c r="A27" s="91">
         <v>8</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -8101,7 +8370,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="92"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="19" t="s">
         <v>104</v>
       </c>
@@ -8121,26 +8390,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="91"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="91"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="94">
+        <v>13</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="94"/>
+      <c r="B30" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="91"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="1"/>
       <c r="C31" s="28"/>
       <c r="D31" s="18"/>
@@ -8239,7 +8534,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="17"/>
       <c r="C42" s="72"/>
       <c r="D42" s="20"/>
@@ -8248,7 +8543,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="91"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="17"/>
       <c r="C43" s="71"/>
       <c r="D43" s="20"/>
@@ -8257,7 +8552,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="91"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="17"/>
       <c r="C44" s="71"/>
       <c r="D44" s="18"/>
@@ -8266,7 +8561,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="91"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="17"/>
       <c r="C45" s="71"/>
       <c r="D45" s="18"/>
@@ -8275,7 +8570,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="91"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="17"/>
       <c r="C46" s="71"/>
       <c r="D46" s="18"/>
@@ -8284,7 +8579,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="91"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="17"/>
       <c r="C47" s="71"/>
       <c r="D47" s="18"/>
@@ -8293,7 +8588,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="91"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="17"/>
       <c r="C48" s="71"/>
       <c r="D48" s="18"/>
@@ -8302,7 +8597,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="91"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="17"/>
       <c r="C49" s="71"/>
       <c r="D49" s="18"/>
@@ -8311,7 +8606,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="91"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="1"/>
       <c r="C50" s="28"/>
       <c r="D50" s="18"/>
@@ -8320,7 +8615,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="91"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
       <c r="D51" s="18"/>
@@ -8329,7 +8624,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="91"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
       <c r="D52" s="18"/>
@@ -8338,7 +8633,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="91"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
       <c r="D53" s="18"/>
@@ -8347,7 +8642,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="91"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
       <c r="D54" s="18"/>
@@ -8356,7 +8651,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="91"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
       <c r="D55" s="18"/>
@@ -8365,7 +8660,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="92"/>
+      <c r="A56" s="93"/>
       <c r="B56" s="17"/>
       <c r="C56" s="71"/>
       <c r="D56" s="18"/>
@@ -8374,7 +8669,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="90"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="17"/>
       <c r="C57" s="72"/>
       <c r="D57" s="20"/>
@@ -8383,7 +8678,7 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="91"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="17"/>
       <c r="C58" s="71"/>
       <c r="D58" s="20"/>
@@ -8392,7 +8687,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="91"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="17"/>
       <c r="C59" s="71"/>
       <c r="D59" s="20"/>
@@ -8401,7 +8696,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="91"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="17"/>
       <c r="C60" s="71"/>
       <c r="D60" s="20"/>
@@ -8410,7 +8705,7 @@
       <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="91"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="17"/>
       <c r="C61" s="71"/>
       <c r="D61" s="18"/>
@@ -8419,7 +8714,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="91"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="17"/>
       <c r="C62" s="71"/>
       <c r="D62" s="18"/>
@@ -8428,7 +8723,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="91"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="17"/>
       <c r="C63" s="71"/>
       <c r="D63" s="18"/>
@@ -8437,7 +8732,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="91"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="17"/>
       <c r="C64" s="71"/>
       <c r="D64" s="18"/>
@@ -8446,7 +8741,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="91"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="17"/>
       <c r="C65" s="71"/>
       <c r="D65" s="18"/>
@@ -8455,7 +8750,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="91"/>
+      <c r="A66" s="92"/>
       <c r="B66" s="17"/>
       <c r="C66" s="71"/>
       <c r="D66" s="18"/>
@@ -8464,7 +8759,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="91"/>
+      <c r="A67" s="92"/>
       <c r="B67" s="17"/>
       <c r="C67" s="71"/>
       <c r="D67" s="18"/>
@@ -8473,7 +8768,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="92"/>
+      <c r="A68" s="93"/>
       <c r="B68" s="17"/>
       <c r="C68" s="71"/>
       <c r="D68" s="18"/>
@@ -8482,7 +8777,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="90"/>
+      <c r="A69" s="91"/>
       <c r="B69" s="17"/>
       <c r="C69" s="72"/>
       <c r="D69" s="20"/>
@@ -8491,7 +8786,7 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="91"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="17"/>
       <c r="C70" s="71"/>
       <c r="D70" s="20"/>
@@ -8500,7 +8795,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="91"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="17"/>
       <c r="C71" s="71"/>
       <c r="D71" s="20"/>
@@ -8509,7 +8804,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="91"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="17"/>
       <c r="C72" s="71"/>
       <c r="D72" s="20"/>
@@ -8518,7 +8813,7 @@
       <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="91"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="17"/>
       <c r="C73" s="71"/>
       <c r="D73" s="18"/>
@@ -8527,7 +8822,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="91"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="17"/>
       <c r="C74" s="71"/>
       <c r="D74" s="18"/>
@@ -8536,7 +8831,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="91"/>
+      <c r="A75" s="92"/>
       <c r="B75" s="17"/>
       <c r="C75" s="71"/>
       <c r="D75" s="18"/>
@@ -8545,7 +8840,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="91"/>
+      <c r="A76" s="92"/>
       <c r="B76" s="17"/>
       <c r="C76" s="71"/>
       <c r="D76" s="18"/>
@@ -8554,7 +8849,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="91"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="17"/>
       <c r="C77" s="71"/>
       <c r="D77" s="18"/>
@@ -8563,7 +8858,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="91"/>
+      <c r="A78" s="92"/>
       <c r="B78" s="17"/>
       <c r="C78" s="71"/>
       <c r="D78" s="18"/>
@@ -8572,7 +8867,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="91"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="17"/>
       <c r="C79" s="71"/>
       <c r="D79" s="18"/>
@@ -8581,7 +8876,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="92"/>
+      <c r="A80" s="93"/>
       <c r="B80" s="17"/>
       <c r="C80" s="71"/>
       <c r="D80" s="18"/>
@@ -8590,7 +8885,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="91"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="17"/>
       <c r="C81" s="71"/>
       <c r="D81" s="20"/>
@@ -8599,7 +8894,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="91"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="17"/>
       <c r="C82" s="71"/>
       <c r="D82" s="20"/>
@@ -8608,7 +8903,7 @@
       <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="91"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="17"/>
       <c r="C83" s="71"/>
       <c r="D83" s="18"/>
@@ -8617,7 +8912,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="91"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="17"/>
       <c r="C84" s="71"/>
       <c r="D84" s="18"/>
@@ -8626,7 +8921,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="91"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="17"/>
       <c r="C85" s="71"/>
       <c r="D85" s="18"/>
@@ -8635,7 +8930,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="91"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="17"/>
       <c r="C86" s="71"/>
       <c r="D86" s="18"/>
@@ -8644,7 +8939,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="91"/>
+      <c r="A87" s="92"/>
       <c r="B87" s="17"/>
       <c r="C87" s="71"/>
       <c r="D87" s="18"/>
@@ -8653,7 +8948,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="91"/>
+      <c r="A88" s="92"/>
       <c r="B88" s="17"/>
       <c r="C88" s="71"/>
       <c r="D88" s="18"/>
@@ -8662,7 +8957,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="91"/>
+      <c r="A89" s="92"/>
       <c r="B89" s="17"/>
       <c r="C89" s="71"/>
       <c r="D89" s="18"/>
@@ -8671,7 +8966,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="92"/>
+      <c r="A90" s="93"/>
       <c r="B90" s="17"/>
       <c r="C90" s="71"/>
       <c r="D90" s="18"/>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -526,6 +526,14 @@
   </si>
   <si>
     <t>古彭城地锅鸡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁良乡北关西路店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云华</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1357,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,9 +1397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1683,21 +1694,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
@@ -1820,7 +1831,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="87">
+      <c r="A5" s="89">
         <v>1</v>
       </c>
       <c r="B5" s="38">
@@ -1860,7 +1871,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="88"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -1899,7 +1910,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="88"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="38">
         <v>3</v>
       </c>
@@ -1938,7 +1949,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="88"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="43">
         <v>4</v>
       </c>
@@ -1976,7 +1987,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="43">
         <v>5</v>
       </c>
@@ -2011,7 +2022,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="88">
+      <c r="A10" s="90">
         <v>3</v>
       </c>
       <c r="B10" s="38">
@@ -2052,7 +2063,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="88"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="38">
         <v>13</v>
       </c>
@@ -2091,7 +2102,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="88"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
@@ -2124,7 +2135,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="88"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
@@ -2157,7 +2168,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="90"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
@@ -2205,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2795,7 +2806,7 @@
       <c r="A15" s="82">
         <v>13</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="84">
         <v>43187</v>
       </c>
       <c r="C15" s="75" t="s">
@@ -2842,7 +2853,7 @@
       <c r="A16" s="82">
         <v>13</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="84">
         <v>43187</v>
       </c>
       <c r="C16" s="75" t="s">
@@ -2889,7 +2900,7 @@
       <c r="A17" s="82">
         <v>13</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="84">
         <v>43187</v>
       </c>
       <c r="C17" s="75" t="s">
@@ -2936,7 +2947,7 @@
       <c r="A18" s="82">
         <v>13</v>
       </c>
-      <c r="B18" s="95">
+      <c r="B18" s="84">
         <v>43187</v>
       </c>
       <c r="C18" s="75" t="s">
@@ -2983,7 +2994,7 @@
       <c r="A19" s="82">
         <v>13</v>
       </c>
-      <c r="B19" s="95">
+      <c r="B19" s="84">
         <v>43187</v>
       </c>
       <c r="C19" s="75" t="s">
@@ -3026,22 +3037,52 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="82"/>
+    <row r="20" spans="1:15" s="9" customFormat="1">
+      <c r="A20" s="83">
+        <v>13</v>
+      </c>
+      <c r="B20" s="84">
+        <v>43187</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="83">
+        <v>76128178</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="75">
+        <v>18061296271</v>
+      </c>
+      <c r="L20" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="83">
+        <v>15611074292</v>
+      </c>
+      <c r="O20" s="83" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
@@ -7865,7 +7906,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="94">
+      <c r="A2" s="96">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -7888,7 +7929,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="94"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7909,7 +7950,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="94"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
@@ -7930,7 +7971,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="94">
+      <c r="A5" s="96">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -7953,7 +7994,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="94"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
@@ -7974,7 +8015,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="94"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
@@ -7995,7 +8036,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="94">
+      <c r="A8" s="96">
         <v>3</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -8018,7 +8059,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="94"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
@@ -8039,7 +8080,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="94"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="63" t="s">
         <v>77</v>
       </c>
@@ -8058,7 +8099,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="94"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="63" t="s">
         <v>78</v>
       </c>
@@ -8079,7 +8120,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="94">
+      <c r="A12" s="96">
         <v>4</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -8102,7 +8143,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="94"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
@@ -8123,7 +8164,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="94"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
@@ -8142,7 +8183,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="94"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="63" t="s">
         <v>78</v>
       </c>
@@ -8163,7 +8204,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="94"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="68" t="s">
         <v>82</v>
       </c>
@@ -8182,7 +8223,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="94"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="68" t="s">
         <v>83</v>
       </c>
@@ -8201,7 +8242,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="94"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="16" t="s">
         <v>108</v>
       </c>
@@ -8220,7 +8261,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="94"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="16" t="s">
         <v>107</v>
       </c>
@@ -8239,7 +8280,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="94"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="17"/>
       <c r="C20" s="71"/>
       <c r="D20" s="18"/>
@@ -8248,7 +8289,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="94"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="17"/>
       <c r="C21" s="71"/>
       <c r="D21" s="18"/>
@@ -8257,7 +8298,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="91">
+      <c r="A22" s="93">
         <v>5</v>
       </c>
       <c r="B22" s="68" t="s">
@@ -8278,7 +8319,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="92"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="68" t="s">
         <v>83</v>
       </c>
@@ -8297,7 +8338,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="92"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="68" t="s">
         <v>84</v>
       </c>
@@ -8316,7 +8357,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="92"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="68" t="s">
         <v>85</v>
       </c>
@@ -8335,7 +8376,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="93"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
       <c r="D26" s="18"/>
@@ -8344,7 +8385,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="91">
+      <c r="A27" s="93">
         <v>8</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -8370,7 +8411,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="93"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="19" t="s">
         <v>104</v>
       </c>
@@ -8391,7 +8432,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="94">
+      <c r="A29" s="96">
         <v>13</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -8414,7 +8455,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="17" t="s">
         <v>136</v>
       </c>
@@ -8435,7 +8476,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="94"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="1"/>
       <c r="C31" s="28"/>
       <c r="D31" s="18"/>
@@ -8534,7 +8575,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="91"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="17"/>
       <c r="C42" s="72"/>
       <c r="D42" s="20"/>
@@ -8543,7 +8584,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="92"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="17"/>
       <c r="C43" s="71"/>
       <c r="D43" s="20"/>
@@ -8552,7 +8593,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="92"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="17"/>
       <c r="C44" s="71"/>
       <c r="D44" s="18"/>
@@ -8561,7 +8602,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="92"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="17"/>
       <c r="C45" s="71"/>
       <c r="D45" s="18"/>
@@ -8570,7 +8611,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="92"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="17"/>
       <c r="C46" s="71"/>
       <c r="D46" s="18"/>
@@ -8579,7 +8620,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="92"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="17"/>
       <c r="C47" s="71"/>
       <c r="D47" s="18"/>
@@ -8588,7 +8629,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="92"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="17"/>
       <c r="C48" s="71"/>
       <c r="D48" s="18"/>
@@ -8597,7 +8638,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="92"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="17"/>
       <c r="C49" s="71"/>
       <c r="D49" s="18"/>
@@ -8606,7 +8647,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="92"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="1"/>
       <c r="C50" s="28"/>
       <c r="D50" s="18"/>
@@ -8615,7 +8656,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="92"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
       <c r="D51" s="18"/>
@@ -8624,7 +8665,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="92"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
       <c r="D52" s="18"/>
@@ -8633,7 +8674,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="92"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
       <c r="D53" s="18"/>
@@ -8642,7 +8683,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="92"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
       <c r="D54" s="18"/>
@@ -8651,7 +8692,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="92"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
       <c r="D55" s="18"/>
@@ -8660,7 +8701,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="93"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="17"/>
       <c r="C56" s="71"/>
       <c r="D56" s="18"/>
@@ -8669,7 +8710,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="91"/>
+      <c r="A57" s="93"/>
       <c r="B57" s="17"/>
       <c r="C57" s="72"/>
       <c r="D57" s="20"/>
@@ -8678,7 +8719,7 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="92"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="17"/>
       <c r="C58" s="71"/>
       <c r="D58" s="20"/>
@@ -8687,7 +8728,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="92"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="17"/>
       <c r="C59" s="71"/>
       <c r="D59" s="20"/>
@@ -8696,7 +8737,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="92"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="17"/>
       <c r="C60" s="71"/>
       <c r="D60" s="20"/>
@@ -8705,7 +8746,7 @@
       <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="92"/>
+      <c r="A61" s="94"/>
       <c r="B61" s="17"/>
       <c r="C61" s="71"/>
       <c r="D61" s="18"/>
@@ -8714,7 +8755,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="92"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="17"/>
       <c r="C62" s="71"/>
       <c r="D62" s="18"/>
@@ -8723,7 +8764,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="92"/>
+      <c r="A63" s="94"/>
       <c r="B63" s="17"/>
       <c r="C63" s="71"/>
       <c r="D63" s="18"/>
@@ -8732,7 +8773,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="92"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="17"/>
       <c r="C64" s="71"/>
       <c r="D64" s="18"/>
@@ -8741,7 +8782,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="92"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="17"/>
       <c r="C65" s="71"/>
       <c r="D65" s="18"/>
@@ -8750,7 +8791,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="92"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="17"/>
       <c r="C66" s="71"/>
       <c r="D66" s="18"/>
@@ -8759,7 +8800,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="92"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="17"/>
       <c r="C67" s="71"/>
       <c r="D67" s="18"/>
@@ -8768,7 +8809,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="93"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="17"/>
       <c r="C68" s="71"/>
       <c r="D68" s="18"/>
@@ -8777,7 +8818,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="91"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="17"/>
       <c r="C69" s="72"/>
       <c r="D69" s="20"/>
@@ -8786,7 +8827,7 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="92"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="17"/>
       <c r="C70" s="71"/>
       <c r="D70" s="20"/>
@@ -8795,7 +8836,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="92"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="17"/>
       <c r="C71" s="71"/>
       <c r="D71" s="20"/>
@@ -8804,7 +8845,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="92"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="17"/>
       <c r="C72" s="71"/>
       <c r="D72" s="20"/>
@@ -8813,7 +8854,7 @@
       <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="92"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="17"/>
       <c r="C73" s="71"/>
       <c r="D73" s="18"/>
@@ -8822,7 +8863,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="92"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="17"/>
       <c r="C74" s="71"/>
       <c r="D74" s="18"/>
@@ -8831,7 +8872,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="92"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="17"/>
       <c r="C75" s="71"/>
       <c r="D75" s="18"/>
@@ -8840,7 +8881,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="92"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="17"/>
       <c r="C76" s="71"/>
       <c r="D76" s="18"/>
@@ -8849,7 +8890,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="92"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="17"/>
       <c r="C77" s="71"/>
       <c r="D77" s="18"/>
@@ -8858,7 +8899,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="92"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="17"/>
       <c r="C78" s="71"/>
       <c r="D78" s="18"/>
@@ -8867,7 +8908,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="92"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="17"/>
       <c r="C79" s="71"/>
       <c r="D79" s="18"/>
@@ -8876,7 +8917,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="93"/>
+      <c r="A80" s="95"/>
       <c r="B80" s="17"/>
       <c r="C80" s="71"/>
       <c r="D80" s="18"/>
@@ -8885,7 +8926,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="92"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="17"/>
       <c r="C81" s="71"/>
       <c r="D81" s="20"/>
@@ -8894,7 +8935,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="92"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="17"/>
       <c r="C82" s="71"/>
       <c r="D82" s="20"/>
@@ -8903,7 +8944,7 @@
       <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="92"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="17"/>
       <c r="C83" s="71"/>
       <c r="D83" s="18"/>
@@ -8912,7 +8953,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="92"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="17"/>
       <c r="C84" s="71"/>
       <c r="D84" s="18"/>
@@ -8921,7 +8962,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="92"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="17"/>
       <c r="C85" s="71"/>
       <c r="D85" s="18"/>
@@ -8930,7 +8971,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="92"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="17"/>
       <c r="C86" s="71"/>
       <c r="D86" s="18"/>
@@ -8939,7 +8980,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="92"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="17"/>
       <c r="C87" s="71"/>
       <c r="D87" s="18"/>
@@ -8948,7 +8989,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="92"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="17"/>
       <c r="C88" s="71"/>
       <c r="D88" s="18"/>
@@ -8957,7 +8998,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="92"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="17"/>
       <c r="C89" s="71"/>
       <c r="D89" s="18"/>
@@ -8966,7 +9007,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="93"/>
+      <c r="A90" s="95"/>
       <c r="B90" s="17"/>
       <c r="C90" s="71"/>
       <c r="D90" s="18"/>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="1"/>
+    <workbookView windowWidth="21840" windowHeight="9334" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -111,7 +111,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -121,7 +120,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AAS</t>
@@ -203,123 +201,16 @@
     <t>秦总</t>
   </si>
   <si>
-    <t>立项日期</t>
-  </si>
-  <si>
-    <t>未完成原因</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>上线模块</t>
-  </si>
-  <si>
-    <t>销售人员</t>
-  </si>
-  <si>
-    <t>佳养记百味鸡煲</t>
-  </si>
-  <si>
-    <t>等商户把后厨网线拉好</t>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>SAAS+微信</t>
-  </si>
-  <si>
-    <t>余薇娜</t>
-  </si>
-  <si>
-    <t>佳养记百味鸡煲秦虹路店</t>
-  </si>
-  <si>
-    <t>1月16号到店实施</t>
-  </si>
-  <si>
-    <t>老北京烤肉</t>
-  </si>
-  <si>
-    <t>店铺装修中</t>
-  </si>
-  <si>
-    <t>SAAS</t>
-  </si>
-  <si>
-    <t>万彤</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>加班内容</t>
-  </si>
-  <si>
-    <t>到锦春东台店实施</t>
-  </si>
-  <si>
     <t>无数据</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>老北京烤肉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>烘动手感</t>
-  </si>
-  <si>
-    <t>生蚝之家</t>
-  </si>
-  <si>
-    <t>未签约</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>未使用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-  </si>
-  <si>
-    <t>王贵仁宁夏沙坡头店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁宁夏金丰苑店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁北京良乡北关西路店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁怀化国际商贸城店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>连锁</t>
-  </si>
-  <si>
-    <t>余薇娜</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨磊</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>到女人当家实施上线</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1月</t>
     </r>
     <r>
@@ -327,137 +218,82 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>31</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>女人当家</t>
   </si>
   <si>
-    <t>女人当家</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>胡总</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>南京老北京烤肉</t>
   </si>
   <si>
-    <t>南京老北京烤肉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>老北京烤肉</t>
   </si>
   <si>
     <t>陈总</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>佳养记湖南路店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳养记百味鸡煲</t>
   </si>
   <si>
     <t>佳养记百味鸡煲湖南路店</t>
   </si>
   <si>
     <t>黄总</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京王贵仁品牌管理有限公司</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月22</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>无锡市微热山丘贸易有限公司</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺签约50家目前49家未装</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>李燕东</t>
-  </si>
-  <si>
-    <t>王贵仁怀化国际商贸城店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁北京良乡北关西路店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺签约100家目前97家未装其中包括
-王贵仁北京良乡北关西路店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生蚝之家</t>
   </si>
   <si>
     <t>3月7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>哈尔滨水饺（河西万达店）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>哈尔滨水饺</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>韩总</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SaaS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>两个天堂餐饮管理有限公司</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>三千粉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>苏州</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>三千粉苏州木渎大润发店</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>黄纯伟</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>王化洲</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>I</t>
     </r>
     <r>
@@ -465,86 +301,175 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>T负责人</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>南京王贵仁品牌管理有限公司</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>王贵仁砂锅麻辣烫</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>王贵仁东莞店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>范应奇</t>
   </si>
   <si>
     <t>王贵仁砂锅麻辣烫牡丹江店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯军</t>
   </si>
   <si>
     <t>王贵仁麻辣烫齐齐哈尔店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁泽</t>
   </si>
   <si>
     <t>王贵仁麻辣烫丽水店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>范应奇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯军</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁泽</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>陈建</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵仁良乡北关西路店</t>
+  </si>
+  <si>
+    <t>赵云华</t>
+  </si>
+  <si>
+    <t>立项日期</t>
+  </si>
+  <si>
+    <t>未完成原因</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>上线模块</t>
+  </si>
+  <si>
+    <t>销售人员</t>
+  </si>
+  <si>
+    <t>等商户把后厨网线拉好</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>余薇娜</t>
+  </si>
+  <si>
+    <t>佳养记百味鸡煲秦虹路店</t>
+  </si>
+  <si>
+    <t>1月16号到店实施</t>
+  </si>
+  <si>
+    <t>店铺装修中</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>万彤</t>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>烘动手感</t>
+  </si>
+  <si>
+    <t>未签约</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+  </si>
+  <si>
+    <t>王贵仁宁夏沙坡头店</t>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>王贵仁宁夏金丰苑店</t>
+  </si>
+  <si>
+    <t>王贵仁北京良乡北关西路店</t>
+  </si>
+  <si>
+    <t>王贵仁怀化国际商贸城店</t>
+  </si>
+  <si>
+    <t>2月22</t>
+  </si>
+  <si>
+    <t>店铺签约100家目前97家未装其中包括
+王贵仁北京良乡北关西路店</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>无锡市微热山丘贸易有限公司</t>
+  </si>
+  <si>
+    <t>店铺签约50家目前49家未装</t>
+  </si>
+  <si>
+    <t>李燕东</t>
+  </si>
+  <si>
+    <t>壹道先生</t>
   </si>
   <si>
     <t>3月22</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>李雪磊</t>
   </si>
   <si>
-    <t>壹道先生</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>古彭城地锅鸡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵仁良乡北关西路店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云华</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>加班内容</t>
+  </si>
+  <si>
+    <t>到锦春东台店实施</t>
+  </si>
+  <si>
+    <t>到女人当家实施上线</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,7 +482,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -565,7 +489,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -574,20 +497,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -595,7 +515,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -616,7 +535,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -624,39 +542,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,7 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,13 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="7" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,8 +744,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -797,11 +1016,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -824,24 +1045,22 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,7 +1162,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -955,9 +1176,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1021,10 +1240,23 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1089,25 +1321,254 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,24 +1593,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1159,14 +1632,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,9 +1677,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,8 +1689,14 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1201,6 +1704,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,19 +1746,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,140 +1803,85 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1665,537 +2143,537 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.12612612612613" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.12612612612613" style="10" customWidth="1"/>
+    <col min="3" max="4" width="16.2522522522523" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.7477477477477" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.8738738738739" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5045045045045" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8738738738739" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8738738738739" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.8738738738739" style="44" customWidth="1"/>
+    <col min="11" max="11" width="16" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.8738738738739" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.6216216216216" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" ht="15.75" spans="1:13">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="88"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="71"/>
+    </row>
+    <row r="2" ht="14.85" spans="1:13">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="37">
+      <c r="A3" s="53">
         <v>12</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="54">
         <v>51</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="55">
         <v>4</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="56">
         <v>1</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="56">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41">
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="57">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54">
+      <c r="I3" s="77"/>
+      <c r="J3" s="78">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="79">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="80">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="81">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54">
         <v>52</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="55">
         <v>5</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="56">
         <v>2</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="56">
         <f t="shared" ref="E4:E7" si="0">C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="41">
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="57">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54">
+      <c r="I4" s="77"/>
+      <c r="J4" s="78">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="79">
         <f t="shared" ref="K4:K9" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="80">
         <f t="shared" ref="L4:L9" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="81">
         <f t="shared" ref="M4:M9" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="89">
+      <c r="A5" s="59">
         <v>1</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="54">
         <v>1</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="55">
         <v>2</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="56">
         <v>2</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="56">
         <v>2</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41">
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54">
+      <c r="I5" s="77"/>
+      <c r="J5" s="78">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="79">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="80">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="81">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="90"/>
-      <c r="B6" s="38">
+      <c r="A6" s="60"/>
+      <c r="B6" s="54">
         <v>2</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="55">
         <v>5</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="56">
         <v>2</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41">
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54">
+      <c r="I6" s="77"/>
+      <c r="J6" s="78">
         <f t="shared" ref="J6:J9" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="79">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="80">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="81">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="90"/>
-      <c r="B7" s="38">
+      <c r="A7" s="60"/>
+      <c r="B7" s="54">
         <v>3</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="61">
         <v>4</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="56">
         <v>0</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41">
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54" t="e">
+      <c r="I7" s="77"/>
+      <c r="J7" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="79">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="90"/>
-      <c r="B8" s="43">
+    <row r="8" ht="14.85" spans="1:13">
+      <c r="A8" s="60"/>
+      <c r="B8" s="62">
         <v>4</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <v>8</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="64">
         <v>0</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="64">
         <v>8</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="46">
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59" t="e">
+      <c r="I8" s="82"/>
+      <c r="J8" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="84">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="85">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="43">
+    <row r="9" ht="14.85" spans="1:13">
+      <c r="A9" s="67"/>
+      <c r="B9" s="62">
         <v>5</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <v>8</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="64">
         <v>4</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="64">
         <v>4</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59">
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="84">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="85">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="86">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="90">
+      <c r="A10" s="60">
         <v>3</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="54">
         <v>10</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="55">
         <v>1</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="56">
         <v>1</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="56">
         <f t="shared" ref="E10" si="6">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="41">
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="57">
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54">
+      <c r="I10" s="77"/>
+      <c r="J10" s="78">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>0</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="79">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>1</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="80">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="81">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="90"/>
-      <c r="B11" s="38">
+      <c r="A11" s="60"/>
+      <c r="B11" s="54">
         <v>13</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="55">
         <v>8</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="56">
         <v>6</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="56">
         <f t="shared" ref="E11:E14" si="12">C11-D11</f>
         <v>2</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="41">
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="57">
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54">
+      <c r="I11" s="77"/>
+      <c r="J11" s="78">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>0</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="79">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>8</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="80">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>6</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="81">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="90"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40">
+      <c r="A12" s="60"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41">
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="57">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54" t="e">
+      <c r="I12" s="77"/>
+      <c r="J12" s="78" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="79">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="57" t="e">
+      <c r="M12" s="81" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="90"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40">
+      <c r="A13" s="60"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41">
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="57">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54" t="e">
+      <c r="I13" s="77"/>
+      <c r="J13" s="78" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="79">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="57" t="e">
+      <c r="M13" s="81" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45">
+    <row r="14" ht="14.85" spans="1:13">
+      <c r="A14" s="68"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="46">
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59" t="e">
+      <c r="I14" s="82"/>
+      <c r="J14" s="83" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="84">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="62" t="e">
+      <c r="M14" s="86" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2206,887 +2684,888 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A14"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B15" sqref="B15:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.74774774774775" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="12.8738738738739" customWidth="1"/>
+    <col min="2" max="2" width="11.5045045045045" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5045045045045" customWidth="1"/>
+    <col min="4" max="4" width="25.7477477477477" customWidth="1"/>
+    <col min="5" max="5" width="20.7477477477477" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="10.2522522522523" customWidth="1"/>
+    <col min="8" max="8" width="23.8738738738739" customWidth="1"/>
+    <col min="9" max="9" width="9.87387387387387" customWidth="1"/>
+    <col min="10" max="10" width="13.8738738738739" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="27">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="35" customFormat="1" ht="28.3" spans="1:15">
+      <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1">
-      <c r="A2" s="69">
+    <row r="2" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A2" s="9">
         <v>51</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="40">
         <v>43073</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="9">
         <v>76109183</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="8">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="8">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1">
-      <c r="A3" s="69">
+    <row r="3" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="40">
         <v>43095</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="9">
         <v>76115178</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="8">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="75">
+      <c r="N3" s="8">
         <v>18326308555</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1">
-      <c r="A4" s="69">
+    <row r="4" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A4" s="9">
         <v>52</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="40">
         <v>43077</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="9">
         <v>76113166</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="8">
         <v>18061296271</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="8">
         <v>13913841691</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1">
-      <c r="A5" s="69">
+    <row r="5" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="40">
         <v>43105</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="9">
         <v>76119036</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="8">
         <v>18061296271</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="75">
+      <c r="N5" s="8">
         <v>13655118116</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1">
-      <c r="A6" s="69">
+    <row r="6" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="40">
         <v>43105</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="9">
         <v>76120311</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="8">
         <v>18061296271</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="75">
+      <c r="M6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="8">
         <v>15150815370</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1">
-      <c r="A7" s="69">
+    <row r="7" s="10" customFormat="1" spans="1:15">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:15">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="9">
+        <v>76128299</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="8">
+        <v>13451811185</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9">
+        <v>76116635</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="8">
+        <v>18551671169</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="9">
+        <v>76123028</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="8">
+        <v>13770313685</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="9">
+        <v>76129852</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="8">
+        <v>18251380104</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9">
+        <v>76133273</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="9">
+        <v>15955551912</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" s="10" customFormat="1" ht="14.15" spans="1:15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="42">
+        <v>43187</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="9">
+        <v>76132952</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="69"/>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1">
-      <c r="A8" s="69">
-        <v>4</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="69"/>
-    </row>
-    <row r="9" spans="1:15" s="9" customFormat="1">
-      <c r="A9" s="69">
-        <v>5</v>
-      </c>
-      <c r="B9" s="76" t="s">
+      <c r="I15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="9">
+        <v>17602558329</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="9">
+        <v>18020275119</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="42">
+        <v>43187</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="9">
+        <v>76137157</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="9">
+        <v>13377789827</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:15">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="42">
+        <v>43187</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="9">
+        <v>76138176</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="9">
+        <v>15765025678</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:15">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="42">
+        <v>43187</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="9">
+        <v>76152209</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="9">
+        <v>13836247287</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:15">
+      <c r="A19" s="9">
+        <v>13</v>
+      </c>
+      <c r="B19" s="42">
+        <v>43187</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="9">
+        <v>76152210</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="9">
+        <v>18358878921</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:15">
+      <c r="A20" s="9">
+        <v>13</v>
+      </c>
+      <c r="B20" s="42">
+        <v>43187</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="9">
+        <v>76128178</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="69">
-        <v>76128299</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L9" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="75">
-        <v>13451811185</v>
-      </c>
-      <c r="O9" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="9" customFormat="1">
-      <c r="A10" s="69">
-        <v>5</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="69">
-        <v>76116635</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L10" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="75">
-        <v>18551671169</v>
-      </c>
-      <c r="O10" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="9" customFormat="1">
-      <c r="A11" s="69">
-        <v>5</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="69">
-        <v>76123028</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L11" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="75">
-        <v>13770313685</v>
-      </c>
-      <c r="O11" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="69">
-        <v>5</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="69">
-        <v>76129852</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L12" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="75">
-        <v>18251380104</v>
-      </c>
-      <c r="O12" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="9" customFormat="1">
-      <c r="A13" s="73">
-        <v>10</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="73">
-        <v>76133273</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L13" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="73">
-        <v>15955551912</v>
-      </c>
-      <c r="O13" s="77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="9" customFormat="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-    </row>
-    <row r="15" spans="1:15" s="9" customFormat="1">
-      <c r="A15" s="82">
-        <v>13</v>
-      </c>
-      <c r="B15" s="84">
-        <v>43187</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="82">
-        <v>76132952</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="82">
-        <v>17602558329</v>
-      </c>
-      <c r="L15" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="82">
-        <v>18020275119</v>
-      </c>
-      <c r="O15" s="82" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="9" customFormat="1">
-      <c r="A16" s="82">
-        <v>13</v>
-      </c>
-      <c r="B16" s="84">
-        <v>43187</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="73">
-        <v>76137157</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L16" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="73">
-        <v>13377789827</v>
-      </c>
-      <c r="O16" s="82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="9" customFormat="1">
-      <c r="A17" s="82">
-        <v>13</v>
-      </c>
-      <c r="B17" s="84">
-        <v>43187</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="73">
-        <v>76138176</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L17" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="73">
-        <v>15765025678</v>
-      </c>
-      <c r="O17" s="82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="9" customFormat="1">
-      <c r="A18" s="82">
-        <v>13</v>
-      </c>
-      <c r="B18" s="84">
-        <v>43187</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="73">
-        <v>76152209</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L18" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="73">
-        <v>13836247287</v>
-      </c>
-      <c r="O18" s="82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="9" customFormat="1">
-      <c r="A19" s="82">
-        <v>13</v>
-      </c>
-      <c r="B19" s="84">
-        <v>43187</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="73">
-        <v>76152210</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L19" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="M19" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="73">
-        <v>18358878921</v>
-      </c>
-      <c r="O19" s="82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="9" customFormat="1">
-      <c r="A20" s="83">
-        <v>13</v>
-      </c>
-      <c r="B20" s="84">
-        <v>43187</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="83">
-        <v>76128178</v>
-      </c>
-      <c r="H20" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="75">
-        <v>18061296271</v>
-      </c>
-      <c r="L20" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="83">
+      <c r="M20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="9">
         <v>15611074292</v>
       </c>
-      <c r="O20" s="83" t="s">
+      <c r="O20" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3103,7 +3582,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3120,7 +3599,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3137,7 +3616,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3154,7 +3633,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3171,7 +3650,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3188,7 +3667,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3205,7 +3684,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3222,7 +3701,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3239,7 +3718,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3256,7 +3735,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3273,7 +3752,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3290,7 +3769,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="28"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3307,7 +3786,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3324,7 +3803,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3341,7 +3820,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3358,7 +3837,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3375,7 +3854,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3392,7 +3871,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3409,7 +3888,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3426,7 +3905,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="28"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3443,7 +3922,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="28"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3460,7 +3939,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="28"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3477,7 +3956,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="28"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3494,7 +3973,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3511,7 +3990,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="28"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3528,7 +4007,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="28"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3545,7 +4024,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3562,7 +4041,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="28"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3579,7 +4058,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="28"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3596,7 +4075,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="28"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3613,7 +4092,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3630,7 +4109,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3647,7 +4126,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3664,7 +4143,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="28"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3681,7 +4160,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="28"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3698,7 +4177,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3715,7 +4194,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3732,7 +4211,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3749,7 +4228,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3766,7 +4245,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="28"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3783,7 +4262,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="28"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3800,7 +4279,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="28"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3817,7 +4296,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="28"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3834,7 +4313,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="28"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3851,7 +4330,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3868,7 +4347,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3885,7 +4364,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3902,7 +4381,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3919,7 +4398,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3936,7 +4415,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3953,7 +4432,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3970,7 +4449,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3987,7 +4466,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4004,7 +4483,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4021,7 +4500,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4038,7 +4517,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4055,7 +4534,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="28"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4072,7 +4551,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="28"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4089,7 +4568,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4106,7 +4585,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4123,7 +4602,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4140,7 +4619,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="28"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4157,7 +4636,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="28"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4174,7 +4653,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4191,7 +4670,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="28"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4208,7 +4687,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="28"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4225,7 +4704,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4242,7 +4721,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4259,7 +4738,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4276,7 +4755,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="28"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4293,7 +4772,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="28"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4310,7 +4789,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="28"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4327,7 +4806,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="28"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4344,7 +4823,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="28"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4361,7 +4840,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="28"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4378,7 +4857,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="28"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4395,7 +4874,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="28"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4412,7 +4891,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="28"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4429,7 +4908,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="28"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4446,7 +4925,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="28"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4463,7 +4942,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="28"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4480,7 +4959,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="28"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4497,7 +4976,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="28"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4514,7 +4993,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="28"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4531,7 +5010,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="28"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4548,7 +5027,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="28"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4565,7 +5044,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="28"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4582,7 +5061,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="28"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4599,7 +5078,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4616,7 +5095,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4633,7 +5112,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4650,7 +5129,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4667,7 +5146,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="28"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4684,7 +5163,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="28"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4701,7 +5180,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="28"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4718,7 +5197,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="28"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4735,7 +5214,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="28"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4752,7 +5231,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="28"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4769,7 +5248,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="28"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4786,7 +5265,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="28"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4803,7 +5282,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="28"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4820,7 +5299,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="28"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4837,7 +5316,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="28"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4854,7 +5333,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="28"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4871,7 +5350,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="28"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4888,7 +5367,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="28"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4905,7 +5384,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="28"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4922,7 +5401,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="28"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4939,7 +5418,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="28"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4956,7 +5435,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="28"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4973,7 +5452,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="28"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4990,7 +5469,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="28"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5007,7 +5486,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="28"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5024,7 +5503,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="28"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5041,7 +5520,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="28"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5058,7 +5537,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="28"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5075,7 +5554,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="28"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5092,7 +5571,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="28"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5109,7 +5588,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="28"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5126,7 +5605,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="28"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5143,7 +5622,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="28"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5160,7 +5639,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="28"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5177,7 +5656,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="28"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5194,7 +5673,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="28"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5211,7 +5690,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="28"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5228,7 +5707,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="28"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5245,7 +5724,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="28"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5262,7 +5741,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="28"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5279,7 +5758,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="28"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5296,7 +5775,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="28"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5313,7 +5792,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="28"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5330,7 +5809,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="28"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5347,7 +5826,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="28"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5364,7 +5843,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="28"/>
+      <c r="B155" s="26"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5381,7 +5860,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="28"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5398,7 +5877,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="28"/>
+      <c r="B157" s="26"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5415,7 +5894,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="28"/>
+      <c r="B158" s="26"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5432,7 +5911,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="28"/>
+      <c r="B159" s="26"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5449,7 +5928,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="28"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5466,7 +5945,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="28"/>
+      <c r="B161" s="26"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5483,7 +5962,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="28"/>
+      <c r="B162" s="26"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5500,7 +5979,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="28"/>
+      <c r="B163" s="26"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5517,7 +5996,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="28"/>
+      <c r="B164" s="26"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5534,7 +6013,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="28"/>
+      <c r="B165" s="26"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5551,7 +6030,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="28"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5568,7 +6047,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="28"/>
+      <c r="B167" s="26"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5585,7 +6064,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="28"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5602,7 +6081,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="28"/>
+      <c r="B169" s="26"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5619,7 +6098,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="28"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5636,7 +6115,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="28"/>
+      <c r="B171" s="26"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5653,7 +6132,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="28"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5670,7 +6149,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="28"/>
+      <c r="B173" s="26"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5687,7 +6166,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="28"/>
+      <c r="B174" s="26"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5704,7 +6183,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="28"/>
+      <c r="B175" s="26"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5721,7 +6200,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="28"/>
+      <c r="B176" s="26"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5738,7 +6217,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="28"/>
+      <c r="B177" s="26"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5755,7 +6234,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="28"/>
+      <c r="B178" s="26"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5772,7 +6251,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="28"/>
+      <c r="B179" s="26"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5789,7 +6268,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="28"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5806,7 +6285,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="28"/>
+      <c r="B181" s="26"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5823,7 +6302,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="28"/>
+      <c r="B182" s="26"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5840,7 +6319,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="28"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5857,7 +6336,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="28"/>
+      <c r="B184" s="26"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5874,7 +6353,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="28"/>
+      <c r="B185" s="26"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5891,7 +6370,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="28"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5908,7 +6387,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="28"/>
+      <c r="B187" s="26"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5925,7 +6404,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="28"/>
+      <c r="B188" s="26"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5942,7 +6421,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="28"/>
+      <c r="B189" s="26"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5959,7 +6438,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="28"/>
+      <c r="B190" s="26"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5976,7 +6455,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="28"/>
+      <c r="B191" s="26"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5993,7 +6472,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="28"/>
+      <c r="B192" s="26"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6010,7 +6489,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="28"/>
+      <c r="B193" s="26"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6027,7 +6506,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="28"/>
+      <c r="B194" s="26"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6044,7 +6523,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="28"/>
+      <c r="B195" s="26"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6061,7 +6540,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="28"/>
+      <c r="B196" s="26"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6078,7 +6557,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="28"/>
+      <c r="B197" s="26"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6095,7 +6574,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="28"/>
+      <c r="B198" s="26"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6112,7 +6591,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="28"/>
+      <c r="B199" s="26"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6129,7 +6608,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="28"/>
+      <c r="B200" s="26"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6146,7 +6625,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="26"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6163,7 +6642,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="26"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6180,7 +6659,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="26"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6197,7 +6676,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="28"/>
+      <c r="B204" s="26"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6214,7 +6693,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="28"/>
+      <c r="B205" s="26"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6231,7 +6710,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="28"/>
+      <c r="B206" s="26"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6248,7 +6727,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="28"/>
+      <c r="B207" s="26"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6265,7 +6744,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="26"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6282,7 +6761,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="26"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6299,7 +6778,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="28"/>
+      <c r="B210" s="26"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6316,7 +6795,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="28"/>
+      <c r="B211" s="26"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6333,7 +6812,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="28"/>
+      <c r="B212" s="26"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6350,7 +6829,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="28"/>
+      <c r="B213" s="26"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6367,7 +6846,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="28"/>
+      <c r="B214" s="26"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6384,7 +6863,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="28"/>
+      <c r="B215" s="26"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6401,7 +6880,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="28"/>
+      <c r="B216" s="26"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6418,7 +6897,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="28"/>
+      <c r="B217" s="26"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6435,7 +6914,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="28"/>
+      <c r="B218" s="26"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6452,7 +6931,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="28"/>
+      <c r="B219" s="26"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6469,7 +6948,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="28"/>
+      <c r="B220" s="26"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6486,7 +6965,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="28"/>
+      <c r="B221" s="26"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6503,7 +6982,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="28"/>
+      <c r="B222" s="26"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6520,7 +6999,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="28"/>
+      <c r="B223" s="26"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6537,7 +7016,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="28"/>
+      <c r="B224" s="26"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6554,7 +7033,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="28"/>
+      <c r="B225" s="26"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6571,7 +7050,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="28"/>
+      <c r="B226" s="26"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6588,7 +7067,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="28"/>
+      <c r="B227" s="26"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6605,7 +7084,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="28"/>
+      <c r="B228" s="26"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6622,7 +7101,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="28"/>
+      <c r="B229" s="26"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6639,7 +7118,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="28"/>
+      <c r="B230" s="26"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6656,7 +7135,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="28"/>
+      <c r="B231" s="26"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6673,7 +7152,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="28"/>
+      <c r="B232" s="26"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6690,7 +7169,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="28"/>
+      <c r="B233" s="26"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6707,7 +7186,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="28"/>
+      <c r="B234" s="26"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6724,7 +7203,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="28"/>
+      <c r="B235" s="26"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6741,7 +7220,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="28"/>
+      <c r="B236" s="26"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6758,7 +7237,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="28"/>
+      <c r="B237" s="26"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6775,7 +7254,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="28"/>
+      <c r="B238" s="26"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6792,7 +7271,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="28"/>
+      <c r="B239" s="26"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6809,7 +7288,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="28"/>
+      <c r="B240" s="26"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6826,7 +7305,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="28"/>
+      <c r="B241" s="26"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6843,7 +7322,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="28"/>
+      <c r="B242" s="26"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6860,7 +7339,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="28"/>
+      <c r="B243" s="26"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6877,7 +7356,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="28"/>
+      <c r="B244" s="26"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6894,7 +7373,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="28"/>
+      <c r="B245" s="26"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6911,7 +7390,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="28"/>
+      <c r="B246" s="26"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6928,7 +7407,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="28"/>
+      <c r="B247" s="26"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6945,7 +7424,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="28"/>
+      <c r="B248" s="26"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6962,7 +7441,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="28"/>
+      <c r="B249" s="26"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6979,7 +7458,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="28"/>
+      <c r="B250" s="26"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6996,7 +7475,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="28"/>
+      <c r="B251" s="26"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7013,7 +7492,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="28"/>
+      <c r="B252" s="26"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7030,7 +7509,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="28"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7047,7 +7526,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="28"/>
+      <c r="B254" s="26"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7064,7 +7543,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="28"/>
+      <c r="B255" s="26"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7081,7 +7560,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="28"/>
+      <c r="B256" s="26"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7098,7 +7577,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="28"/>
+      <c r="B257" s="26"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7115,7 +7594,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="28"/>
+      <c r="B258" s="26"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7132,7 +7611,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="28"/>
+      <c r="B259" s="26"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7149,7 +7628,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="28"/>
+      <c r="B260" s="26"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7166,7 +7645,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="28"/>
+      <c r="B261" s="26"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7183,7 +7662,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="28"/>
+      <c r="B262" s="26"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7200,7 +7679,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="28"/>
+      <c r="B263" s="26"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7217,7 +7696,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="28"/>
+      <c r="B264" s="26"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7234,7 +7713,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="28"/>
+      <c r="B265" s="26"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7251,7 +7730,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="28"/>
+      <c r="B266" s="26"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7268,7 +7747,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="28"/>
+      <c r="B267" s="26"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7285,7 +7764,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="28"/>
+      <c r="B268" s="26"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7302,7 +7781,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="28"/>
+      <c r="B269" s="26"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7319,7 +7798,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="28"/>
+      <c r="B270" s="26"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7336,7 +7815,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="28"/>
+      <c r="B271" s="26"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7353,7 +7832,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="28"/>
+      <c r="B272" s="26"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7370,7 +7849,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="28"/>
+      <c r="B273" s="26"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7387,7 +7866,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="28"/>
+      <c r="B274" s="26"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7404,7 +7883,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="28"/>
+      <c r="B275" s="26"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7421,7 +7900,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="28"/>
+      <c r="B276" s="26"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7438,7 +7917,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="28"/>
+      <c r="B277" s="26"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7455,7 +7934,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="28"/>
+      <c r="B278" s="26"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7472,7 +7951,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="28"/>
+      <c r="B279" s="26"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7489,7 +7968,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="28"/>
+      <c r="B280" s="26"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7506,7 +7985,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="28"/>
+      <c r="B281" s="26"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7523,7 +8002,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="28"/>
+      <c r="B282" s="26"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7540,7 +8019,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="28"/>
+      <c r="B283" s="26"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7557,7 +8036,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="28"/>
+      <c r="B284" s="26"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7574,7 +8053,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="28"/>
+      <c r="B285" s="26"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7591,7 +8070,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="28"/>
+      <c r="B286" s="26"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7608,7 +8087,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="28"/>
+      <c r="B287" s="26"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7625,7 +8104,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="28"/>
+      <c r="B288" s="26"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7642,7 +8121,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="28"/>
+      <c r="B289" s="26"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7659,7 +8138,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="28"/>
+      <c r="B290" s="26"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7676,7 +8155,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="28"/>
+      <c r="B291" s="26"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7693,7 +8172,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="28"/>
+      <c r="B292" s="26"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7710,7 +8189,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="28"/>
+      <c r="B293" s="26"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7727,7 +8206,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="28"/>
+      <c r="B294" s="26"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7744,7 +8223,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="28"/>
+      <c r="B295" s="26"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7761,7 +8240,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="28"/>
+      <c r="B296" s="26"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7778,7 +8257,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="28"/>
+      <c r="B297" s="26"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7795,7 +8274,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="28"/>
+      <c r="B298" s="26"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7812,7 +8291,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="28"/>
+      <c r="B299" s="26"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7829,7 +8308,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="28"/>
+      <c r="B300" s="26"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7845,7 +8324,6 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -7858,1178 +8336,1179 @@
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="9"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="8.62162162162162" style="10"/>
+    <col min="2" max="2" width="28.5045045045045" customWidth="1"/>
+    <col min="3" max="3" width="12.7477477477477" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.2522522522523" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.5045045045045" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.3783783783784" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="14.15" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="96">
+      <c r="C1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" ht="14.15" spans="1:7">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" ht="14.15" spans="1:7">
+      <c r="A3" s="9"/>
+      <c r="B3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" ht="14.15" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C4" s="17">
+        <v>43083</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" ht="14.15" spans="1:7">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="17">
         <v>43102</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="96"/>
-      <c r="B3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="71">
+      <c r="D5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" ht="14.15" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="17">
         <v>43102</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" ht="14.15" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43083</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" ht="14.15" spans="1:7">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43083</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" ht="14.15" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" ht="14.15" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" ht="14.15" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="96"/>
-      <c r="B4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="71">
+      <c r="C11" s="17">
+        <v>43117</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" ht="14.15" spans="1:7">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="17">
         <v>43083</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="96">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="71">
+      <c r="D12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" ht="14.15" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="17">
         <v>43102</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="96"/>
-      <c r="B6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="71">
-        <v>43102</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="D13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" ht="14.15" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" ht="14.15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="96"/>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="71">
-        <v>43083</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="96">
-        <v>3</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="71">
-        <v>43083</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="96"/>
-      <c r="B9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="71">
-        <v>43102</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="96"/>
-      <c r="B10" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="96"/>
-      <c r="B11" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="71">
+      <c r="C15" s="17">
         <v>43117</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="96">
-        <v>4</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="71">
-        <v>43083</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="96"/>
-      <c r="B13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="71">
-        <v>43102</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="96"/>
-      <c r="B14" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="96"/>
-      <c r="B15" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="71">
-        <v>43117</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>68</v>
+      <c r="D15" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="96"/>
-      <c r="B17" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" ht="14.15" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="96"/>
-      <c r="B18" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" ht="14.15" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="96"/>
-      <c r="B19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" ht="14.15" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="96"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="96"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="18"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="93">
+    <row r="22" ht="14.15" spans="1:7">
+      <c r="A22" s="25">
         <v>5</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="14" t="s">
-        <v>68</v>
+      <c r="B22" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="94"/>
-      <c r="B23" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" ht="14.15" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="94"/>
-      <c r="B24" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" ht="14.15" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="94"/>
-      <c r="B25" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" ht="14.15" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="95"/>
+        <v>98</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="93">
+    <row r="27" ht="45" spans="1:8">
+      <c r="A27" s="25">
         <v>8</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:7">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:7">
+      <c r="A29" s="9">
+        <v>13</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="E29" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="96">
-        <v>13</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:7">
+      <c r="A30" s="9"/>
+      <c r="B30" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="96"/>
+        <v>98</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="80"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="31"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="80"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="80"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="18"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="80"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="80"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="80"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="80"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="80"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="80"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="81"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="93"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="20"/>
+    <row r="42" ht="15" spans="1:7">
+      <c r="A42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="20"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" ht="15" spans="1:7">
+      <c r="A43" s="27"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="94"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="94"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="94"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="94"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="94"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="94"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="18"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="94"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="18"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="94"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="18"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="94"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="18"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="94"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="18"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="94"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="18"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="94"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="18"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="95"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="93"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="20"/>
+    <row r="57" ht="15" spans="1:7">
+      <c r="A57" s="25"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="94"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="20"/>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" ht="15" spans="1:7">
+      <c r="A58" s="27"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="94"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="20"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" ht="15" spans="1:7">
+      <c r="A59" s="27"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="94"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="20"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" ht="15" spans="1:7">
+      <c r="A60" s="27"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="94"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="94"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="18"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="94"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="94"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="18"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="94"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="18"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="94"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="18"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="94"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="18"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="95"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="93"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="20"/>
+    <row r="69" ht="15" spans="1:7">
+      <c r="A69" s="25"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="94"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="20"/>
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" ht="15" spans="1:7">
+      <c r="A70" s="27"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="94"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="20"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" ht="15" spans="1:7">
+      <c r="A71" s="27"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="20"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" ht="15" spans="1:7">
+      <c r="A72" s="27"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="34"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="94"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="18"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="94"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="18"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="94"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="18"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="94"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="18"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="94"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="18"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="94"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="18"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="94"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="95"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="18"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="94"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="20"/>
+    <row r="81" ht="15" spans="1:7">
+      <c r="A81" s="27"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="94"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="20"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" ht="15" spans="1:7">
+      <c r="A82" s="27"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="94"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="18"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="94"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="18"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="94"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="18"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="94"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="18"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="94"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="94"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="18"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="94"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="18"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="95"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="18"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A68"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A81:A90"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576">
@@ -9039,40 +9518,42 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1261261261261" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7477477477477" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="14.85" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9086,71 +9567,71 @@
         <v>43093</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>88</v>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>43127</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="9334" activeTab="1"/>
+    <workbookView windowWidth="21840" windowHeight="9334" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -269,44 +269,6 @@
     <t>SaaS</t>
   </si>
   <si>
-    <t>两个天堂餐饮管理有限公司</t>
-  </si>
-  <si>
-    <t>三千粉</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>三千粉苏州木渎大润发店</t>
-  </si>
-  <si>
-    <t>黄纯伟</t>
-  </si>
-  <si>
-    <t>王化洲</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T负责人</t>
-    </r>
-  </si>
-  <si>
     <t>南京王贵仁品牌管理有限公司</t>
   </si>
   <si>
@@ -341,6 +303,30 @@
   </si>
   <si>
     <t>赵云华</t>
+  </si>
+  <si>
+    <t>南京御品殿餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>京茶山</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（扬州淮海路店）</t>
+  </si>
+  <si>
+    <t>徐硕宏</t>
+  </si>
+  <si>
+    <t>王贵仁砂锅麻辣烫徐庄店</t>
+  </si>
+  <si>
+    <t>壹道先生</t>
+  </si>
+  <si>
+    <t>吴总</t>
+  </si>
+  <si>
+    <t>古彭城地锅鸡</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -429,18 +415,6 @@
   </si>
   <si>
     <t>李燕东</t>
-  </si>
-  <si>
-    <t>壹道先生</t>
-  </si>
-  <si>
-    <t>3月22</t>
-  </si>
-  <si>
-    <t>李雪磊</t>
-  </si>
-  <si>
-    <t>古彭城地锅鸡</t>
   </si>
   <si>
     <t>姓名</t>
@@ -463,11 +437,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -540,7 +514,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,75 +536,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,6 +556,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -646,6 +603,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -660,26 +633,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,37 +720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,19 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,67 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,13 +804,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,8 +892,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1016,19 +990,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1053,9 +1014,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1321,17 +1280,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,6 +1304,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1366,11 +1328,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1389,35 +1377,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1426,149 +1385,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,7 +1594,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,30 +1603,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1704,16 +1660,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,16 +1681,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,49 +1702,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,31 +1759,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2152,7 +2108,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
@@ -2165,515 +2121,515 @@
     <col min="7" max="7" width="15.5045045045045" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.8738738738739" style="10" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.8738738738739" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.8738738738739" style="44" customWidth="1"/>
+    <col min="10" max="10" width="17.8738738738739" style="43" customWidth="1"/>
     <col min="11" max="11" width="16" style="10" customWidth="1"/>
     <col min="12" max="12" width="17.8738738738739" style="10" customWidth="1"/>
     <col min="13" max="13" width="18.6216216216216" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:13">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" ht="14.85" spans="1:13">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="53">
+      <c r="A3" s="52">
         <v>12</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <v>51</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="54">
         <v>4</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>1</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="55">
         <v>3</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="57">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="56">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78">
+      <c r="I3" s="76"/>
+      <c r="J3" s="77">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="78">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="79">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="81">
+      <c r="M3" s="80">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53">
         <v>52</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <v>5</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>2</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <f t="shared" ref="E4:E7" si="0">C4-D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57">
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="56">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78">
+      <c r="I4" s="76"/>
+      <c r="J4" s="77">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="78">
         <f t="shared" ref="K4:K9" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="80">
+      <c r="L4" s="79">
         <f t="shared" ref="L4:L9" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="80">
         <f t="shared" ref="M4:M9" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="59">
+      <c r="A5" s="58">
         <v>1</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <v>2</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="55">
         <v>2</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="55">
         <v>2</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="57">
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78">
+      <c r="I5" s="76"/>
+      <c r="J5" s="77">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="78">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="80">
+      <c r="L5" s="79">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="80">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="60"/>
-      <c r="B6" s="54">
+      <c r="A6" s="59"/>
+      <c r="B6" s="53">
         <v>2</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>5</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <v>2</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="57">
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78">
+      <c r="I6" s="76"/>
+      <c r="J6" s="77">
         <f t="shared" ref="J6:J9" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="78">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="80">
+      <c r="L6" s="79">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="80">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="60"/>
-      <c r="B7" s="54">
+      <c r="A7" s="59"/>
+      <c r="B7" s="53">
         <v>3</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>4</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="55">
         <v>0</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="57">
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78" t="e">
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="78">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="79">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.85" spans="1:13">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62">
+      <c r="A8" s="59"/>
+      <c r="B8" s="61">
         <v>4</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="62">
         <v>8</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>0</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="63">
         <v>8</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65">
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83" t="e">
+      <c r="I8" s="81"/>
+      <c r="J8" s="82" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="83">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="85">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="14.85" spans="1:13">
-      <c r="A9" s="67"/>
-      <c r="B9" s="62">
+      <c r="A9" s="66"/>
+      <c r="B9" s="61">
         <v>5</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <v>8</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>4</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>4</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83">
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="83">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L9" s="85">
+      <c r="L9" s="84">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M9" s="86">
+      <c r="M9" s="85">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>3</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>10</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>1</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>1</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <f t="shared" ref="E10" si="6">C10-D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="57">
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="56">
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78">
+      <c r="I10" s="76"/>
+      <c r="J10" s="77">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>0</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="78">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>1</v>
       </c>
-      <c r="L10" s="80">
+      <c r="L10" s="79">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="81">
+      <c r="M10" s="80">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="60"/>
-      <c r="B11" s="54">
+      <c r="A11" s="59"/>
+      <c r="B11" s="53">
         <v>13</v>
       </c>
-      <c r="C11" s="55">
-        <v>8</v>
-      </c>
-      <c r="D11" s="56">
-        <v>6</v>
-      </c>
-      <c r="E11" s="56">
+      <c r="C11" s="54">
+        <v>9</v>
+      </c>
+      <c r="D11" s="55">
+        <v>9</v>
+      </c>
+      <c r="E11" s="55">
         <f t="shared" ref="E11:E14" si="12">C11-D11</f>
-        <v>2</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56">
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78">
+      <c r="I11" s="76"/>
+      <c r="J11" s="77">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>0</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="78">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
-        <v>8</v>
-      </c>
-      <c r="L11" s="80">
+        <v>9</v>
+      </c>
+      <c r="L11" s="79">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
-        <v>6</v>
-      </c>
-      <c r="M11" s="81">
+        <v>9</v>
+      </c>
+      <c r="M11" s="80">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="60"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56">
+      <c r="A12" s="59"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57">
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="56">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="78" t="e">
+      <c r="I12" s="76"/>
+      <c r="J12" s="77" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="78">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L12" s="80">
+      <c r="L12" s="79">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M12" s="81" t="e">
+      <c r="M12" s="80" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="60"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56">
+      <c r="A13" s="59"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="57">
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="56">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78" t="e">
+      <c r="I13" s="76"/>
+      <c r="J13" s="77" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="78">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="79">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M13" s="81" t="e">
+      <c r="M13" s="80" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" ht="14.85" spans="1:13">
-      <c r="A14" s="68"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64">
+      <c r="A14" s="67"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65">
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="64">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83" t="e">
+      <c r="I14" s="81"/>
+      <c r="J14" s="82" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K14" s="83">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L14" s="85">
+      <c r="L14" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="86" t="e">
+      <c r="M14" s="85" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2695,8 +2651,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.74774774774775" defaultRowHeight="14.1"/>
@@ -2708,57 +2664,57 @@
     <col min="5" max="5" width="20.7477477477477" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2522522522523" customWidth="1"/>
-    <col min="8" max="8" width="23.8738738738739" customWidth="1"/>
+    <col min="8" max="8" width="33.7477477477477" customWidth="1"/>
     <col min="9" max="9" width="9.87387387387387" customWidth="1"/>
     <col min="10" max="10" width="13.8738738738739" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="1" ht="28.3" spans="1:15">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="34" customFormat="1" ht="28.3" spans="1:15">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2766,7 +2722,7 @@
       <c r="A2" s="9">
         <v>51</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="39">
         <v>43073</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2813,7 +2769,7 @@
       <c r="A3" s="9">
         <v>52</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>43095</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2860,7 +2816,7 @@
       <c r="A4" s="9">
         <v>52</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>43077</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2907,7 +2863,7 @@
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>43105</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2954,7 +2910,7 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>43105</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3001,7 +2957,7 @@
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
         <v>55</v>
@@ -3022,7 +2978,7 @@
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
         <v>55</v>
@@ -3043,7 +2999,7 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="8"/>
@@ -3088,7 +3044,7 @@
       <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="8"/>
@@ -3133,7 +3089,7 @@
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="8"/>
@@ -3178,7 +3134,7 @@
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="8"/>
@@ -3223,7 +3179,7 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="9"/>
@@ -3266,7 +3222,7 @@
     </row>
     <row r="14" s="10" customFormat="1" spans="1:15">
       <c r="A14" s="9"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3281,68 +3237,38 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" s="10" customFormat="1" ht="14.15" spans="1:15">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="42">
-        <v>43187</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="9">
-        <v>76132952</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="9">
-        <v>17602558329</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="9">
-        <v>18020275119</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>44</v>
-      </c>
+    <row r="15" s="10" customFormat="1" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:15">
       <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>43187</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>32</v>
@@ -3351,7 +3277,7 @@
         <v>76137157</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>32</v>
@@ -3363,7 +3289,7 @@
         <v>18061296271</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>40</v>
@@ -3379,17 +3305,17 @@
       <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <v>43187</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>32</v>
@@ -3398,7 +3324,7 @@
         <v>76138176</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>32</v>
@@ -3410,7 +3336,7 @@
         <v>18061296271</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>40</v>
@@ -3426,17 +3352,17 @@
       <c r="A18" s="9">
         <v>13</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>43187</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>32</v>
@@ -3445,7 +3371,7 @@
         <v>76152209</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>32</v>
@@ -3457,7 +3383,7 @@
         <v>18061296271</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>40</v>
@@ -3473,17 +3399,17 @@
       <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <v>43187</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>32</v>
@@ -3492,7 +3418,7 @@
         <v>76152210</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>32</v>
@@ -3504,7 +3430,7 @@
         <v>18061296271</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>40</v>
@@ -3520,17 +3446,17 @@
       <c r="A20" s="9">
         <v>13</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>43187</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>32</v>
@@ -3539,7 +3465,7 @@
         <v>76128178</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>32</v>
@@ -3551,7 +3477,7 @@
         <v>18061296271</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>40</v>
@@ -3563,60 +3489,150 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+    <row r="21" s="10" customFormat="1" spans="1:15">
+      <c r="A21" s="9">
+        <v>13</v>
+      </c>
+      <c r="B21" s="41">
+        <v>43190</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="9">
+        <v>76152981</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="9">
+        <v>15205276843</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:15">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="41">
+        <v>43190</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="9">
+        <v>76139116</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="9">
+        <v>18100625855</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:15">
+      <c r="A23" s="9">
+        <v>13</v>
+      </c>
+      <c r="B23" s="41">
+        <v>43190</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="9">
+        <v>76139122</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="8">
+        <v>18061296271</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="9">
+        <v>18100625855</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3633,7 +3649,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3650,7 +3666,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3667,7 +3683,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3684,7 +3700,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3701,7 +3717,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3718,7 +3734,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3735,7 +3751,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3752,7 +3768,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3769,7 +3785,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3786,7 +3802,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3803,7 +3819,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3820,7 +3836,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3837,7 +3853,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="26"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3854,7 +3870,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="26"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3871,7 +3887,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="26"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3888,7 +3904,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="26"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3905,7 +3921,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="26"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3922,7 +3938,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="26"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3939,7 +3955,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="26"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3956,7 +3972,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="26"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3973,7 +3989,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="26"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3990,7 +4006,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="26"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4007,7 +4023,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="26"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4024,7 +4040,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="26"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4041,7 +4057,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4058,7 +4074,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="26"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4075,7 +4091,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="26"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4092,7 +4108,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="26"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4109,7 +4125,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="26"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4126,7 +4142,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="26"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4143,7 +4159,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4160,7 +4176,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="26"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4177,7 +4193,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="26"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4194,7 +4210,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4211,7 +4227,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="26"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4228,7 +4244,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="26"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4245,7 +4261,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4262,7 +4278,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="26"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4279,7 +4295,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4296,7 +4312,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="26"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4313,7 +4329,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="26"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4330,7 +4346,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="26"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4347,7 +4363,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="26"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4364,7 +4380,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="26"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4381,7 +4397,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="26"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4398,7 +4414,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="26"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4415,7 +4431,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="26"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4432,7 +4448,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="26"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4449,7 +4465,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="26"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4466,7 +4482,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="26"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4483,7 +4499,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="26"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4500,7 +4516,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="26"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4517,7 +4533,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="26"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4534,7 +4550,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4551,7 +4567,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="26"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4568,7 +4584,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="26"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4585,7 +4601,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="26"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4602,7 +4618,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="26"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4619,7 +4635,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4636,7 +4652,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="26"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4653,7 +4669,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="26"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4670,7 +4686,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4687,7 +4703,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="26"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4704,7 +4720,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="26"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4721,7 +4737,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="26"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4738,7 +4754,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="26"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4755,7 +4771,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4772,7 +4788,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="26"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4789,7 +4805,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4806,7 +4822,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="26"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4823,7 +4839,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4840,7 +4856,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="26"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4857,7 +4873,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="26"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4874,7 +4890,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="26"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4891,7 +4907,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="26"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4908,7 +4924,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="26"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4925,7 +4941,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="26"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4942,7 +4958,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="26"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4959,7 +4975,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="26"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4976,7 +4992,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="26"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4993,7 +5009,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="26"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5010,7 +5026,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="26"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5027,7 +5043,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="26"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5044,7 +5060,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="26"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5061,7 +5077,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="26"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5078,7 +5094,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="26"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5095,7 +5111,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="26"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5112,7 +5128,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="26"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5129,7 +5145,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="26"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5146,7 +5162,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5163,7 +5179,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="26"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5180,7 +5196,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="26"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5197,7 +5213,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="26"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5214,7 +5230,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="26"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5231,7 +5247,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="26"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5248,7 +5264,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="26"/>
+      <c r="B120" s="29"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5265,7 +5281,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="26"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5282,7 +5298,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="26"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5299,7 +5315,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="26"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5316,7 +5332,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="26"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5333,7 +5349,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="26"/>
+      <c r="B125" s="29"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5350,7 +5366,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="26"/>
+      <c r="B126" s="29"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5367,7 +5383,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="26"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5384,7 +5400,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="26"/>
+      <c r="B128" s="29"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5401,7 +5417,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="26"/>
+      <c r="B129" s="29"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5418,7 +5434,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="26"/>
+      <c r="B130" s="29"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5435,7 +5451,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="26"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5452,7 +5468,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="26"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5469,7 +5485,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="26"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5486,7 +5502,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="26"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5503,7 +5519,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="26"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5520,7 +5536,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="26"/>
+      <c r="B136" s="29"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5537,7 +5553,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="26"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5554,7 +5570,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="26"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5571,7 +5587,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="26"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5588,7 +5604,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="26"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5605,7 +5621,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="26"/>
+      <c r="B141" s="29"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5622,7 +5638,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="26"/>
+      <c r="B142" s="29"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5639,7 +5655,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="26"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5656,7 +5672,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="26"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5673,7 +5689,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="26"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5690,7 +5706,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="26"/>
+      <c r="B146" s="29"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5707,7 +5723,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="26"/>
+      <c r="B147" s="29"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5724,7 +5740,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="26"/>
+      <c r="B148" s="29"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5741,7 +5757,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="26"/>
+      <c r="B149" s="29"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5758,7 +5774,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="26"/>
+      <c r="B150" s="29"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5775,7 +5791,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="26"/>
+      <c r="B151" s="29"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5792,7 +5808,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="26"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5809,7 +5825,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="26"/>
+      <c r="B153" s="29"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5826,7 +5842,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="26"/>
+      <c r="B154" s="29"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5843,7 +5859,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="26"/>
+      <c r="B155" s="29"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5860,7 +5876,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="26"/>
+      <c r="B156" s="29"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5877,7 +5893,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="26"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5894,7 +5910,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="26"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5911,7 +5927,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="26"/>
+      <c r="B159" s="29"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5928,7 +5944,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="26"/>
+      <c r="B160" s="29"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5945,7 +5961,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="26"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5962,7 +5978,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="26"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5979,7 +5995,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="26"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5996,7 +6012,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="26"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -6013,7 +6029,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="26"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -6030,7 +6046,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="26"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -6047,7 +6063,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="26"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -6064,7 +6080,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="26"/>
+      <c r="B168" s="29"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -6081,7 +6097,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="26"/>
+      <c r="B169" s="29"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -6098,7 +6114,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="26"/>
+      <c r="B170" s="29"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -6115,7 +6131,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="26"/>
+      <c r="B171" s="29"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6132,7 +6148,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="26"/>
+      <c r="B172" s="29"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6149,7 +6165,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="26"/>
+      <c r="B173" s="29"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6166,7 +6182,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="26"/>
+      <c r="B174" s="29"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -6183,7 +6199,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="26"/>
+      <c r="B175" s="29"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -6200,7 +6216,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="26"/>
+      <c r="B176" s="29"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6217,7 +6233,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="26"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6234,7 +6250,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="26"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -6251,7 +6267,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="26"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6268,7 +6284,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="26"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6285,7 +6301,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="26"/>
+      <c r="B181" s="29"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6302,7 +6318,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="26"/>
+      <c r="B182" s="29"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6319,7 +6335,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="26"/>
+      <c r="B183" s="29"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -6336,7 +6352,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="26"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -6353,7 +6369,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="26"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -6370,7 +6386,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="26"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -6387,7 +6403,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="26"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -6404,7 +6420,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="26"/>
+      <c r="B188" s="29"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -6421,7 +6437,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="26"/>
+      <c r="B189" s="29"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -6438,7 +6454,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="26"/>
+      <c r="B190" s="29"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -6455,7 +6471,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="26"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -6472,7 +6488,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="26"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6489,7 +6505,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="26"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6506,7 +6522,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="26"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6523,7 +6539,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="26"/>
+      <c r="B195" s="29"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6540,7 +6556,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="26"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6557,7 +6573,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="26"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6574,7 +6590,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="26"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6591,7 +6607,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="26"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6608,7 +6624,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="26"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6625,7 +6641,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="26"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6642,7 +6658,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="26"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6659,7 +6675,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="26"/>
+      <c r="B203" s="29"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6676,7 +6692,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6693,7 +6709,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="26"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6710,7 +6726,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="26"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6727,7 +6743,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="26"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6744,7 +6760,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="26"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6761,7 +6777,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="26"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6778,7 +6794,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6795,7 +6811,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="26"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6812,7 +6828,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="26"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6829,7 +6845,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="26"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6846,7 +6862,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="26"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6863,7 +6879,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="26"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6880,7 +6896,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="26"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6897,7 +6913,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="26"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6914,7 +6930,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="26"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6931,7 +6947,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="26"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6948,7 +6964,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="26"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6965,7 +6981,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="26"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6982,7 +6998,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="26"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6999,7 +7015,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="26"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -7016,7 +7032,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="26"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -7033,7 +7049,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="26"/>
+      <c r="B225" s="29"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -7050,7 +7066,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="26"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -7067,7 +7083,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="26"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -7084,7 +7100,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="26"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -7101,7 +7117,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="26"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -7118,7 +7134,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="26"/>
+      <c r="B230" s="29"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -7135,7 +7151,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="26"/>
+      <c r="B231" s="29"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -7152,7 +7168,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="26"/>
+      <c r="B232" s="29"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -7169,7 +7185,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="26"/>
+      <c r="B233" s="29"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -7186,7 +7202,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="26"/>
+      <c r="B234" s="29"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -7203,7 +7219,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="26"/>
+      <c r="B235" s="29"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -7220,7 +7236,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="26"/>
+      <c r="B236" s="29"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7237,7 +7253,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="26"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7254,7 +7270,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="26"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7271,7 +7287,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="26"/>
+      <c r="B239" s="29"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7288,7 +7304,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="26"/>
+      <c r="B240" s="29"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7305,7 +7321,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="26"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -7322,7 +7338,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="26"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -7339,7 +7355,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="26"/>
+      <c r="B243" s="29"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -7356,7 +7372,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="26"/>
+      <c r="B244" s="29"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -7373,7 +7389,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="26"/>
+      <c r="B245" s="29"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7390,7 +7406,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="26"/>
+      <c r="B246" s="29"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -7407,7 +7423,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="26"/>
+      <c r="B247" s="29"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -7424,7 +7440,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="26"/>
+      <c r="B248" s="29"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -7441,7 +7457,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="26"/>
+      <c r="B249" s="29"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -7458,7 +7474,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="26"/>
+      <c r="B250" s="29"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7475,7 +7491,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="26"/>
+      <c r="B251" s="29"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7492,7 +7508,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="26"/>
+      <c r="B252" s="29"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7509,7 +7525,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="26"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7526,7 +7542,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="26"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7543,7 +7559,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="26"/>
+      <c r="B255" s="29"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7560,7 +7576,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="26"/>
+      <c r="B256" s="29"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7577,7 +7593,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="26"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7594,7 +7610,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="26"/>
+      <c r="B258" s="29"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7611,7 +7627,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="26"/>
+      <c r="B259" s="29"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7628,7 +7644,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="26"/>
+      <c r="B260" s="29"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7645,7 +7661,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="26"/>
+      <c r="B261" s="29"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7662,7 +7678,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="26"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7679,7 +7695,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="26"/>
+      <c r="B263" s="29"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7696,7 +7712,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="26"/>
+      <c r="B264" s="29"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7713,7 +7729,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="26"/>
+      <c r="B265" s="29"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7730,7 +7746,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="26"/>
+      <c r="B266" s="29"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7747,7 +7763,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="26"/>
+      <c r="B267" s="29"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7764,7 +7780,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="26"/>
+      <c r="B268" s="29"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7781,7 +7797,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="26"/>
+      <c r="B269" s="29"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7798,7 +7814,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="26"/>
+      <c r="B270" s="29"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7815,7 +7831,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="26"/>
+      <c r="B271" s="29"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7832,7 +7848,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="26"/>
+      <c r="B272" s="29"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7849,7 +7865,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="26"/>
+      <c r="B273" s="29"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7866,7 +7882,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="26"/>
+      <c r="B274" s="29"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7883,7 +7899,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="26"/>
+      <c r="B275" s="29"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7900,7 +7916,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="26"/>
+      <c r="B276" s="29"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7917,7 +7933,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="26"/>
+      <c r="B277" s="29"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7934,7 +7950,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="26"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7951,7 +7967,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="26"/>
+      <c r="B279" s="29"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7968,7 +7984,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="26"/>
+      <c r="B280" s="29"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7985,7 +8001,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="26"/>
+      <c r="B281" s="29"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8002,7 +8018,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="26"/>
+      <c r="B282" s="29"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8019,7 +8035,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="26"/>
+      <c r="B283" s="29"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8036,7 +8052,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="26"/>
+      <c r="B284" s="29"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8053,7 +8069,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="26"/>
+      <c r="B285" s="29"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8070,7 +8086,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="26"/>
+      <c r="B286" s="29"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -8087,7 +8103,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="26"/>
+      <c r="B287" s="29"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -8104,7 +8120,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="26"/>
+      <c r="B288" s="29"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -8121,7 +8137,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="26"/>
+      <c r="B289" s="29"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -8138,7 +8154,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="26"/>
+      <c r="B290" s="29"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -8155,7 +8171,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="26"/>
+      <c r="B291" s="29"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -8172,7 +8188,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="26"/>
+      <c r="B292" s="29"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -8189,7 +8205,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="26"/>
+      <c r="B293" s="29"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -8206,7 +8222,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="26"/>
+      <c r="B294" s="29"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8223,7 +8239,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="26"/>
+      <c r="B295" s="29"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -8240,7 +8256,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="26"/>
+      <c r="B296" s="29"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -8257,7 +8273,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="26"/>
+      <c r="B297" s="29"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -8274,7 +8290,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="26"/>
+      <c r="B298" s="29"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -8291,7 +8307,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="26"/>
+      <c r="B299" s="29"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -8308,7 +8324,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="26"/>
+      <c r="B300" s="29"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -8347,8 +8363,8 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="7"/>
@@ -8370,19 +8386,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" ht="14.15" spans="1:7">
@@ -8396,37 +8412,37 @@
         <v>43102</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="14.15" spans="1:7">
       <c r="A3" s="9"/>
       <c r="B3" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="17">
         <v>43102</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="14.15" spans="1:7">
@@ -8438,16 +8454,16 @@
         <v>43083</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="14.15" spans="1:7">
@@ -8461,37 +8477,37 @@
         <v>43102</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" ht="14.15" spans="1:7">
       <c r="A6" s="9"/>
       <c r="B6" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="17">
         <v>43102</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="14.15" spans="1:7">
@@ -8503,16 +8519,16 @@
         <v>43083</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="14.15" spans="1:7">
@@ -8526,56 +8542,56 @@
         <v>43083</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="14.15" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="17">
         <v>43102</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" ht="14.15" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" ht="14.15" spans="1:7">
@@ -8583,20 +8599,20 @@
       <c r="B11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="22">
         <v>43117</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" ht="14.15" spans="1:7">
@@ -8606,60 +8622,60 @@
       <c r="B12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="22">
         <v>43083</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="14.15" spans="1:7">
       <c r="A13" s="9"/>
       <c r="B13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="22">
+        <v>43102</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="C13" s="17">
-        <v>43102</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" ht="14.15" spans="1:7">
       <c r="A14" s="9"/>
       <c r="B14" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" ht="14.15" spans="1:7">
@@ -8667,102 +8683,102 @@
       <c r="B15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="22">
         <v>43117</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" ht="14.15" spans="1:7">
       <c r="A16" s="9"/>
       <c r="B16" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="14.15" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" ht="14.15" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="22"/>
       <c r="D18" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" ht="14.15" spans="1:7">
       <c r="A19" s="9"/>
       <c r="B19" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="C19" s="22"/>
       <c r="D19" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="24"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -8771,7 +8787,7 @@
     <row r="21" spans="1:7">
       <c r="A21" s="9"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="24"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -8782,208 +8798,184 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="26"/>
+        <v>110</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" ht="14.15" spans="1:7">
+      <c r="A23" s="26"/>
+      <c r="B23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" ht="14.15" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="20" t="s">
+      <c r="G23" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="14.15" spans="1:7">
+      <c r="A24" s="26"/>
+      <c r="B24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="F24" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" ht="14.15" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G24" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" ht="14.15" spans="1:7">
+      <c r="A25" s="26"/>
+      <c r="B25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" ht="14.15" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G25" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="28"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="24"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" ht="45" spans="1:8">
+    <row r="27" ht="28.3" spans="1:8">
       <c r="A27" s="25">
         <v>8</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>79</v>
+      <c r="B27" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="30" t="s">
         <v>115</v>
       </c>
+      <c r="D27" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="28" ht="14.15" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="C28" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>13</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:7">
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="9"/>
-      <c r="B30" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>122</v>
-      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="24"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="31"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="24"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="24"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="23"/>
       <c r="C34" s="17"/>
       <c r="D34" s="24"/>
@@ -8992,7 +8984,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="23"/>
       <c r="C35" s="17"/>
       <c r="D35" s="24"/>
@@ -9001,54 +8993,54 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="31"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="24"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="31"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="26"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="24"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="31"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="26"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="24"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="31"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="26"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="24"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="31"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="24"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="32"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="26"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="24"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -9057,23 +9049,23 @@
     <row r="42" ht="15" spans="1:7">
       <c r="A42" s="25"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="33"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="23"/>
     </row>
     <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="27"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="23"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="33"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="23"/>
       <c r="C44" s="17"/>
       <c r="D44" s="24"/>
@@ -9082,7 +9074,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="27"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="23"/>
       <c r="C45" s="17"/>
       <c r="D45" s="24"/>
@@ -9091,7 +9083,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="27"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="23"/>
       <c r="C46" s="17"/>
       <c r="D46" s="24"/>
@@ -9100,7 +9092,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="27"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="23"/>
       <c r="C47" s="17"/>
       <c r="D47" s="24"/>
@@ -9109,7 +9101,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="27"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="23"/>
       <c r="C48" s="17"/>
       <c r="D48" s="24"/>
@@ -9118,7 +9110,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="23"/>
       <c r="C49" s="17"/>
       <c r="D49" s="24"/>
@@ -9127,61 +9119,61 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="26"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="24"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="26"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="24"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="26"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="24"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="27"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="26"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="24"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="26"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="24"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="26"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="24"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="28"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="23"/>
       <c r="C56" s="17"/>
       <c r="D56" s="24"/>
@@ -9192,41 +9184,41 @@
     <row r="57" ht="15" spans="1:7">
       <c r="A57" s="25"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="23"/>
     </row>
     <row r="58" ht="15" spans="1:7">
-      <c r="A58" s="27"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="23"/>
       <c r="C58" s="17"/>
-      <c r="D58" s="33"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" ht="15" spans="1:7">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="23"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="33"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" ht="15" spans="1:7">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="23"/>
       <c r="C60" s="17"/>
-      <c r="D60" s="33"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="34"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="23"/>
       <c r="C61" s="17"/>
       <c r="D61" s="24"/>
@@ -9235,7 +9227,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="23"/>
       <c r="C62" s="17"/>
       <c r="D62" s="24"/>
@@ -9244,7 +9236,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="23"/>
       <c r="C63" s="17"/>
       <c r="D63" s="24"/>
@@ -9253,7 +9245,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="27"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="23"/>
       <c r="C64" s="17"/>
       <c r="D64" s="24"/>
@@ -9262,7 +9254,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="27"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="23"/>
       <c r="C65" s="17"/>
       <c r="D65" s="24"/>
@@ -9271,7 +9263,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="27"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="23"/>
       <c r="C66" s="17"/>
       <c r="D66" s="24"/>
@@ -9280,7 +9272,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="27"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="23"/>
       <c r="C67" s="17"/>
       <c r="D67" s="24"/>
@@ -9289,7 +9281,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="28"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="23"/>
       <c r="C68" s="17"/>
       <c r="D68" s="24"/>
@@ -9300,41 +9292,41 @@
     <row r="69" ht="15" spans="1:7">
       <c r="A69" s="25"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="33"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="23"/>
     </row>
     <row r="70" ht="15" spans="1:7">
-      <c r="A70" s="27"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="23"/>
       <c r="C70" s="17"/>
-      <c r="D70" s="33"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" ht="15" spans="1:7">
-      <c r="A71" s="27"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="23"/>
       <c r="C71" s="17"/>
-      <c r="D71" s="33"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" ht="15" spans="1:7">
-      <c r="A72" s="27"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="23"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="33"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="34"/>
+      <c r="G72" s="33"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="27"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="23"/>
       <c r="C73" s="17"/>
       <c r="D73" s="24"/>
@@ -9343,7 +9335,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="27"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="23"/>
       <c r="C74" s="17"/>
       <c r="D74" s="24"/>
@@ -9352,7 +9344,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="27"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="23"/>
       <c r="C75" s="17"/>
       <c r="D75" s="24"/>
@@ -9361,7 +9353,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="27"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="23"/>
       <c r="C76" s="17"/>
       <c r="D76" s="24"/>
@@ -9370,7 +9362,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="27"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="23"/>
       <c r="C77" s="17"/>
       <c r="D77" s="24"/>
@@ -9379,7 +9371,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="27"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="23"/>
       <c r="C78" s="17"/>
       <c r="D78" s="24"/>
@@ -9388,7 +9380,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="27"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="23"/>
       <c r="C79" s="17"/>
       <c r="D79" s="24"/>
@@ -9397,7 +9389,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="28"/>
+      <c r="A80" s="27"/>
       <c r="B80" s="23"/>
       <c r="C80" s="17"/>
       <c r="D80" s="24"/>
@@ -9406,25 +9398,25 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" ht="15" spans="1:7">
-      <c r="A81" s="27"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="23"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="33"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="9"/>
     </row>
     <row r="82" ht="15" spans="1:7">
-      <c r="A82" s="27"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="23"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="33"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="34"/>
+      <c r="G82" s="33"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="27"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="23"/>
       <c r="C83" s="17"/>
       <c r="D83" s="24"/>
@@ -9433,7 +9425,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="27"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="23"/>
       <c r="C84" s="17"/>
       <c r="D84" s="24"/>
@@ -9442,7 +9434,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="27"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="23"/>
       <c r="C85" s="17"/>
       <c r="D85" s="24"/>
@@ -9451,7 +9443,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="27"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="23"/>
       <c r="C86" s="17"/>
       <c r="D86" s="24"/>
@@ -9460,7 +9452,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="27"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="23"/>
       <c r="C87" s="17"/>
       <c r="D87" s="24"/>
@@ -9469,7 +9461,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="27"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="23"/>
       <c r="C88" s="17"/>
       <c r="D88" s="24"/>
@@ -9478,7 +9470,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="27"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="23"/>
       <c r="C89" s="17"/>
       <c r="D89" s="24"/>
@@ -9487,7 +9479,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="28"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="23"/>
       <c r="C90" s="17"/>
       <c r="D90" s="24"/>
@@ -9547,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9567,7 +9559,7 @@
         <v>43093</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9581,7 +9573,7 @@
         <v>43127</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:4">

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B922B7AB-BA86-4697-99C5-DEAB14D6F4B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -755,11 +761,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1636,6 +1642,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1897,14 +1906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1920,7 +1929,7 @@
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
+    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1946,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="96"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -1978,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="37">
         <v>12</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="38">
         <v>52</v>
@@ -2057,7 +2066,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="97">
         <v>1</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="98"/>
       <c r="B6" s="38">
         <v>2</v>
@@ -2136,7 +2145,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="98"/>
       <c r="B7" s="38">
         <v>3</v>
@@ -2175,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1">
+    <row r="8" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="98"/>
       <c r="B8" s="43">
         <v>4</v>
@@ -2213,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" thickBot="1">
+    <row r="9" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="99"/>
       <c r="B9" s="43">
         <v>5</v>
@@ -2248,7 +2257,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="97">
         <v>3</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="98"/>
       <c r="B11" s="38">
         <v>13</v>
@@ -2328,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="100">
         <v>4</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
       <c r="B13" s="38">
         <v>17</v>
@@ -2407,7 +2416,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1">
+    <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="100"/>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
@@ -2449,19 +2458,19 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
@@ -2477,7 +2486,7 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="27">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1">
+    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="69">
         <v>51</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1">
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="69">
         <v>52</v>
       </c>
@@ -2618,7 +2627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1">
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="69">
         <v>52</v>
       </c>
@@ -2665,7 +2674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="69">
         <v>2</v>
       </c>
@@ -2712,7 +2721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="69">
         <v>2</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1">
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="69">
         <v>3</v>
       </c>
@@ -2780,7 +2789,7 @@
       <c r="N7" s="75"/>
       <c r="O7" s="69"/>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1">
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="69">
         <v>4</v>
       </c>
@@ -2801,7 +2810,7 @@
       <c r="N8" s="75"/>
       <c r="O8" s="69"/>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1">
+    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="69">
         <v>5</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1">
+    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="69">
         <v>5</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1">
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="69">
         <v>5</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="69">
         <v>5</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1">
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="73">
         <v>10</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1">
+    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="73"/>
       <c r="B14" s="78"/>
       <c r="C14" s="73"/>
@@ -3043,7 +3052,7 @@
       <c r="N14" s="73"/>
       <c r="O14" s="73"/>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1">
+    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="82"/>
       <c r="B15" s="84"/>
       <c r="C15" s="75"/>
@@ -3060,7 +3069,7 @@
       <c r="N15" s="82"/>
       <c r="O15" s="82"/>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1">
+    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="82">
         <v>13</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="9" customFormat="1">
+    <row r="17" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="82">
         <v>13</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="9" customFormat="1">
+    <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="82">
         <v>13</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="9" customFormat="1">
+    <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="82">
         <v>13</v>
       </c>
@@ -3248,7 +3257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1">
+    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="83">
         <v>13</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1">
+    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="85">
         <v>13</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="9" customFormat="1">
+    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="85">
         <v>13</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="9" customFormat="1">
+    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="85">
         <v>13</v>
       </c>
@@ -3436,7 +3445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="28"/>
       <c r="C24" s="1"/>
@@ -3453,7 +3462,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" s="9" customFormat="1">
+    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="86">
         <v>16</v>
       </c>
@@ -3500,7 +3509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="9" customFormat="1">
+    <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="88">
         <v>16</v>
       </c>
@@ -3547,7 +3556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="9" customFormat="1">
+    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="88">
         <v>16</v>
       </c>
@@ -3594,7 +3603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1">
+    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="88">
         <v>16</v>
       </c>
@@ -3641,7 +3650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="9" customFormat="1">
+    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="88">
         <v>16</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1">
+    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="88">
         <v>16</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="9" customFormat="1">
+    <row r="31" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="88">
         <v>16</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="9" customFormat="1">
+    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="88">
         <v>16</v>
       </c>
@@ -3829,7 +3838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="9" customFormat="1">
+    <row r="33" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="88">
         <v>16</v>
       </c>
@@ -3876,7 +3885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="9" customFormat="1">
+    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="88">
         <v>16</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="9" customFormat="1">
+    <row r="35" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="88">
         <v>16</v>
       </c>
@@ -3970,7 +3979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="9" customFormat="1">
+    <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="88">
         <v>16</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="9" customFormat="1">
+    <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="88">
         <v>16</v>
       </c>
@@ -4064,7 +4073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="9" customFormat="1">
+    <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="88">
         <v>16</v>
       </c>
@@ -4111,7 +4120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="9" customFormat="1">
+    <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="88">
         <v>16</v>
       </c>
@@ -4158,7 +4167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1">
+    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="88"/>
       <c r="B40" s="84"/>
       <c r="C40" s="75"/>
@@ -4175,7 +4184,7 @@
       <c r="N40" s="88"/>
       <c r="O40" s="88"/>
     </row>
-    <row r="41" spans="1:15" s="9" customFormat="1">
+    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="88">
         <v>17</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="9" customFormat="1">
+    <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="88"/>
       <c r="B42" s="84"/>
       <c r="C42" s="75"/>
@@ -4239,7 +4248,7 @@
       <c r="N42" s="88"/>
       <c r="O42" s="88"/>
     </row>
-    <row r="43" spans="1:15" s="9" customFormat="1">
+    <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="88"/>
       <c r="B43" s="84"/>
       <c r="C43" s="75"/>
@@ -4256,7 +4265,7 @@
       <c r="N43" s="88"/>
       <c r="O43" s="88"/>
     </row>
-    <row r="44" spans="1:15" s="9" customFormat="1">
+    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="88"/>
       <c r="B44" s="84"/>
       <c r="C44" s="75"/>
@@ -4273,7 +4282,7 @@
       <c r="N44" s="88"/>
       <c r="O44" s="88"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="28"/>
       <c r="C45" s="1"/>
@@ -4290,7 +4299,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="28"/>
       <c r="C46" s="1"/>
@@ -4307,7 +4316,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="28"/>
       <c r="C47" s="1"/>
@@ -4324,7 +4333,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="28"/>
       <c r="C48" s="1"/>
@@ -4341,7 +4350,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="28"/>
       <c r="C49" s="1"/>
@@ -4358,7 +4367,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="28"/>
       <c r="C50" s="1"/>
@@ -4375,7 +4384,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="28"/>
       <c r="C51" s="1"/>
@@ -4392,7 +4401,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="28"/>
       <c r="C52" s="1"/>
@@ -4409,7 +4418,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="28"/>
       <c r="C53" s="1"/>
@@ -4426,7 +4435,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="28"/>
       <c r="C54" s="1"/>
@@ -4443,7 +4452,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="28"/>
       <c r="C55" s="1"/>
@@ -4460,7 +4469,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="28"/>
       <c r="C56" s="1"/>
@@ -4477,7 +4486,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="28"/>
       <c r="C57" s="1"/>
@@ -4494,7 +4503,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="28"/>
       <c r="C58" s="1"/>
@@ -4511,7 +4520,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="28"/>
       <c r="C59" s="1"/>
@@ -4528,7 +4537,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="28"/>
       <c r="C60" s="1"/>
@@ -4545,7 +4554,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="28"/>
       <c r="C61" s="1"/>
@@ -4562,7 +4571,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="28"/>
       <c r="C62" s="1"/>
@@ -4579,7 +4588,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="28"/>
       <c r="C63" s="1"/>
@@ -4596,7 +4605,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="28"/>
       <c r="C64" s="1"/>
@@ -4613,7 +4622,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="28"/>
       <c r="C65" s="1"/>
@@ -4630,7 +4639,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="28"/>
       <c r="C66" s="1"/>
@@ -4647,7 +4656,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="28"/>
       <c r="C67" s="1"/>
@@ -4664,7 +4673,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="28"/>
       <c r="C68" s="1"/>
@@ -4681,7 +4690,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="28"/>
       <c r="C69" s="1"/>
@@ -4698,7 +4707,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="28"/>
       <c r="C70" s="1"/>
@@ -4715,7 +4724,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="28"/>
       <c r="C71" s="1"/>
@@ -4732,7 +4741,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="28"/>
       <c r="C72" s="1"/>
@@ -4749,7 +4758,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="28"/>
       <c r="C73" s="1"/>
@@ -4766,7 +4775,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="28"/>
       <c r="C74" s="1"/>
@@ -4783,7 +4792,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="28"/>
       <c r="C75" s="1"/>
@@ -4800,7 +4809,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="28"/>
       <c r="C76" s="1"/>
@@ -4817,7 +4826,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="28"/>
       <c r="C77" s="1"/>
@@ -4834,7 +4843,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="28"/>
       <c r="C78" s="1"/>
@@ -4851,7 +4860,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="28"/>
       <c r="C79" s="1"/>
@@ -4868,7 +4877,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="28"/>
       <c r="C80" s="1"/>
@@ -4885,7 +4894,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="28"/>
       <c r="C81" s="1"/>
@@ -4902,7 +4911,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="28"/>
       <c r="C82" s="1"/>
@@ -4919,7 +4928,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="28"/>
       <c r="C83" s="1"/>
@@ -4936,7 +4945,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="28"/>
       <c r="C84" s="1"/>
@@ -4953,7 +4962,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="28"/>
       <c r="C85" s="1"/>
@@ -4970,7 +4979,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="28"/>
       <c r="C86" s="1"/>
@@ -4987,7 +4996,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="28"/>
       <c r="C87" s="1"/>
@@ -5004,7 +5013,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="28"/>
       <c r="C88" s="1"/>
@@ -5021,7 +5030,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="28"/>
       <c r="C89" s="1"/>
@@ -5038,7 +5047,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="28"/>
       <c r="C90" s="1"/>
@@ -5055,7 +5064,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="28"/>
       <c r="C91" s="1"/>
@@ -5072,7 +5081,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="28"/>
       <c r="C92" s="1"/>
@@ -5089,7 +5098,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="28"/>
       <c r="C93" s="1"/>
@@ -5106,7 +5115,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="28"/>
       <c r="C94" s="1"/>
@@ -5123,7 +5132,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="28"/>
       <c r="C95" s="1"/>
@@ -5140,7 +5149,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="28"/>
       <c r="C96" s="1"/>
@@ -5157,7 +5166,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="28"/>
       <c r="C97" s="1"/>
@@ -5174,7 +5183,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="28"/>
       <c r="C98" s="1"/>
@@ -5191,7 +5200,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="28"/>
       <c r="C99" s="1"/>
@@ -5208,7 +5217,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="28"/>
       <c r="C100" s="1"/>
@@ -5225,7 +5234,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="28"/>
       <c r="C101" s="1"/>
@@ -5242,7 +5251,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="28"/>
       <c r="C102" s="1"/>
@@ -5259,7 +5268,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="28"/>
       <c r="C103" s="1"/>
@@ -5276,7 +5285,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="28"/>
       <c r="C104" s="1"/>
@@ -5293,7 +5302,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="28"/>
       <c r="C105" s="1"/>
@@ -5310,7 +5319,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="28"/>
       <c r="C106" s="1"/>
@@ -5327,7 +5336,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="28"/>
       <c r="C107" s="1"/>
@@ -5344,7 +5353,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="28"/>
       <c r="C108" s="1"/>
@@ -5361,7 +5370,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="28"/>
       <c r="C109" s="1"/>
@@ -5378,7 +5387,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="28"/>
       <c r="C110" s="1"/>
@@ -5395,7 +5404,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="28"/>
       <c r="C111" s="1"/>
@@ -5412,7 +5421,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="28"/>
       <c r="C112" s="1"/>
@@ -5429,7 +5438,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="28"/>
       <c r="C113" s="1"/>
@@ -5446,7 +5455,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="28"/>
       <c r="C114" s="1"/>
@@ -5463,7 +5472,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="28"/>
       <c r="C115" s="1"/>
@@ -5480,7 +5489,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="28"/>
       <c r="C116" s="1"/>
@@ -5497,7 +5506,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="28"/>
       <c r="C117" s="1"/>
@@ -5514,7 +5523,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="28"/>
       <c r="C118" s="1"/>
@@ -5531,7 +5540,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="28"/>
       <c r="C119" s="1"/>
@@ -5548,7 +5557,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="28"/>
       <c r="C120" s="1"/>
@@ -5565,7 +5574,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="28"/>
       <c r="C121" s="1"/>
@@ -5582,7 +5591,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="28"/>
       <c r="C122" s="1"/>
@@ -5599,7 +5608,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="28"/>
       <c r="C123" s="1"/>
@@ -5616,7 +5625,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="28"/>
       <c r="C124" s="1"/>
@@ -5633,7 +5642,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="28"/>
       <c r="C125" s="1"/>
@@ -5650,7 +5659,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="28"/>
       <c r="C126" s="1"/>
@@ -5667,7 +5676,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="28"/>
       <c r="C127" s="1"/>
@@ -5684,7 +5693,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="28"/>
       <c r="C128" s="1"/>
@@ -5701,7 +5710,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="28"/>
       <c r="C129" s="1"/>
@@ -5718,7 +5727,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="28"/>
       <c r="C130" s="1"/>
@@ -5735,7 +5744,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="28"/>
       <c r="C131" s="1"/>
@@ -5752,7 +5761,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="28"/>
       <c r="C132" s="1"/>
@@ -5769,7 +5778,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="28"/>
       <c r="C133" s="1"/>
@@ -5786,7 +5795,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="28"/>
       <c r="C134" s="1"/>
@@ -5803,7 +5812,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="28"/>
       <c r="C135" s="1"/>
@@ -5820,7 +5829,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="28"/>
       <c r="C136" s="1"/>
@@ -5837,7 +5846,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="28"/>
       <c r="C137" s="1"/>
@@ -5854,7 +5863,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="28"/>
       <c r="C138" s="1"/>
@@ -5871,7 +5880,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="28"/>
       <c r="C139" s="1"/>
@@ -5888,7 +5897,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="28"/>
       <c r="C140" s="1"/>
@@ -5905,7 +5914,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="28"/>
       <c r="C141" s="1"/>
@@ -5922,7 +5931,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="28"/>
       <c r="C142" s="1"/>
@@ -5939,7 +5948,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="28"/>
       <c r="C143" s="1"/>
@@ -5956,7 +5965,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="28"/>
       <c r="C144" s="1"/>
@@ -5973,7 +5982,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="28"/>
       <c r="C145" s="1"/>
@@ -5990,7 +5999,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="28"/>
       <c r="C146" s="1"/>
@@ -6007,7 +6016,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="28"/>
       <c r="C147" s="1"/>
@@ -6024,7 +6033,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="28"/>
       <c r="C148" s="1"/>
@@ -6041,7 +6050,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="28"/>
       <c r="C149" s="1"/>
@@ -6058,7 +6067,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="28"/>
       <c r="C150" s="1"/>
@@ -6075,7 +6084,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="28"/>
       <c r="C151" s="1"/>
@@ -6092,7 +6101,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="28"/>
       <c r="C152" s="1"/>
@@ -6109,7 +6118,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="28"/>
       <c r="C153" s="1"/>
@@ -6126,7 +6135,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="28"/>
       <c r="C154" s="1"/>
@@ -6143,7 +6152,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="28"/>
       <c r="C155" s="1"/>
@@ -6160,7 +6169,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="28"/>
       <c r="C156" s="1"/>
@@ -6177,7 +6186,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="28"/>
       <c r="C157" s="1"/>
@@ -6194,7 +6203,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="28"/>
       <c r="C158" s="1"/>
@@ -6211,7 +6220,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="28"/>
       <c r="C159" s="1"/>
@@ -6228,7 +6237,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="28"/>
       <c r="C160" s="1"/>
@@ -6245,7 +6254,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="28"/>
       <c r="C161" s="1"/>
@@ -6262,7 +6271,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="28"/>
       <c r="C162" s="1"/>
@@ -6279,7 +6288,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="28"/>
       <c r="C163" s="1"/>
@@ -6296,7 +6305,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="28"/>
       <c r="C164" s="1"/>
@@ -6313,7 +6322,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="28"/>
       <c r="C165" s="1"/>
@@ -6330,7 +6339,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="28"/>
       <c r="C166" s="1"/>
@@ -6347,7 +6356,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="28"/>
       <c r="C167" s="1"/>
@@ -6364,7 +6373,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="28"/>
       <c r="C168" s="1"/>
@@ -6381,7 +6390,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="28"/>
       <c r="C169" s="1"/>
@@ -6398,7 +6407,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="28"/>
       <c r="C170" s="1"/>
@@ -6415,7 +6424,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="28"/>
       <c r="C171" s="1"/>
@@ -6432,7 +6441,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="28"/>
       <c r="C172" s="1"/>
@@ -6449,7 +6458,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="28"/>
       <c r="C173" s="1"/>
@@ -6466,7 +6475,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="28"/>
       <c r="C174" s="1"/>
@@ -6483,7 +6492,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="28"/>
       <c r="C175" s="1"/>
@@ -6500,7 +6509,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="B176" s="28"/>
       <c r="C176" s="1"/>
@@ -6517,7 +6526,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="28"/>
       <c r="C177" s="1"/>
@@ -6534,7 +6543,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="B178" s="28"/>
       <c r="C178" s="1"/>
@@ -6551,7 +6560,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="B179" s="28"/>
       <c r="C179" s="1"/>
@@ -6568,7 +6577,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="B180" s="28"/>
       <c r="C180" s="1"/>
@@ -6585,7 +6594,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="28"/>
       <c r="C181" s="1"/>
@@ -6602,7 +6611,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="28"/>
       <c r="C182" s="1"/>
@@ -6619,7 +6628,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="B183" s="28"/>
       <c r="C183" s="1"/>
@@ -6636,7 +6645,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="B184" s="28"/>
       <c r="C184" s="1"/>
@@ -6653,7 +6662,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
       <c r="B185" s="28"/>
       <c r="C185" s="1"/>
@@ -6670,7 +6679,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
       <c r="B186" s="28"/>
       <c r="C186" s="1"/>
@@ -6687,7 +6696,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
       <c r="B187" s="28"/>
       <c r="C187" s="1"/>
@@ -6704,7 +6713,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="B188" s="28"/>
       <c r="C188" s="1"/>
@@ -6721,7 +6730,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="B189" s="28"/>
       <c r="C189" s="1"/>
@@ -6738,7 +6747,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
       <c r="B190" s="28"/>
       <c r="C190" s="1"/>
@@ -6755,7 +6764,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
       <c r="B191" s="28"/>
       <c r="C191" s="1"/>
@@ -6772,7 +6781,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="B192" s="28"/>
       <c r="C192" s="1"/>
@@ -6789,7 +6798,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="28"/>
       <c r="C193" s="1"/>
@@ -6806,7 +6815,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
       <c r="B194" s="28"/>
       <c r="C194" s="1"/>
@@ -6823,7 +6832,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
       <c r="B195" s="28"/>
       <c r="C195" s="1"/>
@@ -6840,7 +6849,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
       <c r="B196" s="28"/>
       <c r="C196" s="1"/>
@@ -6857,7 +6866,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="28"/>
       <c r="C197" s="1"/>
@@ -6874,7 +6883,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
       <c r="B198" s="28"/>
       <c r="C198" s="1"/>
@@ -6891,7 +6900,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
       <c r="B199" s="28"/>
       <c r="C199" s="1"/>
@@ -6908,7 +6917,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
       <c r="B200" s="28"/>
       <c r="C200" s="1"/>
@@ -6925,7 +6934,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
       <c r="B201" s="28"/>
       <c r="C201" s="1"/>
@@ -6942,7 +6951,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
       <c r="B202" s="28"/>
       <c r="C202" s="1"/>
@@ -6959,7 +6968,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
       <c r="B203" s="28"/>
       <c r="C203" s="1"/>
@@ -6976,7 +6985,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
       <c r="B204" s="28"/>
       <c r="C204" s="1"/>
@@ -6993,7 +7002,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
       <c r="B205" s="28"/>
       <c r="C205" s="1"/>
@@ -7010,7 +7019,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
       <c r="B206" s="28"/>
       <c r="C206" s="1"/>
@@ -7027,7 +7036,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
       <c r="B207" s="28"/>
       <c r="C207" s="1"/>
@@ -7044,7 +7053,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
       <c r="B208" s="28"/>
       <c r="C208" s="1"/>
@@ -7061,7 +7070,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
       <c r="B209" s="28"/>
       <c r="C209" s="1"/>
@@ -7078,7 +7087,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
       <c r="B210" s="28"/>
       <c r="C210" s="1"/>
@@ -7095,7 +7104,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
       <c r="B211" s="28"/>
       <c r="C211" s="1"/>
@@ -7112,7 +7121,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
       <c r="B212" s="28"/>
       <c r="C212" s="1"/>
@@ -7129,7 +7138,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
       <c r="B213" s="28"/>
       <c r="C213" s="1"/>
@@ -7146,7 +7155,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="1"/>
       <c r="B214" s="28"/>
       <c r="C214" s="1"/>
@@ -7163,7 +7172,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="1"/>
       <c r="B215" s="28"/>
       <c r="C215" s="1"/>
@@ -7180,7 +7189,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="1"/>
       <c r="B216" s="28"/>
       <c r="C216" s="1"/>
@@ -7197,7 +7206,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="1"/>
       <c r="B217" s="28"/>
       <c r="C217" s="1"/>
@@ -7214,7 +7223,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
       <c r="B218" s="28"/>
       <c r="C218" s="1"/>
@@ -7231,7 +7240,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
       <c r="B219" s="28"/>
       <c r="C219" s="1"/>
@@ -7248,7 +7257,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="1"/>
       <c r="B220" s="28"/>
       <c r="C220" s="1"/>
@@ -7265,7 +7274,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
       <c r="B221" s="28"/>
       <c r="C221" s="1"/>
@@ -7282,7 +7291,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
       <c r="B222" s="28"/>
       <c r="C222" s="1"/>
@@ -7299,7 +7308,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
       <c r="B223" s="28"/>
       <c r="C223" s="1"/>
@@ -7316,7 +7325,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="1"/>
       <c r="B224" s="28"/>
       <c r="C224" s="1"/>
@@ -7333,7 +7342,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="1"/>
       <c r="B225" s="28"/>
       <c r="C225" s="1"/>
@@ -7350,7 +7359,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="1"/>
       <c r="B226" s="28"/>
       <c r="C226" s="1"/>
@@ -7367,7 +7376,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="1"/>
       <c r="B227" s="28"/>
       <c r="C227" s="1"/>
@@ -7384,7 +7393,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
       <c r="B228" s="28"/>
       <c r="C228" s="1"/>
@@ -7401,7 +7410,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="1"/>
       <c r="B229" s="28"/>
       <c r="C229" s="1"/>
@@ -7418,7 +7427,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="1"/>
       <c r="B230" s="28"/>
       <c r="C230" s="1"/>
@@ -7435,7 +7444,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="1"/>
       <c r="B231" s="28"/>
       <c r="C231" s="1"/>
@@ -7452,7 +7461,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="1"/>
       <c r="B232" s="28"/>
       <c r="C232" s="1"/>
@@ -7469,7 +7478,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="1"/>
       <c r="B233" s="28"/>
       <c r="C233" s="1"/>
@@ -7486,7 +7495,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="1"/>
       <c r="B234" s="28"/>
       <c r="C234" s="1"/>
@@ -7503,7 +7512,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="1"/>
       <c r="B235" s="28"/>
       <c r="C235" s="1"/>
@@ -7520,7 +7529,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="1"/>
       <c r="B236" s="28"/>
       <c r="C236" s="1"/>
@@ -7537,7 +7546,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="1"/>
       <c r="B237" s="28"/>
       <c r="C237" s="1"/>
@@ -7554,7 +7563,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="1"/>
       <c r="B238" s="28"/>
       <c r="C238" s="1"/>
@@ -7571,7 +7580,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="1"/>
       <c r="B239" s="28"/>
       <c r="C239" s="1"/>
@@ -7588,7 +7597,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="1"/>
       <c r="B240" s="28"/>
       <c r="C240" s="1"/>
@@ -7605,7 +7614,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="1"/>
       <c r="B241" s="28"/>
       <c r="C241" s="1"/>
@@ -7622,7 +7631,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="1"/>
       <c r="B242" s="28"/>
       <c r="C242" s="1"/>
@@ -7639,7 +7648,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="1"/>
       <c r="B243" s="28"/>
       <c r="C243" s="1"/>
@@ -7656,7 +7665,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="1"/>
       <c r="B244" s="28"/>
       <c r="C244" s="1"/>
@@ -7673,7 +7682,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="1"/>
       <c r="B245" s="28"/>
       <c r="C245" s="1"/>
@@ -7690,7 +7699,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="1"/>
       <c r="B246" s="28"/>
       <c r="C246" s="1"/>
@@ -7707,7 +7716,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="1"/>
       <c r="B247" s="28"/>
       <c r="C247" s="1"/>
@@ -7724,7 +7733,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="1"/>
       <c r="B248" s="28"/>
       <c r="C248" s="1"/>
@@ -7741,7 +7750,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="1"/>
       <c r="B249" s="28"/>
       <c r="C249" s="1"/>
@@ -7758,7 +7767,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="1"/>
       <c r="B250" s="28"/>
       <c r="C250" s="1"/>
@@ -7775,7 +7784,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="1"/>
       <c r="B251" s="28"/>
       <c r="C251" s="1"/>
@@ -7792,7 +7801,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="1"/>
       <c r="B252" s="28"/>
       <c r="C252" s="1"/>
@@ -7809,7 +7818,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="1"/>
       <c r="B253" s="28"/>
       <c r="C253" s="1"/>
@@ -7826,7 +7835,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="1"/>
       <c r="B254" s="28"/>
       <c r="C254" s="1"/>
@@ -7843,7 +7852,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="1"/>
       <c r="B255" s="28"/>
       <c r="C255" s="1"/>
@@ -7860,7 +7869,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="1"/>
       <c r="B256" s="28"/>
       <c r="C256" s="1"/>
@@ -7877,7 +7886,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="1"/>
       <c r="B257" s="28"/>
       <c r="C257" s="1"/>
@@ -7894,7 +7903,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="1"/>
       <c r="B258" s="28"/>
       <c r="C258" s="1"/>
@@ -7911,7 +7920,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="1"/>
       <c r="B259" s="28"/>
       <c r="C259" s="1"/>
@@ -7928,7 +7937,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="1"/>
       <c r="B260" s="28"/>
       <c r="C260" s="1"/>
@@ -7945,7 +7954,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="1"/>
       <c r="B261" s="28"/>
       <c r="C261" s="1"/>
@@ -7962,7 +7971,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="1"/>
       <c r="B262" s="28"/>
       <c r="C262" s="1"/>
@@ -7979,7 +7988,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="1"/>
       <c r="B263" s="28"/>
       <c r="C263" s="1"/>
@@ -7996,7 +8005,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="1"/>
       <c r="B264" s="28"/>
       <c r="C264" s="1"/>
@@ -8013,7 +8022,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="1"/>
       <c r="B265" s="28"/>
       <c r="C265" s="1"/>
@@ -8030,7 +8039,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="1"/>
       <c r="B266" s="28"/>
       <c r="C266" s="1"/>
@@ -8047,7 +8056,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="1"/>
       <c r="B267" s="28"/>
       <c r="C267" s="1"/>
@@ -8064,7 +8073,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="1"/>
       <c r="B268" s="28"/>
       <c r="C268" s="1"/>
@@ -8081,7 +8090,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="1"/>
       <c r="B269" s="28"/>
       <c r="C269" s="1"/>
@@ -8098,7 +8107,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="1"/>
       <c r="B270" s="28"/>
       <c r="C270" s="1"/>
@@ -8115,7 +8124,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="1"/>
       <c r="B271" s="28"/>
       <c r="C271" s="1"/>
@@ -8132,7 +8141,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="1"/>
       <c r="B272" s="28"/>
       <c r="C272" s="1"/>
@@ -8149,7 +8158,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="1"/>
       <c r="B273" s="28"/>
       <c r="C273" s="1"/>
@@ -8166,7 +8175,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="1"/>
       <c r="B274" s="28"/>
       <c r="C274" s="1"/>
@@ -8183,7 +8192,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="1"/>
       <c r="B275" s="28"/>
       <c r="C275" s="1"/>
@@ -8200,7 +8209,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="1"/>
       <c r="B276" s="28"/>
       <c r="C276" s="1"/>
@@ -8217,7 +8226,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="1"/>
       <c r="B277" s="28"/>
       <c r="C277" s="1"/>
@@ -8234,7 +8243,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="1"/>
       <c r="B278" s="28"/>
       <c r="C278" s="1"/>
@@ -8251,7 +8260,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="1"/>
       <c r="B279" s="28"/>
       <c r="C279" s="1"/>
@@ -8268,7 +8277,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="1"/>
       <c r="B280" s="28"/>
       <c r="C280" s="1"/>
@@ -8285,7 +8294,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="1"/>
       <c r="B281" s="28"/>
       <c r="C281" s="1"/>
@@ -8302,7 +8311,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="1"/>
       <c r="B282" s="28"/>
       <c r="C282" s="1"/>
@@ -8319,7 +8328,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="1"/>
       <c r="B283" s="28"/>
       <c r="C283" s="1"/>
@@ -8336,7 +8345,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="1"/>
       <c r="B284" s="28"/>
       <c r="C284" s="1"/>
@@ -8353,7 +8362,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="1"/>
       <c r="B285" s="28"/>
       <c r="C285" s="1"/>
@@ -8370,7 +8379,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="1"/>
       <c r="B286" s="28"/>
       <c r="C286" s="1"/>
@@ -8387,7 +8396,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="1"/>
       <c r="B287" s="28"/>
       <c r="C287" s="1"/>
@@ -8404,7 +8413,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="1"/>
       <c r="B288" s="28"/>
       <c r="C288" s="1"/>
@@ -8421,7 +8430,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="1"/>
       <c r="B289" s="28"/>
       <c r="C289" s="1"/>
@@ -8438,7 +8447,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="1"/>
       <c r="B290" s="28"/>
       <c r="C290" s="1"/>
@@ -8455,7 +8464,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="1"/>
       <c r="B291" s="28"/>
       <c r="C291" s="1"/>
@@ -8472,7 +8481,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="1"/>
       <c r="B292" s="28"/>
       <c r="C292" s="1"/>
@@ -8489,7 +8498,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="1"/>
       <c r="B293" s="28"/>
       <c r="C293" s="1"/>
@@ -8506,7 +8515,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="1"/>
       <c r="B294" s="28"/>
       <c r="C294" s="1"/>
@@ -8523,7 +8532,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="1"/>
       <c r="B295" s="28"/>
       <c r="C295" s="1"/>
@@ -8540,7 +8549,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="1"/>
       <c r="B296" s="28"/>
       <c r="C296" s="1"/>
@@ -8557,7 +8566,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="1"/>
       <c r="B297" s="28"/>
       <c r="C297" s="1"/>
@@ -8574,7 +8583,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="1"/>
       <c r="B298" s="28"/>
       <c r="C298" s="1"/>
@@ -8591,7 +8600,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="1"/>
       <c r="B299" s="28"/>
       <c r="C299" s="1"/>
@@ -8608,7 +8617,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="1"/>
       <c r="B300" s="28"/>
       <c r="C300" s="1"/>
@@ -8628,14 +8637,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G14 G16:G30 G37 G39:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G14 G16:G30 G37 G39:G1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8645,14 +8654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -8663,7 +8672,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -8686,7 +8695,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="104">
         <v>1</v>
       </c>
@@ -8709,7 +8718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="104"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
@@ -8730,7 +8739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
@@ -8751,7 +8760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="104">
         <v>2</v>
       </c>
@@ -8774,7 +8783,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="104"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
@@ -8795,7 +8804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="104"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
@@ -8816,7 +8825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="104">
         <v>3</v>
       </c>
@@ -8839,7 +8848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="104"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
@@ -8860,7 +8869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="104"/>
       <c r="B10" s="63" t="s">
         <v>77</v>
@@ -8879,7 +8888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="104"/>
       <c r="B11" s="63" t="s">
         <v>78</v>
@@ -8900,7 +8909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="104">
         <v>4</v>
       </c>
@@ -8923,7 +8932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="104"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
@@ -8944,7 +8953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="104"/>
       <c r="B14" s="63" t="s">
         <v>77</v>
@@ -8963,7 +8972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="104"/>
       <c r="B15" s="63" t="s">
         <v>78</v>
@@ -8984,7 +8993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="104"/>
       <c r="B16" s="68" t="s">
         <v>82</v>
@@ -9003,7 +9012,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="104"/>
       <c r="B17" s="68" t="s">
         <v>83</v>
@@ -9022,7 +9031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="104"/>
       <c r="B18" s="16" t="s">
         <v>108</v>
@@ -9041,7 +9050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="104"/>
       <c r="B19" s="16" t="s">
         <v>107</v>
@@ -9060,7 +9069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="104"/>
       <c r="B20" s="17"/>
       <c r="C20" s="71"/>
@@ -9069,7 +9078,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="104"/>
       <c r="B21" s="17"/>
       <c r="C21" s="71"/>
@@ -9078,7 +9087,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="101">
         <v>5</v>
       </c>
@@ -9099,7 +9108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="102"/>
       <c r="B23" s="68" t="s">
         <v>83</v>
@@ -9118,7 +9127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="102"/>
       <c r="B24" s="68" t="s">
         <v>84</v>
@@ -9137,7 +9146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="102"/>
       <c r="B25" s="68" t="s">
         <v>85</v>
@@ -9156,7 +9165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="103"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
@@ -9165,7 +9174,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="28.5">
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="101">
         <v>8</v>
       </c>
@@ -9191,7 +9200,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25">
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="103"/>
       <c r="B28" s="19" t="s">
         <v>104</v>
@@ -9212,7 +9221,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="87"/>
       <c r="B29" s="90"/>
       <c r="C29" s="72"/>
@@ -9221,7 +9230,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25">
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="104">
         <v>16</v>
       </c>
@@ -9244,7 +9253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25">
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="104"/>
       <c r="B31" s="17" t="s">
         <v>172</v>
@@ -9265,7 +9274,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25">
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="104"/>
       <c r="B32" s="75" t="s">
         <v>175</v>
@@ -9286,7 +9295,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="80"/>
       <c r="B33" s="1"/>
       <c r="C33" s="28"/>
@@ -9295,7 +9304,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="14.25">
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="104">
         <v>17</v>
       </c>
@@ -9318,7 +9327,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="104"/>
       <c r="B35" s="17" t="s">
         <v>172</v>
@@ -9339,19 +9348,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="104"/>
       <c r="B36" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>176</v>
+        <v>181</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>187</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>63</v>
@@ -9360,16 +9369,16 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="104"/>
       <c r="B37" s="75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C37" s="76" t="s">
         <v>187</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>86</v>
@@ -9381,49 +9390,37 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="104"/>
       <c r="B38" s="75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="104"/>
-      <c r="B39" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="63" t="s">
+      <c r="G38" s="63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="80"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="80"/>
       <c r="B40" s="1"/>
       <c r="C40" s="28"/>
@@ -9432,8 +9429,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="80"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="81"/>
       <c r="B41" s="1"/>
       <c r="C41" s="28"/>
       <c r="D41" s="18"/>
@@ -9441,34 +9438,34 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="81"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="18"/>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="101"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="101"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="102"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="72"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="102"/>
       <c r="B44" s="17"/>
       <c r="C44" s="71"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="102"/>
       <c r="B45" s="17"/>
       <c r="C45" s="71"/>
@@ -9477,7 +9474,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="102"/>
       <c r="B46" s="17"/>
       <c r="C46" s="71"/>
@@ -9486,7 +9483,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="102"/>
       <c r="B47" s="17"/>
       <c r="C47" s="71"/>
@@ -9495,7 +9492,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="102"/>
       <c r="B48" s="17"/>
       <c r="C48" s="71"/>
@@ -9504,7 +9501,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="102"/>
       <c r="B49" s="17"/>
       <c r="C49" s="71"/>
@@ -9513,16 +9510,16 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="102"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="71"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="18"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="102"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
@@ -9531,7 +9528,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="102"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
@@ -9540,7 +9537,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="102"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
@@ -9549,7 +9546,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="102"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
@@ -9558,7 +9555,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="102"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
@@ -9567,34 +9564,34 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="102"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="28"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="103"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="18"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="103"/>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="101"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="18"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="101"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="102"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="72"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="102"/>
       <c r="B59" s="17"/>
       <c r="C59" s="71"/>
@@ -9603,25 +9600,25 @@
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25">
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="102"/>
       <c r="B60" s="17"/>
       <c r="C60" s="71"/>
       <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25">
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="102"/>
       <c r="B61" s="17"/>
       <c r="C61" s="71"/>
-      <c r="D61" s="20"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="102"/>
       <c r="B62" s="17"/>
       <c r="C62" s="71"/>
@@ -9630,7 +9627,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="102"/>
       <c r="B63" s="17"/>
       <c r="C63" s="71"/>
@@ -9639,7 +9636,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="102"/>
       <c r="B64" s="17"/>
       <c r="C64" s="71"/>
@@ -9648,7 +9645,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="102"/>
       <c r="B65" s="17"/>
       <c r="C65" s="71"/>
@@ -9657,7 +9654,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="102"/>
       <c r="B66" s="17"/>
       <c r="C66" s="71"/>
@@ -9666,7 +9663,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="102"/>
       <c r="B67" s="17"/>
       <c r="C67" s="71"/>
@@ -9675,8 +9672,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="102"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="103"/>
       <c r="B68" s="17"/>
       <c r="C68" s="71"/>
       <c r="D68" s="18"/>
@@ -9684,25 +9681,25 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="103"/>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="101"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="18"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="101"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="102"/>
       <c r="B70" s="17"/>
-      <c r="C70" s="72"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="20"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.25">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="102"/>
       <c r="B71" s="17"/>
       <c r="C71" s="71"/>
@@ -9711,25 +9708,25 @@
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25">
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="102"/>
       <c r="B72" s="17"/>
       <c r="C72" s="71"/>
       <c r="D72" s="20"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" ht="14.25">
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="102"/>
       <c r="B73" s="17"/>
       <c r="C73" s="71"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="21"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="102"/>
       <c r="B74" s="17"/>
       <c r="C74" s="71"/>
@@ -9738,7 +9735,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="102"/>
       <c r="B75" s="17"/>
       <c r="C75" s="71"/>
@@ -9747,7 +9744,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="102"/>
       <c r="B76" s="17"/>
       <c r="C76" s="71"/>
@@ -9756,7 +9753,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="102"/>
       <c r="B77" s="17"/>
       <c r="C77" s="71"/>
@@ -9765,7 +9762,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="102"/>
       <c r="B78" s="17"/>
       <c r="C78" s="71"/>
@@ -9774,7 +9771,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="102"/>
       <c r="B79" s="17"/>
       <c r="C79" s="71"/>
@@ -9783,8 +9780,8 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="102"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="103"/>
       <c r="B80" s="17"/>
       <c r="C80" s="71"/>
       <c r="D80" s="18"/>
@@ -9792,34 +9789,34 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="103"/>
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="102"/>
       <c r="B81" s="17"/>
       <c r="C81" s="71"/>
-      <c r="D81" s="18"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.25">
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="102"/>
       <c r="B82" s="17"/>
       <c r="C82" s="71"/>
       <c r="D82" s="20"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.25">
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="102"/>
       <c r="B83" s="17"/>
       <c r="C83" s="71"/>
-      <c r="D83" s="20"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="21"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="102"/>
       <c r="B84" s="17"/>
       <c r="C84" s="71"/>
@@ -9828,7 +9825,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="102"/>
       <c r="B85" s="17"/>
       <c r="C85" s="71"/>
@@ -9837,7 +9834,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="102"/>
       <c r="B86" s="17"/>
       <c r="C86" s="71"/>
@@ -9846,7 +9843,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="102"/>
       <c r="B87" s="17"/>
       <c r="C87" s="71"/>
@@ -9855,7 +9852,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="102"/>
       <c r="B88" s="17"/>
       <c r="C88" s="71"/>
@@ -9864,7 +9861,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="102"/>
       <c r="B89" s="17"/>
       <c r="C89" s="71"/>
@@ -9873,8 +9870,8 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="102"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="103"/>
       <c r="B90" s="17"/>
       <c r="C90" s="71"/>
       <c r="D90" s="18"/>
@@ -9882,37 +9879,28 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="103"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A70:A81"/>
-    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A81:A90"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A43:A57"/>
-    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A34:A38"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9922,14 +9910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -9938,7 +9926,7 @@
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -9952,7 +9940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>12</v>
       </c>
@@ -9966,7 +9954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9980,7 +9968,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -9994,42 +9982,42 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B922B7AB-BA86-4697-99C5-DEAB14D6F4B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="191">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -757,15 +751,19 @@
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,7 +1314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1449,9 +1447,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,6 +1625,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,14 +1907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1929,24 +1930,24 @@
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:13" ht="14.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="96"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="95"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -1971,23 +1972,23 @@
       <c r="H2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="37">
         <v>12</v>
       </c>
@@ -2009,25 +2010,25 @@
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="54">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="55">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="56">
         <f>L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="37"/>
       <c r="B4" s="38">
         <v>52</v>
@@ -2048,26 +2049,26 @@
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54">
+      <c r="I4" s="52"/>
+      <c r="J4" s="53">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="54">
         <f t="shared" ref="K4:K9" si="2">C4+G4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="55">
         <f t="shared" ref="L4:L9" si="3">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="56">
         <f t="shared" ref="M4:M9" si="4">L4/K4*100%</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="97">
+    <row r="5" spans="1:13">
+      <c r="A5" s="96">
         <v>1</v>
       </c>
       <c r="B5" s="38">
@@ -2088,26 +2089,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54">
+      <c r="I5" s="52"/>
+      <c r="J5" s="53">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="54">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="55">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="56">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="98"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="97"/>
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -2127,30 +2128,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54">
+      <c r="I6" s="52"/>
+      <c r="J6" s="53">
         <f t="shared" ref="J6:J9" si="5">I6/L6*100%</f>
         <v>0</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="54">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="55">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="56">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="98"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="97"/>
       <c r="B7" s="38">
         <v>3</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>4</v>
       </c>
       <c r="D7" s="40">
@@ -2166,99 +2167,99 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54" t="e">
+      <c r="I7" s="52"/>
+      <c r="J7" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="54">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
+    <row r="8" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A8" s="97"/>
       <c r="B8" s="43">
         <v>4</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>8</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>8</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="46">
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59" t="e">
+      <c r="I8" s="57"/>
+      <c r="J8" s="58" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="59">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+    <row r="9" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A9" s="98"/>
       <c r="B9" s="43">
         <v>5</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>8</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>4</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>4</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59">
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="59">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="60">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="61">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="97">
+    <row r="10" spans="1:13">
+      <c r="A10" s="96">
         <v>3</v>
       </c>
       <c r="B10" s="38">
@@ -2280,26 +2281,26 @@
         <f t="shared" ref="H10" si="7">F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54">
+      <c r="I10" s="52"/>
+      <c r="J10" s="53">
         <f t="shared" ref="J10" si="8">I10/L10*100%</f>
         <v>0</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="54">
         <f t="shared" ref="K10" si="9">C10+G10</f>
         <v>1</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="55">
         <f t="shared" ref="L10" si="10">D10+G10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="56">
         <f t="shared" ref="M10" si="11">L10/K10*100%</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="98"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="97"/>
       <c r="B11" s="38">
         <v>13</v>
       </c>
@@ -2319,26 +2320,26 @@
         <f t="shared" ref="H11:H14" si="13">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54">
+      <c r="I11" s="52"/>
+      <c r="J11" s="53">
         <f t="shared" ref="J11:J14" si="14">I11/L11*100%</f>
         <v>0</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="54">
         <f t="shared" ref="K11:K14" si="15">C11+G11</f>
         <v>9</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="55">
         <f t="shared" ref="L11:L14" si="16">D11+G11</f>
         <v>9</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="56">
         <f t="shared" ref="M11:M14" si="17">L11/K11*100%</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="100">
+    <row r="12" spans="1:13">
+      <c r="A12" s="99">
         <v>4</v>
       </c>
       <c r="B12" s="38">
@@ -2359,26 +2360,26 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54">
+      <c r="I12" s="52"/>
+      <c r="J12" s="53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="54">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="55">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="56">
         <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="99"/>
       <c r="B13" s="38">
         <v>17</v>
       </c>
@@ -2398,55 +2399,59 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54">
+      <c r="I13" s="52"/>
+      <c r="J13" s="53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="54">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="55">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="56">
         <f t="shared" si="17"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="100"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45">
+    <row r="14" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A14" s="99"/>
+      <c r="B14" s="43">
+        <v>18</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="45">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59" t="e">
+      <c r="I14" s="57"/>
+      <c r="J14" s="58" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="59" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" s="60">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M14" s="62" t="e">
+      <c r="M14" s="61" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -2463,14 +2468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
@@ -2486,7 +2491,7 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="27">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -2533,919 +2538,919 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69">
+    <row r="2" spans="1:15" s="9" customFormat="1">
+      <c r="A2" s="68">
         <v>51</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="75">
         <v>43073</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="68">
         <v>76109183</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="74">
         <v>13812966236</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69">
+    <row r="3" spans="1:15" s="9" customFormat="1">
+      <c r="A3" s="68">
         <v>52</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="75">
         <v>43095</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="68">
         <v>76115178</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="75">
+      <c r="N3" s="74">
         <v>18326308555</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="69">
+    <row r="4" spans="1:15" s="9" customFormat="1">
+      <c r="A4" s="68">
         <v>52</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="75">
         <v>43077</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="68">
         <v>76113166</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="74">
         <v>13913841691</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69">
+    <row r="5" spans="1:15" s="9" customFormat="1">
+      <c r="A5" s="68">
         <v>2</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="75">
         <v>43105</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="68">
         <v>76119036</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="75">
+      <c r="N5" s="74">
         <v>13655118116</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69">
+    <row r="6" spans="1:15" s="9" customFormat="1">
+      <c r="A6" s="68">
         <v>2</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="75">
         <v>43105</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="68">
         <v>76120311</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="75">
+      <c r="N6" s="74">
         <v>15150815370</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="69">
+    <row r="7" spans="1:15" s="9" customFormat="1">
+      <c r="A7" s="68">
         <v>3</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="69"/>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69">
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="68"/>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1">
+      <c r="A8" s="68">
         <v>4</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="69"/>
-    </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69">
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="68"/>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1">
+      <c r="A9" s="68">
         <v>5</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="68">
         <v>76128299</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="75">
+      <c r="N9" s="74">
         <v>13451811185</v>
       </c>
-      <c r="O9" s="69" t="s">
+      <c r="O9" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69">
+    <row r="10" spans="1:15" s="9" customFormat="1">
+      <c r="A10" s="68">
         <v>5</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="68">
         <v>76116635</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L10" s="75" t="s">
+      <c r="L10" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="75">
+      <c r="N10" s="74">
         <v>18551671169</v>
       </c>
-      <c r="O10" s="69" t="s">
+      <c r="O10" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69">
+    <row r="11" spans="1:15" s="9" customFormat="1">
+      <c r="A11" s="68">
         <v>5</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="68">
         <v>76123028</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="75">
+      <c r="N11" s="74">
         <v>13770313685</v>
       </c>
-      <c r="O11" s="69" t="s">
+      <c r="O11" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69">
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="68">
         <v>5</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="68">
         <v>76129852</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L12" s="75" t="s">
+      <c r="L12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="75" t="s">
+      <c r="M12" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="75">
+      <c r="N12" s="74">
         <v>18251380104</v>
       </c>
-      <c r="O12" s="69" t="s">
+      <c r="O12" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73">
+    <row r="13" spans="1:15" s="9" customFormat="1">
+      <c r="A13" s="72">
         <v>10</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="75" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <v>76133273</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="73">
+      <c r="N13" s="72">
         <v>15955551912</v>
       </c>
-      <c r="O13" s="77" t="s">
+      <c r="O13" s="76" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-    </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="82">
+    <row r="14" spans="1:15" s="9" customFormat="1">
+      <c r="A14" s="72"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1">
+      <c r="A15" s="81"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1">
+      <c r="A16" s="81">
         <v>13</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>43187</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="72">
         <v>76137157</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L16" s="75" t="s">
+      <c r="L16" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N16" s="72">
         <v>13377789827</v>
       </c>
-      <c r="O16" s="82" t="s">
+      <c r="O16" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="82">
+    <row r="17" spans="1:15" s="9" customFormat="1">
+      <c r="A17" s="81">
         <v>13</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>43187</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <v>76138176</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="75" t="s">
+      <c r="J17" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="73">
+      <c r="N17" s="72">
         <v>15765025678</v>
       </c>
-      <c r="O17" s="82" t="s">
+      <c r="O17" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="82">
+    <row r="18" spans="1:15" s="9" customFormat="1">
+      <c r="A18" s="81">
         <v>13</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>43187</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="72">
         <v>76152209</v>
       </c>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L18" s="75" t="s">
+      <c r="L18" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="75" t="s">
+      <c r="M18" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="73">
+      <c r="N18" s="72">
         <v>13836247287</v>
       </c>
-      <c r="O18" s="82" t="s">
+      <c r="O18" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82">
+    <row r="19" spans="1:15" s="9" customFormat="1">
+      <c r="A19" s="81">
         <v>13</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>43187</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <v>76152210</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="75" t="s">
+      <c r="M19" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="72">
         <v>18358878921</v>
       </c>
-      <c r="O19" s="82" t="s">
+      <c r="O19" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="83">
+    <row r="20" spans="1:15" s="9" customFormat="1">
+      <c r="A20" s="82">
         <v>13</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>43187</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="83">
+      <c r="G20" s="82">
         <v>76128178</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="83">
+      <c r="N20" s="82">
         <v>15611074292</v>
       </c>
-      <c r="O20" s="83" t="s">
+      <c r="O20" s="82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="85">
+    <row r="21" spans="1:15" s="9" customFormat="1">
+      <c r="A21" s="84">
         <v>13</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>43190</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="85">
+      <c r="G21" s="84">
         <v>76152981</v>
       </c>
-      <c r="H21" s="75" t="s">
+      <c r="H21" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="75">
+      <c r="K21" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="M21" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="85">
+      <c r="N21" s="84">
         <v>15205276843</v>
       </c>
-      <c r="O21" s="75" t="s">
+      <c r="O21" s="74" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="85">
+    <row r="22" spans="1:15" s="9" customFormat="1">
+      <c r="A22" s="84">
         <v>13</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>43190</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="84">
         <v>76139116</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N22" s="85">
+      <c r="N22" s="84">
         <v>18100625855</v>
       </c>
-      <c r="O22" s="85" t="s">
+      <c r="O22" s="84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="85">
+    <row r="23" spans="1:15" s="9" customFormat="1">
+      <c r="A23" s="84">
         <v>13</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>43190</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="84">
         <v>76139122</v>
       </c>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="75" t="s">
+      <c r="I23" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="75" t="s">
+      <c r="M23" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N23" s="85">
+      <c r="N23" s="84">
         <v>18100625855</v>
       </c>
-      <c r="O23" s="85" t="s">
+      <c r="O23" s="84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="28"/>
       <c r="C24" s="1"/>
@@ -3462,827 +3467,831 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="86">
+    <row r="25" spans="1:15" s="9" customFormat="1">
+      <c r="A25" s="85">
         <v>16</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>43208</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="87">
         <v>76153979</v>
       </c>
-      <c r="H25" s="92" t="s">
+      <c r="H25" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="86">
+      <c r="N25" s="85">
         <v>18651662888</v>
       </c>
-      <c r="O25" s="86" t="s">
+      <c r="O25" s="85" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="88">
+    <row r="26" spans="1:15" s="9" customFormat="1">
+      <c r="A26" s="87">
         <v>16</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="83">
         <v>43208</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="87">
         <v>76156173</v>
       </c>
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N26" s="86">
+      <c r="N26" s="85">
         <v>15979166367</v>
       </c>
-      <c r="O26" s="86" t="s">
+      <c r="O26" s="85" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="88">
+    <row r="27" spans="1:15" s="9" customFormat="1">
+      <c r="A27" s="87">
         <v>16</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="83">
         <v>43208</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G27" s="87">
         <v>76156167</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="75" t="s">
+      <c r="J27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="75">
+      <c r="K27" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="75" t="s">
+      <c r="M27" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N27" s="86">
+      <c r="N27" s="85">
         <v>13914760249</v>
       </c>
-      <c r="O27" s="86" t="s">
+      <c r="O27" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="88">
+    <row r="28" spans="1:15" s="9" customFormat="1">
+      <c r="A28" s="87">
         <v>16</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="83">
         <v>43208</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="87">
         <v>76152838</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N28" s="75">
+      <c r="N28" s="74">
         <v>18851058032</v>
       </c>
-      <c r="O28" s="86" t="s">
+      <c r="O28" s="85" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="88">
+    <row r="29" spans="1:15" s="9" customFormat="1">
+      <c r="A29" s="87">
         <v>16</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="83">
         <v>43208</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="87">
         <v>76152851</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="75">
+      <c r="K29" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="M29" s="75" t="s">
+      <c r="M29" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="89">
+      <c r="N29" s="88">
         <v>18851058032</v>
       </c>
-      <c r="O29" s="86" t="s">
+      <c r="O29" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="88">
+    <row r="30" spans="1:15" s="9" customFormat="1">
+      <c r="A30" s="87">
         <v>16</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="83">
         <v>43208</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="87">
         <v>76138868</v>
       </c>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="75">
+      <c r="K30" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="M30" s="75" t="s">
+      <c r="M30" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="86">
+      <c r="N30" s="85">
         <v>18511805661</v>
       </c>
-      <c r="O30" s="75" t="s">
+      <c r="O30" s="74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="88">
+    <row r="31" spans="1:15" s="9" customFormat="1">
+      <c r="A31" s="87">
         <v>16</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="83">
         <v>43208</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="75">
+      <c r="G31" s="74">
         <v>76128369</v>
       </c>
-      <c r="H31" s="92" t="s">
+      <c r="H31" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I31" s="75" t="s">
+      <c r="I31" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="75" t="s">
+      <c r="J31" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="75">
+      <c r="K31" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M31" s="75" t="s">
+      <c r="M31" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="88">
+      <c r="N31" s="87">
         <v>15189977010</v>
       </c>
-      <c r="O31" s="88" t="s">
+      <c r="O31" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="88">
+    <row r="32" spans="1:15" s="9" customFormat="1">
+      <c r="A32" s="87">
         <v>16</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="83">
         <v>43208</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="75">
+      <c r="G32" s="74">
         <v>76128810</v>
       </c>
-      <c r="H32" s="92" t="s">
+      <c r="H32" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L32" s="75" t="s">
+      <c r="L32" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="75" t="s">
+      <c r="M32" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N32" s="88">
+      <c r="N32" s="87">
         <v>15189977010</v>
       </c>
-      <c r="O32" s="88" t="s">
+      <c r="O32" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="88">
+    <row r="33" spans="1:15" s="9" customFormat="1">
+      <c r="A33" s="87">
         <v>16</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="83">
         <v>43208</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="75">
+      <c r="G33" s="74">
         <v>76126516</v>
       </c>
-      <c r="H33" s="92" t="s">
+      <c r="H33" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="75" t="s">
+      <c r="I33" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="75">
+      <c r="K33" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M33" s="75" t="s">
+      <c r="M33" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N33" s="88">
+      <c r="N33" s="87">
         <v>15189977010</v>
       </c>
-      <c r="O33" s="88" t="s">
+      <c r="O33" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="88">
+    <row r="34" spans="1:15" s="9" customFormat="1">
+      <c r="A34" s="87">
         <v>16</v>
       </c>
-      <c r="B34" s="84">
+      <c r="B34" s="83">
         <v>43208</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="75">
+      <c r="G34" s="74">
         <v>76123630</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L34" s="75" t="s">
+      <c r="L34" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M34" s="75" t="s">
+      <c r="M34" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N34" s="88">
+      <c r="N34" s="87">
         <v>15189977010</v>
       </c>
-      <c r="O34" s="88" t="s">
+      <c r="O34" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="88">
+    <row r="35" spans="1:15" s="9" customFormat="1">
+      <c r="A35" s="87">
         <v>16</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="83">
         <v>43208</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="75">
+      <c r="G35" s="74">
         <v>76153981</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="75" t="s">
+      <c r="I35" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="75" t="s">
+      <c r="J35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L35" s="75" t="s">
+      <c r="L35" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="75" t="s">
+      <c r="M35" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N35" s="88">
+      <c r="N35" s="87">
         <v>15189977010</v>
       </c>
-      <c r="O35" s="88" t="s">
+      <c r="O35" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="88">
+    <row r="36" spans="1:15" s="9" customFormat="1">
+      <c r="A36" s="87">
         <v>16</v>
       </c>
-      <c r="B36" s="84">
+      <c r="B36" s="83">
         <v>43208</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="75">
+      <c r="G36" s="74">
         <v>76158096</v>
       </c>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="I36" s="75" t="s">
+      <c r="I36" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L36" s="75" t="s">
+      <c r="L36" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N36" s="88">
+      <c r="N36" s="87">
         <v>15189977010</v>
       </c>
-      <c r="O36" s="88" t="s">
+      <c r="O36" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="88">
+    <row r="37" spans="1:15" s="9" customFormat="1">
+      <c r="A37" s="87">
         <v>16</v>
       </c>
-      <c r="B37" s="84">
+      <c r="B37" s="83">
         <v>43208</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="88">
+      <c r="G37" s="87">
         <v>76159921</v>
       </c>
-      <c r="H37" s="92" t="s">
+      <c r="H37" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="75" t="s">
+      <c r="I37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="75" t="s">
+      <c r="J37" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="75">
+      <c r="K37" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L37" s="75" t="s">
+      <c r="L37" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="M37" s="75" t="s">
+      <c r="M37" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N37" s="88">
+      <c r="N37" s="87">
         <v>15189977010</v>
       </c>
-      <c r="O37" s="88" t="s">
+      <c r="O37" s="87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="88">
+    <row r="38" spans="1:15" s="9" customFormat="1">
+      <c r="A38" s="87">
         <v>16</v>
       </c>
-      <c r="B38" s="84">
+      <c r="B38" s="83">
         <v>43208</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="88">
+      <c r="G38" s="87">
         <v>76160131</v>
       </c>
-      <c r="H38" s="92" t="s">
+      <c r="H38" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="I38" s="75" t="s">
+      <c r="I38" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="75">
+      <c r="K38" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L38" s="75" t="s">
+      <c r="L38" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N38" s="88">
+      <c r="N38" s="87">
         <v>18604247766</v>
       </c>
-      <c r="O38" s="88" t="s">
+      <c r="O38" s="87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="88">
+    <row r="39" spans="1:15" s="9" customFormat="1">
+      <c r="A39" s="87">
         <v>16</v>
       </c>
-      <c r="B39" s="84">
+      <c r="B39" s="83">
         <v>43208</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="88">
+      <c r="G39" s="87">
         <v>76155675</v>
       </c>
-      <c r="H39" s="75" t="s">
+      <c r="H39" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="I39" s="75" t="s">
+      <c r="I39" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="75" t="s">
+      <c r="J39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="75">
+      <c r="K39" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L39" s="75" t="s">
+      <c r="L39" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="M39" s="75" t="s">
+      <c r="M39" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N39" s="89">
+      <c r="N39" s="88">
         <v>13675152232</v>
       </c>
-      <c r="O39" s="88" t="s">
+      <c r="O39" s="87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="88"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-    </row>
-    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="88">
+    <row r="40" spans="1:15" s="9" customFormat="1">
+      <c r="A40" s="87"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+    </row>
+    <row r="41" spans="1:15" s="9" customFormat="1">
+      <c r="A41" s="87">
         <v>17</v>
       </c>
-      <c r="B41" s="84">
+      <c r="B41" s="83">
         <v>43215</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G41" s="88">
+      <c r="G41" s="87">
         <v>76160287</v>
       </c>
-      <c r="H41" s="75" t="s">
+      <c r="H41" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="75" t="s">
+      <c r="I41" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J41" s="75" t="s">
+      <c r="J41" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K41" s="75">
+      <c r="K41" s="74">
         <v>18061296271</v>
       </c>
-      <c r="L41" s="75" t="s">
+      <c r="L41" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="M41" s="75" t="s">
+      <c r="M41" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N41" s="75" t="s">
+      <c r="N41" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="O41" s="91" t="s">
+      <c r="O41" s="90" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="88"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-    </row>
-    <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="88"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-    </row>
-    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="88"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" s="9" customFormat="1">
+      <c r="A42" s="87">
+        <v>18</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+    </row>
+    <row r="43" spans="1:15" s="9" customFormat="1">
+      <c r="A43" s="87"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+    </row>
+    <row r="44" spans="1:15" s="9" customFormat="1">
+      <c r="A44" s="87"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
       <c r="B45" s="28"/>
       <c r="C45" s="1"/>
@@ -4299,7 +4308,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15">
       <c r="A46" s="1"/>
       <c r="B46" s="28"/>
       <c r="C46" s="1"/>
@@ -4316,7 +4325,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="B47" s="28"/>
       <c r="C47" s="1"/>
@@ -4333,7 +4342,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15">
       <c r="A48" s="1"/>
       <c r="B48" s="28"/>
       <c r="C48" s="1"/>
@@ -4350,7 +4359,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15">
       <c r="A49" s="1"/>
       <c r="B49" s="28"/>
       <c r="C49" s="1"/>
@@ -4367,7 +4376,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15">
       <c r="A50" s="1"/>
       <c r="B50" s="28"/>
       <c r="C50" s="1"/>
@@ -4384,7 +4393,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
       <c r="B51" s="28"/>
       <c r="C51" s="1"/>
@@ -4401,7 +4410,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15">
       <c r="A52" s="1"/>
       <c r="B52" s="28"/>
       <c r="C52" s="1"/>
@@ -4418,7 +4427,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
       <c r="B53" s="28"/>
       <c r="C53" s="1"/>
@@ -4435,7 +4444,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="28"/>
       <c r="C54" s="1"/>
@@ -4452,7 +4461,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="28"/>
       <c r="C55" s="1"/>
@@ -4469,7 +4478,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15">
       <c r="A56" s="1"/>
       <c r="B56" s="28"/>
       <c r="C56" s="1"/>
@@ -4486,7 +4495,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15">
       <c r="A57" s="1"/>
       <c r="B57" s="28"/>
       <c r="C57" s="1"/>
@@ -4503,7 +4512,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15">
       <c r="A58" s="1"/>
       <c r="B58" s="28"/>
       <c r="C58" s="1"/>
@@ -4520,7 +4529,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15">
       <c r="A59" s="1"/>
       <c r="B59" s="28"/>
       <c r="C59" s="1"/>
@@ -4537,7 +4546,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15">
       <c r="A60" s="1"/>
       <c r="B60" s="28"/>
       <c r="C60" s="1"/>
@@ -4554,7 +4563,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15">
       <c r="A61" s="1"/>
       <c r="B61" s="28"/>
       <c r="C61" s="1"/>
@@ -4571,7 +4580,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15">
       <c r="A62" s="1"/>
       <c r="B62" s="28"/>
       <c r="C62" s="1"/>
@@ -4588,7 +4597,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15">
       <c r="A63" s="1"/>
       <c r="B63" s="28"/>
       <c r="C63" s="1"/>
@@ -4605,7 +4614,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15">
       <c r="A64" s="1"/>
       <c r="B64" s="28"/>
       <c r="C64" s="1"/>
@@ -4622,7 +4631,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15">
       <c r="A65" s="1"/>
       <c r="B65" s="28"/>
       <c r="C65" s="1"/>
@@ -4639,7 +4648,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15">
       <c r="A66" s="1"/>
       <c r="B66" s="28"/>
       <c r="C66" s="1"/>
@@ -4656,7 +4665,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15">
       <c r="A67" s="1"/>
       <c r="B67" s="28"/>
       <c r="C67" s="1"/>
@@ -4673,7 +4682,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15">
       <c r="A68" s="1"/>
       <c r="B68" s="28"/>
       <c r="C68" s="1"/>
@@ -4690,7 +4699,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15">
       <c r="A69" s="1"/>
       <c r="B69" s="28"/>
       <c r="C69" s="1"/>
@@ -4707,7 +4716,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15">
       <c r="A70" s="1"/>
       <c r="B70" s="28"/>
       <c r="C70" s="1"/>
@@ -4724,7 +4733,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15">
       <c r="A71" s="1"/>
       <c r="B71" s="28"/>
       <c r="C71" s="1"/>
@@ -4741,7 +4750,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15">
       <c r="A72" s="1"/>
       <c r="B72" s="28"/>
       <c r="C72" s="1"/>
@@ -4758,7 +4767,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15">
       <c r="A73" s="1"/>
       <c r="B73" s="28"/>
       <c r="C73" s="1"/>
@@ -4775,7 +4784,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15">
       <c r="A74" s="1"/>
       <c r="B74" s="28"/>
       <c r="C74" s="1"/>
@@ -4792,7 +4801,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15">
       <c r="A75" s="1"/>
       <c r="B75" s="28"/>
       <c r="C75" s="1"/>
@@ -4809,7 +4818,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15">
       <c r="A76" s="1"/>
       <c r="B76" s="28"/>
       <c r="C76" s="1"/>
@@ -4826,7 +4835,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15">
       <c r="A77" s="1"/>
       <c r="B77" s="28"/>
       <c r="C77" s="1"/>
@@ -4843,7 +4852,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15">
       <c r="A78" s="1"/>
       <c r="B78" s="28"/>
       <c r="C78" s="1"/>
@@ -4860,7 +4869,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15">
       <c r="A79" s="1"/>
       <c r="B79" s="28"/>
       <c r="C79" s="1"/>
@@ -4877,7 +4886,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15">
       <c r="A80" s="1"/>
       <c r="B80" s="28"/>
       <c r="C80" s="1"/>
@@ -4894,7 +4903,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15">
       <c r="A81" s="1"/>
       <c r="B81" s="28"/>
       <c r="C81" s="1"/>
@@ -4911,7 +4920,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15">
       <c r="A82" s="1"/>
       <c r="B82" s="28"/>
       <c r="C82" s="1"/>
@@ -4928,7 +4937,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15">
       <c r="A83" s="1"/>
       <c r="B83" s="28"/>
       <c r="C83" s="1"/>
@@ -4945,7 +4954,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15">
       <c r="A84" s="1"/>
       <c r="B84" s="28"/>
       <c r="C84" s="1"/>
@@ -4962,7 +4971,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15">
       <c r="A85" s="1"/>
       <c r="B85" s="28"/>
       <c r="C85" s="1"/>
@@ -4979,7 +4988,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15">
       <c r="A86" s="1"/>
       <c r="B86" s="28"/>
       <c r="C86" s="1"/>
@@ -4996,7 +5005,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15">
       <c r="A87" s="1"/>
       <c r="B87" s="28"/>
       <c r="C87" s="1"/>
@@ -5013,7 +5022,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15">
       <c r="A88" s="1"/>
       <c r="B88" s="28"/>
       <c r="C88" s="1"/>
@@ -5030,7 +5039,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15">
       <c r="A89" s="1"/>
       <c r="B89" s="28"/>
       <c r="C89" s="1"/>
@@ -5047,7 +5056,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15">
       <c r="A90" s="1"/>
       <c r="B90" s="28"/>
       <c r="C90" s="1"/>
@@ -5064,7 +5073,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="28"/>
       <c r="C91" s="1"/>
@@ -5081,7 +5090,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15">
       <c r="A92" s="1"/>
       <c r="B92" s="28"/>
       <c r="C92" s="1"/>
@@ -5098,7 +5107,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15">
       <c r="A93" s="1"/>
       <c r="B93" s="28"/>
       <c r="C93" s="1"/>
@@ -5115,7 +5124,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15">
       <c r="A94" s="1"/>
       <c r="B94" s="28"/>
       <c r="C94" s="1"/>
@@ -5132,7 +5141,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15">
       <c r="A95" s="1"/>
       <c r="B95" s="28"/>
       <c r="C95" s="1"/>
@@ -5149,7 +5158,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15">
       <c r="A96" s="1"/>
       <c r="B96" s="28"/>
       <c r="C96" s="1"/>
@@ -5166,7 +5175,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15">
       <c r="A97" s="1"/>
       <c r="B97" s="28"/>
       <c r="C97" s="1"/>
@@ -5183,7 +5192,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15">
       <c r="A98" s="1"/>
       <c r="B98" s="28"/>
       <c r="C98" s="1"/>
@@ -5200,7 +5209,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15">
       <c r="A99" s="1"/>
       <c r="B99" s="28"/>
       <c r="C99" s="1"/>
@@ -5217,7 +5226,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15">
       <c r="A100" s="1"/>
       <c r="B100" s="28"/>
       <c r="C100" s="1"/>
@@ -5234,7 +5243,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15">
       <c r="A101" s="1"/>
       <c r="B101" s="28"/>
       <c r="C101" s="1"/>
@@ -5251,7 +5260,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15">
       <c r="A102" s="1"/>
       <c r="B102" s="28"/>
       <c r="C102" s="1"/>
@@ -5268,7 +5277,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15">
       <c r="A103" s="1"/>
       <c r="B103" s="28"/>
       <c r="C103" s="1"/>
@@ -5285,7 +5294,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15">
       <c r="A104" s="1"/>
       <c r="B104" s="28"/>
       <c r="C104" s="1"/>
@@ -5302,7 +5311,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15">
       <c r="A105" s="1"/>
       <c r="B105" s="28"/>
       <c r="C105" s="1"/>
@@ -5319,7 +5328,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15">
       <c r="A106" s="1"/>
       <c r="B106" s="28"/>
       <c r="C106" s="1"/>
@@ -5336,7 +5345,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15">
       <c r="A107" s="1"/>
       <c r="B107" s="28"/>
       <c r="C107" s="1"/>
@@ -5353,7 +5362,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15">
       <c r="A108" s="1"/>
       <c r="B108" s="28"/>
       <c r="C108" s="1"/>
@@ -5370,7 +5379,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15">
       <c r="A109" s="1"/>
       <c r="B109" s="28"/>
       <c r="C109" s="1"/>
@@ -5387,7 +5396,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15">
       <c r="A110" s="1"/>
       <c r="B110" s="28"/>
       <c r="C110" s="1"/>
@@ -5404,7 +5413,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15">
       <c r="A111" s="1"/>
       <c r="B111" s="28"/>
       <c r="C111" s="1"/>
@@ -5421,7 +5430,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15">
       <c r="A112" s="1"/>
       <c r="B112" s="28"/>
       <c r="C112" s="1"/>
@@ -5438,7 +5447,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15">
       <c r="A113" s="1"/>
       <c r="B113" s="28"/>
       <c r="C113" s="1"/>
@@ -5455,7 +5464,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15">
       <c r="A114" s="1"/>
       <c r="B114" s="28"/>
       <c r="C114" s="1"/>
@@ -5472,7 +5481,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15">
       <c r="A115" s="1"/>
       <c r="B115" s="28"/>
       <c r="C115" s="1"/>
@@ -5489,7 +5498,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15">
       <c r="A116" s="1"/>
       <c r="B116" s="28"/>
       <c r="C116" s="1"/>
@@ -5506,7 +5515,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15">
       <c r="A117" s="1"/>
       <c r="B117" s="28"/>
       <c r="C117" s="1"/>
@@ -5523,7 +5532,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15">
       <c r="A118" s="1"/>
       <c r="B118" s="28"/>
       <c r="C118" s="1"/>
@@ -5540,7 +5549,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15">
       <c r="A119" s="1"/>
       <c r="B119" s="28"/>
       <c r="C119" s="1"/>
@@ -5557,7 +5566,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15">
       <c r="A120" s="1"/>
       <c r="B120" s="28"/>
       <c r="C120" s="1"/>
@@ -5574,7 +5583,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15">
       <c r="A121" s="1"/>
       <c r="B121" s="28"/>
       <c r="C121" s="1"/>
@@ -5591,7 +5600,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15">
       <c r="A122" s="1"/>
       <c r="B122" s="28"/>
       <c r="C122" s="1"/>
@@ -5608,7 +5617,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15">
       <c r="A123" s="1"/>
       <c r="B123" s="28"/>
       <c r="C123" s="1"/>
@@ -5625,7 +5634,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15">
       <c r="A124" s="1"/>
       <c r="B124" s="28"/>
       <c r="C124" s="1"/>
@@ -5642,7 +5651,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15">
       <c r="A125" s="1"/>
       <c r="B125" s="28"/>
       <c r="C125" s="1"/>
@@ -5659,7 +5668,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15">
       <c r="A126" s="1"/>
       <c r="B126" s="28"/>
       <c r="C126" s="1"/>
@@ -5676,7 +5685,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15">
       <c r="A127" s="1"/>
       <c r="B127" s="28"/>
       <c r="C127" s="1"/>
@@ -5693,7 +5702,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15">
       <c r="A128" s="1"/>
       <c r="B128" s="28"/>
       <c r="C128" s="1"/>
@@ -5710,7 +5719,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15">
       <c r="A129" s="1"/>
       <c r="B129" s="28"/>
       <c r="C129" s="1"/>
@@ -5727,7 +5736,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15">
       <c r="A130" s="1"/>
       <c r="B130" s="28"/>
       <c r="C130" s="1"/>
@@ -5744,7 +5753,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15">
       <c r="A131" s="1"/>
       <c r="B131" s="28"/>
       <c r="C131" s="1"/>
@@ -5761,7 +5770,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15">
       <c r="A132" s="1"/>
       <c r="B132" s="28"/>
       <c r="C132" s="1"/>
@@ -5778,7 +5787,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15">
       <c r="A133" s="1"/>
       <c r="B133" s="28"/>
       <c r="C133" s="1"/>
@@ -5795,7 +5804,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15">
       <c r="A134" s="1"/>
       <c r="B134" s="28"/>
       <c r="C134" s="1"/>
@@ -5812,7 +5821,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15">
       <c r="A135" s="1"/>
       <c r="B135" s="28"/>
       <c r="C135" s="1"/>
@@ -5829,7 +5838,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15">
       <c r="A136" s="1"/>
       <c r="B136" s="28"/>
       <c r="C136" s="1"/>
@@ -5846,7 +5855,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15">
       <c r="A137" s="1"/>
       <c r="B137" s="28"/>
       <c r="C137" s="1"/>
@@ -5863,7 +5872,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15">
       <c r="A138" s="1"/>
       <c r="B138" s="28"/>
       <c r="C138" s="1"/>
@@ -5880,7 +5889,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15">
       <c r="A139" s="1"/>
       <c r="B139" s="28"/>
       <c r="C139" s="1"/>
@@ -5897,7 +5906,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15">
       <c r="A140" s="1"/>
       <c r="B140" s="28"/>
       <c r="C140" s="1"/>
@@ -5914,7 +5923,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15">
       <c r="A141" s="1"/>
       <c r="B141" s="28"/>
       <c r="C141" s="1"/>
@@ -5931,7 +5940,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15">
       <c r="A142" s="1"/>
       <c r="B142" s="28"/>
       <c r="C142" s="1"/>
@@ -5948,7 +5957,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15">
       <c r="A143" s="1"/>
       <c r="B143" s="28"/>
       <c r="C143" s="1"/>
@@ -5965,7 +5974,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15">
       <c r="A144" s="1"/>
       <c r="B144" s="28"/>
       <c r="C144" s="1"/>
@@ -5982,7 +5991,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15">
       <c r="A145" s="1"/>
       <c r="B145" s="28"/>
       <c r="C145" s="1"/>
@@ -5999,7 +6008,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15">
       <c r="A146" s="1"/>
       <c r="B146" s="28"/>
       <c r="C146" s="1"/>
@@ -6016,7 +6025,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15">
       <c r="A147" s="1"/>
       <c r="B147" s="28"/>
       <c r="C147" s="1"/>
@@ -6033,7 +6042,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15">
       <c r="A148" s="1"/>
       <c r="B148" s="28"/>
       <c r="C148" s="1"/>
@@ -6050,7 +6059,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15">
       <c r="A149" s="1"/>
       <c r="B149" s="28"/>
       <c r="C149" s="1"/>
@@ -6067,7 +6076,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15">
       <c r="A150" s="1"/>
       <c r="B150" s="28"/>
       <c r="C150" s="1"/>
@@ -6084,7 +6093,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15">
       <c r="A151" s="1"/>
       <c r="B151" s="28"/>
       <c r="C151" s="1"/>
@@ -6101,7 +6110,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15">
       <c r="A152" s="1"/>
       <c r="B152" s="28"/>
       <c r="C152" s="1"/>
@@ -6118,7 +6127,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15">
       <c r="A153" s="1"/>
       <c r="B153" s="28"/>
       <c r="C153" s="1"/>
@@ -6135,7 +6144,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15">
       <c r="A154" s="1"/>
       <c r="B154" s="28"/>
       <c r="C154" s="1"/>
@@ -6152,7 +6161,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15">
       <c r="A155" s="1"/>
       <c r="B155" s="28"/>
       <c r="C155" s="1"/>
@@ -6169,7 +6178,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15">
       <c r="A156" s="1"/>
       <c r="B156" s="28"/>
       <c r="C156" s="1"/>
@@ -6186,7 +6195,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15">
       <c r="A157" s="1"/>
       <c r="B157" s="28"/>
       <c r="C157" s="1"/>
@@ -6203,7 +6212,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15">
       <c r="A158" s="1"/>
       <c r="B158" s="28"/>
       <c r="C158" s="1"/>
@@ -6220,7 +6229,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15">
       <c r="A159" s="1"/>
       <c r="B159" s="28"/>
       <c r="C159" s="1"/>
@@ -6237,7 +6246,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15">
       <c r="A160" s="1"/>
       <c r="B160" s="28"/>
       <c r="C160" s="1"/>
@@ -6254,7 +6263,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15">
       <c r="A161" s="1"/>
       <c r="B161" s="28"/>
       <c r="C161" s="1"/>
@@ -6271,7 +6280,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15">
       <c r="A162" s="1"/>
       <c r="B162" s="28"/>
       <c r="C162" s="1"/>
@@ -6288,7 +6297,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15">
       <c r="A163" s="1"/>
       <c r="B163" s="28"/>
       <c r="C163" s="1"/>
@@ -6305,7 +6314,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15">
       <c r="A164" s="1"/>
       <c r="B164" s="28"/>
       <c r="C164" s="1"/>
@@ -6322,7 +6331,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15">
       <c r="A165" s="1"/>
       <c r="B165" s="28"/>
       <c r="C165" s="1"/>
@@ -6339,7 +6348,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15">
       <c r="A166" s="1"/>
       <c r="B166" s="28"/>
       <c r="C166" s="1"/>
@@ -6356,7 +6365,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15">
       <c r="A167" s="1"/>
       <c r="B167" s="28"/>
       <c r="C167" s="1"/>
@@ -6373,7 +6382,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15">
       <c r="A168" s="1"/>
       <c r="B168" s="28"/>
       <c r="C168" s="1"/>
@@ -6390,7 +6399,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15">
       <c r="A169" s="1"/>
       <c r="B169" s="28"/>
       <c r="C169" s="1"/>
@@ -6407,7 +6416,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15">
       <c r="A170" s="1"/>
       <c r="B170" s="28"/>
       <c r="C170" s="1"/>
@@ -6424,7 +6433,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15">
       <c r="A171" s="1"/>
       <c r="B171" s="28"/>
       <c r="C171" s="1"/>
@@ -6441,7 +6450,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15">
       <c r="A172" s="1"/>
       <c r="B172" s="28"/>
       <c r="C172" s="1"/>
@@ -6458,7 +6467,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15">
       <c r="A173" s="1"/>
       <c r="B173" s="28"/>
       <c r="C173" s="1"/>
@@ -6475,7 +6484,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15">
       <c r="A174" s="1"/>
       <c r="B174" s="28"/>
       <c r="C174" s="1"/>
@@ -6492,7 +6501,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15">
       <c r="A175" s="1"/>
       <c r="B175" s="28"/>
       <c r="C175" s="1"/>
@@ -6509,7 +6518,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15">
       <c r="A176" s="1"/>
       <c r="B176" s="28"/>
       <c r="C176" s="1"/>
@@ -6526,7 +6535,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15">
       <c r="A177" s="1"/>
       <c r="B177" s="28"/>
       <c r="C177" s="1"/>
@@ -6543,7 +6552,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15">
       <c r="A178" s="1"/>
       <c r="B178" s="28"/>
       <c r="C178" s="1"/>
@@ -6560,7 +6569,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15">
       <c r="A179" s="1"/>
       <c r="B179" s="28"/>
       <c r="C179" s="1"/>
@@ -6577,7 +6586,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15">
       <c r="A180" s="1"/>
       <c r="B180" s="28"/>
       <c r="C180" s="1"/>
@@ -6594,7 +6603,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15">
       <c r="A181" s="1"/>
       <c r="B181" s="28"/>
       <c r="C181" s="1"/>
@@ -6611,7 +6620,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15">
       <c r="A182" s="1"/>
       <c r="B182" s="28"/>
       <c r="C182" s="1"/>
@@ -6628,7 +6637,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15">
       <c r="A183" s="1"/>
       <c r="B183" s="28"/>
       <c r="C183" s="1"/>
@@ -6645,7 +6654,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15">
       <c r="A184" s="1"/>
       <c r="B184" s="28"/>
       <c r="C184" s="1"/>
@@ -6662,7 +6671,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15">
       <c r="A185" s="1"/>
       <c r="B185" s="28"/>
       <c r="C185" s="1"/>
@@ -6679,7 +6688,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15">
       <c r="A186" s="1"/>
       <c r="B186" s="28"/>
       <c r="C186" s="1"/>
@@ -6696,7 +6705,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15">
       <c r="A187" s="1"/>
       <c r="B187" s="28"/>
       <c r="C187" s="1"/>
@@ -6713,7 +6722,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15">
       <c r="A188" s="1"/>
       <c r="B188" s="28"/>
       <c r="C188" s="1"/>
@@ -6730,7 +6739,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15">
       <c r="A189" s="1"/>
       <c r="B189" s="28"/>
       <c r="C189" s="1"/>
@@ -6747,7 +6756,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15">
       <c r="A190" s="1"/>
       <c r="B190" s="28"/>
       <c r="C190" s="1"/>
@@ -6764,7 +6773,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15">
       <c r="A191" s="1"/>
       <c r="B191" s="28"/>
       <c r="C191" s="1"/>
@@ -6781,7 +6790,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15">
       <c r="A192" s="1"/>
       <c r="B192" s="28"/>
       <c r="C192" s="1"/>
@@ -6798,7 +6807,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15">
       <c r="A193" s="1"/>
       <c r="B193" s="28"/>
       <c r="C193" s="1"/>
@@ -6815,7 +6824,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15">
       <c r="A194" s="1"/>
       <c r="B194" s="28"/>
       <c r="C194" s="1"/>
@@ -6832,7 +6841,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15">
       <c r="A195" s="1"/>
       <c r="B195" s="28"/>
       <c r="C195" s="1"/>
@@ -6849,7 +6858,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15">
       <c r="A196" s="1"/>
       <c r="B196" s="28"/>
       <c r="C196" s="1"/>
@@ -6866,7 +6875,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15">
       <c r="A197" s="1"/>
       <c r="B197" s="28"/>
       <c r="C197" s="1"/>
@@ -6883,7 +6892,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15">
       <c r="A198" s="1"/>
       <c r="B198" s="28"/>
       <c r="C198" s="1"/>
@@ -6900,7 +6909,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15">
       <c r="A199" s="1"/>
       <c r="B199" s="28"/>
       <c r="C199" s="1"/>
@@ -6917,7 +6926,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15">
       <c r="A200" s="1"/>
       <c r="B200" s="28"/>
       <c r="C200" s="1"/>
@@ -6934,7 +6943,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15">
       <c r="A201" s="1"/>
       <c r="B201" s="28"/>
       <c r="C201" s="1"/>
@@ -6951,7 +6960,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15">
       <c r="A202" s="1"/>
       <c r="B202" s="28"/>
       <c r="C202" s="1"/>
@@ -6968,7 +6977,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15">
       <c r="A203" s="1"/>
       <c r="B203" s="28"/>
       <c r="C203" s="1"/>
@@ -6985,7 +6994,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15">
       <c r="A204" s="1"/>
       <c r="B204" s="28"/>
       <c r="C204" s="1"/>
@@ -7002,7 +7011,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15">
       <c r="A205" s="1"/>
       <c r="B205" s="28"/>
       <c r="C205" s="1"/>
@@ -7019,7 +7028,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15">
       <c r="A206" s="1"/>
       <c r="B206" s="28"/>
       <c r="C206" s="1"/>
@@ -7036,7 +7045,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15">
       <c r="A207" s="1"/>
       <c r="B207" s="28"/>
       <c r="C207" s="1"/>
@@ -7053,7 +7062,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15">
       <c r="A208" s="1"/>
       <c r="B208" s="28"/>
       <c r="C208" s="1"/>
@@ -7070,7 +7079,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15">
       <c r="A209" s="1"/>
       <c r="B209" s="28"/>
       <c r="C209" s="1"/>
@@ -7087,7 +7096,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15">
       <c r="A210" s="1"/>
       <c r="B210" s="28"/>
       <c r="C210" s="1"/>
@@ -7104,7 +7113,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15">
       <c r="A211" s="1"/>
       <c r="B211" s="28"/>
       <c r="C211" s="1"/>
@@ -7121,7 +7130,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15">
       <c r="A212" s="1"/>
       <c r="B212" s="28"/>
       <c r="C212" s="1"/>
@@ -7138,7 +7147,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15">
       <c r="A213" s="1"/>
       <c r="B213" s="28"/>
       <c r="C213" s="1"/>
@@ -7155,7 +7164,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15">
       <c r="A214" s="1"/>
       <c r="B214" s="28"/>
       <c r="C214" s="1"/>
@@ -7172,7 +7181,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15">
       <c r="A215" s="1"/>
       <c r="B215" s="28"/>
       <c r="C215" s="1"/>
@@ -7189,7 +7198,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15">
       <c r="A216" s="1"/>
       <c r="B216" s="28"/>
       <c r="C216" s="1"/>
@@ -7206,7 +7215,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15">
       <c r="A217" s="1"/>
       <c r="B217" s="28"/>
       <c r="C217" s="1"/>
@@ -7223,7 +7232,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15">
       <c r="A218" s="1"/>
       <c r="B218" s="28"/>
       <c r="C218" s="1"/>
@@ -7240,7 +7249,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15">
       <c r="A219" s="1"/>
       <c r="B219" s="28"/>
       <c r="C219" s="1"/>
@@ -7257,7 +7266,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15">
       <c r="A220" s="1"/>
       <c r="B220" s="28"/>
       <c r="C220" s="1"/>
@@ -7274,7 +7283,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15">
       <c r="A221" s="1"/>
       <c r="B221" s="28"/>
       <c r="C221" s="1"/>
@@ -7291,7 +7300,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15">
       <c r="A222" s="1"/>
       <c r="B222" s="28"/>
       <c r="C222" s="1"/>
@@ -7308,7 +7317,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15">
       <c r="A223" s="1"/>
       <c r="B223" s="28"/>
       <c r="C223" s="1"/>
@@ -7325,7 +7334,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15">
       <c r="A224" s="1"/>
       <c r="B224" s="28"/>
       <c r="C224" s="1"/>
@@ -7342,7 +7351,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15">
       <c r="A225" s="1"/>
       <c r="B225" s="28"/>
       <c r="C225" s="1"/>
@@ -7359,7 +7368,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15">
       <c r="A226" s="1"/>
       <c r="B226" s="28"/>
       <c r="C226" s="1"/>
@@ -7376,7 +7385,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15">
       <c r="A227" s="1"/>
       <c r="B227" s="28"/>
       <c r="C227" s="1"/>
@@ -7393,7 +7402,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15">
       <c r="A228" s="1"/>
       <c r="B228" s="28"/>
       <c r="C228" s="1"/>
@@ -7410,7 +7419,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15">
       <c r="A229" s="1"/>
       <c r="B229" s="28"/>
       <c r="C229" s="1"/>
@@ -7427,7 +7436,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15">
       <c r="A230" s="1"/>
       <c r="B230" s="28"/>
       <c r="C230" s="1"/>
@@ -7444,7 +7453,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15">
       <c r="A231" s="1"/>
       <c r="B231" s="28"/>
       <c r="C231" s="1"/>
@@ -7461,7 +7470,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15">
       <c r="A232" s="1"/>
       <c r="B232" s="28"/>
       <c r="C232" s="1"/>
@@ -7478,7 +7487,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15">
       <c r="A233" s="1"/>
       <c r="B233" s="28"/>
       <c r="C233" s="1"/>
@@ -7495,7 +7504,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15">
       <c r="A234" s="1"/>
       <c r="B234" s="28"/>
       <c r="C234" s="1"/>
@@ -7512,7 +7521,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15">
       <c r="A235" s="1"/>
       <c r="B235" s="28"/>
       <c r="C235" s="1"/>
@@ -7529,7 +7538,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15">
       <c r="A236" s="1"/>
       <c r="B236" s="28"/>
       <c r="C236" s="1"/>
@@ -7546,7 +7555,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15">
       <c r="A237" s="1"/>
       <c r="B237" s="28"/>
       <c r="C237" s="1"/>
@@ -7563,7 +7572,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15">
       <c r="A238" s="1"/>
       <c r="B238" s="28"/>
       <c r="C238" s="1"/>
@@ -7580,7 +7589,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15">
       <c r="A239" s="1"/>
       <c r="B239" s="28"/>
       <c r="C239" s="1"/>
@@ -7597,7 +7606,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15">
       <c r="A240" s="1"/>
       <c r="B240" s="28"/>
       <c r="C240" s="1"/>
@@ -7614,7 +7623,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15">
       <c r="A241" s="1"/>
       <c r="B241" s="28"/>
       <c r="C241" s="1"/>
@@ -7631,7 +7640,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15">
       <c r="A242" s="1"/>
       <c r="B242" s="28"/>
       <c r="C242" s="1"/>
@@ -7648,7 +7657,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15">
       <c r="A243" s="1"/>
       <c r="B243" s="28"/>
       <c r="C243" s="1"/>
@@ -7665,7 +7674,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15">
       <c r="A244" s="1"/>
       <c r="B244" s="28"/>
       <c r="C244" s="1"/>
@@ -7682,7 +7691,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15">
       <c r="A245" s="1"/>
       <c r="B245" s="28"/>
       <c r="C245" s="1"/>
@@ -7699,7 +7708,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15">
       <c r="A246" s="1"/>
       <c r="B246" s="28"/>
       <c r="C246" s="1"/>
@@ -7716,7 +7725,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15">
       <c r="A247" s="1"/>
       <c r="B247" s="28"/>
       <c r="C247" s="1"/>
@@ -7733,7 +7742,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15">
       <c r="A248" s="1"/>
       <c r="B248" s="28"/>
       <c r="C248" s="1"/>
@@ -7750,7 +7759,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15">
       <c r="A249" s="1"/>
       <c r="B249" s="28"/>
       <c r="C249" s="1"/>
@@ -7767,7 +7776,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15">
       <c r="A250" s="1"/>
       <c r="B250" s="28"/>
       <c r="C250" s="1"/>
@@ -7784,7 +7793,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15">
       <c r="A251" s="1"/>
       <c r="B251" s="28"/>
       <c r="C251" s="1"/>
@@ -7801,7 +7810,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15">
       <c r="A252" s="1"/>
       <c r="B252" s="28"/>
       <c r="C252" s="1"/>
@@ -7818,7 +7827,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15">
       <c r="A253" s="1"/>
       <c r="B253" s="28"/>
       <c r="C253" s="1"/>
@@ -7835,7 +7844,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15">
       <c r="A254" s="1"/>
       <c r="B254" s="28"/>
       <c r="C254" s="1"/>
@@ -7852,7 +7861,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15">
       <c r="A255" s="1"/>
       <c r="B255" s="28"/>
       <c r="C255" s="1"/>
@@ -7869,7 +7878,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15">
       <c r="A256" s="1"/>
       <c r="B256" s="28"/>
       <c r="C256" s="1"/>
@@ -7886,7 +7895,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15">
       <c r="A257" s="1"/>
       <c r="B257" s="28"/>
       <c r="C257" s="1"/>
@@ -7903,7 +7912,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15">
       <c r="A258" s="1"/>
       <c r="B258" s="28"/>
       <c r="C258" s="1"/>
@@ -7920,7 +7929,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15">
       <c r="A259" s="1"/>
       <c r="B259" s="28"/>
       <c r="C259" s="1"/>
@@ -7937,7 +7946,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15">
       <c r="A260" s="1"/>
       <c r="B260" s="28"/>
       <c r="C260" s="1"/>
@@ -7954,7 +7963,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15">
       <c r="A261" s="1"/>
       <c r="B261" s="28"/>
       <c r="C261" s="1"/>
@@ -7971,7 +7980,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15">
       <c r="A262" s="1"/>
       <c r="B262" s="28"/>
       <c r="C262" s="1"/>
@@ -7988,7 +7997,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15">
       <c r="A263" s="1"/>
       <c r="B263" s="28"/>
       <c r="C263" s="1"/>
@@ -8005,7 +8014,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15">
       <c r="A264" s="1"/>
       <c r="B264" s="28"/>
       <c r="C264" s="1"/>
@@ -8022,7 +8031,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15">
       <c r="A265" s="1"/>
       <c r="B265" s="28"/>
       <c r="C265" s="1"/>
@@ -8039,7 +8048,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15">
       <c r="A266" s="1"/>
       <c r="B266" s="28"/>
       <c r="C266" s="1"/>
@@ -8056,7 +8065,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15">
       <c r="A267" s="1"/>
       <c r="B267" s="28"/>
       <c r="C267" s="1"/>
@@ -8073,7 +8082,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15">
       <c r="A268" s="1"/>
       <c r="B268" s="28"/>
       <c r="C268" s="1"/>
@@ -8090,7 +8099,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15">
       <c r="A269" s="1"/>
       <c r="B269" s="28"/>
       <c r="C269" s="1"/>
@@ -8107,7 +8116,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15">
       <c r="A270" s="1"/>
       <c r="B270" s="28"/>
       <c r="C270" s="1"/>
@@ -8124,7 +8133,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15">
       <c r="A271" s="1"/>
       <c r="B271" s="28"/>
       <c r="C271" s="1"/>
@@ -8141,7 +8150,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15">
       <c r="A272" s="1"/>
       <c r="B272" s="28"/>
       <c r="C272" s="1"/>
@@ -8158,7 +8167,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15">
       <c r="A273" s="1"/>
       <c r="B273" s="28"/>
       <c r="C273" s="1"/>
@@ -8175,7 +8184,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15">
       <c r="A274" s="1"/>
       <c r="B274" s="28"/>
       <c r="C274" s="1"/>
@@ -8192,7 +8201,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15">
       <c r="A275" s="1"/>
       <c r="B275" s="28"/>
       <c r="C275" s="1"/>
@@ -8209,7 +8218,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15">
       <c r="A276" s="1"/>
       <c r="B276" s="28"/>
       <c r="C276" s="1"/>
@@ -8226,7 +8235,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15">
       <c r="A277" s="1"/>
       <c r="B277" s="28"/>
       <c r="C277" s="1"/>
@@ -8243,7 +8252,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15">
       <c r="A278" s="1"/>
       <c r="B278" s="28"/>
       <c r="C278" s="1"/>
@@ -8260,7 +8269,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15">
       <c r="A279" s="1"/>
       <c r="B279" s="28"/>
       <c r="C279" s="1"/>
@@ -8277,7 +8286,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15">
       <c r="A280" s="1"/>
       <c r="B280" s="28"/>
       <c r="C280" s="1"/>
@@ -8294,7 +8303,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15">
       <c r="A281" s="1"/>
       <c r="B281" s="28"/>
       <c r="C281" s="1"/>
@@ -8311,7 +8320,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15">
       <c r="A282" s="1"/>
       <c r="B282" s="28"/>
       <c r="C282" s="1"/>
@@ -8328,7 +8337,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15">
       <c r="A283" s="1"/>
       <c r="B283" s="28"/>
       <c r="C283" s="1"/>
@@ -8345,7 +8354,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15">
       <c r="A284" s="1"/>
       <c r="B284" s="28"/>
       <c r="C284" s="1"/>
@@ -8362,7 +8371,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15">
       <c r="A285" s="1"/>
       <c r="B285" s="28"/>
       <c r="C285" s="1"/>
@@ -8379,7 +8388,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15">
       <c r="A286" s="1"/>
       <c r="B286" s="28"/>
       <c r="C286" s="1"/>
@@ -8396,7 +8405,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15">
       <c r="A287" s="1"/>
       <c r="B287" s="28"/>
       <c r="C287" s="1"/>
@@ -8413,7 +8422,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15">
       <c r="A288" s="1"/>
       <c r="B288" s="28"/>
       <c r="C288" s="1"/>
@@ -8430,7 +8439,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15">
       <c r="A289" s="1"/>
       <c r="B289" s="28"/>
       <c r="C289" s="1"/>
@@ -8447,7 +8456,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15">
       <c r="A290" s="1"/>
       <c r="B290" s="28"/>
       <c r="C290" s="1"/>
@@ -8464,7 +8473,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15">
       <c r="A291" s="1"/>
       <c r="B291" s="28"/>
       <c r="C291" s="1"/>
@@ -8481,7 +8490,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15">
       <c r="A292" s="1"/>
       <c r="B292" s="28"/>
       <c r="C292" s="1"/>
@@ -8498,7 +8507,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15">
       <c r="A293" s="1"/>
       <c r="B293" s="28"/>
       <c r="C293" s="1"/>
@@ -8515,7 +8524,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15">
       <c r="A294" s="1"/>
       <c r="B294" s="28"/>
       <c r="C294" s="1"/>
@@ -8532,7 +8541,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15">
       <c r="A295" s="1"/>
       <c r="B295" s="28"/>
       <c r="C295" s="1"/>
@@ -8549,7 +8558,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15">
       <c r="A296" s="1"/>
       <c r="B296" s="28"/>
       <c r="C296" s="1"/>
@@ -8566,7 +8575,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15">
       <c r="A297" s="1"/>
       <c r="B297" s="28"/>
       <c r="C297" s="1"/>
@@ -8583,7 +8592,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15">
       <c r="A298" s="1"/>
       <c r="B298" s="28"/>
       <c r="C298" s="1"/>
@@ -8600,7 +8609,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15">
       <c r="A299" s="1"/>
       <c r="B299" s="28"/>
       <c r="C299" s="1"/>
@@ -8617,7 +8626,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15">
       <c r="A300" s="1"/>
       <c r="B300" s="28"/>
       <c r="C300" s="1"/>
@@ -8637,14 +8646,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G14 G16:G30 G37 G39:G1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G14 G16:G30 G37 G39:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8654,14 +8663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:G36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -8672,14 +8681,14 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -8695,14 +8704,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="104">
+    <row r="2" spans="1:7">
+      <c r="A2" s="103">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="70">
         <v>43102</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -8718,12 +8727,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="103"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="70">
         <v>43102</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -8739,12 +8748,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="103"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="70">
         <v>43083</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -8760,14 +8769,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="104">
+    <row r="5" spans="1:7">
+      <c r="A5" s="103">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="70">
         <v>43102</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -8783,12 +8792,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="103"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="70">
         <v>43102</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -8804,12 +8813,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="103"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="70">
         <v>43083</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -8825,14 +8834,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="104">
+    <row r="8" spans="1:7">
+      <c r="A8" s="103">
         <v>3</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="70">
         <v>43083</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -8848,15 +8857,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="104"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="103"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="70">
         <v>43102</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -8869,13 +8878,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="104"/>
-      <c r="B10" s="63" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="103"/>
+      <c r="B10" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="66" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -8884,16 +8893,16 @@
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="63" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="103"/>
+      <c r="B11" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="70">
         <v>43117</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -8905,18 +8914,18 @@
       <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="104">
+    <row r="12" spans="1:7">
+      <c r="A12" s="103">
         <v>4</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="70">
         <v>43083</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -8932,15 +8941,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="103"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="70">
         <v>43102</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -8949,17 +8958,17 @@
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="104"/>
-      <c r="B14" s="63" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="103"/>
+      <c r="B14" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="66" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -8968,16 +8977,16 @@
       <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="104"/>
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="103"/>
+      <c r="B15" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="70">
         <v>43117</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -8989,16 +8998,16 @@
       <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="104"/>
-      <c r="B16" s="68" t="s">
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="103"/>
+      <c r="B16" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="14" t="s">
         <v>68</v>
       </c>
@@ -9012,12 +9021,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="104"/>
-      <c r="B17" s="68" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="103"/>
+      <c r="B17" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
@@ -9031,12 +9040,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="104"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="103"/>
       <c r="B18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="14" t="s">
         <v>68</v>
       </c>
@@ -9050,12 +9059,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="103"/>
       <c r="B19" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
@@ -9069,29 +9078,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="104"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="103"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="18"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="104"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="103"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="18"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="101">
+    <row r="22" spans="1:8">
+      <c r="A22" s="100">
         <v>5</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="67" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="28"/>
@@ -9108,9 +9117,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="102"/>
-      <c r="B23" s="68" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="101"/>
+      <c r="B23" s="67" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="28"/>
@@ -9127,9 +9136,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="102"/>
-      <c r="B24" s="68" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="101"/>
+      <c r="B24" s="67" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="28"/>
@@ -9146,9 +9155,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="102"/>
-      <c r="B25" s="68" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="101"/>
+      <c r="B25" s="67" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="28"/>
@@ -9165,8 +9174,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="103"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="102"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
       <c r="D26" s="18"/>
@@ -9174,17 +9183,17 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="101">
+    <row r="27" spans="1:8" ht="28.5">
+      <c r="A27" s="100">
         <v>8</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="78" t="s">
         <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -9200,12 +9209,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="103"/>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="102"/>
       <c r="B28" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="71" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -9221,23 +9230,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="87"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="90"/>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="86"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="104">
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="103">
         <v>16</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="71" t="s">
         <v>170</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -9253,12 +9262,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="104"/>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="103"/>
       <c r="B31" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="71" t="s">
         <v>173</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -9274,12 +9283,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="104"/>
-      <c r="B32" s="75" t="s">
+    <row r="32" spans="1:8" ht="14.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="71" t="s">
         <v>176</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -9295,8 +9304,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="80"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="79"/>
       <c r="B33" s="1"/>
       <c r="C33" s="28"/>
       <c r="D33" s="18"/>
@@ -9304,14 +9313,14 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="104">
+    <row r="34" spans="1:7" ht="14.25">
+      <c r="A34" s="103">
         <v>17</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="71" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -9327,12 +9336,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="104"/>
+    <row r="35" spans="1:7" ht="14.25">
+      <c r="A35" s="103"/>
       <c r="B35" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="71" t="s">
         <v>173</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -9348,12 +9357,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="104"/>
-      <c r="B36" s="75" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="103"/>
+      <c r="B36" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="75" t="s">
         <v>187</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -9369,12 +9378,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="104"/>
-      <c r="B37" s="75" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="103"/>
+      <c r="B37" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="75" t="s">
         <v>187</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -9390,12 +9399,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="104"/>
-      <c r="B38" s="75" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="103"/>
+      <c r="B38" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="75" t="s">
         <v>184</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -9407,111 +9416,173 @@
       <c r="F38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="80"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="80"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="81"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="101"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="102"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="102"/>
+    <row r="39" spans="1:7" ht="14.25">
+      <c r="A39" s="103">
+        <v>18</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="103"/>
+      <c r="B40" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="103"/>
+      <c r="B41" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="103"/>
+      <c r="B42" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="103"/>
+      <c r="B43" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="79"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="71"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="18"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="102"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="79"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="71"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="18"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="102"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="79"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="71"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="18"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="102"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="79"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="71"/>
+      <c r="C47" s="70"/>
       <c r="D47" s="18"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="102"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="79"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="71"/>
+      <c r="C48" s="70"/>
       <c r="D48" s="18"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="102"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="79"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="71"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="18"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="102"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="79"/>
       <c r="B50" s="1"/>
       <c r="C50" s="28"/>
       <c r="D50" s="18"/>
@@ -9519,8 +9590,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="102"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="79"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
       <c r="D51" s="18"/>
@@ -9528,8 +9599,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="102"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="79"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
       <c r="D52" s="18"/>
@@ -9537,8 +9608,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="102"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="79"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
       <c r="D53" s="18"/>
@@ -9546,8 +9617,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="102"/>
+    <row r="54" spans="1:7">
+      <c r="A54" s="79"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
       <c r="D54" s="18"/>
@@ -9555,8 +9626,8 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="102"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="79"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
       <c r="D55" s="18"/>
@@ -9564,316 +9635,316 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="103"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="80"/>
       <c r="B56" s="17"/>
-      <c r="C56" s="71"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="18"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="101"/>
+    <row r="57" spans="1:7" ht="14.25">
+      <c r="A57" s="100"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="72"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="102"/>
+    <row r="58" spans="1:7" ht="14.25">
+      <c r="A58" s="101"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="71"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="102"/>
+    <row r="59" spans="1:7" ht="14.25">
+      <c r="A59" s="101"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="71"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="20"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="102"/>
+    <row r="60" spans="1:7" ht="14.25">
+      <c r="A60" s="101"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="71"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="102"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="101"/>
       <c r="B61" s="17"/>
-      <c r="C61" s="71"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="18"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="102"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="101"/>
       <c r="B62" s="17"/>
-      <c r="C62" s="71"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="18"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="102"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="101"/>
       <c r="B63" s="17"/>
-      <c r="C63" s="71"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="18"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="102"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="101"/>
       <c r="B64" s="17"/>
-      <c r="C64" s="71"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="18"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="102"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="101"/>
       <c r="B65" s="17"/>
-      <c r="C65" s="71"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="18"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="102"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="101"/>
       <c r="B66" s="17"/>
-      <c r="C66" s="71"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="18"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="102"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="101"/>
       <c r="B67" s="17"/>
-      <c r="C67" s="71"/>
+      <c r="C67" s="70"/>
       <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="103"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="102"/>
       <c r="B68" s="17"/>
-      <c r="C68" s="71"/>
+      <c r="C68" s="70"/>
       <c r="D68" s="18"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="101"/>
+    <row r="69" spans="1:7" ht="14.25">
+      <c r="A69" s="100"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="72"/>
+      <c r="C69" s="71"/>
       <c r="D69" s="20"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="102"/>
+    <row r="70" spans="1:7" ht="14.25">
+      <c r="A70" s="101"/>
       <c r="B70" s="17"/>
-      <c r="C70" s="71"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="20"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="102"/>
+    <row r="71" spans="1:7" ht="14.25">
+      <c r="A71" s="101"/>
       <c r="B71" s="17"/>
-      <c r="C71" s="71"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="20"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="102"/>
+    <row r="72" spans="1:7" ht="14.25">
+      <c r="A72" s="101"/>
       <c r="B72" s="17"/>
-      <c r="C72" s="71"/>
+      <c r="C72" s="70"/>
       <c r="D72" s="20"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="102"/>
+    <row r="73" spans="1:7">
+      <c r="A73" s="101"/>
       <c r="B73" s="17"/>
-      <c r="C73" s="71"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="102"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="101"/>
       <c r="B74" s="17"/>
-      <c r="C74" s="71"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="18"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="102"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="101"/>
       <c r="B75" s="17"/>
-      <c r="C75" s="71"/>
+      <c r="C75" s="70"/>
       <c r="D75" s="18"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="102"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="101"/>
       <c r="B76" s="17"/>
-      <c r="C76" s="71"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="18"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="102"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="101"/>
       <c r="B77" s="17"/>
-      <c r="C77" s="71"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="18"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="102"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="101"/>
       <c r="B78" s="17"/>
-      <c r="C78" s="71"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="18"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="102"/>
+    <row r="79" spans="1:7">
+      <c r="A79" s="101"/>
       <c r="B79" s="17"/>
-      <c r="C79" s="71"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="18"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="103"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="102"/>
       <c r="B80" s="17"/>
-      <c r="C80" s="71"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="18"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="102"/>
+    <row r="81" spans="1:7" ht="14.25">
+      <c r="A81" s="101"/>
       <c r="B81" s="17"/>
-      <c r="C81" s="71"/>
+      <c r="C81" s="70"/>
       <c r="D81" s="20"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="102"/>
+    <row r="82" spans="1:7" ht="14.25">
+      <c r="A82" s="101"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="71"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="20"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="102"/>
+    <row r="83" spans="1:7">
+      <c r="A83" s="101"/>
       <c r="B83" s="17"/>
-      <c r="C83" s="71"/>
+      <c r="C83" s="70"/>
       <c r="D83" s="18"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="102"/>
+    <row r="84" spans="1:7">
+      <c r="A84" s="101"/>
       <c r="B84" s="17"/>
-      <c r="C84" s="71"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="18"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="102"/>
+    <row r="85" spans="1:7">
+      <c r="A85" s="101"/>
       <c r="B85" s="17"/>
-      <c r="C85" s="71"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="18"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="102"/>
+    <row r="86" spans="1:7">
+      <c r="A86" s="101"/>
       <c r="B86" s="17"/>
-      <c r="C86" s="71"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="18"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="102"/>
+    <row r="87" spans="1:7">
+      <c r="A87" s="101"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="71"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="18"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="102"/>
+    <row r="88" spans="1:7">
+      <c r="A88" s="101"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="71"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="18"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="102"/>
+    <row r="89" spans="1:7">
+      <c r="A89" s="101"/>
       <c r="B89" s="17"/>
-      <c r="C89" s="71"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="18"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="103"/>
+    <row r="90" spans="1:7">
+      <c r="A90" s="102"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="71"/>
+      <c r="C90" s="70"/>
       <c r="D90" s="18"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -9887,20 +9958,20 @@
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9910,14 +9981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -9926,7 +9997,7 @@
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -9940,7 +10011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="5">
         <v>12</v>
       </c>
@@ -9954,70 +10025,70 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="7">
         <v>43127</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>148</v>
       </c>
       <c r="C4" s="7">
         <v>43196</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D41AA336-74F9-4217-9644-CDE8293A6B61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -759,11 +765,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,6 +1597,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,12 +1637,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1907,14 +1913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1930,24 +1936,24 @@
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="95"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="97"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="37">
         <v>12</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="38">
         <v>52</v>
@@ -2067,8 +2073,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="96">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="98">
         <v>1</v>
       </c>
       <c r="B5" s="38">
@@ -2107,8 +2113,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="97"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="99"/>
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -2146,8 +2152,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="97"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="99"/>
       <c r="B7" s="38">
         <v>3</v>
       </c>
@@ -2185,8 +2191,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="97"/>
+    <row r="8" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="99"/>
       <c r="B8" s="43">
         <v>4</v>
       </c>
@@ -2223,8 +2229,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="98"/>
+    <row r="9" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="100"/>
       <c r="B9" s="43">
         <v>5</v>
       </c>
@@ -2258,8 +2264,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="96">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="98">
         <v>3</v>
       </c>
       <c r="B10" s="38">
@@ -2299,8 +2305,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="97"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="99"/>
       <c r="B11" s="38">
         <v>13</v>
       </c>
@@ -2338,8 +2344,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="99">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="101">
         <v>4</v>
       </c>
       <c r="B12" s="38">
@@ -2378,8 +2384,8 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="99"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="101"/>
       <c r="B13" s="38">
         <v>17</v>
       </c>
@@ -2417,12 +2423,12 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="99"/>
+    <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="101"/>
       <c r="B14" s="43">
         <v>18</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="92" t="s">
         <v>190</v>
       </c>
       <c r="D14" s="44"/>
@@ -2468,14 +2474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="H30" activeCellId="2" sqref="H32:H35 H31 H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="23" customWidth="1"/>
@@ -2491,7 +2497,7 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="27">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1">
+    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68">
         <v>51</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1">
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68">
         <v>52</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1">
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="68">
         <v>52</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="68">
         <v>2</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="68">
         <v>2</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1">
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="68">
         <v>3</v>
       </c>
@@ -2794,7 +2800,7 @@
       <c r="N7" s="74"/>
       <c r="O7" s="68"/>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1">
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="68">
         <v>4</v>
       </c>
@@ -2815,7 +2821,7 @@
       <c r="N8" s="74"/>
       <c r="O8" s="68"/>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1">
+    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="68">
         <v>5</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1">
+    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="68">
         <v>5</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1">
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="68">
         <v>5</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="68">
         <v>5</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1">
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72">
         <v>10</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1">
+    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
       <c r="B14" s="77"/>
       <c r="C14" s="72"/>
@@ -3057,7 +3063,7 @@
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1">
+    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="81"/>
       <c r="B15" s="83"/>
       <c r="C15" s="74"/>
@@ -3074,7 +3080,7 @@
       <c r="N15" s="81"/>
       <c r="O15" s="81"/>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1">
+    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="81">
         <v>13</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="9" customFormat="1">
+    <row r="17" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="81">
         <v>13</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="9" customFormat="1">
+    <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="81">
         <v>13</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="9" customFormat="1">
+    <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="81">
         <v>13</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1">
+    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="82">
         <v>13</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1">
+    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="84">
         <v>13</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="9" customFormat="1">
+    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="84">
         <v>13</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="9" customFormat="1">
+    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="84">
         <v>13</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="28"/>
       <c r="C24" s="1"/>
@@ -3467,7 +3473,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" s="9" customFormat="1">
+    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="85">
         <v>16</v>
       </c>
@@ -3514,7 +3520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="9" customFormat="1">
+    <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="87">
         <v>16</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="9" customFormat="1">
+    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="87">
         <v>16</v>
       </c>
@@ -3608,7 +3614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1">
+    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="87">
         <v>16</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="9" customFormat="1">
+    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="87">
         <v>16</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1">
+    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="87">
         <v>16</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="9" customFormat="1">
+    <row r="31" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="87">
         <v>16</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="9" customFormat="1">
+    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="87">
         <v>16</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="9" customFormat="1">
+    <row r="33" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="87">
         <v>16</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="9" customFormat="1">
+    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="87">
         <v>16</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="9" customFormat="1">
+    <row r="35" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="87">
         <v>16</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="9" customFormat="1">
+    <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="87">
         <v>16</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="9" customFormat="1">
+    <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="87">
         <v>16</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="9" customFormat="1">
+    <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="87">
         <v>16</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="9" customFormat="1">
+    <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="87">
         <v>16</v>
       </c>
@@ -4172,7 +4178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1">
+    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="87"/>
       <c r="B40" s="83"/>
       <c r="C40" s="74"/>
@@ -4189,7 +4195,7 @@
       <c r="N40" s="87"/>
       <c r="O40" s="87"/>
     </row>
-    <row r="41" spans="1:15" s="9" customFormat="1">
+    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="87">
         <v>17</v>
       </c>
@@ -4236,11 +4242,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="9" customFormat="1">
+    <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="87">
         <v>18</v>
       </c>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="93" t="s">
         <v>190</v>
       </c>
       <c r="C42" s="74"/>
@@ -4257,7 +4263,7 @@
       <c r="N42" s="87"/>
       <c r="O42" s="87"/>
     </row>
-    <row r="43" spans="1:15" s="9" customFormat="1">
+    <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="87"/>
       <c r="B43" s="83"/>
       <c r="C43" s="74"/>
@@ -4274,7 +4280,7 @@
       <c r="N43" s="87"/>
       <c r="O43" s="87"/>
     </row>
-    <row r="44" spans="1:15" s="9" customFormat="1">
+    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="87"/>
       <c r="B44" s="83"/>
       <c r="C44" s="74"/>
@@ -4291,7 +4297,7 @@
       <c r="N44" s="87"/>
       <c r="O44" s="87"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="28"/>
       <c r="C45" s="1"/>
@@ -4308,7 +4314,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="28"/>
       <c r="C46" s="1"/>
@@ -4325,7 +4331,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="28"/>
       <c r="C47" s="1"/>
@@ -4342,7 +4348,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="28"/>
       <c r="C48" s="1"/>
@@ -4359,7 +4365,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="28"/>
       <c r="C49" s="1"/>
@@ -4376,7 +4382,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="28"/>
       <c r="C50" s="1"/>
@@ -4393,7 +4399,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="28"/>
       <c r="C51" s="1"/>
@@ -4410,7 +4416,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="28"/>
       <c r="C52" s="1"/>
@@ -4427,7 +4433,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="28"/>
       <c r="C53" s="1"/>
@@ -4444,7 +4450,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="28"/>
       <c r="C54" s="1"/>
@@ -4461,7 +4467,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="28"/>
       <c r="C55" s="1"/>
@@ -4478,7 +4484,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="28"/>
       <c r="C56" s="1"/>
@@ -4495,7 +4501,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="28"/>
       <c r="C57" s="1"/>
@@ -4512,7 +4518,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="28"/>
       <c r="C58" s="1"/>
@@ -4529,7 +4535,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="28"/>
       <c r="C59" s="1"/>
@@ -4546,7 +4552,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="28"/>
       <c r="C60" s="1"/>
@@ -4563,7 +4569,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="28"/>
       <c r="C61" s="1"/>
@@ -4580,7 +4586,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="28"/>
       <c r="C62" s="1"/>
@@ -4597,7 +4603,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="28"/>
       <c r="C63" s="1"/>
@@ -4614,7 +4620,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="28"/>
       <c r="C64" s="1"/>
@@ -4631,7 +4637,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="28"/>
       <c r="C65" s="1"/>
@@ -4648,7 +4654,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="28"/>
       <c r="C66" s="1"/>
@@ -4665,7 +4671,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="28"/>
       <c r="C67" s="1"/>
@@ -4682,7 +4688,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="28"/>
       <c r="C68" s="1"/>
@@ -4699,7 +4705,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="28"/>
       <c r="C69" s="1"/>
@@ -4716,7 +4722,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="28"/>
       <c r="C70" s="1"/>
@@ -4733,7 +4739,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="28"/>
       <c r="C71" s="1"/>
@@ -4750,7 +4756,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="28"/>
       <c r="C72" s="1"/>
@@ -4767,7 +4773,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="28"/>
       <c r="C73" s="1"/>
@@ -4784,7 +4790,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="28"/>
       <c r="C74" s="1"/>
@@ -4801,7 +4807,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="28"/>
       <c r="C75" s="1"/>
@@ -4818,7 +4824,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="28"/>
       <c r="C76" s="1"/>
@@ -4835,7 +4841,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="28"/>
       <c r="C77" s="1"/>
@@ -4852,7 +4858,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="28"/>
       <c r="C78" s="1"/>
@@ -4869,7 +4875,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="28"/>
       <c r="C79" s="1"/>
@@ -4886,7 +4892,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="28"/>
       <c r="C80" s="1"/>
@@ -4903,7 +4909,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="28"/>
       <c r="C81" s="1"/>
@@ -4920,7 +4926,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="28"/>
       <c r="C82" s="1"/>
@@ -4937,7 +4943,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="28"/>
       <c r="C83" s="1"/>
@@ -4954,7 +4960,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="28"/>
       <c r="C84" s="1"/>
@@ -4971,7 +4977,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="28"/>
       <c r="C85" s="1"/>
@@ -4988,7 +4994,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="28"/>
       <c r="C86" s="1"/>
@@ -5005,7 +5011,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="28"/>
       <c r="C87" s="1"/>
@@ -5022,7 +5028,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="28"/>
       <c r="C88" s="1"/>
@@ -5039,7 +5045,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="28"/>
       <c r="C89" s="1"/>
@@ -5056,7 +5062,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="28"/>
       <c r="C90" s="1"/>
@@ -5073,7 +5079,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="28"/>
       <c r="C91" s="1"/>
@@ -5090,7 +5096,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="28"/>
       <c r="C92" s="1"/>
@@ -5107,7 +5113,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="28"/>
       <c r="C93" s="1"/>
@@ -5124,7 +5130,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="28"/>
       <c r="C94" s="1"/>
@@ -5141,7 +5147,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="28"/>
       <c r="C95" s="1"/>
@@ -5158,7 +5164,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="28"/>
       <c r="C96" s="1"/>
@@ -5175,7 +5181,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="28"/>
       <c r="C97" s="1"/>
@@ -5192,7 +5198,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="28"/>
       <c r="C98" s="1"/>
@@ -5209,7 +5215,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="28"/>
       <c r="C99" s="1"/>
@@ -5226,7 +5232,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="28"/>
       <c r="C100" s="1"/>
@@ -5243,7 +5249,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="28"/>
       <c r="C101" s="1"/>
@@ -5260,7 +5266,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="28"/>
       <c r="C102" s="1"/>
@@ -5277,7 +5283,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="28"/>
       <c r="C103" s="1"/>
@@ -5294,7 +5300,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="28"/>
       <c r="C104" s="1"/>
@@ -5311,7 +5317,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="28"/>
       <c r="C105" s="1"/>
@@ -5328,7 +5334,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="28"/>
       <c r="C106" s="1"/>
@@ -5345,7 +5351,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="28"/>
       <c r="C107" s="1"/>
@@ -5362,7 +5368,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="28"/>
       <c r="C108" s="1"/>
@@ -5379,7 +5385,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="28"/>
       <c r="C109" s="1"/>
@@ -5396,7 +5402,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="28"/>
       <c r="C110" s="1"/>
@@ -5413,7 +5419,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="28"/>
       <c r="C111" s="1"/>
@@ -5430,7 +5436,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="28"/>
       <c r="C112" s="1"/>
@@ -5447,7 +5453,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="28"/>
       <c r="C113" s="1"/>
@@ -5464,7 +5470,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="28"/>
       <c r="C114" s="1"/>
@@ -5481,7 +5487,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="28"/>
       <c r="C115" s="1"/>
@@ -5498,7 +5504,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="28"/>
       <c r="C116" s="1"/>
@@ -5515,7 +5521,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="28"/>
       <c r="C117" s="1"/>
@@ -5532,7 +5538,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="28"/>
       <c r="C118" s="1"/>
@@ -5549,7 +5555,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="28"/>
       <c r="C119" s="1"/>
@@ -5566,7 +5572,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="28"/>
       <c r="C120" s="1"/>
@@ -5583,7 +5589,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="28"/>
       <c r="C121" s="1"/>
@@ -5600,7 +5606,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="28"/>
       <c r="C122" s="1"/>
@@ -5617,7 +5623,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="28"/>
       <c r="C123" s="1"/>
@@ -5634,7 +5640,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="28"/>
       <c r="C124" s="1"/>
@@ -5651,7 +5657,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="28"/>
       <c r="C125" s="1"/>
@@ -5668,7 +5674,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="28"/>
       <c r="C126" s="1"/>
@@ -5685,7 +5691,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="28"/>
       <c r="C127" s="1"/>
@@ -5702,7 +5708,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="28"/>
       <c r="C128" s="1"/>
@@ -5719,7 +5725,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="28"/>
       <c r="C129" s="1"/>
@@ -5736,7 +5742,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="28"/>
       <c r="C130" s="1"/>
@@ -5753,7 +5759,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="28"/>
       <c r="C131" s="1"/>
@@ -5770,7 +5776,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="28"/>
       <c r="C132" s="1"/>
@@ -5787,7 +5793,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="28"/>
       <c r="C133" s="1"/>
@@ -5804,7 +5810,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="28"/>
       <c r="C134" s="1"/>
@@ -5821,7 +5827,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="28"/>
       <c r="C135" s="1"/>
@@ -5838,7 +5844,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="28"/>
       <c r="C136" s="1"/>
@@ -5855,7 +5861,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="28"/>
       <c r="C137" s="1"/>
@@ -5872,7 +5878,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="28"/>
       <c r="C138" s="1"/>
@@ -5889,7 +5895,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="28"/>
       <c r="C139" s="1"/>
@@ -5906,7 +5912,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="28"/>
       <c r="C140" s="1"/>
@@ -5923,7 +5929,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="28"/>
       <c r="C141" s="1"/>
@@ -5940,7 +5946,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="28"/>
       <c r="C142" s="1"/>
@@ -5957,7 +5963,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="28"/>
       <c r="C143" s="1"/>
@@ -5974,7 +5980,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="28"/>
       <c r="C144" s="1"/>
@@ -5991,7 +5997,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="28"/>
       <c r="C145" s="1"/>
@@ -6008,7 +6014,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="28"/>
       <c r="C146" s="1"/>
@@ -6025,7 +6031,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="28"/>
       <c r="C147" s="1"/>
@@ -6042,7 +6048,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="28"/>
       <c r="C148" s="1"/>
@@ -6059,7 +6065,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="28"/>
       <c r="C149" s="1"/>
@@ -6076,7 +6082,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="28"/>
       <c r="C150" s="1"/>
@@ -6093,7 +6099,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="28"/>
       <c r="C151" s="1"/>
@@ -6110,7 +6116,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="28"/>
       <c r="C152" s="1"/>
@@ -6127,7 +6133,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="28"/>
       <c r="C153" s="1"/>
@@ -6144,7 +6150,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="28"/>
       <c r="C154" s="1"/>
@@ -6161,7 +6167,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="28"/>
       <c r="C155" s="1"/>
@@ -6178,7 +6184,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="28"/>
       <c r="C156" s="1"/>
@@ -6195,7 +6201,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="28"/>
       <c r="C157" s="1"/>
@@ -6212,7 +6218,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="28"/>
       <c r="C158" s="1"/>
@@ -6229,7 +6235,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="28"/>
       <c r="C159" s="1"/>
@@ -6246,7 +6252,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="28"/>
       <c r="C160" s="1"/>
@@ -6263,7 +6269,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="28"/>
       <c r="C161" s="1"/>
@@ -6280,7 +6286,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="28"/>
       <c r="C162" s="1"/>
@@ -6297,7 +6303,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="28"/>
       <c r="C163" s="1"/>
@@ -6314,7 +6320,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="28"/>
       <c r="C164" s="1"/>
@@ -6331,7 +6337,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="28"/>
       <c r="C165" s="1"/>
@@ -6348,7 +6354,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="28"/>
       <c r="C166" s="1"/>
@@ -6365,7 +6371,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="28"/>
       <c r="C167" s="1"/>
@@ -6382,7 +6388,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="28"/>
       <c r="C168" s="1"/>
@@ -6399,7 +6405,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="28"/>
       <c r="C169" s="1"/>
@@ -6416,7 +6422,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="28"/>
       <c r="C170" s="1"/>
@@ -6433,7 +6439,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="28"/>
       <c r="C171" s="1"/>
@@ -6450,7 +6456,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="28"/>
       <c r="C172" s="1"/>
@@ -6467,7 +6473,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="28"/>
       <c r="C173" s="1"/>
@@ -6484,7 +6490,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="28"/>
       <c r="C174" s="1"/>
@@ -6501,7 +6507,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="28"/>
       <c r="C175" s="1"/>
@@ -6518,7 +6524,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="B176" s="28"/>
       <c r="C176" s="1"/>
@@ -6535,7 +6541,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="28"/>
       <c r="C177" s="1"/>
@@ -6552,7 +6558,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="B178" s="28"/>
       <c r="C178" s="1"/>
@@ -6569,7 +6575,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="B179" s="28"/>
       <c r="C179" s="1"/>
@@ -6586,7 +6592,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="B180" s="28"/>
       <c r="C180" s="1"/>
@@ -6603,7 +6609,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="28"/>
       <c r="C181" s="1"/>
@@ -6620,7 +6626,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="28"/>
       <c r="C182" s="1"/>
@@ -6637,7 +6643,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="B183" s="28"/>
       <c r="C183" s="1"/>
@@ -6654,7 +6660,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="B184" s="28"/>
       <c r="C184" s="1"/>
@@ -6671,7 +6677,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
       <c r="B185" s="28"/>
       <c r="C185" s="1"/>
@@ -6688,7 +6694,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
       <c r="B186" s="28"/>
       <c r="C186" s="1"/>
@@ -6705,7 +6711,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
       <c r="B187" s="28"/>
       <c r="C187" s="1"/>
@@ -6722,7 +6728,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="B188" s="28"/>
       <c r="C188" s="1"/>
@@ -6739,7 +6745,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="B189" s="28"/>
       <c r="C189" s="1"/>
@@ -6756,7 +6762,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
       <c r="B190" s="28"/>
       <c r="C190" s="1"/>
@@ -6773,7 +6779,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
       <c r="B191" s="28"/>
       <c r="C191" s="1"/>
@@ -6790,7 +6796,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="B192" s="28"/>
       <c r="C192" s="1"/>
@@ -6807,7 +6813,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="28"/>
       <c r="C193" s="1"/>
@@ -6824,7 +6830,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
       <c r="B194" s="28"/>
       <c r="C194" s="1"/>
@@ -6841,7 +6847,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
       <c r="B195" s="28"/>
       <c r="C195" s="1"/>
@@ -6858,7 +6864,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
       <c r="B196" s="28"/>
       <c r="C196" s="1"/>
@@ -6875,7 +6881,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="28"/>
       <c r="C197" s="1"/>
@@ -6892,7 +6898,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
       <c r="B198" s="28"/>
       <c r="C198" s="1"/>
@@ -6909,7 +6915,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
       <c r="B199" s="28"/>
       <c r="C199" s="1"/>
@@ -6926,7 +6932,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
       <c r="B200" s="28"/>
       <c r="C200" s="1"/>
@@ -6943,7 +6949,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
       <c r="B201" s="28"/>
       <c r="C201" s="1"/>
@@ -6960,7 +6966,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
       <c r="B202" s="28"/>
       <c r="C202" s="1"/>
@@ -6977,7 +6983,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
       <c r="B203" s="28"/>
       <c r="C203" s="1"/>
@@ -6994,7 +7000,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
       <c r="B204" s="28"/>
       <c r="C204" s="1"/>
@@ -7011,7 +7017,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
       <c r="B205" s="28"/>
       <c r="C205" s="1"/>
@@ -7028,7 +7034,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
       <c r="B206" s="28"/>
       <c r="C206" s="1"/>
@@ -7045,7 +7051,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
       <c r="B207" s="28"/>
       <c r="C207" s="1"/>
@@ -7062,7 +7068,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
       <c r="B208" s="28"/>
       <c r="C208" s="1"/>
@@ -7079,7 +7085,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
       <c r="B209" s="28"/>
       <c r="C209" s="1"/>
@@ -7096,7 +7102,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
       <c r="B210" s="28"/>
       <c r="C210" s="1"/>
@@ -7113,7 +7119,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
       <c r="B211" s="28"/>
       <c r="C211" s="1"/>
@@ -7130,7 +7136,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
       <c r="B212" s="28"/>
       <c r="C212" s="1"/>
@@ -7147,7 +7153,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
       <c r="B213" s="28"/>
       <c r="C213" s="1"/>
@@ -7164,7 +7170,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="1"/>
       <c r="B214" s="28"/>
       <c r="C214" s="1"/>
@@ -7181,7 +7187,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="1"/>
       <c r="B215" s="28"/>
       <c r="C215" s="1"/>
@@ -7198,7 +7204,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="1"/>
       <c r="B216" s="28"/>
       <c r="C216" s="1"/>
@@ -7215,7 +7221,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="1"/>
       <c r="B217" s="28"/>
       <c r="C217" s="1"/>
@@ -7232,7 +7238,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
       <c r="B218" s="28"/>
       <c r="C218" s="1"/>
@@ -7249,7 +7255,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
       <c r="B219" s="28"/>
       <c r="C219" s="1"/>
@@ -7266,7 +7272,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="1"/>
       <c r="B220" s="28"/>
       <c r="C220" s="1"/>
@@ -7283,7 +7289,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
       <c r="B221" s="28"/>
       <c r="C221" s="1"/>
@@ -7300,7 +7306,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
       <c r="B222" s="28"/>
       <c r="C222" s="1"/>
@@ -7317,7 +7323,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
       <c r="B223" s="28"/>
       <c r="C223" s="1"/>
@@ -7334,7 +7340,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="1"/>
       <c r="B224" s="28"/>
       <c r="C224" s="1"/>
@@ -7351,7 +7357,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="1"/>
       <c r="B225" s="28"/>
       <c r="C225" s="1"/>
@@ -7368,7 +7374,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="1"/>
       <c r="B226" s="28"/>
       <c r="C226" s="1"/>
@@ -7385,7 +7391,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="1"/>
       <c r="B227" s="28"/>
       <c r="C227" s="1"/>
@@ -7402,7 +7408,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
       <c r="B228" s="28"/>
       <c r="C228" s="1"/>
@@ -7419,7 +7425,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="1"/>
       <c r="B229" s="28"/>
       <c r="C229" s="1"/>
@@ -7436,7 +7442,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="1"/>
       <c r="B230" s="28"/>
       <c r="C230" s="1"/>
@@ -7453,7 +7459,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="1"/>
       <c r="B231" s="28"/>
       <c r="C231" s="1"/>
@@ -7470,7 +7476,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="1"/>
       <c r="B232" s="28"/>
       <c r="C232" s="1"/>
@@ -7487,7 +7493,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="1"/>
       <c r="B233" s="28"/>
       <c r="C233" s="1"/>
@@ -7504,7 +7510,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="1"/>
       <c r="B234" s="28"/>
       <c r="C234" s="1"/>
@@ -7521,7 +7527,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="1"/>
       <c r="B235" s="28"/>
       <c r="C235" s="1"/>
@@ -7538,7 +7544,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="1"/>
       <c r="B236" s="28"/>
       <c r="C236" s="1"/>
@@ -7555,7 +7561,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="1"/>
       <c r="B237" s="28"/>
       <c r="C237" s="1"/>
@@ -7572,7 +7578,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="1"/>
       <c r="B238" s="28"/>
       <c r="C238" s="1"/>
@@ -7589,7 +7595,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="1"/>
       <c r="B239" s="28"/>
       <c r="C239" s="1"/>
@@ -7606,7 +7612,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="1"/>
       <c r="B240" s="28"/>
       <c r="C240" s="1"/>
@@ -7623,7 +7629,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="1"/>
       <c r="B241" s="28"/>
       <c r="C241" s="1"/>
@@ -7640,7 +7646,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="1"/>
       <c r="B242" s="28"/>
       <c r="C242" s="1"/>
@@ -7657,7 +7663,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="1"/>
       <c r="B243" s="28"/>
       <c r="C243" s="1"/>
@@ -7674,7 +7680,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="1"/>
       <c r="B244" s="28"/>
       <c r="C244" s="1"/>
@@ -7691,7 +7697,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="1"/>
       <c r="B245" s="28"/>
       <c r="C245" s="1"/>
@@ -7708,7 +7714,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="1"/>
       <c r="B246" s="28"/>
       <c r="C246" s="1"/>
@@ -7725,7 +7731,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="1"/>
       <c r="B247" s="28"/>
       <c r="C247" s="1"/>
@@ -7742,7 +7748,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="1"/>
       <c r="B248" s="28"/>
       <c r="C248" s="1"/>
@@ -7759,7 +7765,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="1"/>
       <c r="B249" s="28"/>
       <c r="C249" s="1"/>
@@ -7776,7 +7782,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="1"/>
       <c r="B250" s="28"/>
       <c r="C250" s="1"/>
@@ -7793,7 +7799,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="1"/>
       <c r="B251" s="28"/>
       <c r="C251" s="1"/>
@@ -7810,7 +7816,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="1"/>
       <c r="B252" s="28"/>
       <c r="C252" s="1"/>
@@ -7827,7 +7833,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="1"/>
       <c r="B253" s="28"/>
       <c r="C253" s="1"/>
@@ -7844,7 +7850,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="1"/>
       <c r="B254" s="28"/>
       <c r="C254" s="1"/>
@@ -7861,7 +7867,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="1"/>
       <c r="B255" s="28"/>
       <c r="C255" s="1"/>
@@ -7878,7 +7884,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="1"/>
       <c r="B256" s="28"/>
       <c r="C256" s="1"/>
@@ -7895,7 +7901,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="1"/>
       <c r="B257" s="28"/>
       <c r="C257" s="1"/>
@@ -7912,7 +7918,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="1"/>
       <c r="B258" s="28"/>
       <c r="C258" s="1"/>
@@ -7929,7 +7935,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="1"/>
       <c r="B259" s="28"/>
       <c r="C259" s="1"/>
@@ -7946,7 +7952,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="1"/>
       <c r="B260" s="28"/>
       <c r="C260" s="1"/>
@@ -7963,7 +7969,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="1"/>
       <c r="B261" s="28"/>
       <c r="C261" s="1"/>
@@ -7980,7 +7986,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="1"/>
       <c r="B262" s="28"/>
       <c r="C262" s="1"/>
@@ -7997,7 +8003,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="1"/>
       <c r="B263" s="28"/>
       <c r="C263" s="1"/>
@@ -8014,7 +8020,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="1"/>
       <c r="B264" s="28"/>
       <c r="C264" s="1"/>
@@ -8031,7 +8037,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="1"/>
       <c r="B265" s="28"/>
       <c r="C265" s="1"/>
@@ -8048,7 +8054,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="1"/>
       <c r="B266" s="28"/>
       <c r="C266" s="1"/>
@@ -8065,7 +8071,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="1"/>
       <c r="B267" s="28"/>
       <c r="C267" s="1"/>
@@ -8082,7 +8088,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="1"/>
       <c r="B268" s="28"/>
       <c r="C268" s="1"/>
@@ -8099,7 +8105,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="1"/>
       <c r="B269" s="28"/>
       <c r="C269" s="1"/>
@@ -8116,7 +8122,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="1"/>
       <c r="B270" s="28"/>
       <c r="C270" s="1"/>
@@ -8133,7 +8139,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="1"/>
       <c r="B271" s="28"/>
       <c r="C271" s="1"/>
@@ -8150,7 +8156,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="1"/>
       <c r="B272" s="28"/>
       <c r="C272" s="1"/>
@@ -8167,7 +8173,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="1"/>
       <c r="B273" s="28"/>
       <c r="C273" s="1"/>
@@ -8184,7 +8190,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="1"/>
       <c r="B274" s="28"/>
       <c r="C274" s="1"/>
@@ -8201,7 +8207,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="1"/>
       <c r="B275" s="28"/>
       <c r="C275" s="1"/>
@@ -8218,7 +8224,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="1"/>
       <c r="B276" s="28"/>
       <c r="C276" s="1"/>
@@ -8235,7 +8241,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="1"/>
       <c r="B277" s="28"/>
       <c r="C277" s="1"/>
@@ -8252,7 +8258,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="1"/>
       <c r="B278" s="28"/>
       <c r="C278" s="1"/>
@@ -8269,7 +8275,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="1"/>
       <c r="B279" s="28"/>
       <c r="C279" s="1"/>
@@ -8286,7 +8292,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="1"/>
       <c r="B280" s="28"/>
       <c r="C280" s="1"/>
@@ -8303,7 +8309,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="1"/>
       <c r="B281" s="28"/>
       <c r="C281" s="1"/>
@@ -8320,7 +8326,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="1"/>
       <c r="B282" s="28"/>
       <c r="C282" s="1"/>
@@ -8337,7 +8343,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="1"/>
       <c r="B283" s="28"/>
       <c r="C283" s="1"/>
@@ -8354,7 +8360,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="1"/>
       <c r="B284" s="28"/>
       <c r="C284" s="1"/>
@@ -8371,7 +8377,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="1"/>
       <c r="B285" s="28"/>
       <c r="C285" s="1"/>
@@ -8388,7 +8394,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="1"/>
       <c r="B286" s="28"/>
       <c r="C286" s="1"/>
@@ -8405,7 +8411,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="1"/>
       <c r="B287" s="28"/>
       <c r="C287" s="1"/>
@@ -8422,7 +8428,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="1"/>
       <c r="B288" s="28"/>
       <c r="C288" s="1"/>
@@ -8439,7 +8445,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="1"/>
       <c r="B289" s="28"/>
       <c r="C289" s="1"/>
@@ -8456,7 +8462,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="1"/>
       <c r="B290" s="28"/>
       <c r="C290" s="1"/>
@@ -8473,7 +8479,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="1"/>
       <c r="B291" s="28"/>
       <c r="C291" s="1"/>
@@ -8490,7 +8496,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="1"/>
       <c r="B292" s="28"/>
       <c r="C292" s="1"/>
@@ -8507,7 +8513,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="1"/>
       <c r="B293" s="28"/>
       <c r="C293" s="1"/>
@@ -8524,7 +8530,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="1"/>
       <c r="B294" s="28"/>
       <c r="C294" s="1"/>
@@ -8541,7 +8547,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="1"/>
       <c r="B295" s="28"/>
       <c r="C295" s="1"/>
@@ -8558,7 +8564,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="1"/>
       <c r="B296" s="28"/>
       <c r="C296" s="1"/>
@@ -8575,7 +8581,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="1"/>
       <c r="B297" s="28"/>
       <c r="C297" s="1"/>
@@ -8592,7 +8598,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="1"/>
       <c r="B298" s="28"/>
       <c r="C298" s="1"/>
@@ -8609,7 +8615,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="1"/>
       <c r="B299" s="28"/>
       <c r="C299" s="1"/>
@@ -8626,7 +8632,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="1"/>
       <c r="B300" s="28"/>
       <c r="C300" s="1"/>
@@ -8646,14 +8652,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G14 G16:G30 G37 G39:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1:G4 G7:G8 G13:G14 G16:G30 G37 G39:G1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8663,14 +8669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -8681,7 +8687,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -8704,8 +8710,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="103">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="105">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -8727,8 +8733,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="103"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="105"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -8748,8 +8754,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="103"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="105"/>
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
@@ -8769,8 +8775,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="103">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="105">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -8792,8 +8798,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="103"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="105"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
@@ -8813,8 +8819,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="103"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="105"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
@@ -8834,8 +8840,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="103">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
       <c r="B8" s="65" t="s">
@@ -8857,8 +8863,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="103"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="105"/>
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
@@ -8878,8 +8884,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="103"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="105"/>
       <c r="B10" s="62" t="s">
         <v>77</v>
       </c>
@@ -8897,8 +8903,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="103"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="105"/>
       <c r="B11" s="62" t="s">
         <v>78</v>
       </c>
@@ -8918,8 +8924,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="103">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="105">
         <v>4</v>
       </c>
       <c r="B12" s="65" t="s">
@@ -8941,8 +8947,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="103"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="105"/>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
@@ -8962,8 +8968,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="103"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="105"/>
       <c r="B14" s="62" t="s">
         <v>77</v>
       </c>
@@ -8981,8 +8987,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="103"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="105"/>
       <c r="B15" s="62" t="s">
         <v>78</v>
       </c>
@@ -9002,8 +9008,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="103"/>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="105"/>
       <c r="B16" s="67" t="s">
         <v>82</v>
       </c>
@@ -9021,8 +9027,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="103"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="105"/>
       <c r="B17" s="67" t="s">
         <v>83</v>
       </c>
@@ -9040,8 +9046,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="103"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="105"/>
       <c r="B18" s="16" t="s">
         <v>108</v>
       </c>
@@ -9059,8 +9065,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="103"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="105"/>
       <c r="B19" s="16" t="s">
         <v>107</v>
       </c>
@@ -9078,8 +9084,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="103"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="105"/>
       <c r="B20" s="17"/>
       <c r="C20" s="70"/>
       <c r="D20" s="18"/>
@@ -9087,8 +9093,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="103"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="105"/>
       <c r="B21" s="17"/>
       <c r="C21" s="70"/>
       <c r="D21" s="18"/>
@@ -9096,8 +9102,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="100">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="102">
         <v>5</v>
       </c>
       <c r="B22" s="67" t="s">
@@ -9117,8 +9123,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="101"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="103"/>
       <c r="B23" s="67" t="s">
         <v>83</v>
       </c>
@@ -9136,8 +9142,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="103"/>
       <c r="B24" s="67" t="s">
         <v>84</v>
       </c>
@@ -9155,8 +9161,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="101"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="103"/>
       <c r="B25" s="67" t="s">
         <v>85</v>
       </c>
@@ -9174,8 +9180,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="102"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="104"/>
       <c r="B26" s="1"/>
       <c r="C26" s="28"/>
       <c r="D26" s="18"/>
@@ -9183,8 +9189,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="100">
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="102">
         <v>8</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -9209,8 +9215,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="102"/>
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="104"/>
       <c r="B28" s="19" t="s">
         <v>104</v>
       </c>
@@ -9230,7 +9236,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="86"/>
       <c r="B29" s="89"/>
       <c r="C29" s="71"/>
@@ -9239,8 +9245,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="103">
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="105">
         <v>16</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -9262,8 +9268,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="103"/>
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="105"/>
       <c r="B31" s="17" t="s">
         <v>172</v>
       </c>
@@ -9283,8 +9289,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="103"/>
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="105"/>
       <c r="B32" s="74" t="s">
         <v>175</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="79"/>
       <c r="B33" s="1"/>
       <c r="C33" s="28"/>
@@ -9313,8 +9319,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="14.25">
-      <c r="A34" s="103">
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="105">
         <v>17</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -9336,8 +9342,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="103"/>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="105"/>
       <c r="B35" s="17" t="s">
         <v>172</v>
       </c>
@@ -9357,8 +9363,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="103"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="105"/>
       <c r="B36" s="74" t="s">
         <v>181</v>
       </c>
@@ -9378,8 +9384,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="103"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="105"/>
       <c r="B37" s="74" t="s">
         <v>182</v>
       </c>
@@ -9399,8 +9405,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="103"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="105"/>
       <c r="B38" s="74" t="s">
         <v>183</v>
       </c>
@@ -9420,8 +9426,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="103">
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="105">
         <v>18</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -9443,8 +9449,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="103"/>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="105"/>
       <c r="B40" s="17" t="s">
         <v>172</v>
       </c>
@@ -9464,8 +9470,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="103"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="105"/>
       <c r="B41" s="74" t="s">
         <v>181</v>
       </c>
@@ -9485,8 +9491,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="103"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="105"/>
       <c r="B42" s="74" t="s">
         <v>182</v>
       </c>
@@ -9506,8 +9512,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="103"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="105"/>
       <c r="B43" s="74" t="s">
         <v>183</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="79"/>
       <c r="B44" s="17"/>
       <c r="C44" s="70"/>
@@ -9536,7 +9542,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="79"/>
       <c r="B45" s="17"/>
       <c r="C45" s="70"/>
@@ -9545,7 +9551,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="79"/>
       <c r="B46" s="17"/>
       <c r="C46" s="70"/>
@@ -9554,7 +9560,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="79"/>
       <c r="B47" s="17"/>
       <c r="C47" s="70"/>
@@ -9563,7 +9569,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="79"/>
       <c r="B48" s="17"/>
       <c r="C48" s="70"/>
@@ -9572,7 +9578,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="79"/>
       <c r="B49" s="17"/>
       <c r="C49" s="70"/>
@@ -9581,7 +9587,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="79"/>
       <c r="B50" s="1"/>
       <c r="C50" s="28"/>
@@ -9590,7 +9596,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="79"/>
       <c r="B51" s="1"/>
       <c r="C51" s="28"/>
@@ -9599,7 +9605,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="79"/>
       <c r="B52" s="1"/>
       <c r="C52" s="28"/>
@@ -9608,7 +9614,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="79"/>
       <c r="B53" s="1"/>
       <c r="C53" s="28"/>
@@ -9617,7 +9623,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="79"/>
       <c r="B54" s="1"/>
       <c r="C54" s="28"/>
@@ -9626,7 +9632,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="79"/>
       <c r="B55" s="1"/>
       <c r="C55" s="28"/>
@@ -9635,7 +9641,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="80"/>
       <c r="B56" s="17"/>
       <c r="C56" s="70"/>
@@ -9644,8 +9650,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="102"/>
       <c r="B57" s="17"/>
       <c r="C57" s="71"/>
       <c r="D57" s="20"/>
@@ -9653,8 +9659,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="101"/>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="103"/>
       <c r="B58" s="17"/>
       <c r="C58" s="70"/>
       <c r="D58" s="20"/>
@@ -9662,8 +9668,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="101"/>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="103"/>
       <c r="B59" s="17"/>
       <c r="C59" s="70"/>
       <c r="D59" s="20"/>
@@ -9671,8 +9677,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="101"/>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="103"/>
       <c r="B60" s="17"/>
       <c r="C60" s="70"/>
       <c r="D60" s="20"/>
@@ -9680,8 +9686,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="101"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="103"/>
       <c r="B61" s="17"/>
       <c r="C61" s="70"/>
       <c r="D61" s="18"/>
@@ -9689,8 +9695,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="101"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="103"/>
       <c r="B62" s="17"/>
       <c r="C62" s="70"/>
       <c r="D62" s="18"/>
@@ -9698,8 +9704,8 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="101"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="103"/>
       <c r="B63" s="17"/>
       <c r="C63" s="70"/>
       <c r="D63" s="18"/>
@@ -9707,8 +9713,8 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="101"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="103"/>
       <c r="B64" s="17"/>
       <c r="C64" s="70"/>
       <c r="D64" s="18"/>
@@ -9716,8 +9722,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="101"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="103"/>
       <c r="B65" s="17"/>
       <c r="C65" s="70"/>
       <c r="D65" s="18"/>
@@ -9725,8 +9731,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="101"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="103"/>
       <c r="B66" s="17"/>
       <c r="C66" s="70"/>
       <c r="D66" s="18"/>
@@ -9734,8 +9740,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="101"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="103"/>
       <c r="B67" s="17"/>
       <c r="C67" s="70"/>
       <c r="D67" s="18"/>
@@ -9743,8 +9749,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="102"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="104"/>
       <c r="B68" s="17"/>
       <c r="C68" s="70"/>
       <c r="D68" s="18"/>
@@ -9752,8 +9758,8 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="100"/>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="102"/>
       <c r="B69" s="17"/>
       <c r="C69" s="71"/>
       <c r="D69" s="20"/>
@@ -9761,8 +9767,8 @@
       <c r="F69" s="1"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="101"/>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="103"/>
       <c r="B70" s="17"/>
       <c r="C70" s="70"/>
       <c r="D70" s="20"/>
@@ -9770,8 +9776,8 @@
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="101"/>
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="103"/>
       <c r="B71" s="17"/>
       <c r="C71" s="70"/>
       <c r="D71" s="20"/>
@@ -9779,8 +9785,8 @@
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="101"/>
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="103"/>
       <c r="B72" s="17"/>
       <c r="C72" s="70"/>
       <c r="D72" s="20"/>
@@ -9788,8 +9794,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="101"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="103"/>
       <c r="B73" s="17"/>
       <c r="C73" s="70"/>
       <c r="D73" s="18"/>
@@ -9797,8 +9803,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="101"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="103"/>
       <c r="B74" s="17"/>
       <c r="C74" s="70"/>
       <c r="D74" s="18"/>
@@ -9806,8 +9812,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="101"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="103"/>
       <c r="B75" s="17"/>
       <c r="C75" s="70"/>
       <c r="D75" s="18"/>
@@ -9815,8 +9821,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="101"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="103"/>
       <c r="B76" s="17"/>
       <c r="C76" s="70"/>
       <c r="D76" s="18"/>
@@ -9824,8 +9830,8 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="101"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="103"/>
       <c r="B77" s="17"/>
       <c r="C77" s="70"/>
       <c r="D77" s="18"/>
@@ -9833,8 +9839,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="101"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="103"/>
       <c r="B78" s="17"/>
       <c r="C78" s="70"/>
       <c r="D78" s="18"/>
@@ -9842,8 +9848,8 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="101"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="103"/>
       <c r="B79" s="17"/>
       <c r="C79" s="70"/>
       <c r="D79" s="18"/>
@@ -9851,8 +9857,8 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="102"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="104"/>
       <c r="B80" s="17"/>
       <c r="C80" s="70"/>
       <c r="D80" s="18"/>
@@ -9860,8 +9866,8 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="101"/>
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="103"/>
       <c r="B81" s="17"/>
       <c r="C81" s="70"/>
       <c r="D81" s="20"/>
@@ -9869,8 +9875,8 @@
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="101"/>
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="103"/>
       <c r="B82" s="17"/>
       <c r="C82" s="70"/>
       <c r="D82" s="20"/>
@@ -9878,8 +9884,8 @@
       <c r="F82" s="1"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="101"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="103"/>
       <c r="B83" s="17"/>
       <c r="C83" s="70"/>
       <c r="D83" s="18"/>
@@ -9887,8 +9893,8 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="101"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="103"/>
       <c r="B84" s="17"/>
       <c r="C84" s="70"/>
       <c r="D84" s="18"/>
@@ -9896,8 +9902,8 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="101"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="103"/>
       <c r="B85" s="17"/>
       <c r="C85" s="70"/>
       <c r="D85" s="18"/>
@@ -9905,8 +9911,8 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="101"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="103"/>
       <c r="B86" s="17"/>
       <c r="C86" s="70"/>
       <c r="D86" s="18"/>
@@ -9914,8 +9920,8 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="101"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="103"/>
       <c r="B87" s="17"/>
       <c r="C87" s="70"/>
       <c r="D87" s="18"/>
@@ -9923,8 +9929,8 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="101"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="103"/>
       <c r="B88" s="17"/>
       <c r="C88" s="70"/>
       <c r="D88" s="18"/>
@@ -9932,8 +9938,8 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="101"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="103"/>
       <c r="B89" s="17"/>
       <c r="C89" s="70"/>
       <c r="D89" s="18"/>
@@ -9941,8 +9947,8 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="102"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="104"/>
       <c r="B90" s="17"/>
       <c r="C90" s="70"/>
       <c r="D90" s="18"/>
@@ -9967,11 +9973,11 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9981,14 +9987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -9997,7 +10003,7 @@
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10011,7 +10017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>12</v>
       </c>
@@ -10025,7 +10031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10039,7 +10045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -10053,42 +10059,42 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>

--- a/周数据/《个人上线率统计表》-杨磊.xlsx
+++ b/周数据/《个人上线率统计表》-杨磊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1588,6 +1588,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1603,16 +1615,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1889,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1910,19 +1919,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="84"/>
       <c r="M1" s="84"/>
     </row>
@@ -2139,7 +2148,7 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="30">
+      <c r="A8" s="94">
         <v>5</v>
       </c>
       <c r="B8" s="36">
@@ -2172,7 +2181,7 @@
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="36">
         <v>19</v>
       </c>
@@ -2204,7 +2213,7 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="31">
         <v>20</v>
       </c>
@@ -2239,8 +2248,10 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="31">
+        <v>21</v>
+      </c>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -2349,8 +2360,9 @@
       <c r="M14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2362,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -4167,7 +4179,7 @@
       <c r="O43" s="77"/>
     </row>
     <row r="44" spans="1:15" s="9" customFormat="1">
-      <c r="A44" s="86">
+      <c r="A44" s="90">
         <v>20</v>
       </c>
       <c r="B44" s="67">
@@ -4214,7 +4226,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="87"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="67">
         <v>43235</v>
       </c>
@@ -4259,7 +4271,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="87"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="67">
         <v>43235</v>
       </c>
@@ -4304,7 +4316,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="87"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="67">
         <v>43235</v>
       </c>
@@ -4348,53 +4360,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="92" customFormat="1">
-      <c r="A48" s="87"/>
-      <c r="B48" s="90">
+    <row r="48" spans="1:15" s="87" customFormat="1">
+      <c r="A48" s="91"/>
+      <c r="B48" s="85">
         <v>43235</v>
       </c>
-      <c r="C48" s="91" t="s">
+      <c r="C48" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="D48" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="E48" s="91" t="s">
+      <c r="E48" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F48" s="91" t="s">
+      <c r="F48" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="91">
+      <c r="G48" s="86">
         <v>76121892</v>
       </c>
-      <c r="H48" s="91" t="s">
+      <c r="H48" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="91" t="s">
+      <c r="I48" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="91" t="s">
+      <c r="J48" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="91">
+      <c r="K48" s="86">
         <v>18061296271</v>
       </c>
-      <c r="L48" s="91" t="s">
+      <c r="L48" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="M48" s="91" t="s">
+      <c r="M48" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="N48" s="93">
+      <c r="N48" s="88">
         <v>13182829987</v>
       </c>
-      <c r="O48" s="91" t="s">
+      <c r="O48" s="86" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="87"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="67">
         <v>43235</v>
       </c>
@@ -4439,7 +4451,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="88"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="67">
         <v>43235</v>
       </c>
@@ -8759,8 +8771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -8798,7 +8810,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="89">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -8821,7 +8833,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="89"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="13" t="s">
         <v>63</v>
       </c>
@@ -8842,7 +8854,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="89"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="16" t="s">
         <v>65</v>
       </c>
@@ -8863,7 +8875,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="89">
+      <c r="A5" s="93">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -8886,7 +8898,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="89"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="15" t="s">
         <v>63</v>
       </c>
@@ -8907,7 +8919,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="89"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="16" t="s">
         <v>65</v>
       </c>
@@ -8928,7 +8940,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="89">
+      <c r="A8" s="93">
         <v>3</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -8951,7 +8963,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="89"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="15" t="s">
         <v>63</v>
       </c>
@@ -8972,7 +8984,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="89"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="47" t="s">
         <v>75</v>
       </c>
@@ -8991,7 +9003,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="89"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="47" t="s">
         <v>76</v>
       </c>
@@ -9012,7 +9024,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="89">
+      <c r="A12" s="93">
         <v>4</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -9035,7 +9047,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="89"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
@@ -9056,7 +9068,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="89"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="47" t="s">
         <v>75</v>
       </c>
@@ -9075,7 +9087,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="89"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="47" t="s">
         <v>76</v>
       </c>
@@ -9096,7 +9108,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="52" t="s">
         <v>80</v>
       </c>
@@ -9115,7 +9127,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="89"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="52" t="s">
         <v>81</v>
       </c>
@@ -9134,7 +9146,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="89"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="16" t="s">
         <v>106</v>
       </c>
@@ -9153,7 +9165,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="89"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="16" t="s">
         <v>105</v>
       </c>
@@ -9172,7 +9184,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="89"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="17"/>
       <c r="C20" s="55"/>
       <c r="D20" s="18"/>
@@ -9181,7 +9193,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="89"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="17"/>
       <c r="C21" s="55"/>
       <c r="D21" s="18"/>
@@ -9190,7 +9202,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="86">
+      <c r="A22" s="90">
         <v>5</v>
       </c>
       <c r="B22" s="52" t="s">
@@ -9211,7 +9223,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="87"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="52" t="s">
         <v>81</v>
       </c>
@@ -9230,7 +9242,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="87"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="52" t="s">
         <v>82</v>
       </c>
@@ -9249,7 +9261,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="87"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="52" t="s">
         <v>83</v>
       </c>
@@ -9268,7 +9280,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="88"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="1"/>
       <c r="C26" s="27"/>
       <c r="D26" s="18"/>
@@ -9277,7 +9289,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="86">
+      <c r="A27" s="90">
         <v>8</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -9303,7 +9315,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="88"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="19" t="s">
         <v>102</v>
       </c>
@@ -9333,7 +9345,7 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="89">
+      <c r="A30" s="93">
         <v>16</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -9356,7 +9368,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="89"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="17" t="s">
         <v>170</v>
       </c>
@@ -9377,7 +9389,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="89"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="59" t="s">
         <v>173</v>
       </c>
@@ -9407,7 +9419,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="14.25">
-      <c r="A34" s="87">
+      <c r="A34" s="91">
         <v>17</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -9430,7 +9442,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="87"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="17" t="s">
         <v>170</v>
       </c>
@@ -9451,7 +9463,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="87"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="59" t="s">
         <v>173</v>
       </c>
@@ -9472,7 +9484,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="87"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="59" t="s">
         <v>179</v>
       </c>
@@ -9493,7 +9505,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="87"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="59" t="s">
         <v>180</v>
       </c>
@@ -9514,7 +9526,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="87"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="59" t="s">
         <v>181</v>
       </c>
@@ -9574,7 +9586,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="17"/>
       <c r="C43" s="56"/>
       <c r="D43" s="20"/>
@@ -9583,7 +9595,7 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="87"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="17"/>
       <c r="C44" s="55"/>
       <c r="D44" s="20"/>
@@ -9592,7 +9604,7 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="87"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="17"/>
       <c r="C45" s="55"/>
       <c r="D45" s="18"/>
@@ -9601,7 +9613,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="87"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="17"/>
       <c r="C46" s="55"/>
       <c r="D46" s="18"/>
@@ -9610,7 +9622,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="87"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="17"/>
       <c r="C47" s="55"/>
       <c r="D47" s="18"/>
@@ -9619,7 +9631,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="87"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="17"/>
       <c r="C48" s="55"/>
       <c r="D48" s="18"/>
@@ -9628,7 +9640,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="87"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="17"/>
       <c r="C49" s="55"/>
       <c r="D49" s="18"/>
@@ -9637,7 +9649,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="87"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="17"/>
       <c r="C50" s="55"/>
       <c r="D50" s="18"/>
@@ -9646,7 +9658,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="87"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="1"/>
       <c r="C51" s="27"/>
       <c r="D51" s="18"/>
@@ -9655,7 +9667,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="87"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="1"/>
       <c r="C52" s="27"/>
       <c r="D52" s="18"/>
@@ -9664,7 +9676,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="87"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="1"/>
       <c r="C53" s="27"/>
       <c r="D53" s="18"/>
@@ -9673,7 +9685,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="87"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="1"/>
       <c r="C54" s="27"/>
       <c r="D54" s="18"/>
@@ -9682,7 +9694,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="87"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="1"/>
       <c r="C55" s="27"/>
       <c r="D55" s="18"/>
@@ -9691,7 +9703,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="87"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="1"/>
       <c r="C56" s="27"/>
       <c r="D56" s="18"/>
@@ -9700,7 +9712,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="88"/>
+      <c r="A57" s="92"/>
       <c r="B57" s="17"/>
       <c r="C57" s="55"/>
       <c r="D57" s="18"/>
@@ -9709,7 +9721,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="86"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="17"/>
       <c r="C58" s="56"/>
       <c r="D58" s="20"/>
@@ -9718,7 +9730,7 @@
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="87"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="17"/>
       <c r="C59" s="55"/>
       <c r="D59" s="20"/>
@@ -9727,7 +9739,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="87"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="17"/>
       <c r="C60" s="55"/>
       <c r="D60" s="20"/>
@@ -9736,7 +9748,7 @@
       <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="14.25">
-      <c r="A61" s="87"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="17"/>
       <c r="C61" s="55"/>
       <c r="D61" s="20"/>
@@ -9745,7 +9757,7 @@
       <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="87"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="17"/>
       <c r="C62" s="55"/>
       <c r="D62" s="18"/>
@@ -9754,7 +9766,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="87"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="17"/>
       <c r="C63" s="55"/>
       <c r="D63" s="18"/>
@@ -9763,7 +9775,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="87"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="17"/>
       <c r="C64" s="55"/>
       <c r="D64" s="18"/>
@@ -9772,7 +9784,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="87"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="17"/>
       <c r="C65" s="55"/>
       <c r="D65" s="18"/>
@@ -9781,7 +9793,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="87"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="17"/>
       <c r="C66" s="55"/>
       <c r="D66" s="18"/>
@@ -9790,7 +9802,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="87"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="17"/>
       <c r="C67" s="55"/>
       <c r="D67" s="18"/>
@@ -9799,7 +9811,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="87"/>
+      <c r="A68" s="91"/>
       <c r="B68" s="17"/>
       <c r="C68" s="55"/>
       <c r="D68" s="18"/>
@@ -9808,7 +9820,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="88"/>
+      <c r="A69" s="92"/>
       <c r="B69" s="17"/>
       <c r="C69" s="55"/>
       <c r="D69" s="18"/>
@@ -9817,7 +9829,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="86"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="17"/>
       <c r="C70" s="56"/>
       <c r="D70" s="20"/>
@@ -9826,7 +9838,7 @@
       <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="87"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="17"/>
       <c r="C71" s="55"/>
       <c r="D71" s="20"/>
@@ -9835,7 +9847,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="87"/>
+      <c r="A72" s="91"/>
       <c r="B72" s="17"/>
       <c r="C72" s="55"/>
       <c r="D72" s="20"/>
@@ -9844,7 +9856,7 @@
       <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="14.25">
-      <c r="A73" s="87"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="17"/>
       <c r="C73" s="55"/>
       <c r="D73" s="20"/>
@@ -9853,7 +9865,7 @@
       <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="87"/>
+      <c r="A74" s="91"/>
       <c r="B74" s="17"/>
       <c r="C74" s="55"/>
       <c r="D74" s="18"/>
@@ -9862,7 +9874,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="87"/>
+      <c r="A75" s="91"/>
       <c r="B75" s="17"/>
       <c r="C75" s="55"/>
       <c r="D75" s="18"/>
@@ -9871,7 +9883,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="87"/>
+      <c r="A76" s="91"/>
       <c r="B76" s="17"/>
       <c r="C76" s="55"/>
       <c r="D76" s="18"/>
@@ -9880,7 +9892,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="87"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="17"/>
       <c r="C77" s="55"/>
       <c r="D77" s="18"/>
@@ -9889,7 +9901,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="87"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="17"/>
       <c r="C78" s="55"/>
       <c r="D78" s="18"/>
@@ -9898,7 +9910,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="87"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="17"/>
       <c r="C79" s="55"/>
       <c r="D79" s="18"/>
@@ -9907,7 +9919,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="87"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="17"/>
       <c r="C80" s="55"/>
       <c r="D80" s="18"/>
@@ -9916,7 +9928,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="88"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="17"/>
       <c r="C81" s="55"/>
       <c r="D81" s="18"/>
@@ -9925,7 +9937,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="87"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="17"/>
       <c r="C82" s="55"/>
       <c r="D82" s="20"/>
@@ -9934,7 +9946,7 @@
       <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="14.25">
-      <c r="A83" s="87"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="17"/>
       <c r="C83" s="55"/>
       <c r="D83" s="20"/>
@@ -9943,7 +9955,7 @@
       <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="87"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="17"/>
       <c r="C84" s="55"/>
       <c r="D84" s="18"/>
@@ -9952,7 +9964,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="87"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="17"/>
       <c r="C85" s="55"/>
       <c r="D85" s="18"/>
@@ -9961,7 +9973,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="87"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="17"/>
       <c r="C86" s="55"/>
       <c r="D86" s="18"/>
@@ -9970,7 +9982,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="87"/>
+      <c r="A87" s="91"/>
       <c r="B87" s="17"/>
       <c r="C87" s="55"/>
       <c r="D87" s="18"/>
@@ -9979,7 +9991,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="87"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="17"/>
       <c r="C88" s="55"/>
       <c r="D88" s="18"/>
@@ -9988,7 +10000,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="87"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="17"/>
       <c r="C89" s="55"/>
       <c r="D89" s="18"/>
@@ -9997,7 +10009,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="87"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="17"/>
       <c r="C90" s="55"/>
       <c r="D90" s="18"/>
@@ -10006,7 +10018,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="88"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="17"/>
       <c r="C91" s="55"/>
       <c r="D91" s="18"/>
@@ -10049,7 +10061,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
